--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\BoxSync\CGE\MPSGE-JL\CGE-GAMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\BoxSync\CGE\MPSGE-JL\CGE_GAMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F31FE8-8115-44B5-93A9-D9220B18A761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3589718-7868-4353-9D48-56B8D7FA7858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7460" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2960" yWindow="680" windowWidth="14400" windowHeight="7460" firstSheet="1" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
-    <sheet name="TwoxTwowCESProd" sheetId="2" r:id="rId2"/>
-    <sheet name="TwoxTwoJPMCP" sheetId="4" r:id="rId3"/>
+    <sheet name="TwoxTwoJPMGE" sheetId="4" r:id="rId2"/>
+    <sheet name="TwoxTwoCESProd" sheetId="5" r:id="rId3"/>
+    <sheet name="JPMGE" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>X.L</t>
   </si>
@@ -160,13 +161,22 @@
     <t>benchmark</t>
   </si>
   <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var</t>
+    <t>D_elas=0,Y=6.4</t>
+  </si>
+  <si>
+    <t>D_elas=0,P("g1")=1</t>
+  </si>
+  <si>
+    <t>D_elas=0,PF("l")=1</t>
+  </si>
+  <si>
+    <t>D_elas=2,Y=6.4</t>
+  </si>
+  <si>
+    <t>D_elas=2,P("g1")=1</t>
+  </si>
+  <si>
+    <t>D_elas=2,PF("l")=1</t>
   </si>
 </sst>
 </file>
@@ -521,7 +531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E1F9A-63EC-417B-A1CC-BD7ADDD403FF}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -866,395 +878,361 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26BEA0A-E988-4F0E-AD3E-BCABEA5BFF1C}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD2B994-3CF8-4777-9095-AA4EE6BD17EC}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>1.0505065385597352</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1.0505065382343373</v>
+        <v>2.0451802064036504</v>
       </c>
       <c r="E2">
-        <v>1.0505065382287513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.0451802370819108</v>
+      </c>
+      <c r="F2">
+        <v>2.0451802919810183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1.0324804194812658</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>1.0324804191372636</v>
+        <v>6.0860739182701407E-2</v>
       </c>
       <c r="E3">
-        <v>1.0324804191325847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.086076356764214E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.086084552975235E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>-5.5193379836564027E-2</v>
+      </c>
+      <c r="E4">
+        <v>-5.5193392289377918E-2</v>
+      </c>
+      <c r="F4">
+        <v>-5.5193504067180932E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3.9504307278899669</v>
+      </c>
+      <c r="E5">
+        <v>3.9504307230884512</v>
+      </c>
+      <c r="F5">
+        <v>3.9504305501987567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.0326001216388947</v>
+      </c>
+      <c r="E6">
+        <v>1.0326001259936644</v>
+      </c>
+      <c r="F6">
+        <v>1.0326000343166328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3.0648347967736447</v>
+      </c>
+      <c r="E7">
+        <v>3.064834804446523</v>
+      </c>
+      <c r="F7">
+        <v>3.0648345557341203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.95924193069378694</v>
+      </c>
+      <c r="E8">
+        <v>0.9592419253600557</v>
+      </c>
+      <c r="F8">
+        <v>0.95924189654998493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.94903405687412179</v>
+      </c>
+      <c r="E9">
+        <v>0.94903405146331443</v>
+      </c>
+      <c r="F9">
+        <v>0.94903401664811615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.99692561743703623</v>
+      </c>
+      <c r="E10">
+        <v>0.99692551627729664</v>
+      </c>
+      <c r="F10">
+        <v>0.99692550469586405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.0997573147220125</v>
+      </c>
+      <c r="E11">
+        <v>1.0997573321558107</v>
+      </c>
+      <c r="F11">
+        <v>1.0997574149564511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0444631320629607</v>
-      </c>
-      <c r="D4">
-        <v>1.0444631317247959</v>
-      </c>
-      <c r="E4">
-        <v>1.0444631317219772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.99634474244263849</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1.0950935908893114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="D12">
+        <v>2.1058245831306932</v>
+      </c>
+      <c r="E12">
+        <v>2.1058245422905744</v>
+      </c>
+      <c r="F12">
+        <v>2.1058244871455893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1.0137399672541887</v>
-      </c>
-      <c r="D6">
-        <v>1.0174590420922098</v>
-      </c>
-      <c r="E6">
-        <v>1.1142128759827274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1.0021097293777177</v>
-      </c>
-      <c r="D7">
-        <v>1.0057861367468626</v>
-      </c>
-      <c r="E7">
-        <v>1.1014299521552819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="D13">
+        <v>4.2894913950323108</v>
+      </c>
+      <c r="E13">
+        <v>4.2894913553977609</v>
+      </c>
+      <c r="F13">
+        <v>4.2894913534466479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1.0130631726983996</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.0372737425956957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.99467891964812094</v>
+      </c>
+      <c r="E15">
+        <v>0.98185280030971178</v>
+      </c>
+      <c r="F15">
+        <v>1.018450090273892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.97665931609651746</v>
+      </c>
+      <c r="E16">
+        <v>0.964065549521817</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1.0513495045804355</v>
+      </c>
+      <c r="E17">
+        <v>1.0377926044878636</v>
+      </c>
+      <c r="F17">
+        <v>1.0764751417262008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.90982611038761374</v>
-      </c>
-      <c r="D8">
-        <v>0.9131639599518202</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.0867923683845564</v>
-      </c>
-      <c r="D9">
-        <v>1.0907794477357717</v>
-      </c>
-      <c r="E9">
-        <v>1.1945055822716992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>150</v>
-      </c>
-      <c r="C10">
-        <v>157</v>
-      </c>
-      <c r="D10">
-        <v>157.57598073515192</v>
-      </c>
-      <c r="E10">
-        <v>172.56044658173593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>52.323359752151461</v>
-      </c>
-      <c r="D11">
-        <v>52.323359766872052</v>
-      </c>
-      <c r="E11">
-        <v>52.32335976642014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>21.34080999971782</v>
-      </c>
-      <c r="D12">
-        <v>21.340810008702093</v>
-      </c>
-      <c r="E12">
-        <v>21.340810008438144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>47.874200130224921</v>
-      </c>
-      <c r="D13">
-        <v>47.874200147149367</v>
-      </c>
-      <c r="E13">
-        <v>47.874200147361819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>28.773271795128522</v>
-      </c>
-      <c r="D14">
-        <v>28.773271804519155</v>
-      </c>
-      <c r="E14">
-        <v>28.773271804644232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>100.57861367370879</v>
-      </c>
-      <c r="D15">
-        <v>100.57861367468627</v>
-      </c>
-      <c r="E15">
-        <v>100.57861367465195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>49.426369767387456</v>
-      </c>
-      <c r="D16">
-        <v>49.426369767113975</v>
-      </c>
-      <c r="E16">
-        <v>49.426369767125827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1.0174590421071568</v>
-      </c>
       <c r="D18">
-        <v>1.0174590420922098</v>
+        <v>6.4</v>
       </c>
       <c r="E18">
-        <v>1.0174590420877996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1.0057861367551815</v>
-      </c>
-      <c r="D19">
-        <v>1.0057861367468626</v>
-      </c>
-      <c r="E19">
-        <v>1.0057861367454675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0.91316395985297649</v>
-      </c>
-      <c r="D20">
-        <v>0.9131639599518202</v>
-      </c>
-      <c r="E20">
-        <v>0.91316395997525013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1.090779448206026</v>
-      </c>
-      <c r="D21">
-        <v>1.0907794477357717</v>
-      </c>
-      <c r="E21">
-        <v>1.0907794477197668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>150</v>
-      </c>
-      <c r="C22">
-        <v>157.57598079465834</v>
-      </c>
-      <c r="D22">
-        <v>157.57598073515192</v>
-      </c>
-      <c r="E22">
-        <v>157.57598073567559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>52.323359766872052</v>
+        <v>6.317473626871724</v>
+      </c>
+      <c r="F18">
+        <v>6.552950283452402</v>
       </c>
     </row>
   </sheetData>
@@ -1263,22 +1241,406 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD2B994-3CF8-4777-9095-AA4EE6BD17EC}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354523F-4AA1-4061-9FD6-673E63B0C406}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0505065385597352</v>
+      </c>
+      <c r="D2">
+        <v>1.0505065382343373</v>
+      </c>
+      <c r="E2">
+        <v>1.0505065382287513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0324804194812658</v>
+      </c>
+      <c r="D3">
+        <v>1.0324804191372636</v>
+      </c>
+      <c r="E3">
+        <v>1.0324804191325847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0444631320629607</v>
+      </c>
+      <c r="D4">
+        <v>1.0444631317247959</v>
+      </c>
+      <c r="E4">
+        <v>1.0444631317219772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.99634474244263849</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.0950935908893114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.0137399672541887</v>
+      </c>
+      <c r="D6">
+        <v>1.0174590420922098</v>
+      </c>
+      <c r="E6">
+        <v>1.1142128759827274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.0021097293777177</v>
+      </c>
+      <c r="D7">
+        <v>1.0057861367468626</v>
+      </c>
+      <c r="E7">
+        <v>1.1014299521552819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.90982611038761374</v>
+      </c>
+      <c r="D8">
+        <v>0.9131639599518202</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0867923683845564</v>
+      </c>
+      <c r="D9">
+        <v>1.0907794477357717</v>
+      </c>
+      <c r="E9">
+        <v>1.1945055822716992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>157</v>
+      </c>
+      <c r="D10">
+        <v>157.57598073515192</v>
+      </c>
+      <c r="E10">
+        <v>172.56044658173593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>52.323359752151461</v>
+      </c>
+      <c r="D11">
+        <v>52.323359766872052</v>
+      </c>
+      <c r="E11">
+        <v>52.32335976642014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>21.34080999971782</v>
+      </c>
+      <c r="D12">
+        <v>21.340810008702093</v>
+      </c>
+      <c r="E12">
+        <v>21.340810008438144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>47.874200130224921</v>
+      </c>
+      <c r="D13">
+        <v>47.874200147149367</v>
+      </c>
+      <c r="E13">
+        <v>47.874200147361819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>28.773271795128522</v>
+      </c>
+      <c r="D14">
+        <v>28.773271804519155</v>
+      </c>
+      <c r="E14">
+        <v>28.773271804644232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100.57861367370879</v>
+      </c>
+      <c r="D15">
+        <v>100.57861367468627</v>
+      </c>
+      <c r="E15">
+        <v>100.57861367465195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>49.426369767387456</v>
+      </c>
+      <c r="D16">
+        <v>49.426369767113975</v>
+      </c>
+      <c r="E16">
+        <v>49.426369767125827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1.0174590421071568</v>
+      </c>
+      <c r="D18">
+        <v>1.0174590420922098</v>
+      </c>
+      <c r="E18">
+        <v>1.0174590420877996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1.0057861367551815</v>
+      </c>
+      <c r="D19">
+        <v>1.0057861367468626</v>
+      </c>
+      <c r="E19">
+        <v>1.0057861367454675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.91316395985297649</v>
+      </c>
+      <c r="D20">
+        <v>0.9131639599518202</v>
+      </c>
+      <c r="E20">
+        <v>0.91316395997525013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1.090779448206026</v>
+      </c>
+      <c r="D21">
+        <v>1.0907794477357717</v>
+      </c>
+      <c r="E21">
+        <v>1.0907794477197668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>157.57598079465834</v>
+      </c>
+      <c r="D22">
+        <v>157.57598073515192</v>
+      </c>
+      <c r="E22">
+        <v>157.57598073567559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>52.323359766872052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1291,8 +1653,26 @@
       <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1303,16 +1683,34 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2.0451802064036504</v>
+        <v>2.0388925400395408</v>
       </c>
       <c r="E2">
-        <v>2.0451802370819108</v>
+        <v>2.0388926022743163</v>
       </c>
       <c r="F2">
-        <v>2.0451802919810183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2.038892540023463</v>
+      </c>
+      <c r="G2">
+        <v>2.0616561326637868</v>
+      </c>
+      <c r="H2">
+        <v>2.0616562167571395</v>
+      </c>
+      <c r="I2">
+        <v>2.061656132662792</v>
+      </c>
+      <c r="J2">
+        <v>2.0183430943958389</v>
+      </c>
+      <c r="K2">
+        <v>2.018343131995088</v>
+      </c>
+      <c r="L2">
+        <v>2.018343094395731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1320,16 +1718,34 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>6.0860739182701407E-2</v>
+        <v>6.6932043116008089E-2</v>
       </c>
       <c r="E3">
-        <v>6.086076356764214E-2</v>
+        <v>6.6932077966904924E-2</v>
       </c>
       <c r="F3">
-        <v>6.086084552975235E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6.6932043098436811E-2</v>
+      </c>
+      <c r="G3">
+        <v>6.995298164174768E-2</v>
+      </c>
+      <c r="H3">
+        <v>6.9953023834268269E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.9952981640712508E-2</v>
+      </c>
+      <c r="J3">
+        <v>6.4168664284969701E-2</v>
+      </c>
+      <c r="K3">
+        <v>6.4168690877127954E-2</v>
+      </c>
+      <c r="L3">
+        <v>6.4168664284786292E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1337,16 +1753,34 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>-5.5193379836564027E-2</v>
+        <v>-5.5023694279256796E-2</v>
       </c>
       <c r="E4">
-        <v>-5.5193392289377918E-2</v>
+        <v>-5.5023713405638164E-2</v>
       </c>
       <c r="F4">
-        <v>-5.5193504067180932E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-5.5023694268022227E-2</v>
+      </c>
+      <c r="G4">
+        <v>-5.8378693476755616E-2</v>
+      </c>
+      <c r="H4">
+        <v>-5.8378717752824105E-2</v>
+      </c>
+      <c r="I4">
+        <v>-5.8378693475450882E-2</v>
+      </c>
+      <c r="J4">
+        <v>-5.2035760359648631E-2</v>
+      </c>
+      <c r="K4">
+        <v>-5.2035773774545602E-2</v>
+      </c>
+      <c r="L4">
+        <v>-5.2035760359359085E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1357,16 +1791,34 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3.9504307278899669</v>
+        <v>4.3445150893091364</v>
       </c>
       <c r="E5">
-        <v>3.9504307230884512</v>
+        <v>4.3445150719518617</v>
       </c>
       <c r="F5">
-        <v>3.9504305501987567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.3445150892883495</v>
+      </c>
+      <c r="G5">
+        <v>4.3215969220877399</v>
+      </c>
+      <c r="H5">
+        <v>4.3215968914598379</v>
+      </c>
+      <c r="I5">
+        <v>4.3215969220807722</v>
+      </c>
+      <c r="J5">
+        <v>4.3652609906889239</v>
+      </c>
+      <c r="K5">
+        <v>4.3652609891860115</v>
+      </c>
+      <c r="L5">
+        <v>4.3652609906863535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1377,16 +1829,34 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.0326001216388947</v>
+        <v>1.0294255138385817</v>
       </c>
       <c r="E6">
-        <v>1.0326001259936644</v>
+        <v>1.0294255431580739</v>
       </c>
       <c r="F6">
-        <v>1.0326000343166328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.0294255138282276</v>
+      </c>
+      <c r="G6">
+        <v>1.0414586403838779</v>
+      </c>
+      <c r="H6">
+        <v>1.0414586805191435</v>
+      </c>
+      <c r="I6">
+        <v>1.0414586403827182</v>
+      </c>
+      <c r="J6">
+        <v>1.0185742873068173</v>
+      </c>
+      <c r="K6">
+        <v>1.0185743040856408</v>
+      </c>
+      <c r="L6">
+        <v>1.0185742873065731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1397,16 +1867,34 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>3.0648347967736447</v>
+        <v>3.3705744862087736</v>
       </c>
       <c r="E7">
-        <v>3.064834804446523</v>
+        <v>3.3705745111657768</v>
       </c>
       <c r="F7">
-        <v>3.0648345557341203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3.3705744861665643</v>
+      </c>
+      <c r="G7">
+        <v>3.3585413596161509</v>
+      </c>
+      <c r="H7">
+        <v>3.3585413832969815</v>
+      </c>
+      <c r="I7">
+        <v>3.3585413596079117</v>
+      </c>
+      <c r="J7">
+        <v>3.3814257126931051</v>
+      </c>
+      <c r="K7">
+        <v>3.3814257390651354</v>
+      </c>
+      <c r="L7">
+        <v>3.3814257126904477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1417,16 +1905,34 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.95924193069378694</v>
+        <v>0.95629285402282127</v>
       </c>
       <c r="E8">
-        <v>0.9592419253600557</v>
+        <v>0.95629286865924534</v>
       </c>
       <c r="F8">
-        <v>0.95924189654998493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.95629285402757258</v>
+      </c>
+      <c r="G8">
+        <v>0.9638796195720013</v>
+      </c>
+      <c r="H8">
+        <v>0.96387964040158569</v>
+      </c>
+      <c r="I8">
+        <v>0.96387961957334634</v>
+      </c>
+      <c r="J8">
+        <v>0.94940262027556399</v>
+      </c>
+      <c r="K8">
+        <v>0.94940262820400689</v>
+      </c>
+      <c r="L8">
+        <v>0.94940262027596189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1437,193 +1943,373 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.94903405687412179</v>
+        <v>1.0437071459705156</v>
       </c>
       <c r="E9">
-        <v>0.94903405146331443</v>
+        <v>1.0437071399465965</v>
       </c>
       <c r="F9">
-        <v>0.94903401664811615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.0437071459731286</v>
+      </c>
+      <c r="G9">
+        <v>1.0361203804279788</v>
+      </c>
+      <c r="H9">
+        <v>1.0361203701947646</v>
+      </c>
+      <c r="I9">
+        <v>1.0361203804280366</v>
+      </c>
+      <c r="J9">
+        <v>1.0505973797245405</v>
+      </c>
+      <c r="K9">
+        <v>1.0505973793854231</v>
+      </c>
+      <c r="L9">
+        <v>1.050597379724407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.0130631726981851</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.0372738538416091</v>
+      </c>
+      <c r="G10">
+        <v>1.0136818459490267</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.0391779126469205</v>
+      </c>
+      <c r="J10">
+        <v>1.0124998752468384</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1.0355526292708772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.99467891964556188</v>
+      </c>
+      <c r="E11">
+        <v>0.98185279887846</v>
+      </c>
+      <c r="F11">
+        <v>1.0184502448866335</v>
+      </c>
+      <c r="G11">
+        <v>0.99437239916979381</v>
+      </c>
+      <c r="H11">
+        <v>0.98095116648996827</v>
+      </c>
+      <c r="I11">
+        <v>1.0193827957882367</v>
+      </c>
+      <c r="J11">
+        <v>0.99495316728611727</v>
+      </c>
+      <c r="K11">
+        <v>0.9826699099693974</v>
+      </c>
+      <c r="L11">
+        <v>1.0176064151448934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.97665931608675938</v>
+      </c>
+      <c r="E12">
+        <v>0.96406554312574255</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.97546515722840543</v>
+      </c>
+      <c r="H12">
+        <v>0.96229910684127029</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.977738693937376</v>
+      </c>
+      <c r="K12">
+        <v>0.96566795133323124</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1.0513495045774512</v>
+      </c>
+      <c r="E13">
+        <v>1.0377926343460309</v>
+      </c>
+      <c r="F13">
+        <v>1.0764751712748304</v>
+      </c>
+      <c r="G13">
+        <v>1.0539766540971593</v>
+      </c>
+      <c r="H13">
+        <v>1.0397509357684023</v>
+      </c>
+      <c r="I13">
+        <v>1.0804862134585973</v>
+      </c>
+      <c r="J13">
+        <v>1.0489748733371953</v>
+      </c>
+      <c r="K13">
+        <v>1.0360246878268555</v>
+      </c>
+      <c r="L13">
+        <v>1.0728580957681633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6.4</v>
+      </c>
+      <c r="E14">
+        <v>6.317473658445329</v>
+      </c>
+      <c r="F14">
+        <v>6.5529503425496607</v>
+      </c>
+      <c r="G14">
+        <v>6.4</v>
+      </c>
+      <c r="H14">
+        <v>6.3136179416383946</v>
+      </c>
+      <c r="I14">
+        <v>6.5609724269171945</v>
+      </c>
+      <c r="J14">
+        <v>6.4</v>
+      </c>
+      <c r="K14">
+        <v>6.3209883615199285</v>
+      </c>
+      <c r="L14">
+        <v>6.5457161915363269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2.1058245831317985</v>
+      </c>
+      <c r="E15">
+        <v>2.1058245528151098</v>
+      </c>
+      <c r="F15">
+        <v>2.1058245831225109</v>
+      </c>
+      <c r="G15">
+        <v>2.1316091143057374</v>
+      </c>
+      <c r="H15">
+        <v>2.1316090916766774</v>
+      </c>
+      <c r="I15">
+        <v>2.1316091143045899</v>
+      </c>
+      <c r="J15">
+        <v>2.0825117586813389</v>
+      </c>
+      <c r="K15">
+        <v>2.0825117266148059</v>
+      </c>
+      <c r="L15">
+        <v>2.0825117586808339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4.2894913950594482</v>
+      </c>
+      <c r="E16">
+        <v>4.2894913681980196</v>
+      </c>
+      <c r="F16">
+        <v>4.2894913950225018</v>
+      </c>
+      <c r="G16">
+        <v>4.2632182286114748</v>
+      </c>
+      <c r="H16">
+        <v>4.2632181833533549</v>
+      </c>
+      <c r="I16">
+        <v>4.2632182286091798</v>
+      </c>
+      <c r="J16">
+        <v>4.3132252303298442</v>
+      </c>
+      <c r="K16">
+        <v>4.3132252162245592</v>
+      </c>
+      <c r="L16">
+        <v>4.3132252303282845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0.99692561743703623</v>
-      </c>
-      <c r="E10">
-        <v>0.99692551627729664</v>
-      </c>
-      <c r="F10">
-        <v>0.99692550469586405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.99692561742878794</v>
+      </c>
+      <c r="E17">
+        <v>0.99692563221448494</v>
+      </c>
+      <c r="F17">
+        <v>0.99692561742738139</v>
+      </c>
+      <c r="G17">
+        <v>1.0069556546590603</v>
+      </c>
+      <c r="H17">
+        <v>1.0069556766229943</v>
+      </c>
+      <c r="I17">
+        <v>1.0069556546586325</v>
+      </c>
+      <c r="J17">
+        <v>0.98785653343474333</v>
+      </c>
+      <c r="K17">
+        <v>0.98785653983406418</v>
+      </c>
+      <c r="L17">
+        <v>0.98785653343465762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1.0997573147220125</v>
-      </c>
-      <c r="E11">
-        <v>1.0997573321558107</v>
-      </c>
-      <c r="F11">
-        <v>1.0997574149564511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2.1058245831306932</v>
-      </c>
-      <c r="E12">
-        <v>2.1058245422905744</v>
-      </c>
-      <c r="F12">
-        <v>2.1058244871455893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>4.2894913950323108</v>
-      </c>
-      <c r="E13">
-        <v>4.2894913553977609</v>
-      </c>
-      <c r="F13">
-        <v>4.2894913534466479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1.0130631726983996</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1.0372737425956957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0.99467891964812094</v>
-      </c>
-      <c r="E15">
-        <v>0.98185280030971178</v>
-      </c>
-      <c r="F15">
-        <v>1.018450090273892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.97665931609651746</v>
-      </c>
-      <c r="E16">
-        <v>0.964065549521817</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1.0513495045804355</v>
-      </c>
-      <c r="E17">
-        <v>1.0377926044878636</v>
-      </c>
-      <c r="F17">
-        <v>1.0764751417262008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>6.4</v>
+        <v>1.0997573147231834</v>
       </c>
       <c r="E18">
-        <v>6.317473626871724</v>
+        <v>1.099757312409851</v>
       </c>
       <c r="F18">
-        <v>6.552950283452402</v>
+        <v>1.0997573147161213</v>
+      </c>
+      <c r="G18">
+        <v>1.0946556994675825</v>
+      </c>
+      <c r="H18">
+        <v>1.0946556944648935</v>
+      </c>
+      <c r="I18">
+        <v>1.0946556994653955</v>
+      </c>
+      <c r="J18">
+        <v>1.1043704861333683</v>
+      </c>
+      <c r="K18">
+        <v>1.1043704870442315</v>
+      </c>
+      <c r="L18">
+        <v>1.1043704861326116</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\BoxSync\CGE\MPSGE-JL\CGE_GAMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3589718-7868-4353-9D48-56B8D7FA7858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898F46C-900A-4CFC-8136-1B7489C66DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="680" windowWidth="14400" windowHeight="7460" firstSheet="1" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2960" yWindow="680" windowWidth="14400" windowHeight="7460" firstSheet="1" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
     <sheet name="TwoxTwoJPMGE" sheetId="4" r:id="rId2"/>
     <sheet name="TwoxTwoCESProd" sheetId="5" r:id="rId3"/>
     <sheet name="JPMGE" sheetId="6" r:id="rId4"/>
+    <sheet name="TwoxTwoAlg" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
   <si>
     <t>X.L</t>
   </si>
@@ -177,12 +178,18 @@
   </si>
   <si>
     <t>D_elas=2,PF("l")=1</t>
+  </si>
+  <si>
+    <t>PY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,9 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +540,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,7 +1252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E354523F-4AA1-4061-9FD6-673E63B0C406}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1636,680 +1646,981 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
   <dimension ref="A1:L18"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.0086272827607878</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.0086273837631206</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.0086272827461693</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.070435101918509</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.0704352490597788</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.0704351019154714</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.9527613306717484</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5.9527613780232977</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5.9527613306711453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.2332352321214946</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.2332352424687842</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.2332352320993802</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.2245672645540826</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.2245672727916879</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.2245672645490631</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.2410583217899034</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.2410583348961191</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2.2410583217882571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.966529187661999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.9665292047218597</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.9665291876654798</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.9849334846109026</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.9849335128890031</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.9849334846105282</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.9498664921172697</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.9498664958038201</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.949866492117188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10.963541405244653</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10.96354136685996</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.963541405182166</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10.910959374527764</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10.910959305902068</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10.910959374506552</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11.011102963317315</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11.011102960942685</v>
+      </c>
+      <c r="L5" s="2">
+        <v>11.011102963309883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0294255138385817</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0294255431580739</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.0294255138282276</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0414586403838779</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.0414586805191435</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.0414586403827182</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.0185742873068173</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.0185743040856408</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.0185742873065731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.3705744862087736</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.3705745111657768</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.3705744861665643</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.3585413596161509</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.3585413832969815</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.3585413596079117</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.3814257126931051</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.3814257390651354</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3.3814257126904477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.95629285402282127</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.95629286865924534</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.95629285402757258</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.9638796195720013</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.96387964040158569</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.96387961957334634</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.94940262027556399</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.94940262820400689</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.94940262027596189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0437071459705156</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0437071399465965</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.0437071459731286</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.0361203804279788</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.0361203701947646</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.0361203804280366</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.0505973797245405</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.0505973793854231</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.050597379724407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0130631726981851</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0372738538416091</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.0136818459490267</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0391779126469205</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0124998752468384</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.0355526292708772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.99467891964556188</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.98185279887846</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.0184502448866335</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.99437239916979381</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.98095116648996827</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.0193827957882367</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.99495316728611727</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.9826699099693974</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.0176064151448934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.97665931608675938</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.96406554312574255</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.97546515722840543</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.96229910684127029</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.977738693937376</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.96566795133323124</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.0513495045774512</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.0377926343460309</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.0764751712748304</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.0539766540971593</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.0397509357684023</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.0804862134585973</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0489748733371953</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.0360246878268555</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.0728580957681633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.317473658445329</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.5529503425496607</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6.3136179416383946</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6.5609724269171945</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6.3209883615199285</v>
+      </c>
+      <c r="L14" s="2">
+        <v>6.5457161915363269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.1058245831317985</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.1058245528151098</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.1058245831225109</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.1316091143057374</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.1316090916766774</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.1316091143045899</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.0825117586813389</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.0825117266148059</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2.0825117586808339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.2894913950594482</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.2894913681980196</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.2894913950225018</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.2632182286114748</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.2632181833533549</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.2632182286091798</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4.3132252303298442</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4.3132252162245592</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4.3132252303282845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.99692561742878794</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.99692563221448494</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.99692561742738139</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.0069556546590603</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.0069556766229943</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.0069556546586325</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.98785653343474333</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.98785653983406418</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.98785653343465762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.0997573147231834</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.099757312409851</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.0997573147161213</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.0946556994675825</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.0946556944648935</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.0946556994653955</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.1043704861333683</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.1043704870442315</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.1043704861326116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A14746-3E00-4CD5-9B40-B03C7F420D4C}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
+        <v>1.0498656722506072</v>
+      </c>
+      <c r="D2">
+        <v>1.0488088481701514</v>
+      </c>
+      <c r="E2">
+        <v>1.0488088481700486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0367664911431751</v>
+      </c>
+      <c r="D3">
+        <v>1.0388601182540846</v>
+      </c>
+      <c r="E3">
+        <v>1.0388601182540098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>2.0388925400395408</v>
-      </c>
-      <c r="E2">
-        <v>2.0388926022743163</v>
-      </c>
-      <c r="F2">
-        <v>2.038892540023463</v>
-      </c>
-      <c r="G2">
-        <v>2.0616561326637868</v>
-      </c>
-      <c r="H2">
-        <v>2.0616562167571395</v>
-      </c>
-      <c r="I2">
-        <v>2.061656132662792</v>
-      </c>
-      <c r="J2">
-        <v>2.0183430943958389</v>
-      </c>
-      <c r="K2">
-        <v>2.018343131995088</v>
-      </c>
-      <c r="L2">
-        <v>2.018343094395731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>6.6932043116008089E-2</v>
-      </c>
-      <c r="E3">
-        <v>6.6932077966904924E-2</v>
-      </c>
-      <c r="F3">
-        <v>6.6932043098436811E-2</v>
-      </c>
-      <c r="G3">
-        <v>6.995298164174768E-2</v>
-      </c>
-      <c r="H3">
-        <v>6.9953023834268269E-2</v>
-      </c>
-      <c r="I3">
-        <v>6.9952981640712508E-2</v>
-      </c>
-      <c r="J3">
-        <v>6.4168664284969701E-2</v>
-      </c>
-      <c r="K3">
-        <v>6.4168690877127954E-2</v>
-      </c>
-      <c r="L3">
-        <v>6.4168664284786292E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0433561483081226</v>
       </c>
       <c r="D4">
-        <v>-5.5023694279256796E-2</v>
+        <v>1.0454820635789996</v>
       </c>
       <c r="E4">
-        <v>-5.5023713405638164E-2</v>
-      </c>
-      <c r="F4">
-        <v>-5.5023694268022227E-2</v>
-      </c>
-      <c r="G4">
-        <v>-5.8378693476755616E-2</v>
-      </c>
-      <c r="H4">
-        <v>-5.8378717752824105E-2</v>
-      </c>
-      <c r="I4">
-        <v>-5.8378693475450882E-2</v>
-      </c>
-      <c r="J4">
-        <v>-5.2035760359648631E-2</v>
-      </c>
-      <c r="K4">
-        <v>-5.2035773774545602E-2</v>
-      </c>
-      <c r="L4">
-        <v>-5.2035760359359085E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.0454820635789062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.048808848169914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>4.3445150893091364</v>
-      </c>
-      <c r="E5">
-        <v>4.3445150719518617</v>
-      </c>
-      <c r="F5">
-        <v>4.3445150892883495</v>
-      </c>
-      <c r="G5">
-        <v>4.3215969220877399</v>
-      </c>
-      <c r="H5">
-        <v>4.3215968914598379</v>
-      </c>
-      <c r="I5">
-        <v>4.3215969220807722</v>
-      </c>
-      <c r="J5">
-        <v>4.3652609906889239</v>
-      </c>
-      <c r="K5">
-        <v>4.3652609891860115</v>
-      </c>
-      <c r="L5">
-        <v>4.3652609906863535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.0095490890260126</v>
       </c>
       <c r="D6">
-        <v>1.0294255138385817</v>
+        <v>1.009576582776887</v>
       </c>
       <c r="E6">
-        <v>1.0294255431580739</v>
-      </c>
-      <c r="F6">
-        <v>1.0294255138282276</v>
-      </c>
-      <c r="G6">
-        <v>1.0414586403838779</v>
-      </c>
-      <c r="H6">
-        <v>1.0414586805191435</v>
-      </c>
-      <c r="I6">
-        <v>1.0414586403827182</v>
-      </c>
-      <c r="J6">
-        <v>1.0185742873068173</v>
-      </c>
-      <c r="K6">
-        <v>1.0185743040856408</v>
-      </c>
-      <c r="L6">
-        <v>1.0185742873065731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.0588528529215189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1.0031729514067342</v>
       </c>
       <c r="D7">
-        <v>3.3705744862087736</v>
+        <v>1.0031820580257143</v>
       </c>
       <c r="E7">
-        <v>3.3705745111657768</v>
-      </c>
-      <c r="F7">
-        <v>3.3705744861665643</v>
-      </c>
-      <c r="G7">
-        <v>3.3585413596161509</v>
-      </c>
-      <c r="H7">
-        <v>3.3585413832969815</v>
-      </c>
-      <c r="I7">
-        <v>3.3585413596079117</v>
-      </c>
-      <c r="J7">
-        <v>3.3814257126931051</v>
-      </c>
-      <c r="K7">
-        <v>3.3814257390651354</v>
-      </c>
-      <c r="L7">
-        <v>3.3814257126904477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1.0521462187826638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.95359242784919818</v>
+      </c>
+      <c r="D8">
+        <v>0.95346258924559202</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0486660451591012</v>
+      </c>
+      <c r="D9">
+        <v>1.0488088481701519</v>
+      </c>
+      <c r="E9">
+        <v>1.0999999999996399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>157</v>
+      </c>
+      <c r="D10">
+        <v>157.32132722552274</v>
+      </c>
+      <c r="E10">
+        <v>164.99999999997118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>52.433302256670352</v>
+      </c>
+      <c r="D11">
+        <v>52.440442408507586</v>
+      </c>
+      <c r="E11">
+        <v>52.440442408500388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>21.173597011026523</v>
+      </c>
+      <c r="D12">
+        <v>21.17705705843569</v>
+      </c>
+      <c r="E12">
+        <v>21.177057058432069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>47.679621391858859</v>
+      </c>
+      <c r="D13">
+        <v>47.673129462279633</v>
+      </c>
+      <c r="E13">
+        <v>47.673129462283626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.95629285402282127</v>
-      </c>
-      <c r="E8">
-        <v>0.95629286865924534</v>
-      </c>
-      <c r="F8">
-        <v>0.95629285402757258</v>
-      </c>
-      <c r="G8">
-        <v>0.9638796195720013</v>
-      </c>
-      <c r="H8">
-        <v>0.96387964040158569</v>
-      </c>
-      <c r="I8">
-        <v>0.96387961957334634</v>
-      </c>
-      <c r="J8">
-        <v>0.94940262027556399</v>
-      </c>
-      <c r="K8">
-        <v>0.94940262820400689</v>
-      </c>
-      <c r="L8">
-        <v>0.94940262027596189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1.0437071459705156</v>
-      </c>
-      <c r="E9">
-        <v>1.0437071399465965</v>
-      </c>
-      <c r="F9">
-        <v>1.0437071459731286</v>
-      </c>
-      <c r="G9">
-        <v>1.0361203804279788</v>
-      </c>
-      <c r="H9">
-        <v>1.0361203701947646</v>
-      </c>
-      <c r="I9">
-        <v>1.0361203804280366</v>
-      </c>
-      <c r="J9">
-        <v>1.0505973797245405</v>
-      </c>
-      <c r="K9">
-        <v>1.0505973793854231</v>
-      </c>
-      <c r="L9">
-        <v>1.050597379724407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1.0130631726981851</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1.0372738538416091</v>
-      </c>
-      <c r="G10">
-        <v>1.0136818459490267</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1.0391779126469205</v>
-      </c>
-      <c r="J10">
-        <v>1.0124998752468384</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1.0355526292708772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0.99467891964556188</v>
-      </c>
-      <c r="E11">
-        <v>0.98185279887846</v>
-      </c>
-      <c r="F11">
-        <v>1.0184502448866335</v>
-      </c>
-      <c r="G11">
-        <v>0.99437239916979381</v>
-      </c>
-      <c r="H11">
-        <v>0.98095116648996827</v>
-      </c>
-      <c r="I11">
-        <v>1.0193827957882367</v>
-      </c>
-      <c r="J11">
-        <v>0.99495316728611727</v>
-      </c>
-      <c r="K11">
-        <v>0.9826699099693974</v>
-      </c>
-      <c r="L11">
-        <v>1.0176064151448934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0.97665931608675938</v>
-      </c>
-      <c r="E12">
-        <v>0.96406554312574255</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.97546515722840543</v>
-      </c>
-      <c r="H12">
-        <v>0.96229910684127029</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.977738693937376</v>
-      </c>
-      <c r="K12">
-        <v>0.96566795133323124</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1.0513495045774512</v>
-      </c>
-      <c r="E13">
-        <v>1.0377926343460309</v>
-      </c>
-      <c r="F13">
-        <v>1.0764751712748304</v>
-      </c>
-      <c r="G13">
-        <v>1.0539766540971593</v>
-      </c>
-      <c r="H13">
-        <v>1.0397509357684023</v>
-      </c>
-      <c r="I13">
-        <v>1.0804862134585973</v>
-      </c>
-      <c r="J13">
-        <v>1.0489748733371953</v>
-      </c>
-      <c r="K13">
-        <v>1.0360246878268555</v>
-      </c>
-      <c r="L13">
-        <v>1.0728580957681633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C14">
-        <v>6</v>
+        <v>28.880951004956579</v>
       </c>
       <c r="D14">
-        <v>6.4</v>
+        <v>28.877805079685029</v>
       </c>
       <c r="E14">
-        <v>6.317473658445329</v>
-      </c>
-      <c r="F14">
-        <v>6.5529503425496607</v>
-      </c>
-      <c r="G14">
-        <v>6.4</v>
-      </c>
-      <c r="H14">
-        <v>6.3136179416383946</v>
-      </c>
-      <c r="I14">
-        <v>6.5609724269171945</v>
-      </c>
-      <c r="J14">
-        <v>6.4</v>
-      </c>
-      <c r="K14">
-        <v>6.3209883615199285</v>
-      </c>
-      <c r="L14">
-        <v>6.5457161915363269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>28.877805079687114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>100.3172951406718</v>
       </c>
       <c r="D15">
-        <v>2.1058245831317985</v>
+        <v>100.31820580257144</v>
       </c>
       <c r="E15">
-        <v>2.1058245528151098</v>
-      </c>
-      <c r="F15">
-        <v>2.1058245831225109</v>
-      </c>
-      <c r="G15">
-        <v>2.1316091143057374</v>
-      </c>
-      <c r="H15">
-        <v>2.1316090916766774</v>
-      </c>
-      <c r="I15">
-        <v>2.1316091143045899</v>
-      </c>
-      <c r="J15">
-        <v>2.0825117586813389</v>
-      </c>
-      <c r="K15">
-        <v>2.0825117266148059</v>
-      </c>
-      <c r="L15">
-        <v>2.0825117586808339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>100.31820580257069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>49.684208638846584</v>
       </c>
       <c r="D16">
-        <v>4.2894913950594482</v>
+        <v>49.683306602972891</v>
       </c>
       <c r="E16">
-        <v>4.2894913681980196</v>
-      </c>
-      <c r="F16">
-        <v>4.2894913950225018</v>
-      </c>
-      <c r="G16">
-        <v>4.2632182286114748</v>
-      </c>
-      <c r="H16">
-        <v>4.2632181833533549</v>
-      </c>
-      <c r="I16">
-        <v>4.2632182286091798</v>
-      </c>
-      <c r="J16">
-        <v>4.3132252303298442</v>
-      </c>
-      <c r="K16">
-        <v>4.3132252162245592</v>
-      </c>
-      <c r="L16">
-        <v>4.3132252303282845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>49.683306602973595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.99692561742878794</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>0.99692563221448494</v>
-      </c>
-      <c r="F17">
-        <v>0.99692561742738139</v>
-      </c>
-      <c r="G17">
-        <v>1.0069556546590603</v>
-      </c>
-      <c r="H17">
-        <v>1.0069556766229943</v>
-      </c>
-      <c r="I17">
-        <v>1.0069556546586325</v>
-      </c>
-      <c r="J17">
-        <v>0.98785653343474333</v>
-      </c>
-      <c r="K17">
-        <v>0.98785653983406418</v>
-      </c>
-      <c r="L17">
-        <v>0.98785653343465762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1.0997573147231834</v>
-      </c>
-      <c r="E18">
-        <v>1.099757312409851</v>
-      </c>
-      <c r="F18">
-        <v>1.0997573147161213</v>
-      </c>
-      <c r="G18">
-        <v>1.0946556994675825</v>
-      </c>
-      <c r="H18">
-        <v>1.0946556944648935</v>
-      </c>
-      <c r="I18">
-        <v>1.0946556994653955</v>
-      </c>
-      <c r="J18">
-        <v>1.1043704861333683</v>
-      </c>
-      <c r="K18">
-        <v>1.1043704870442315</v>
-      </c>
-      <c r="L18">
-        <v>1.1043704861326116</v>
+        <v>157.32132722553087</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\BoxSync\CGE\MPSGE-JL\CGE_GAMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1898F46C-900A-4CFC-8136-1B7489C66DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5C5D3-53EF-4678-8FAE-81DFC928B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="680" windowWidth="14400" windowHeight="7460" firstSheet="1" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1600" yWindow="1520" windowWidth="6410" windowHeight="3320" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E1F9A-63EC-417B-A1CC-BD7ADDD403FF}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -714,170 +714,206 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>52.433302256670352</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>52.440442408507586</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>52.440442408500388</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>1.0095490890260126</v>
+        <v>21.173597011026523</v>
       </c>
       <c r="D12">
-        <v>1.009576582776887</v>
+        <v>21.17705705843569</v>
       </c>
       <c r="E12">
-        <v>1.0095765827768624</v>
+        <v>21.177057058432069</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>1.0031729514067342</v>
+        <v>47.679621391858859</v>
       </c>
       <c r="D13">
-        <v>1.0031820580257143</v>
+        <v>47.673129462279633</v>
       </c>
       <c r="E13">
-        <v>1.0031820580257051</v>
+        <v>47.673129462283626</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0.95359242784919818</v>
+        <v>28.880951004956579</v>
       </c>
       <c r="D14">
-        <v>0.95346258924559202</v>
+        <v>28.877805079685029</v>
       </c>
       <c r="E14">
-        <v>0.95346258924580818</v>
+        <v>28.877805079687114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>1.0486660451591012</v>
+        <v>100.3172951406718</v>
       </c>
       <c r="D15">
-        <v>1.0488088481701519</v>
+        <v>100.31820580257144</v>
       </c>
       <c r="E15">
-        <v>1.0488088481700457</v>
+        <v>100.31820580257069</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>49.684208638846584</v>
+      </c>
+      <c r="D16">
+        <v>49.683306602972891</v>
+      </c>
+      <c r="E16">
+        <v>49.683306602973595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1.0095490890260126</v>
+      </c>
+      <c r="D18">
+        <v>1.009576582776887</v>
+      </c>
+      <c r="E18">
+        <v>1.0095765827768624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1.0031729514067342</v>
+      </c>
+      <c r="D19">
+        <v>1.0031820580257143</v>
+      </c>
+      <c r="E19">
+        <v>1.0031820580257051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.95359242784919818</v>
+      </c>
+      <c r="D20">
+        <v>0.95346258924559202</v>
+      </c>
+      <c r="E20">
+        <v>0.95346258924580818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1.0486660451591012</v>
+      </c>
+      <c r="D21">
+        <v>1.0488088481701519</v>
+      </c>
+      <c r="E21">
+        <v>1.0488088481700457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B22">
         <v>150</v>
       </c>
-      <c r="C16">
+      <c r="C22">
         <v>157</v>
       </c>
-      <c r="D16">
+      <c r="D22">
         <v>157.32132722552274</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>157.32132722553087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>52.433302256670352</v>
-      </c>
-      <c r="D17">
-        <v>52.440442408507586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>21.173597011026523</v>
-      </c>
-      <c r="D18">
-        <v>21.17705705843569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>47.679621391858859</v>
-      </c>
-      <c r="D19">
-        <v>47.673129462279633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>28.880951004956579</v>
-      </c>
-      <c r="D20">
-        <v>28.877805079685029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>100.3172951406718</v>
-      </c>
-      <c r="D21">
-        <v>100.31820580257144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>49.684208638846584</v>
-      </c>
-      <c r="D22">
-        <v>49.683306602972891</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A14746-3E00-4CD5-9B40-B03C7F420D4C}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5C5D3-53EF-4678-8FAE-81DFC928B160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2457F61-A8F1-49BE-8A2D-FDED4A447AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1520" windowWidth="6410" windowHeight="3320" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
     <sheet name="TwoxTwoJPMGE" sheetId="4" r:id="rId2"/>
     <sheet name="TwoxTwoCESProd" sheetId="5" r:id="rId3"/>
     <sheet name="JPMGE" sheetId="6" r:id="rId4"/>
-    <sheet name="TwoxTwoAlg" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t>X.L</t>
   </si>
@@ -539,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261E1F9A-63EC-417B-A1CC-BD7ADDD403FF}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1682,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2372,294 +2371,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A14746-3E00-4CD5-9B40-B03C7F420D4C}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.0498656722506072</v>
-      </c>
-      <c r="D2">
-        <v>1.0488088481701514</v>
-      </c>
-      <c r="E2">
-        <v>1.0488088481700486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1.0367664911431751</v>
-      </c>
-      <c r="D3">
-        <v>1.0388601182540846</v>
-      </c>
-      <c r="E3">
-        <v>1.0388601182540098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0433561483081226</v>
-      </c>
-      <c r="D4">
-        <v>1.0454820635789996</v>
-      </c>
-      <c r="E4">
-        <v>1.0454820635789062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1.048808848169914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1.0095490890260126</v>
-      </c>
-      <c r="D6">
-        <v>1.009576582776887</v>
-      </c>
-      <c r="E6">
-        <v>1.0588528529215189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1.0031729514067342</v>
-      </c>
-      <c r="D7">
-        <v>1.0031820580257143</v>
-      </c>
-      <c r="E7">
-        <v>1.0521462187826638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.95359242784919818</v>
-      </c>
-      <c r="D8">
-        <v>0.95346258924559202</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.0486660451591012</v>
-      </c>
-      <c r="D9">
-        <v>1.0488088481701519</v>
-      </c>
-      <c r="E9">
-        <v>1.0999999999996399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>150</v>
-      </c>
-      <c r="C10">
-        <v>157</v>
-      </c>
-      <c r="D10">
-        <v>157.32132722552274</v>
-      </c>
-      <c r="E10">
-        <v>164.99999999997118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>52.433302256670352</v>
-      </c>
-      <c r="D11">
-        <v>52.440442408507586</v>
-      </c>
-      <c r="E11">
-        <v>52.440442408500388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>21.173597011026523</v>
-      </c>
-      <c r="D12">
-        <v>21.17705705843569</v>
-      </c>
-      <c r="E12">
-        <v>21.177057058432069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>47.679621391858859</v>
-      </c>
-      <c r="D13">
-        <v>47.673129462279633</v>
-      </c>
-      <c r="E13">
-        <v>47.673129462283626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>28.880951004956579</v>
-      </c>
-      <c r="D14">
-        <v>28.877805079685029</v>
-      </c>
-      <c r="E14">
-        <v>28.877805079687114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>100.3172951406718</v>
-      </c>
-      <c r="D15">
-        <v>100.31820580257144</v>
-      </c>
-      <c r="E15">
-        <v>100.31820580257069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>49.684208638846584</v>
-      </c>
-      <c r="D16">
-        <v>49.683306602972891</v>
-      </c>
-      <c r="E16">
-        <v>49.683306602973595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>157.32132722553087</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2457F61-A8F1-49BE-8A2D-FDED4A447AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B946A61-DE4A-4E68-AD5F-32CB5900BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1940" yWindow="1860" windowWidth="6410" windowHeight="3320" firstSheet="3" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>X.L</t>
   </si>
@@ -180,6 +180,36 @@
   </si>
   <si>
     <t>PY</t>
+  </si>
+  <si>
+    <t>D benchmark</t>
+  </si>
+  <si>
+    <t>D P("g1")=1</t>
+  </si>
+  <si>
+    <t>D PF("labor")=1</t>
+  </si>
+  <si>
+    <t>D D_elas=0,Y=6.4</t>
+  </si>
+  <si>
+    <t>D D_elas=0,P("g1")=1</t>
+  </si>
+  <si>
+    <t>D D_elas=0,PF("l")=1</t>
+  </si>
+  <si>
+    <t>D D_elas=2,Y=6.4</t>
+  </si>
+  <si>
+    <t>D D_elas=2,P("g1")=1</t>
+  </si>
+  <si>
+    <t>D D_elas=2,PF("l")=1</t>
+  </si>
+  <si>
+    <t>D Y=6.4</t>
   </si>
 </sst>
 </file>
@@ -1679,10 +1709,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,39 +1723,69 @@
     <col min="4" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,37 +1793,67 @@
         <v>26</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>6.0086272827607878</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
+        <v>3.969734742721247</v>
+      </c>
+      <c r="G2" s="2">
         <v>6.0086273837631206</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
+        <v>3.9697347814888042</v>
+      </c>
+      <c r="I2" s="2">
         <v>6.0086272827461693</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
+        <v>3.9697347427227063</v>
+      </c>
+      <c r="K2" s="2">
         <v>6.070435101918509</v>
       </c>
-      <c r="H2" s="2">
+      <c r="L2" s="2">
+        <v>4.0087789692547222</v>
+      </c>
+      <c r="M2">
         <v>6.0704352490597788</v>
       </c>
-      <c r="I2" s="2">
+      <c r="N2">
+        <v>4.0087790323026393</v>
+      </c>
+      <c r="O2">
         <v>6.0704351019154714</v>
       </c>
-      <c r="J2" s="2">
+      <c r="P2">
+        <v>4.0087789692526794</v>
+      </c>
+      <c r="Q2">
         <v>5.9527613306717484</v>
       </c>
-      <c r="K2" s="2">
+      <c r="R2">
+        <v>3.9344182362759095</v>
+      </c>
+      <c r="S2">
         <v>5.9527613780232977</v>
       </c>
-      <c r="L2" s="2">
+      <c r="T2">
+        <v>3.9344182460282098</v>
+      </c>
+      <c r="U2">
         <v>5.9527613306711453</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="V2">
+        <v>3.9344182362754143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1771,34 +1864,64 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>2.2332352321214946</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
+        <v>2.1663031890054865</v>
+      </c>
+      <c r="G3" s="2">
         <v>2.2332352424687842</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
+        <v>2.1663031645018793</v>
+      </c>
+      <c r="I3" s="2">
         <v>2.2332352320993802</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
+        <v>2.1663031890009434</v>
+      </c>
+      <c r="K3" s="2">
         <v>2.2245672645540826</v>
       </c>
-      <c r="H3" s="2">
+      <c r="L3" s="2">
+        <v>2.1546142829123349</v>
+      </c>
+      <c r="M3">
         <v>2.2245672727916879</v>
       </c>
-      <c r="I3" s="2">
+      <c r="N3">
+        <v>2.1546142489574196</v>
+      </c>
+      <c r="O3">
         <v>2.2245672645490631</v>
       </c>
-      <c r="J3" s="2">
+      <c r="P3">
+        <v>2.1546142829083506</v>
+      </c>
+      <c r="Q3">
         <v>2.2410583217899034</v>
       </c>
-      <c r="K3" s="2">
+      <c r="R3">
+        <v>2.1768896575049337</v>
+      </c>
+      <c r="S3">
         <v>2.2410583348961191</v>
       </c>
-      <c r="L3" s="2">
+      <c r="T3">
+        <v>2.1768896440189911</v>
+      </c>
+      <c r="U3">
         <v>2.2410583217882571</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="V3">
+        <v>2.1768896575034709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1809,34 +1932,64 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
         <v>1.966529187661999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
+        <v>2.0215528819412558</v>
+      </c>
+      <c r="G4" s="2">
         <v>1.9665292047218597</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
+        <v>2.0215529181274978</v>
+      </c>
+      <c r="I4" s="2">
         <v>1.9665291876654798</v>
       </c>
-      <c r="G4" s="2">
+      <c r="J4" s="2">
+        <v>2.021552881933502</v>
+      </c>
+      <c r="K4" s="2">
         <v>1.9849334846109026</v>
       </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2">
+        <v>2.0433121780876582</v>
+      </c>
+      <c r="M4">
         <v>1.9849335128890031</v>
       </c>
-      <c r="I4" s="2">
+      <c r="N4">
+        <v>2.0433122306418272</v>
+      </c>
+      <c r="O4">
         <v>1.9849334846105282</v>
       </c>
-      <c r="J4" s="2">
+      <c r="P4">
+        <v>2.0433121780859791</v>
+      </c>
+      <c r="Q4">
         <v>1.9498664921172697</v>
       </c>
-      <c r="K4" s="2">
+      <c r="R4">
+        <v>2.0019022524769183</v>
+      </c>
+      <c r="S4">
         <v>1.9498664958038201</v>
       </c>
-      <c r="L4" s="2">
+      <c r="T4">
+        <v>2.0019022695783657</v>
+      </c>
+      <c r="U4">
         <v>1.949866492117188</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="V4">
+        <v>2.0019022524765471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1844,37 +1997,67 @@
         <v>27</v>
       </c>
       <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>10.963541405244653</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
+        <v>6.6190263159355167</v>
+      </c>
+      <c r="G5" s="2">
         <v>10.96354136685996</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
+        <v>6.6190262949080987</v>
+      </c>
+      <c r="I5" s="2">
         <v>10.963541405182166</v>
       </c>
-      <c r="G5" s="2">
+      <c r="J5" s="2">
+        <v>6.6190263158938167</v>
+      </c>
+      <c r="K5" s="2">
         <v>10.910959374527764</v>
       </c>
-      <c r="H5" s="2">
+      <c r="L5" s="2">
+        <v>6.5893624524400236</v>
+      </c>
+      <c r="M5">
         <v>10.910959305902068</v>
       </c>
-      <c r="I5" s="2">
+      <c r="N5">
+        <v>6.5893624144422303</v>
+      </c>
+      <c r="O5">
         <v>10.910959374506552</v>
       </c>
-      <c r="J5" s="2">
+      <c r="P5">
+        <v>6.5893624524257799</v>
+      </c>
+      <c r="Q5">
         <v>11.011102963317315</v>
       </c>
-      <c r="K5" s="2">
+      <c r="R5">
+        <v>6.645841972628391</v>
+      </c>
+      <c r="S5">
         <v>11.011102960942685</v>
       </c>
-      <c r="L5" s="2">
+      <c r="T5">
+        <v>6.6458419717566732</v>
+      </c>
+      <c r="U5">
         <v>11.011102963309883</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="V5">
+        <v>6.6458419726235292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1884,35 +2067,40 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>1.0294255138385817</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>1.0294255431580739</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>1.0294255138282276</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>1.0414586403838779</v>
       </c>
-      <c r="H6" s="2">
+      <c r="L6" s="2"/>
+      <c r="M6">
         <v>1.0414586805191435</v>
       </c>
-      <c r="I6" s="2">
+      <c r="O6">
         <v>1.0414586403827182</v>
       </c>
-      <c r="J6" s="2">
+      <c r="Q6">
         <v>1.0185742873068173</v>
       </c>
-      <c r="K6" s="2">
+      <c r="S6">
         <v>1.0185743040856408</v>
       </c>
-      <c r="L6" s="2">
+      <c r="U6">
         <v>1.0185742873065731</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1922,35 +2110,40 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>3.3705744862087736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>3.3705745111657768</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>3.3705744861665643</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
         <v>3.3585413596161509</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2"/>
+      <c r="M7">
         <v>3.3585413832969815</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7">
         <v>3.3585413596079117</v>
       </c>
-      <c r="J7" s="2">
+      <c r="Q7">
         <v>3.3814257126931051</v>
       </c>
-      <c r="K7" s="2">
+      <c r="S7">
         <v>3.3814257390651354</v>
       </c>
-      <c r="L7" s="2">
+      <c r="U7">
         <v>3.3814257126904477</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1960,35 +2153,40 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>0.95629285402282127</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>0.95629286865924534</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>0.95629285402757258</v>
       </c>
-      <c r="G8" s="2">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
         <v>0.9638796195720013</v>
       </c>
-      <c r="H8" s="2">
+      <c r="L8" s="2"/>
+      <c r="M8">
         <v>0.96387964040158569</v>
       </c>
-      <c r="I8" s="2">
+      <c r="O8">
         <v>0.96387961957334634</v>
       </c>
-      <c r="J8" s="2">
+      <c r="Q8">
         <v>0.94940262027556399</v>
       </c>
-      <c r="K8" s="2">
+      <c r="S8">
         <v>0.94940262820400689</v>
       </c>
-      <c r="L8" s="2">
+      <c r="U8">
         <v>0.94940262027596189</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1998,374 +2196,424 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>1.0437071459705156</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>1.0437071399465965</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
         <v>1.0437071459731286</v>
       </c>
-      <c r="G9" s="2">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
         <v>1.0361203804279788</v>
       </c>
-      <c r="H9" s="2">
+      <c r="L9" s="2"/>
+      <c r="M9">
         <v>1.0361203701947646</v>
       </c>
-      <c r="I9" s="2">
+      <c r="O9">
         <v>1.0361203804280366</v>
       </c>
-      <c r="J9" s="2">
+      <c r="Q9">
         <v>1.0505973797245405</v>
       </c>
-      <c r="K9" s="2">
+      <c r="S9">
         <v>1.0505973793854231</v>
       </c>
-      <c r="L9" s="2">
+      <c r="U9">
         <v>1.050597379724407</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>0.99692561742878794</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>0.99692563221448494</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>0.99692561742738139</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>1.0069556546590603</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10">
+        <v>1.0069556766229943</v>
+      </c>
+      <c r="O10">
+        <v>1.0069556546586325</v>
+      </c>
+      <c r="Q10">
+        <v>0.98785653343474333</v>
+      </c>
+      <c r="S10">
+        <v>0.98785653983406418</v>
+      </c>
+      <c r="U10">
+        <v>0.98785653343465762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1.0997573147231834</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>1.099757312409851</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>1.0997573147161213</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>1.0946556994675825</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11">
+        <v>1.0946556944648935</v>
+      </c>
+      <c r="O11">
+        <v>1.0946556994653955</v>
+      </c>
+      <c r="Q11">
+        <v>1.1043704861333683</v>
+      </c>
+      <c r="S11">
+        <v>1.1043704870442315</v>
+      </c>
+      <c r="U11">
+        <v>1.1043704861326116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>1.0130631726981851</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <v>1.0372738538416091</v>
       </c>
-      <c r="G10" s="2">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
         <v>1.0136818459490267</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="L12" s="2"/>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>1.0391779126469205</v>
       </c>
-      <c r="J10" s="2">
+      <c r="Q12">
         <v>1.0124998752468384</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>1.0355526292708772</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
         <v>0.99467891964556188</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <v>0.98185279887846</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <v>1.0184502448866335</v>
       </c>
-      <c r="G11" s="2">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
         <v>0.99437239916979381</v>
       </c>
-      <c r="H11" s="2">
+      <c r="L13" s="2"/>
+      <c r="M13">
         <v>0.98095116648996827</v>
       </c>
-      <c r="I11" s="2">
+      <c r="O13">
         <v>1.0193827957882367</v>
       </c>
-      <c r="J11" s="2">
+      <c r="Q13">
         <v>0.99495316728611727</v>
       </c>
-      <c r="K11" s="2">
+      <c r="S13">
         <v>0.9826699099693974</v>
       </c>
-      <c r="L11" s="2">
+      <c r="U13">
         <v>1.0176064151448934</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>0.97665931608675938</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>0.96406554312574255</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
         <v>0.97546515722840543</v>
       </c>
-      <c r="H12" s="2">
+      <c r="L14" s="2"/>
+      <c r="M14">
         <v>0.96229910684127029</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
         <v>0.977738693937376</v>
       </c>
-      <c r="K12" s="2">
+      <c r="S14">
         <v>0.96566795133323124</v>
       </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>1.0513495045774512</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
         <v>1.0377926343460309</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
         <v>1.0764751712748304</v>
       </c>
-      <c r="G13" s="2">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
         <v>1.0539766540971593</v>
       </c>
-      <c r="H13" s="2">
+      <c r="L15" s="2"/>
+      <c r="M15">
         <v>1.0397509357684023</v>
       </c>
-      <c r="I13" s="2">
+      <c r="O15">
         <v>1.0804862134585973</v>
       </c>
-      <c r="J13" s="2">
+      <c r="Q15">
         <v>1.0489748733371953</v>
       </c>
-      <c r="K13" s="2">
+      <c r="S15">
         <v>1.0360246878268555</v>
       </c>
-      <c r="L13" s="2">
+      <c r="U15">
         <v>1.0728580957681633</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>6.4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>6.317473658445329</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
         <v>6.5529503425496607</v>
       </c>
-      <c r="G14" s="2">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
         <v>6.4</v>
       </c>
-      <c r="H14" s="2">
+      <c r="L16" s="2"/>
+      <c r="M16">
         <v>6.3136179416383946</v>
       </c>
-      <c r="I14" s="2">
+      <c r="O16">
         <v>6.5609724269171945</v>
       </c>
-      <c r="J14" s="2">
+      <c r="Q16">
         <v>6.4</v>
       </c>
-      <c r="K14" s="2">
+      <c r="S16">
         <v>6.3209883615199285</v>
       </c>
-      <c r="L14" s="2">
+      <c r="U16">
         <v>6.5457161915363269</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>2.1058245831317985</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>2.1058245831109526</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>2.1058245528151098</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
         <v>2.1058245831225109</v>
       </c>
-      <c r="G15" s="2">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
         <v>2.1316091143057374</v>
       </c>
-      <c r="H15" s="2">
+      <c r="L17" s="2"/>
+      <c r="M17">
         <v>2.1316090916766774</v>
       </c>
-      <c r="I15" s="2">
+      <c r="O17">
         <v>2.1316091143045899</v>
       </c>
-      <c r="J15" s="2">
+      <c r="Q17">
         <v>2.0825117586813389</v>
       </c>
-      <c r="K15" s="2">
+      <c r="S17">
         <v>2.0825117266148059</v>
       </c>
-      <c r="L15" s="2">
+      <c r="U17">
         <v>2.0825117586808339</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
-        <v>4.2894913950594482</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>4.2894913950169853</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <v>4.2894913681980196</v>
       </c>
-      <c r="F16" s="2">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
         <v>4.2894913950225018</v>
       </c>
-      <c r="G16" s="2">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
         <v>4.2632182286114748</v>
       </c>
-      <c r="H16" s="2">
+      <c r="L18" s="2"/>
+      <c r="M18">
         <v>4.2632181833533549</v>
       </c>
-      <c r="I16" s="2">
+      <c r="O18">
         <v>4.2632182286091798</v>
       </c>
-      <c r="J16" s="2">
+      <c r="Q18">
         <v>4.3132252303298442</v>
       </c>
-      <c r="K16" s="2">
+      <c r="S18">
         <v>4.3132252162245592</v>
       </c>
-      <c r="L16" s="2">
+      <c r="U18">
         <v>4.3132252303282845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.99692561742878794</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.99692563221448494</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.99692561742738139</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.0069556546590603</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.0069556766229943</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.0069556546586325</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.98785653343474333</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.98785653983406418</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.98785653343465762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.0997573147231834</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.099757312409851</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.0997573147161213</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.0946556994675825</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.0946556944648935</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.0946556994653955</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1.1043704861333683</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1.1043704870442315</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1.1043704861326116</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B946A61-DE4A-4E68-AD5F-32CB5900BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9159EA5F-4CAC-4F5D-B764-2B9506C72D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1860" windowWidth="6410" windowHeight="3320" firstSheet="3" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7460" firstSheet="3" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>X.L</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>D Y=6.4</t>
+  </si>
+  <si>
+    <t>CWI</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1712,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
@@ -1799,58 +1802,58 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>6.0086272827607878</v>
+        <v>6.0271570694089363</v>
       </c>
       <c r="F2" s="2">
-        <v>3.969734742721247</v>
+        <v>3.9819768629877865</v>
       </c>
       <c r="G2" s="2">
-        <v>6.0086273837631206</v>
+        <v>6.0271570813322075</v>
       </c>
       <c r="H2" s="2">
-        <v>3.9697347814888042</v>
+        <v>3.9819768428170277</v>
       </c>
       <c r="I2" s="2">
-        <v>6.0086272827461693</v>
+        <v>6.0271570694027758</v>
       </c>
       <c r="J2" s="2">
-        <v>3.9697347427227063</v>
+        <v>3.9819768629948684</v>
       </c>
       <c r="K2" s="2">
-        <v>6.070435101918509</v>
+        <v>6.0285029175131495</v>
       </c>
       <c r="L2" s="2">
-        <v>4.0087789692547222</v>
+        <v>3.9810878966780647</v>
       </c>
       <c r="M2">
-        <v>6.0704352490597788</v>
+        <v>6.0285029321430184</v>
       </c>
       <c r="N2">
-        <v>4.0087790323026393</v>
+        <v>3.9810878724541241</v>
       </c>
       <c r="O2">
-        <v>6.0704351019154714</v>
+        <v>6.0285029175126947</v>
       </c>
       <c r="P2">
-        <v>4.0087789692526794</v>
+        <v>3.9810878966777277</v>
       </c>
       <c r="Q2">
-        <v>5.9527613306717484</v>
+        <v>6.0259370963253147</v>
       </c>
       <c r="R2">
-        <v>3.9344182362759095</v>
+        <v>3.9827830288230945</v>
       </c>
       <c r="S2">
-        <v>5.9527613780232977</v>
+        <v>6.025937105223008</v>
       </c>
       <c r="T2">
-        <v>3.9344182460282098</v>
+        <v>3.9827830128948642</v>
       </c>
       <c r="U2">
-        <v>5.9527613306711453</v>
+        <v>6.0259370963252268</v>
       </c>
       <c r="V2">
-        <v>3.9344182362754143</v>
+        <v>3.9827830288229387</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
@@ -1867,58 +1870,58 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>2.2332352321214946</v>
+        <v>2.0306618580514879</v>
       </c>
       <c r="F3" s="2">
-        <v>2.1663031890054865</v>
+        <v>1.9698011188502622</v>
       </c>
       <c r="G3" s="2">
-        <v>2.2332352424687842</v>
+        <v>2.0306618717316747</v>
       </c>
       <c r="H3" s="2">
-        <v>2.1663031645018793</v>
+        <v>1.9698011007128038</v>
       </c>
       <c r="I3" s="2">
-        <v>2.2332352320993802</v>
+        <v>2.0306618580444193</v>
       </c>
       <c r="J3" s="2">
-        <v>2.1663031890009434</v>
+        <v>1.9698011188587803</v>
       </c>
       <c r="K3" s="2">
-        <v>2.2245672645540826</v>
+        <v>2.0322072644723499</v>
       </c>
       <c r="L3" s="2">
-        <v>2.1546142829123349</v>
+        <v>1.968303169627029</v>
       </c>
       <c r="M3">
-        <v>2.2245672727916879</v>
+        <v>2.0322072812850394</v>
       </c>
       <c r="N3">
-        <v>2.1546142489574196</v>
+        <v>1.9683031476035679</v>
       </c>
       <c r="O3">
-        <v>2.2245672645490631</v>
+        <v>2.0322072644718245</v>
       </c>
       <c r="P3">
-        <v>2.1546142829083506</v>
+        <v>1.9683031696273214</v>
       </c>
       <c r="Q3">
-        <v>2.2410583217899034</v>
+        <v>2.0292631412455764</v>
       </c>
       <c r="R3">
-        <v>2.1768896575049337</v>
+        <v>1.9711588500763715</v>
       </c>
       <c r="S3">
-        <v>2.2410583348961191</v>
+        <v>2.0292631514394697</v>
       </c>
       <c r="T3">
-        <v>2.1768896440189911</v>
+        <v>1.9711588362391685</v>
       </c>
       <c r="U3">
-        <v>2.2410583217882571</v>
+        <v>2.0292631412454765</v>
       </c>
       <c r="V3">
-        <v>2.1768896575034709</v>
+        <v>1.9711588500763977</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -1935,58 +1938,58 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>1.966529187661999</v>
+        <v>1.9725936953390322</v>
       </c>
       <c r="F4" s="2">
-        <v>2.0215528819412558</v>
+        <v>2.0277870751833285</v>
       </c>
       <c r="G4" s="2">
-        <v>1.9665292047218597</v>
+        <v>1.9725936831953861</v>
       </c>
       <c r="H4" s="2">
-        <v>2.0215529181274978</v>
+        <v>2.0277870814064576</v>
       </c>
       <c r="I4" s="2">
-        <v>1.9665291876654798</v>
+        <v>1.9725936953453067</v>
       </c>
       <c r="J4" s="2">
-        <v>2.021552881933502</v>
+        <v>2.0277870751784119</v>
       </c>
       <c r="K4" s="2">
-        <v>1.9849334846109026</v>
+        <v>1.9712223427385891</v>
       </c>
       <c r="L4" s="2">
-        <v>2.0433121780876582</v>
+        <v>2.0291977791012972</v>
       </c>
       <c r="M4">
-        <v>1.9849335128890031</v>
+        <v>1.9712223278246288</v>
       </c>
       <c r="N4">
-        <v>2.0433122306418272</v>
+        <v>2.0291977870311428</v>
       </c>
       <c r="O4">
-        <v>1.9849334846105282</v>
+        <v>1.9712223427390549</v>
       </c>
       <c r="P4">
-        <v>2.0433121780859791</v>
+        <v>2.029197779100492</v>
       </c>
       <c r="Q4">
-        <v>1.9498664921172697</v>
+        <v>1.9738356999448601</v>
       </c>
       <c r="R4">
-        <v>2.0019022524769183</v>
+        <v>2.026511122537574</v>
       </c>
       <c r="S4">
-        <v>1.9498664958038201</v>
+        <v>1.9738356908902481</v>
       </c>
       <c r="T4">
-        <v>2.0019022695783657</v>
+        <v>2.0265111267215343</v>
       </c>
       <c r="U4">
-        <v>1.949866492117188</v>
+        <v>1.9738356999449487</v>
       </c>
       <c r="V4">
-        <v>2.0019022524765471</v>
+        <v>2.0265111225373742</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -2003,58 +2006,58 @@
         <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>10.963541405244653</v>
+        <v>9.9690552256106191</v>
       </c>
       <c r="F5" s="2">
-        <v>6.6190263159355167</v>
+        <v>6.018624497716182</v>
       </c>
       <c r="G5" s="2">
-        <v>10.96354136685996</v>
+        <v>9.9690552116775866</v>
       </c>
       <c r="H5" s="2">
-        <v>6.6190262949080987</v>
+        <v>6.0186244912562668</v>
       </c>
       <c r="I5" s="2">
-        <v>10.963541405182166</v>
+        <v>9.9690552256178169</v>
       </c>
       <c r="J5" s="2">
-        <v>6.6190263158938167</v>
+        <v>6.018624497716913</v>
       </c>
       <c r="K5" s="2">
-        <v>10.910959374527764</v>
+        <v>9.9674805327690024</v>
       </c>
       <c r="L5" s="2">
-        <v>6.5893624524400236</v>
+        <v>6.019575338295823</v>
       </c>
       <c r="M5">
-        <v>10.910959305902068</v>
+        <v>9.9674805156298323</v>
       </c>
       <c r="N5">
-        <v>6.5893624144422303</v>
+        <v>6.0195753310938045</v>
       </c>
       <c r="O5">
-        <v>10.910959374506552</v>
+        <v>9.9674805327695388</v>
       </c>
       <c r="P5">
-        <v>6.5893624524257799</v>
+        <v>6.0195753382948372</v>
       </c>
       <c r="Q5">
-        <v>11.011102963317315</v>
+        <v>9.9704792020198632</v>
       </c>
       <c r="R5">
-        <v>6.645841972628391</v>
+        <v>6.0177649222561822</v>
       </c>
       <c r="S5">
-        <v>11.011102960942685</v>
+        <v>9.9704791916461968</v>
       </c>
       <c r="T5">
-        <v>6.6458419717566732</v>
+        <v>6.0177649165035128</v>
       </c>
       <c r="U5">
-        <v>11.011102963309883</v>
+        <v>9.9704792020199662</v>
       </c>
       <c r="V5">
-        <v>6.6458419726235292</v>
+        <v>6.0177649222559033</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
@@ -2069,35 +2072,35 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>1.0294255138385817</v>
+        <v>1.0326001216556313</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1.0294255431580739</v>
+        <v>1.0326001357507444</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
-        <v>1.0294255138282276</v>
+        <v>1.032600121646702</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>1.0414586403838779</v>
+        <v>1.0342646526340822</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6">
-        <v>1.0414586805191435</v>
+        <v>1.0342646699325051</v>
       </c>
       <c r="O6">
-        <v>1.0414586403827182</v>
+        <v>1.0342646526333701</v>
       </c>
       <c r="Q6">
-        <v>1.0185742873068173</v>
+        <v>1.0310953593284131</v>
       </c>
       <c r="S6">
-        <v>1.0185743040856408</v>
+        <v>1.031095369634073</v>
       </c>
       <c r="U6">
-        <v>1.0185742873065731</v>
+        <v>1.0310953593282555</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
@@ -2112,35 +2115,35 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>3.3705744862087736</v>
+        <v>3.0648347968089404</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>3.3705745111657768</v>
+        <v>3.0648348259489921</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
-        <v>3.3705744861665643</v>
+        <v>3.0648347967902407</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
-        <v>3.3585413596161509</v>
+        <v>3.068125768905853</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7">
-        <v>3.3585413832969815</v>
+        <v>3.0681258045606343</v>
       </c>
       <c r="O7">
-        <v>3.3585413596079117</v>
+        <v>3.0681257689044559</v>
       </c>
       <c r="Q7">
-        <v>3.3814257126931051</v>
+        <v>3.0618580948610665</v>
       </c>
       <c r="S7">
-        <v>3.3814257390651354</v>
+        <v>3.0618581162154008</v>
       </c>
       <c r="U7">
-        <v>3.3814257126904477</v>
+        <v>3.0618580948607583</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -2155,35 +2158,35 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>0.95629285402282127</v>
+        <v>0.95924193069612929</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>0.95629286865924534</v>
+        <v>0.95924193115089085</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
-        <v>0.95629285402757258</v>
+        <v>0.95924193070224861</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
-        <v>0.9638796195720013</v>
+        <v>0.9572215172656795</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8">
-        <v>0.96387964040158569</v>
+        <v>0.957221517072259</v>
       </c>
       <c r="O8">
-        <v>0.96387961957334634</v>
+        <v>0.957221517267422</v>
       </c>
       <c r="Q8">
-        <v>0.94940262027556399</v>
+        <v>0.96107338276594034</v>
       </c>
       <c r="S8">
-        <v>0.94940262820400689</v>
+        <v>0.96107338456602553</v>
       </c>
       <c r="U8">
-        <v>0.94940262027596189</v>
+        <v>0.96107338276642651</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -2198,35 +2201,35 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>1.0437071459705156</v>
+        <v>0.9490340568757426</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1.0437071399465965</v>
+        <v>0.94903405339453106</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <v>1.0437071459731286</v>
+        <v>0.94903405688421294</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
-        <v>1.0361203804279788</v>
+        <v>0.94652627390687871</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9">
-        <v>1.0361203701947646</v>
+        <v>0.94652626888426039</v>
       </c>
       <c r="O9">
-        <v>1.0361203804280366</v>
+        <v>0.94652627390882238</v>
       </c>
       <c r="Q9">
-        <v>1.0505973797245405</v>
+        <v>0.95130881612284057</v>
       </c>
       <c r="S9">
-        <v>1.0505973793854231</v>
+        <v>0.95130881503115117</v>
       </c>
       <c r="U9">
-        <v>1.050597379724407</v>
+        <v>0.95130881612337159</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
@@ -2542,7 +2545,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <v>2.1058245831109526</v>
+        <v>2.1058245831317985</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2585,7 +2588,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
-        <v>4.2894913950169853</v>
+        <v>4.2894913950594482</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2614,6 +2617,17 @@
       </c>
       <c r="U18">
         <v>4.3132252303282845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9159EA5F-4CAC-4F5D-B764-2B9506C72D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C741E-0ABA-4B88-9D47-BC3694400CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7460" firstSheet="3" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7460" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
     <sheet name="TwoxTwoJPMGE" sheetId="4" r:id="rId2"/>
     <sheet name="TwoxTwoCESProd" sheetId="5" r:id="rId3"/>
     <sheet name="JPMGE" sheetId="6" r:id="rId4"/>
+    <sheet name="TwoxTwoCET-Scalar" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
   <si>
     <t>X.L</t>
   </si>
@@ -213,6 +214,96 @@
   </si>
   <si>
     <t>CWI</t>
+  </si>
+  <si>
+    <t>A.L</t>
+  </si>
+  <si>
+    <t>B.L</t>
+  </si>
+  <si>
+    <t>W.L</t>
+  </si>
+  <si>
+    <t>PW.L</t>
+  </si>
+  <si>
+    <t>CONS.L</t>
+  </si>
+  <si>
+    <t>SAX.L</t>
+  </si>
+  <si>
+    <t>SAY.L</t>
+  </si>
+  <si>
+    <t>SBX.L</t>
+  </si>
+  <si>
+    <t>SBY.L</t>
+  </si>
+  <si>
+    <t>DAL.L</t>
+  </si>
+  <si>
+    <t>DAK.L</t>
+  </si>
+  <si>
+    <t>DBL.L</t>
+  </si>
+  <si>
+    <t>DBK.L</t>
+  </si>
+  <si>
+    <t>SW.L</t>
+  </si>
+  <si>
+    <t>DWX.L</t>
+  </si>
+  <si>
+    <t>DWY.L</t>
+  </si>
+  <si>
+    <t>DW.L</t>
+  </si>
+  <si>
+    <t>CWI.L</t>
+  </si>
+  <si>
+    <t>PX.L/PW.L</t>
+  </si>
+  <si>
+    <t>PY.L/PW.L</t>
+  </si>
+  <si>
+    <t>PW.L/PW.L</t>
+  </si>
+  <si>
+    <t>PL.L/PW.L</t>
+  </si>
+  <si>
+    <t>PK.L/PW.L</t>
+  </si>
+  <si>
+    <t>CONS.L/PW.L</t>
+  </si>
+  <si>
+    <t>diff=10</t>
+  </si>
+  <si>
+    <t>PW.FX=1</t>
+  </si>
+  <si>
+    <t>TrA=2, TrB=1.5</t>
+  </si>
+  <si>
+    <t>TA=0.1</t>
+  </si>
+  <si>
+    <t>TA=100%</t>
+  </si>
+  <si>
+    <t>Undf</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2633,4 +2724,678 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E4E009-E95D-4525-8C72-CDF28BC03388}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.84841617526015112</v>
+      </c>
+      <c r="D2">
+        <v>0.8484161751970315</v>
+      </c>
+      <c r="E2">
+        <v>0.70716515735515006</v>
+      </c>
+      <c r="F2">
+        <v>0.38751484805497743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.1506325096039884</v>
+      </c>
+      <c r="D3">
+        <v>1.1506325095207364</v>
+      </c>
+      <c r="E3">
+        <v>1.2893059702343606</v>
+      </c>
+      <c r="F3">
+        <v>1.5972629436210768</v>
+      </c>
+      <c r="G3">
+        <v>1.9601317042077897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0035850931326258</v>
+      </c>
+      <c r="D4">
+        <v>1.0035850930478027</v>
+      </c>
+      <c r="E4">
+        <v>1.0068914996667162</v>
+      </c>
+      <c r="F4">
+        <v>0.99916851890038427</v>
+      </c>
+      <c r="G4">
+        <v>0.97073779227082346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0231427182799986</v>
+      </c>
+      <c r="D5">
+        <v>1.026810780303149</v>
+      </c>
+      <c r="E5">
+        <v>1.0161855054344244</v>
+      </c>
+      <c r="F5">
+        <v>1.0862618717772732</v>
+      </c>
+      <c r="G5">
+        <v>1.1690468695684746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.87359232216492444</v>
+      </c>
+      <c r="D6">
+        <v>0.87672423219236795</v>
+      </c>
+      <c r="E6">
+        <v>0.88681325620491058</v>
+      </c>
+      <c r="F6">
+        <v>0.8240896931384919</v>
+      </c>
+      <c r="G6">
+        <v>0.76012909543532714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.99642771370717265</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.0314650721357199</v>
+      </c>
+      <c r="D8">
+        <v>1.0351629708854646</v>
+      </c>
+      <c r="E8">
+        <v>1.0678356276899741</v>
+      </c>
+      <c r="F8">
+        <v>1.1033933594907179</v>
+      </c>
+      <c r="G8">
+        <v>1.1648853507249877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.96853492724769141</v>
+      </c>
+      <c r="D9">
+        <v>0.97200721521014155</v>
+      </c>
+      <c r="E9">
+        <v>0.94594737164343623</v>
+      </c>
+      <c r="F9">
+        <v>0.85817103861968913</v>
+      </c>
+      <c r="G9">
+        <v>0.77659023381665881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>200.71701860956063</v>
+      </c>
+      <c r="E10">
+        <v>201.37829993334105</v>
+      </c>
+      <c r="F10">
+        <v>199.83370377972741</v>
+      </c>
+      <c r="G10">
+        <v>194.14755845416465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>80.000000000000014</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>83.789979418307453</v>
+      </c>
+      <c r="F11">
+        <v>86.636474448757937</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20.000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>15.953297102016906</v>
+      </c>
+      <c r="F12">
+        <v>12.465814866890884</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>30.000000000000004</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>34.553784903611799</v>
+      </c>
+      <c r="F13">
+        <v>39.310669882974452</v>
+      </c>
+      <c r="G13">
+        <v>44.380086793200221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>75.119576065481453</v>
+      </c>
+      <c r="F14">
+        <v>69.26902850423329</v>
+      </c>
+      <c r="G14">
+        <v>62.049748999369605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>38.517354230045243</v>
+      </c>
+      <c r="D15">
+        <v>38.517354222141414</v>
+      </c>
+      <c r="E15">
+        <v>37.194397849630214</v>
+      </c>
+      <c r="F15">
+        <v>34.40060528627518</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>61.530004404080294</v>
+      </c>
+      <c r="D16">
+        <v>61.53000441249764</v>
+      </c>
+      <c r="E16">
+        <v>62.98051725431754</v>
+      </c>
+      <c r="F16">
+        <v>66.345864158482783</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>58.508040668387657</v>
+      </c>
+      <c r="D17">
+        <v>58.508040660383685</v>
+      </c>
+      <c r="E17">
+        <v>57.160534034089842</v>
+      </c>
+      <c r="F17">
+        <v>54.261106485862463</v>
+      </c>
+      <c r="G17">
+        <v>51.016980025031643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>41.539717147859804</v>
+      </c>
+      <c r="D18">
+        <v>41.539717156383809</v>
+      </c>
+      <c r="E18">
+        <v>43.017230886987115</v>
+      </c>
+      <c r="F18">
+        <v>46.51080952457405</v>
+      </c>
+      <c r="G18">
+        <v>51.016980025031621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>200.71701862652515</v>
+      </c>
+      <c r="D19">
+        <v>200.71701860956054</v>
+      </c>
+      <c r="E19">
+        <v>201.37829993334324</v>
+      </c>
+      <c r="F19">
+        <v>199.83370378007686</v>
+      </c>
+      <c r="G19">
+        <v>194.14755845416468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>102.3922693035888</v>
+      </c>
+      <c r="D20">
+        <v>102.39226930136157</v>
+      </c>
+      <c r="E20">
+        <v>103.80375515055297</v>
+      </c>
+      <c r="F20">
+        <v>96.362396524949176</v>
+      </c>
+      <c r="G20">
+        <v>86.990815158845137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>109.01892428236799</v>
+      </c>
+      <c r="D21">
+        <v>109.0189242656265</v>
+      </c>
+      <c r="E21">
+        <v>108.13373375818081</v>
+      </c>
+      <c r="F21">
+        <v>115.47154072457153</v>
+      </c>
+      <c r="G21">
+        <v>121.62568025179993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>200.71701859259665</v>
+      </c>
+      <c r="D22">
+        <v>200.71701860956063</v>
+      </c>
+      <c r="E22">
+        <v>201.37829993334105</v>
+      </c>
+      <c r="F22">
+        <v>199.83370377972741</v>
+      </c>
+      <c r="G22">
+        <v>194.14755845416465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1.0035850929629833</v>
+      </c>
+      <c r="D23">
+        <v>1.0035850930478032</v>
+      </c>
+      <c r="E23">
+        <v>1.0068914996667053</v>
+      </c>
+      <c r="F23">
+        <v>0.99916851889863711</v>
+      </c>
+      <c r="G23">
+        <v>0.97073779227082324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1.0268107803559916</v>
+      </c>
+      <c r="D24">
+        <v>1.026810780303149</v>
+      </c>
+      <c r="E24">
+        <v>1.0161855054344244</v>
+      </c>
+      <c r="F24">
+        <v>1.0862618717772732</v>
+      </c>
+      <c r="G24">
+        <v>1.1690468695684746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.87672423212192319</v>
+      </c>
+      <c r="D25">
+        <v>0.87672423219236795</v>
+      </c>
+      <c r="E25">
+        <v>0.88681325620491058</v>
+      </c>
+      <c r="F25">
+        <v>0.8240896931384919</v>
+      </c>
+      <c r="G25">
+        <v>0.76012909543532714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1.0351629706265315</v>
+      </c>
+      <c r="D27">
+        <v>1.0351629708854646</v>
+      </c>
+      <c r="E27">
+        <v>1.0678356276899741</v>
+      </c>
+      <c r="F27">
+        <v>1.1033933594907179</v>
+      </c>
+      <c r="G27">
+        <v>1.1648853507249877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.9720072152994349</v>
+      </c>
+      <c r="D28">
+        <v>0.97200721521014155</v>
+      </c>
+      <c r="E28">
+        <v>0.94594737164343623</v>
+      </c>
+      <c r="F28">
+        <v>0.85817103861968913</v>
+      </c>
+      <c r="G28">
+        <v>0.77659023381665881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29">
+        <v>200.71701865447656</v>
+      </c>
+      <c r="D29">
+        <v>200.71701860956063</v>
+      </c>
+      <c r="E29">
+        <v>201.37829993334105</v>
+      </c>
+      <c r="F29">
+        <v>199.83370377972741</v>
+      </c>
+      <c r="G29">
+        <v>194.14755845416465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9159EA5F-4CAC-4F5D-B764-2B9506C72D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86643BD2-E8CC-4F3A-BB7E-5C441037A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7460" firstSheet="3" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="270" yWindow="-13350" windowWidth="14400" windowHeight="7455" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
     <sheet name="TwoxTwoJPMGE" sheetId="4" r:id="rId2"/>
     <sheet name="TwoxTwoCESProd" sheetId="5" r:id="rId3"/>
     <sheet name="JPMGE" sheetId="6" r:id="rId4"/>
+    <sheet name="TwoxTwowTax" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
   <si>
     <t>X.L</t>
   </si>
@@ -213,6 +214,39 @@
   </si>
   <si>
     <t>CWI</t>
+  </si>
+  <si>
+    <t>SX.L</t>
+  </si>
+  <si>
+    <t>SY.L</t>
+  </si>
+  <si>
+    <t>DXL.L</t>
+  </si>
+  <si>
+    <t>DXK.L</t>
+  </si>
+  <si>
+    <t>DYL.L</t>
+  </si>
+  <si>
+    <t>DYK.L</t>
+  </si>
+  <si>
+    <t>SU.L</t>
+  </si>
+  <si>
+    <t>DUX.L</t>
+  </si>
+  <si>
+    <t>DUY.L</t>
+  </si>
+  <si>
+    <t>DU.L</t>
+  </si>
+  <si>
+    <t>CWI.L</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2633,4 +2667,371 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999B2CB6-D228-42B8-B68B-E63D641C5E20}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0488088482495366</v>
+      </c>
+      <c r="D2">
+        <v>1.048808848291152</v>
+      </c>
+      <c r="E2">
+        <v>1.0488088481593842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0388601183172488</v>
+      </c>
+      <c r="D3">
+        <v>1.0388601180790369</v>
+      </c>
+      <c r="E3">
+        <v>1.0388601182505068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0454820636535147</v>
+      </c>
+      <c r="D4">
+        <v>1.0454820633736372</v>
+      </c>
+      <c r="E4">
+        <v>1.0454820635708237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.98905852579244424</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.048808848138622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.99853032667237385</v>
+      </c>
+      <c r="D6">
+        <v>1.0095765827722971</v>
+      </c>
+      <c r="E6">
+        <v>1.058852852879361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.9922057674249718</v>
+      </c>
+      <c r="D7">
+        <v>1.0031820580243815</v>
+      </c>
+      <c r="E7">
+        <v>1.0521462187479544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.94303030266405441</v>
+      </c>
+      <c r="D8">
+        <v>0.95346258924320726</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0373333333393082</v>
+      </c>
+      <c r="D9">
+        <v>1.048808848128669</v>
+      </c>
+      <c r="E9">
+        <v>1.0999999998972825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>187.5</v>
+      </c>
+      <c r="C10">
+        <v>194.5</v>
+      </c>
+      <c r="D10">
+        <v>196.65165902915749</v>
+      </c>
+      <c r="E10">
+        <v>206.24999999007531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>124.99999999999999</v>
+      </c>
+      <c r="E11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>62.5</v>
+      </c>
+      <c r="C12">
+        <v>62.500000000000007</v>
+      </c>
+      <c r="D12">
+        <v>62.500000000000007</v>
+      </c>
+      <c r="E12">
+        <v>62.499999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>52.440442418841862</v>
+      </c>
+      <c r="D13">
+        <v>52.440442407536104</v>
+      </c>
+      <c r="E13">
+        <v>52.440442406059141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>47.673129452884808</v>
+      </c>
+      <c r="D14">
+        <v>47.673129463162773</v>
+      </c>
+      <c r="E14">
+        <v>47.673129464505458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>21.177057063443652</v>
+      </c>
+      <c r="D15">
+        <v>21.177057057964916</v>
+      </c>
+      <c r="E15">
+        <v>21.17705705724919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.877805075132347</v>
+      </c>
+      <c r="D16">
+        <v>28.877805080113006</v>
+      </c>
+      <c r="E16">
+        <v>28.877805080763672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>187.5</v>
+      </c>
+      <c r="C17">
+        <v>196.02788693503402</v>
+      </c>
+      <c r="D17">
+        <v>196.02788688255697</v>
+      </c>
+      <c r="E17">
+        <v>196.02788691952946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>131.10110603221005</v>
+      </c>
+      <c r="D18">
+        <v>131.10110599531828</v>
+      </c>
+      <c r="E18">
+        <v>131.10110601980654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>62.5</v>
+      </c>
+      <c r="C19">
+        <v>64.928757393926062</v>
+      </c>
+      <c r="D19">
+        <v>64.928757378323226</v>
+      </c>
+      <c r="E19">
+        <v>64.928757390805515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>187.5</v>
+      </c>
+      <c r="C20">
+        <v>187.49999997857734</v>
+      </c>
+      <c r="D20">
+        <v>187.50000003446129</v>
+      </c>
+      <c r="E20">
+        <v>187.49999999867345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>187.5</v>
+      </c>
+      <c r="C21">
+        <v>196.027886912637</v>
+      </c>
+      <c r="D21">
+        <v>196.02788691858564</v>
+      </c>
+      <c r="E21">
+        <v>196.02788691814257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C741E-0ABA-4B88-9D47-BC3694400CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE404EE-4DBF-4459-A75E-F604EBE60C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7460" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="792" yWindow="792" windowWidth="17280" windowHeight="9024" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -666,9 +666,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -682,7 +682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +699,7 @@
         <v>1.0488088481700486</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1.0388601182540098</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1.0454820635789062</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1.048808848169914</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1.0588528529215189</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,7 +784,7 @@
         <v>1.0521462187826638</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1.0999999999996399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,7 +835,7 @@
         <v>164.99999999997118</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,7 +852,7 @@
         <v>52.440442408500388</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -869,7 +869,7 @@
         <v>21.177057058432069</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -886,7 +886,7 @@
         <v>47.673129462283626</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -903,7 +903,7 @@
         <v>28.877805079687114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -920,7 +920,7 @@
         <v>100.31820580257069</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -937,7 +937,7 @@
         <v>49.683306602973595</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1.0095765827768624</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1.0031820580257051</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0.95346258924580818</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1.0488088481700457</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1052,9 +1052,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>2.0451802919810183</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>6.086084552975235E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>-5.5193504067180932E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>3.9504305501987567</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1.0326000343166328</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3.0648345557341203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0.95924189654998493</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0.94903401664811615</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0.99692550469586405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1.0997574149564511</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>2.1058244871455893</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>4.2894913534466479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>1.0372737425956957</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1.018450090273892</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1.0764751417262008</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1415,9 +1415,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>1.0505065382287513</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>1.0324804191325847</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1.0444631317219772</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>1.0950935908893114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1.1142128759827274</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>1.1014299521552819</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>1.1945055822716992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>172.56044658173593</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>52.32335976642014</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>21.340810008438144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>47.874200147361819</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>28.773271804644232</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>100.57861367465195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>49.426369767125827</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>1.0174590420877996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>1.0057861367454675</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0.91316395997525013</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>1.0907794477197668</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>157.57598073567559</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1812,12 +1812,12 @@
       <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>3.9827830288229387</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>1.9711588500763977</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>2.0265111225373742</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>6.0177649222559033</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1.0310953593282555</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>3.0618580948607583</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0.96107338276642651</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0.95130881612337159</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0.98785653343465762</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1.1043704861326116</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>1.0355526292708772</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1.0176064151448934</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>1.0728580957681633</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>6.5457161915363269</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>2.0825117586808339</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>4.3132252303282845</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2732,9 +2732,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0.38751484805497743</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1.9601317042077897</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0.97073779227082346</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1.1690468695684746</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0.76012909543532714</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>1.1648853507249877</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0.77659023381665881</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>194.14755845416465</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>44.380086793200221</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>62.049748999369605</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>51.016980025031643</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>51.016980025031621</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>194.14755845416468</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>86.990815158845137</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>121.62568025179993</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>194.14755845416465</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0.97073779227082324</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1.1690468695684746</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0.76012909543532714</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>1.1648853507249877</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0.77659023381665881</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE404EE-4DBF-4459-A75E-F604EBE60C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152DDCCF-6882-4CBE-9AF6-D933155FD53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="792" windowWidth="17280" windowHeight="9024" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="12384" yWindow="348" windowWidth="10656" windowHeight="10008" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -2765,13 +2765,13 @@
         <v>0.84841617526015112</v>
       </c>
       <c r="D2">
-        <v>0.8484161751970315</v>
+        <v>0.84841617519703094</v>
       </c>
       <c r="E2">
-        <v>0.70716515735515006</v>
+        <v>0.70716515735515251</v>
       </c>
       <c r="F2">
-        <v>0.38751484805497743</v>
+        <v>0.38751484805497977</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2785,16 +2785,16 @@
         <v>1.1506325096039884</v>
       </c>
       <c r="D3">
-        <v>1.1506325095207364</v>
+        <v>1.150632509520737</v>
       </c>
       <c r="E3">
-        <v>1.2893059702343606</v>
+        <v>1.2893059702343586</v>
       </c>
       <c r="F3">
-        <v>1.5972629436210768</v>
+        <v>1.597262943621075</v>
       </c>
       <c r="G3">
-        <v>1.9601317042077897</v>
+        <v>1.9601317042077893</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2811,13 +2811,13 @@
         <v>1.0035850930478027</v>
       </c>
       <c r="E4">
-        <v>1.0068914996667162</v>
+        <v>1.0068914996667164</v>
       </c>
       <c r="F4">
-        <v>0.99916851890038427</v>
+        <v>0.99916851890038483</v>
       </c>
       <c r="G4">
-        <v>0.97073779227082346</v>
+        <v>0.97073779227082335</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2831,16 +2831,16 @@
         <v>1.0231427182799986</v>
       </c>
       <c r="D5">
-        <v>1.026810780303149</v>
+        <v>1.0268107803031492</v>
       </c>
       <c r="E5">
-        <v>1.0161855054344244</v>
+        <v>1.016185505434424</v>
       </c>
       <c r="F5">
-        <v>1.0862618717772732</v>
+        <v>1.0862618717772727</v>
       </c>
       <c r="G5">
-        <v>1.1690468695684746</v>
+        <v>1.1690468695684744</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2854,16 +2854,16 @@
         <v>0.87359232216492444</v>
       </c>
       <c r="D6">
-        <v>0.87672423219236795</v>
+        <v>0.87672423219236773</v>
       </c>
       <c r="E6">
-        <v>0.88681325620491058</v>
+        <v>0.88681325620491103</v>
       </c>
       <c r="F6">
-        <v>0.8240896931384919</v>
+        <v>0.82408969313849223</v>
       </c>
       <c r="G6">
-        <v>0.76012909543532714</v>
+        <v>0.76012909543532692</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2900,16 +2900,16 @@
         <v>1.0314650721357199</v>
       </c>
       <c r="D8">
-        <v>1.0351629708854646</v>
+        <v>1.0351629708854644</v>
       </c>
       <c r="E8">
-        <v>1.0678356276899741</v>
+        <v>1.0678356276899736</v>
       </c>
       <c r="F8">
-        <v>1.1033933594907179</v>
+        <v>1.1033933594907175</v>
       </c>
       <c r="G8">
-        <v>1.1648853507249877</v>
+        <v>1.1648853507249886</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2923,16 +2923,16 @@
         <v>0.96853492724769141</v>
       </c>
       <c r="D9">
-        <v>0.97200721521014155</v>
+        <v>0.97200721521014122</v>
       </c>
       <c r="E9">
-        <v>0.94594737164343623</v>
+        <v>0.94594737164343634</v>
       </c>
       <c r="F9">
-        <v>0.85817103861968913</v>
+        <v>0.85817103861968957</v>
       </c>
       <c r="G9">
-        <v>0.77659023381665881</v>
+        <v>0.7765902338166587</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2946,16 +2946,16 @@
         <v>200</v>
       </c>
       <c r="D10">
-        <v>200.71701860956063</v>
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>201.37829993334105</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>199.83370377972741</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>194.14755845416465</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,10 @@
         <v>80.000000000000014</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>79.999999999999986</v>
       </c>
       <c r="E11">
-        <v>83.789979418307453</v>
+        <v>83.789979418307439</v>
       </c>
       <c r="F11">
         <v>86.636474448757937</v>
@@ -2992,13 +2992,13 @@
         <v>20.000000000000004</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="E12">
-        <v>15.953297102016906</v>
+        <v>15.953297102016929</v>
       </c>
       <c r="F12">
-        <v>12.465814866890884</v>
+        <v>12.465814866890906</v>
       </c>
       <c r="G12" t="s">
         <v>88</v>
@@ -3018,13 +3018,13 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>34.553784903611799</v>
+        <v>34.553784903611771</v>
       </c>
       <c r="F13">
-        <v>39.310669882974452</v>
+        <v>39.310669882974416</v>
       </c>
       <c r="G13">
-        <v>44.380086793200221</v>
+        <v>44.380086793200228</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3041,10 +3041,10 @@
         <v>80</v>
       </c>
       <c r="E14">
-        <v>75.119576065481453</v>
+        <v>75.119576065481496</v>
       </c>
       <c r="F14">
-        <v>69.26902850423329</v>
+        <v>69.269028504233304</v>
       </c>
       <c r="G14">
         <v>62.049748999369605</v>
@@ -3061,13 +3061,13 @@
         <v>38.517354230045243</v>
       </c>
       <c r="D15">
-        <v>38.517354222141414</v>
+        <v>38.517354222141421</v>
       </c>
       <c r="E15">
-        <v>37.194397849630214</v>
+        <v>37.194397849630228</v>
       </c>
       <c r="F15">
-        <v>34.40060528627518</v>
+        <v>34.400605286275194</v>
       </c>
       <c r="G15" t="s">
         <v>88</v>
@@ -3084,13 +3084,13 @@
         <v>61.530004404080294</v>
       </c>
       <c r="D16">
-        <v>61.53000441249764</v>
+        <v>61.530004412497654</v>
       </c>
       <c r="E16">
-        <v>62.98051725431754</v>
+        <v>62.980517254317519</v>
       </c>
       <c r="F16">
-        <v>66.345864158482783</v>
+        <v>66.345864158482755</v>
       </c>
       <c r="G16" t="s">
         <v>88</v>
@@ -3107,16 +3107,16 @@
         <v>58.508040668387657</v>
       </c>
       <c r="D17">
-        <v>58.508040660383685</v>
+        <v>58.508040660383678</v>
       </c>
       <c r="E17">
-        <v>57.160534034089842</v>
+        <v>57.160534034089849</v>
       </c>
       <c r="F17">
-        <v>54.261106485862463</v>
+        <v>54.261106485862491</v>
       </c>
       <c r="G17">
-        <v>51.016980025031643</v>
+        <v>51.016980025031629</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3130,16 +3130,16 @@
         <v>41.539717147859804</v>
       </c>
       <c r="D18">
-        <v>41.539717156383809</v>
+        <v>41.539717156383801</v>
       </c>
       <c r="E18">
-        <v>43.017230886987115</v>
+        <v>43.017230886987093</v>
       </c>
       <c r="F18">
-        <v>46.51080952457405</v>
+        <v>46.510809524574043</v>
       </c>
       <c r="G18">
-        <v>51.016980025031621</v>
+        <v>51.016980025031643</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3150,19 +3150,19 @@
         <v>200</v>
       </c>
       <c r="C19">
-        <v>200.71701862652515</v>
+        <v>200</v>
       </c>
       <c r="D19">
-        <v>200.71701860956054</v>
+        <v>200</v>
       </c>
       <c r="E19">
-        <v>201.37829993334324</v>
+        <v>200</v>
       </c>
       <c r="F19">
-        <v>199.83370378007686</v>
+        <v>200</v>
       </c>
       <c r="G19">
-        <v>194.14755845416468</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3173,19 +3173,19 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>102.3922693035888</v>
+        <v>102.02649481767209</v>
       </c>
       <c r="D20">
-        <v>102.39226930136157</v>
+        <v>102.02649482407605</v>
       </c>
       <c r="E20">
-        <v>103.80375515055297</v>
+        <v>103.09328779209312</v>
       </c>
       <c r="F20">
-        <v>96.362396524949176</v>
+        <v>96.442586712999145</v>
       </c>
       <c r="G20">
-        <v>86.990815158845137</v>
+        <v>89.613092074379438</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3196,19 +3196,19 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <v>109.01892428236799</v>
+        <v>108.6294774886228</v>
       </c>
       <c r="D21">
-        <v>109.0189242656265</v>
+        <v>108.62947748112251</v>
       </c>
       <c r="E21">
-        <v>108.13373375818081</v>
+        <v>107.3936305887708</v>
       </c>
       <c r="F21">
-        <v>115.47154072457153</v>
+        <v>115.56763302716089</v>
       </c>
       <c r="G21">
-        <v>121.62568025179993</v>
+        <v>125.29200080619496</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3219,19 +3219,19 @@
         <v>200</v>
       </c>
       <c r="C22">
-        <v>200.71701859259665</v>
+        <v>200.71701865447653</v>
       </c>
       <c r="D22">
-        <v>200.71701860956063</v>
+        <v>200</v>
       </c>
       <c r="E22">
-        <v>201.37829993334105</v>
+        <v>200</v>
       </c>
       <c r="F22">
-        <v>199.83370377972741</v>
+        <v>200</v>
       </c>
       <c r="G22">
-        <v>194.14755845416465</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3242,19 +3242,19 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1.0035850929629833</v>
+        <v>1.0035850932723827</v>
       </c>
       <c r="D23">
-        <v>1.0035850930478032</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1.0068914996667053</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.99916851889863711</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.97073779227082324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3268,16 +3268,16 @@
         <v>1.0268107803559916</v>
       </c>
       <c r="D24">
-        <v>1.026810780303149</v>
+        <v>1.0268107803031492</v>
       </c>
       <c r="E24">
-        <v>1.0161855054344244</v>
+        <v>1.016185505434424</v>
       </c>
       <c r="F24">
-        <v>1.0862618717772732</v>
+        <v>1.0862618717772727</v>
       </c>
       <c r="G24">
-        <v>1.1690468695684746</v>
+        <v>1.1690468695684744</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3291,16 +3291,16 @@
         <v>0.87672423212192319</v>
       </c>
       <c r="D25">
-        <v>0.87672423219236795</v>
+        <v>0.87672423219236773</v>
       </c>
       <c r="E25">
-        <v>0.88681325620491058</v>
+        <v>0.88681325620491103</v>
       </c>
       <c r="F25">
-        <v>0.8240896931384919</v>
+        <v>0.82408969313849223</v>
       </c>
       <c r="G25">
-        <v>0.76012909543532714</v>
+        <v>0.76012909543532692</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3337,16 +3337,16 @@
         <v>1.0351629706265315</v>
       </c>
       <c r="D27">
-        <v>1.0351629708854646</v>
+        <v>1.0351629708854644</v>
       </c>
       <c r="E27">
-        <v>1.0678356276899741</v>
+        <v>1.0678356276899736</v>
       </c>
       <c r="F27">
-        <v>1.1033933594907179</v>
+        <v>1.1033933594907175</v>
       </c>
       <c r="G27">
-        <v>1.1648853507249877</v>
+        <v>1.1648853507249886</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3360,16 +3360,16 @@
         <v>0.9720072152994349</v>
       </c>
       <c r="D28">
-        <v>0.97200721521014155</v>
+        <v>0.97200721521014122</v>
       </c>
       <c r="E28">
-        <v>0.94594737164343623</v>
+        <v>0.94594737164343634</v>
       </c>
       <c r="F28">
-        <v>0.85817103861968913</v>
+        <v>0.85817103861968957</v>
       </c>
       <c r="G28">
-        <v>0.77659023381665881</v>
+        <v>0.7765902338166587</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3383,16 +3383,16 @@
         <v>200.71701865447656</v>
       </c>
       <c r="D29">
-        <v>200.71701860956063</v>
+        <v>200</v>
       </c>
       <c r="E29">
-        <v>201.37829993334105</v>
+        <v>200</v>
       </c>
       <c r="F29">
-        <v>199.83370377972741</v>
+        <v>200</v>
       </c>
       <c r="G29">
-        <v>194.14755845416465</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152DDCCF-6882-4CBE-9AF6-D933155FD53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24C9A5E-0D3F-4BC2-8487-958957C13EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12384" yWindow="348" windowWidth="10656" windowHeight="10008" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="12384" yWindow="696" windowWidth="10656" windowHeight="10008" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t>X.L</t>
   </si>
@@ -270,40 +270,55 @@
     <t>CWI.L</t>
   </si>
   <si>
+    <t>diff=10</t>
+  </si>
+  <si>
+    <t>PW.FX=1</t>
+  </si>
+  <si>
+    <t>TA=0.1</t>
+  </si>
+  <si>
+    <t>TA=100%</t>
+  </si>
+  <si>
+    <t>Undf</t>
+  </si>
+  <si>
+    <t>TA=2B=1.5</t>
+  </si>
+  <si>
+    <t>TrA=3B=1</t>
+  </si>
+  <si>
+    <t>TrA/B=1</t>
+  </si>
+  <si>
+    <t>Sub=0Tr=0</t>
+  </si>
+  <si>
+    <t>S0Tr2,1.5</t>
+  </si>
+  <si>
+    <t>S0Tr=3,1</t>
+  </si>
+  <si>
+    <t>Sub=0Tr=1</t>
+  </si>
+  <si>
+    <t>1.52,.5T0</t>
+  </si>
+  <si>
+    <t>S..T2,1.5</t>
+  </si>
+  <si>
+    <t>S...T3,1</t>
+  </si>
+  <si>
+    <t>S...T1,1</t>
+  </si>
+  <si>
     <t>PX.L/PW.L</t>
-  </si>
-  <si>
-    <t>PY.L/PW.L</t>
-  </si>
-  <si>
-    <t>PW.L/PW.L</t>
-  </si>
-  <si>
-    <t>PL.L/PW.L</t>
-  </si>
-  <si>
-    <t>PK.L/PW.L</t>
-  </si>
-  <si>
-    <t>CONS.L/PW.L</t>
-  </si>
-  <si>
-    <t>diff=10</t>
-  </si>
-  <si>
-    <t>PW.FX=1</t>
-  </si>
-  <si>
-    <t>TrA=2, TrB=1.5</t>
-  </si>
-  <si>
-    <t>TA=0.1</t>
-  </si>
-  <si>
-    <t>TA=100%</t>
-  </si>
-  <si>
-    <t>Undf</t>
   </si>
 </sst>
 </file>
@@ -2728,33 +2743,65 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E4E009-E95D-4525-8C72-CDF28BC03388}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -2762,19 +2809,49 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.84841617526015112</v>
+        <v>0.99999999969167375</v>
       </c>
       <c r="D2">
-        <v>0.84841617519703094</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E2">
-        <v>0.70716515735515251</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F2">
-        <v>0.38751484805497977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G2">
+        <v>0.84841617519705081</v>
+      </c>
+      <c r="H2">
+        <v>0.84841617519703227</v>
+      </c>
+      <c r="I2">
+        <v>0.70716515735515162</v>
+      </c>
+      <c r="J2">
+        <v>0.72509467112342096</v>
+      </c>
+      <c r="K2">
+        <v>0.75612889144439288</v>
+      </c>
+      <c r="L2">
+        <v>0.91659821359054672</v>
+      </c>
+      <c r="M2">
+        <v>0.73369015208861166</v>
+      </c>
+      <c r="N2">
+        <v>0.75685954678370782</v>
+      </c>
+      <c r="O2">
+        <v>0.80071809649126724</v>
+      </c>
+      <c r="P2">
+        <v>0.57048205371293126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -2782,22 +2859,52 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.1506325096039884</v>
+        <v>0.99999999965367625</v>
       </c>
       <c r="D3">
-        <v>1.150632509520737</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="E3">
-        <v>1.2893059702343586</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="F3">
-        <v>1.597262943621075</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G3">
-        <v>1.9601317042077893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.150632509520773</v>
+      </c>
+      <c r="H3">
+        <v>1.1506325095207364</v>
+      </c>
+      <c r="I3">
+        <v>1.2893059702343592</v>
+      </c>
+      <c r="J3">
+        <v>1.2717929473142071</v>
+      </c>
+      <c r="K3">
+        <v>1.2414185056039873</v>
+      </c>
+      <c r="L3">
+        <v>1.0832385402482214</v>
+      </c>
+      <c r="M3">
+        <v>1.2646965132512462</v>
+      </c>
+      <c r="N3">
+        <v>1.241790354991813</v>
+      </c>
+      <c r="O3">
+        <v>1.1983681743653367</v>
+      </c>
+      <c r="P3">
+        <v>1.4254342349963718</v>
+      </c>
+      <c r="Q3">
+        <v>1.9797958971135601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2805,22 +2912,52 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.0035850931326258</v>
+        <v>0.99999999937602346</v>
       </c>
       <c r="D4">
-        <v>1.0035850930478027</v>
+        <v>1.0000000000000835</v>
       </c>
       <c r="E4">
-        <v>1.0068914996667164</v>
+        <v>1.0000000000000835</v>
       </c>
       <c r="F4">
-        <v>0.99916851890038483</v>
+        <v>1.0000000000000835</v>
       </c>
       <c r="G4">
-        <v>0.97073779227082335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.0035850930478354</v>
+      </c>
+      <c r="H4">
+        <v>1.0035850930478032</v>
+      </c>
+      <c r="I4">
+        <v>1.0068914996667158</v>
+      </c>
+      <c r="J4">
+        <v>1.0066737049684853</v>
+      </c>
+      <c r="K4">
+        <v>1.0057135773586174</v>
+      </c>
+      <c r="L4">
+        <v>1.0019757361058046</v>
+      </c>
+      <c r="M4">
+        <v>1.0062537377172633</v>
+      </c>
+      <c r="N4">
+        <v>1.0059749908396223</v>
+      </c>
+      <c r="O4">
+        <v>1.0046559044043992</v>
+      </c>
+      <c r="P4">
+        <v>0.9989805146510895</v>
+      </c>
+      <c r="Q4">
+        <v>0.94407743479945161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2828,22 +2965,52 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.0231427182799986</v>
+        <v>1.0246978500088042</v>
       </c>
       <c r="D5">
-        <v>1.0268107803031492</v>
+        <v>0.9523809523809269</v>
       </c>
       <c r="E5">
+        <v>0.9523809523809269</v>
+      </c>
+      <c r="F5">
+        <v>0.9523809523809269</v>
+      </c>
+      <c r="G5">
+        <v>1.0231427184558559</v>
+      </c>
+      <c r="H5">
+        <v>1.0268107803029183</v>
+      </c>
+      <c r="I5">
         <v>1.016185505434424</v>
       </c>
-      <c r="F5">
-        <v>1.0862618717772727</v>
-      </c>
-      <c r="G5">
-        <v>1.1690468695684744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1.0155313673319299</v>
+      </c>
+      <c r="K5">
+        <v>1.0202925382350085</v>
+      </c>
+      <c r="L5">
+        <v>1.0330796752807549</v>
+      </c>
+      <c r="M5">
+        <v>1.0263074053285333</v>
+      </c>
+      <c r="N5">
+        <v>1.0245496568517749</v>
+      </c>
+      <c r="O5">
+        <v>1.0292660659587862</v>
+      </c>
+      <c r="P5">
+        <v>1.1136635243164417</v>
+      </c>
+      <c r="Q5">
+        <v>1.2983516200037846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2851,22 +3018,52 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.87359232216492444</v>
+        <v>0.87283237043207507</v>
       </c>
       <c r="D6">
-        <v>0.87672423219236773</v>
+        <v>0.95238095238098064</v>
       </c>
       <c r="E6">
-        <v>0.88681325620491103</v>
+        <v>0.95238095238098064</v>
       </c>
       <c r="F6">
-        <v>0.82408969313849223</v>
+        <v>0.95238095238098064</v>
       </c>
       <c r="G6">
-        <v>0.76012909543532692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.87359232243054408</v>
+      </c>
+      <c r="H6">
+        <v>0.87672423219258488</v>
+      </c>
+      <c r="I6">
+        <v>0.88681325620491125</v>
+      </c>
+      <c r="J6">
+        <v>0.88744162549260985</v>
+      </c>
+      <c r="K6">
+        <v>0.88288734202338981</v>
+      </c>
+      <c r="L6">
+        <v>0.86740230739395141</v>
+      </c>
+      <c r="M6">
+        <v>0.87425306835177607</v>
+      </c>
+      <c r="N6">
+        <v>0.87603929679048465</v>
+      </c>
+      <c r="O6">
+        <v>0.87125402922695383</v>
+      </c>
+      <c r="P6">
+        <v>0.78953411260391282</v>
+      </c>
+      <c r="Q6">
+        <v>0.63360419775310972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2874,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.99642771370717265</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2886,10 +3083,40 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.99642771392989316</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2897,22 +3124,52 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1.0314650721357199</v>
+        <v>1.0283762514304395</v>
       </c>
       <c r="D8">
-        <v>1.0351629708854644</v>
+        <v>1.2380952380952241</v>
       </c>
       <c r="E8">
-        <v>1.0678356276899736</v>
+        <v>1.2380952380952241</v>
       </c>
       <c r="F8">
-        <v>1.1033933594907175</v>
+        <v>1.2380952380952241</v>
       </c>
       <c r="G8">
-        <v>1.1648853507249886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.0314650726247152</v>
+      </c>
+      <c r="H8">
+        <v>1.0351629708860788</v>
+      </c>
+      <c r="I8">
+        <v>1.0678356276899739</v>
+      </c>
+      <c r="J8">
+        <v>1.0639075291153643</v>
+      </c>
+      <c r="K8">
+        <v>1.0564877098287575</v>
+      </c>
+      <c r="L8">
+        <v>1.0117879320523542</v>
+      </c>
+      <c r="M8">
+        <v>1.0367784125216681</v>
+      </c>
+      <c r="N8">
+        <v>1.0339436215788291</v>
+      </c>
+      <c r="O8">
+        <v>1.0277166820777672</v>
+      </c>
+      <c r="P8">
+        <v>1.0178419107760996</v>
+      </c>
+      <c r="Q8">
+        <v>1.0394486229277171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2920,22 +3177,52 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.96853492724769141</v>
+        <v>0.97162375401182643</v>
       </c>
       <c r="D9">
-        <v>0.97200721521014122</v>
+        <v>0.76190476190460876</v>
       </c>
       <c r="E9">
-        <v>0.94594737164343634</v>
+        <v>0.76190476190460876</v>
       </c>
       <c r="F9">
-        <v>0.85817103861968957</v>
+        <v>0.76190476190460876</v>
       </c>
       <c r="G9">
-        <v>0.7765902338166587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.96853492737470426</v>
+      </c>
+      <c r="H9">
+        <v>0.97200721520952771</v>
+      </c>
+      <c r="I9">
+        <v>0.94594737164343645</v>
+      </c>
+      <c r="J9">
+        <v>0.94943988081630226</v>
+      </c>
+      <c r="K9">
+        <v>0.95493944473687198</v>
+      </c>
+      <c r="L9">
+        <v>0.9921635401381601</v>
+      </c>
+      <c r="M9">
+        <v>0.97572906291222694</v>
+      </c>
+      <c r="N9">
+        <v>0.97800635973064054</v>
+      </c>
+      <c r="O9">
+        <v>0.98159512233037882</v>
+      </c>
+      <c r="P9">
+        <v>0.92531027852785397</v>
+      </c>
+      <c r="Q9">
+        <v>0.84870624666994454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2957,8 +3244,38 @@
       <c r="G10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>200</v>
+      </c>
+      <c r="Q10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>64</v>
       </c>
@@ -2969,19 +3286,49 @@
         <v>80.000000000000014</v>
       </c>
       <c r="D11">
-        <v>79.999999999999986</v>
+        <v>79.999999999998181</v>
       </c>
       <c r="E11">
+        <v>79.999999999997286</v>
+      </c>
+      <c r="F11">
+        <v>79.999999999999119</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
         <v>83.789979418307439</v>
       </c>
-      <c r="F11">
-        <v>86.636474448757937</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>85.397254560161699</v>
+      </c>
+      <c r="K11">
+        <v>82.088707595463845</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>84.351462627766139</v>
+      </c>
+      <c r="N11">
+        <v>86.083347199002077</v>
+      </c>
+      <c r="O11">
+        <v>82.36898138312101</v>
+      </c>
+      <c r="P11">
+        <v>84.302930903518373</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -2992,19 +3339,49 @@
         <v>20.000000000000004</v>
       </c>
       <c r="D12">
-        <v>19.999999999999996</v>
+        <v>20.000000000001805</v>
       </c>
       <c r="E12">
-        <v>15.953297102016929</v>
+        <v>20.000000000002704</v>
       </c>
       <c r="F12">
-        <v>12.465814866890906</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20.000000000000906</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>15.953297102016936</v>
+      </c>
+      <c r="J12">
+        <v>14.246995168670852</v>
+      </c>
+      <c r="K12">
+        <v>17.758407060505427</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>15.302135083504712</v>
+      </c>
+      <c r="N12">
+        <v>13.453363640181522</v>
+      </c>
+      <c r="O12">
+        <v>17.430941640564519</v>
+      </c>
+      <c r="P12">
+        <v>14.941685322250365</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,22 +3389,52 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>30.000000000000004</v>
+        <v>30</v>
       </c>
       <c r="D13">
+        <v>29.999999999998153</v>
+      </c>
+      <c r="E13">
+        <v>29.999999999998767</v>
+      </c>
+      <c r="F13">
+        <v>29.999999999998767</v>
+      </c>
+      <c r="G13">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>34.553784903611771</v>
-      </c>
-      <c r="F13">
-        <v>39.310669882974416</v>
-      </c>
-      <c r="G13">
-        <v>44.380086793200228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>34.553784903611756</v>
+      </c>
+      <c r="J13">
+        <v>32.966888913499105</v>
+      </c>
+      <c r="K13">
+        <v>33.184069765209088</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>35.375340199360892</v>
+      </c>
+      <c r="N13">
+        <v>33.448293412545176</v>
+      </c>
+      <c r="O13">
+        <v>33.670905403089371</v>
+      </c>
+      <c r="P13">
+        <v>37.550960863227068</v>
+      </c>
+      <c r="Q13">
+        <v>44.925101910602201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -3038,19 +3445,49 @@
         <v>80</v>
       </c>
       <c r="D14">
+        <v>80.000000000001847</v>
+      </c>
+      <c r="E14">
+        <v>80.000000000001251</v>
+      </c>
+      <c r="F14">
+        <v>80.000000000001251</v>
+      </c>
+      <c r="G14">
         <v>80</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="I14">
         <v>75.119576065481496</v>
       </c>
-      <c r="F14">
-        <v>69.269028504233304</v>
-      </c>
-      <c r="G14">
-        <v>62.049748999369605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>76.823333874806721</v>
+      </c>
+      <c r="K14">
+        <v>76.57358141148049</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>74.166692410395541</v>
+      </c>
+      <c r="N14">
+        <v>76.266404448062389</v>
+      </c>
+      <c r="O14">
+        <v>76.004738963413018</v>
+      </c>
+      <c r="P14">
+        <v>70.991555145634763</v>
+      </c>
+      <c r="Q14">
+        <v>58.463326814268953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -3058,22 +3495,52 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>38.517354230045243</v>
+        <v>40.000000000000007</v>
       </c>
       <c r="D15">
-        <v>38.517354222141421</v>
+        <v>40</v>
       </c>
       <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>38.517354222119764</v>
+      </c>
+      <c r="H15">
+        <v>38.517354222113113</v>
+      </c>
+      <c r="I15">
         <v>37.194397849630228</v>
       </c>
-      <c r="F15">
-        <v>34.400605286275194</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>37.359249566828282</v>
+      </c>
+      <c r="K15">
+        <v>37.646692039851665</v>
+      </c>
+      <c r="L15">
+        <v>39.299714763812808</v>
+      </c>
+      <c r="M15">
+        <v>37.861280098811257</v>
+      </c>
+      <c r="N15">
+        <v>38.036420747024273</v>
+      </c>
+      <c r="O15">
+        <v>38.373445987225587</v>
+      </c>
+      <c r="P15">
+        <v>36.681951520633213</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -3081,22 +3548,52 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>61.530004404080294</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>61.530004412497654</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>62.980517254317519</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>66.345864158482755</v>
-      </c>
-      <c r="G16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>61.530004412520697</v>
+      </c>
+      <c r="H16">
+        <v>61.530004412527788</v>
+      </c>
+      <c r="I16">
+        <v>62.980517254317533</v>
+      </c>
+      <c r="J16">
+        <v>62.795108515046778</v>
+      </c>
+      <c r="K16">
+        <v>62.475062175440918</v>
+      </c>
+      <c r="L16">
+        <v>60.70717235830665</v>
+      </c>
+      <c r="M16">
+        <v>62.204472249917288</v>
+      </c>
+      <c r="N16">
+        <v>62.018844587381608</v>
+      </c>
+      <c r="O16">
+        <v>61.664268208122358</v>
+      </c>
+      <c r="P16">
+        <v>63.479442824149956</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -3104,22 +3601,52 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>58.508040668387657</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>58.508040660383678</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>57.160534034089849</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>54.261106485862491</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>51.016980025031629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58.508040660361765</v>
+      </c>
+      <c r="H17">
+        <v>58.508040660355036</v>
+      </c>
+      <c r="I17">
+        <v>57.160534034089856</v>
+      </c>
+      <c r="J17">
+        <v>57.329306137553353</v>
+      </c>
+      <c r="K17">
+        <v>57.622991872990376</v>
+      </c>
+      <c r="L17">
+        <v>59.061738735805712</v>
+      </c>
+      <c r="M17">
+        <v>57.105835976687644</v>
+      </c>
+      <c r="N17">
+        <v>57.346050021717431</v>
+      </c>
+      <c r="O17">
+        <v>57.806681291667282</v>
+      </c>
+      <c r="P17">
+        <v>55.473344908633187</v>
+      </c>
+      <c r="Q17">
+        <v>50.510257216791416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -3127,22 +3654,52 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>41.539717147859804</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>41.539717156383801</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>43.017230886987093</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>46.510809524574043</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>51.016980025031643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41.53971715640715</v>
+      </c>
+      <c r="H18">
+        <v>41.539717156414333</v>
+      </c>
+      <c r="I18">
+        <v>43.017230886987107</v>
+      </c>
+      <c r="J18">
+        <v>42.827412717108196</v>
+      </c>
+      <c r="K18">
+        <v>42.500414068420355</v>
+      </c>
+      <c r="L18">
+        <v>40.947503820589965</v>
+      </c>
+      <c r="M18">
+        <v>42.983585962975859</v>
+      </c>
+      <c r="N18">
+        <v>42.728988202870738</v>
+      </c>
+      <c r="O18">
+        <v>42.244367000459199</v>
+      </c>
+      <c r="P18">
+        <v>44.748551369743367</v>
+      </c>
+      <c r="Q18">
+        <v>50.510257216859216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -3164,8 +3721,38 @@
       <c r="G19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+      <c r="M19">
+        <v>200</v>
+      </c>
+      <c r="N19">
+        <v>200</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <v>200.00000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,22 +3760,52 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>102.02649481767209</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>102.02649482407605</v>
+        <v>110</v>
       </c>
       <c r="E20">
-        <v>103.09328779209312</v>
+        <v>110</v>
       </c>
       <c r="F20">
-        <v>96.442586712999145</v>
+        <v>110</v>
       </c>
       <c r="G20">
-        <v>89.613092074379438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102.02649482409367</v>
+      </c>
+      <c r="H20">
+        <v>102.02649482409902</v>
+      </c>
+      <c r="I20">
+        <v>103.09328779209314</v>
+      </c>
+      <c r="J20">
+        <v>103.15969366572165</v>
+      </c>
+      <c r="K20">
+        <v>102.67830140301544</v>
+      </c>
+      <c r="L20">
+        <v>105.61634327199572</v>
+      </c>
+      <c r="M20">
+        <v>105.96423432063044</v>
+      </c>
+      <c r="N20">
+        <v>106.05509309478073</v>
+      </c>
+      <c r="O20">
+        <v>105.81182579537368</v>
+      </c>
+      <c r="P20">
+        <v>101.72343988424672</v>
+      </c>
+      <c r="Q20">
+        <v>94.211056383210959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -3196,22 +3813,52 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <v>108.6294774886228</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>108.62947748112251</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>107.3936305887708</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>115.56763302716089</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>125.29200080619496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108.62947748110187</v>
+      </c>
+      <c r="H21">
+        <v>108.62947748109562</v>
+      </c>
+      <c r="I21">
+        <v>107.39363058877078</v>
+      </c>
+      <c r="J21">
+        <v>107.31758856276224</v>
+      </c>
+      <c r="K21">
+        <v>107.8711752942648</v>
+      </c>
+      <c r="L21">
+        <v>104.78402191624163</v>
+      </c>
+      <c r="M21">
+        <v>104.37266384297195</v>
+      </c>
+      <c r="N21">
+        <v>104.26620255060061</v>
+      </c>
+      <c r="O21">
+        <v>104.55214581680687</v>
+      </c>
+      <c r="P21">
+        <v>109.82972622532756</v>
+      </c>
+      <c r="Q21">
+        <v>122.60165352131571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -3219,7 +3866,7 @@
         <v>200</v>
       </c>
       <c r="C22">
-        <v>200.71701865447653</v>
+        <v>200</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -3231,10 +3878,40 @@
         <v>200</v>
       </c>
       <c r="G22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200.7170186096125</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
+      <c r="J22">
+        <v>200</v>
+      </c>
+      <c r="K22">
+        <v>200</v>
+      </c>
+      <c r="L22">
+        <v>200</v>
+      </c>
+      <c r="M22">
+        <v>200</v>
+      </c>
+      <c r="N22">
+        <v>200</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>200</v>
+      </c>
+      <c r="Q22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -3242,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1.0035850932723827</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3254,145 +3931,45 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.0035850930480625</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1.0268107803559916</v>
-      </c>
-      <c r="D24">
-        <v>1.0268107803031492</v>
-      </c>
-      <c r="E24">
+        <v>93</v>
+      </c>
+      <c r="I24">
         <v>1.016185505434424</v>
-      </c>
-      <c r="F24">
-        <v>1.0862618717772727</v>
-      </c>
-      <c r="G24">
-        <v>1.1690468695684744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0.87672423212192319</v>
-      </c>
-      <c r="D25">
-        <v>0.87672423219236773</v>
-      </c>
-      <c r="E25">
-        <v>0.88681325620491103</v>
-      </c>
-      <c r="F25">
-        <v>0.82408969313849223</v>
-      </c>
-      <c r="G25">
-        <v>0.76012909543532692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1.0351629706265315</v>
-      </c>
-      <c r="D27">
-        <v>1.0351629708854644</v>
-      </c>
-      <c r="E27">
-        <v>1.0678356276899736</v>
-      </c>
-      <c r="F27">
-        <v>1.1033933594907175</v>
-      </c>
-      <c r="G27">
-        <v>1.1648853507249886</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.9720072152994349</v>
-      </c>
-      <c r="D28">
-        <v>0.97200721521014122</v>
-      </c>
-      <c r="E28">
-        <v>0.94594737164343634</v>
-      </c>
-      <c r="F28">
-        <v>0.85817103861968957</v>
-      </c>
-      <c r="G28">
-        <v>0.7765902338166587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-      <c r="C29">
-        <v>200.71701865447656</v>
-      </c>
-      <c r="D29">
-        <v>200</v>
-      </c>
-      <c r="E29">
-        <v>200</v>
-      </c>
-      <c r="F29">
-        <v>200</v>
-      </c>
-      <c r="G29">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9159EA5F-4CAC-4F5D-B764-2B9506C72D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24C9A5E-0D3F-4BC2-8487-958957C13EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7460" firstSheet="3" activeTab="3" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="12384" yWindow="696" windowWidth="10656" windowHeight="10008" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
     <sheet name="TwoxTwoJPMGE" sheetId="4" r:id="rId2"/>
     <sheet name="TwoxTwoCESProd" sheetId="5" r:id="rId3"/>
     <sheet name="JPMGE" sheetId="6" r:id="rId4"/>
+    <sheet name="TwoxTwoCET-Scalar" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t>X.L</t>
   </si>
@@ -213,6 +214,111 @@
   </si>
   <si>
     <t>CWI</t>
+  </si>
+  <si>
+    <t>A.L</t>
+  </si>
+  <si>
+    <t>B.L</t>
+  </si>
+  <si>
+    <t>W.L</t>
+  </si>
+  <si>
+    <t>PW.L</t>
+  </si>
+  <si>
+    <t>CONS.L</t>
+  </si>
+  <si>
+    <t>SAX.L</t>
+  </si>
+  <si>
+    <t>SAY.L</t>
+  </si>
+  <si>
+    <t>SBX.L</t>
+  </si>
+  <si>
+    <t>SBY.L</t>
+  </si>
+  <si>
+    <t>DAL.L</t>
+  </si>
+  <si>
+    <t>DAK.L</t>
+  </si>
+  <si>
+    <t>DBL.L</t>
+  </si>
+  <si>
+    <t>DBK.L</t>
+  </si>
+  <si>
+    <t>SW.L</t>
+  </si>
+  <si>
+    <t>DWX.L</t>
+  </si>
+  <si>
+    <t>DWY.L</t>
+  </si>
+  <si>
+    <t>DW.L</t>
+  </si>
+  <si>
+    <t>CWI.L</t>
+  </si>
+  <si>
+    <t>diff=10</t>
+  </si>
+  <si>
+    <t>PW.FX=1</t>
+  </si>
+  <si>
+    <t>TA=0.1</t>
+  </si>
+  <si>
+    <t>TA=100%</t>
+  </si>
+  <si>
+    <t>Undf</t>
+  </si>
+  <si>
+    <t>TA=2B=1.5</t>
+  </si>
+  <si>
+    <t>TrA=3B=1</t>
+  </si>
+  <si>
+    <t>TrA/B=1</t>
+  </si>
+  <si>
+    <t>Sub=0Tr=0</t>
+  </si>
+  <si>
+    <t>S0Tr2,1.5</t>
+  </si>
+  <si>
+    <t>S0Tr=3,1</t>
+  </si>
+  <si>
+    <t>Sub=0Tr=1</t>
+  </si>
+  <si>
+    <t>1.52,.5T0</t>
+  </si>
+  <si>
+    <t>S..T2,1.5</t>
+  </si>
+  <si>
+    <t>S...T3,1</t>
+  </si>
+  <si>
+    <t>S...T1,1</t>
+  </si>
+  <si>
+    <t>PX.L/PW.L</t>
   </si>
 </sst>
 </file>
@@ -575,9 +681,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -591,7 +697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +714,7 @@
         <v>1.0488088481700486</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -625,7 +731,7 @@
         <v>1.0388601182540098</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -642,7 +748,7 @@
         <v>1.0454820635789062</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -659,7 +765,7 @@
         <v>1.048808848169914</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -676,7 +782,7 @@
         <v>1.0588528529215189</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -693,7 +799,7 @@
         <v>1.0521462187826638</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -710,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -727,7 +833,7 @@
         <v>1.0999999999996399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,7 +850,7 @@
         <v>164.99999999997118</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -761,7 +867,7 @@
         <v>52.440442408500388</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -778,7 +884,7 @@
         <v>21.177057058432069</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -795,7 +901,7 @@
         <v>47.673129462283626</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -812,7 +918,7 @@
         <v>28.877805079687114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -829,7 +935,7 @@
         <v>100.31820580257069</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -846,7 +952,7 @@
         <v>49.683306602973595</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -863,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -880,7 +986,7 @@
         <v>1.0095765827768624</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,7 +1003,7 @@
         <v>1.0031820580257051</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -914,7 +1020,7 @@
         <v>0.95346258924580818</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -931,7 +1037,7 @@
         <v>1.0488088481700457</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -961,9 +1067,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -977,7 +1083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1103,7 @@
         <v>2.0451802919810183</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1120,7 @@
         <v>6.086084552975235E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1031,7 +1137,7 @@
         <v>-5.5193504067180932E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1157,7 @@
         <v>3.9504305501987567</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1071,7 +1177,7 @@
         <v>1.0326000343166328</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1091,7 +1197,7 @@
         <v>3.0648345557341203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1217,7 @@
         <v>0.95924189654998493</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1237,7 @@
         <v>0.94903401664811615</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1257,7 @@
         <v>0.99692550469586405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1277,7 @@
         <v>1.0997574149564511</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1191,7 +1297,7 @@
         <v>2.1058244871455893</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1317,7 @@
         <v>4.2894913534466479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1231,7 +1337,7 @@
         <v>1.0372737425956957</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1251,7 +1357,7 @@
         <v>1.018450090273892</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1271,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1291,7 +1397,7 @@
         <v>1.0764751417262008</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1324,9 +1430,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1463,7 @@
         <v>1.0505065382287513</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1480,7 @@
         <v>1.0324804191325847</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1497,7 @@
         <v>1.0444631317219772</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1408,7 +1514,7 @@
         <v>1.0950935908893114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1531,7 @@
         <v>1.1142128759827274</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1548,7 @@
         <v>1.1014299521552819</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1582,7 @@
         <v>1.1945055822716992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1599,7 @@
         <v>172.56044658173593</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1616,7 @@
         <v>52.32335976642014</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1527,7 +1633,7 @@
         <v>21.340810008438144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1544,7 +1650,7 @@
         <v>47.874200147361819</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1561,7 +1667,7 @@
         <v>28.773271804644232</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1684,7 @@
         <v>100.57861367465195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1595,7 +1701,7 @@
         <v>49.426369767125827</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1612,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1735,7 @@
         <v>1.0174590420877996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1752,7 @@
         <v>1.0057861367454675</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1769,7 @@
         <v>0.91316395997525013</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1680,7 +1786,7 @@
         <v>1.0907794477197668</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1803,7 @@
         <v>157.57598073567559</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1714,19 +1820,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9A728-5CCB-48DE-B29A-AA0B43EB195B}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1788,7 +1894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1856,7 +1962,7 @@
         <v>3.9827830288229387</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,7 +2030,7 @@
         <v>1.9711588500763977</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,7 +2098,7 @@
         <v>2.0265111225373742</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2060,7 +2166,7 @@
         <v>6.0177649222559033</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2103,7 +2209,7 @@
         <v>1.0310953593282555</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2146,7 +2252,7 @@
         <v>3.0618580948607583</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2189,7 +2295,7 @@
         <v>0.96107338276642651</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2232,7 +2338,7 @@
         <v>0.95130881612337159</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2275,7 +2381,7 @@
         <v>0.98785653343465762</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2318,7 +2424,7 @@
         <v>1.1043704861326116</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2361,7 +2467,7 @@
         <v>1.0355526292708772</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2404,7 +2510,7 @@
         <v>1.0176064151448934</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2447,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2490,7 +2596,7 @@
         <v>1.0728580957681633</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2533,7 +2639,7 @@
         <v>6.5457161915363269</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2576,7 +2682,7 @@
         <v>2.0825117586808339</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -2619,7 +2725,7 @@
         <v>4.3132252303282845</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2628,6 +2734,1242 @@
       </c>
       <c r="C19">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E4E009-E95D-4525-8C72-CDF28BC03388}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.99999999969167375</v>
+      </c>
+      <c r="D2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G2">
+        <v>0.84841617519705081</v>
+      </c>
+      <c r="H2">
+        <v>0.84841617519703227</v>
+      </c>
+      <c r="I2">
+        <v>0.70716515735515162</v>
+      </c>
+      <c r="J2">
+        <v>0.72509467112342096</v>
+      </c>
+      <c r="K2">
+        <v>0.75612889144439288</v>
+      </c>
+      <c r="L2">
+        <v>0.91659821359054672</v>
+      </c>
+      <c r="M2">
+        <v>0.73369015208861166</v>
+      </c>
+      <c r="N2">
+        <v>0.75685954678370782</v>
+      </c>
+      <c r="O2">
+        <v>0.80071809649126724</v>
+      </c>
+      <c r="P2">
+        <v>0.57048205371293126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.99999999965367625</v>
+      </c>
+      <c r="D3">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E3">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F3">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="G3">
+        <v>1.150632509520773</v>
+      </c>
+      <c r="H3">
+        <v>1.1506325095207364</v>
+      </c>
+      <c r="I3">
+        <v>1.2893059702343592</v>
+      </c>
+      <c r="J3">
+        <v>1.2717929473142071</v>
+      </c>
+      <c r="K3">
+        <v>1.2414185056039873</v>
+      </c>
+      <c r="L3">
+        <v>1.0832385402482214</v>
+      </c>
+      <c r="M3">
+        <v>1.2646965132512462</v>
+      </c>
+      <c r="N3">
+        <v>1.241790354991813</v>
+      </c>
+      <c r="O3">
+        <v>1.1983681743653367</v>
+      </c>
+      <c r="P3">
+        <v>1.4254342349963718</v>
+      </c>
+      <c r="Q3">
+        <v>1.9797958971135601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.99999999937602346</v>
+      </c>
+      <c r="D4">
+        <v>1.0000000000000835</v>
+      </c>
+      <c r="E4">
+        <v>1.0000000000000835</v>
+      </c>
+      <c r="F4">
+        <v>1.0000000000000835</v>
+      </c>
+      <c r="G4">
+        <v>1.0035850930478354</v>
+      </c>
+      <c r="H4">
+        <v>1.0035850930478032</v>
+      </c>
+      <c r="I4">
+        <v>1.0068914996667158</v>
+      </c>
+      <c r="J4">
+        <v>1.0066737049684853</v>
+      </c>
+      <c r="K4">
+        <v>1.0057135773586174</v>
+      </c>
+      <c r="L4">
+        <v>1.0019757361058046</v>
+      </c>
+      <c r="M4">
+        <v>1.0062537377172633</v>
+      </c>
+      <c r="N4">
+        <v>1.0059749908396223</v>
+      </c>
+      <c r="O4">
+        <v>1.0046559044043992</v>
+      </c>
+      <c r="P4">
+        <v>0.9989805146510895</v>
+      </c>
+      <c r="Q4">
+        <v>0.94407743479945161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0246978500088042</v>
+      </c>
+      <c r="D5">
+        <v>0.9523809523809269</v>
+      </c>
+      <c r="E5">
+        <v>0.9523809523809269</v>
+      </c>
+      <c r="F5">
+        <v>0.9523809523809269</v>
+      </c>
+      <c r="G5">
+        <v>1.0231427184558559</v>
+      </c>
+      <c r="H5">
+        <v>1.0268107803029183</v>
+      </c>
+      <c r="I5">
+        <v>1.016185505434424</v>
+      </c>
+      <c r="J5">
+        <v>1.0155313673319299</v>
+      </c>
+      <c r="K5">
+        <v>1.0202925382350085</v>
+      </c>
+      <c r="L5">
+        <v>1.0330796752807549</v>
+      </c>
+      <c r="M5">
+        <v>1.0263074053285333</v>
+      </c>
+      <c r="N5">
+        <v>1.0245496568517749</v>
+      </c>
+      <c r="O5">
+        <v>1.0292660659587862</v>
+      </c>
+      <c r="P5">
+        <v>1.1136635243164417</v>
+      </c>
+      <c r="Q5">
+        <v>1.2983516200037846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.87283237043207507</v>
+      </c>
+      <c r="D6">
+        <v>0.95238095238098064</v>
+      </c>
+      <c r="E6">
+        <v>0.95238095238098064</v>
+      </c>
+      <c r="F6">
+        <v>0.95238095238098064</v>
+      </c>
+      <c r="G6">
+        <v>0.87359232243054408</v>
+      </c>
+      <c r="H6">
+        <v>0.87672423219258488</v>
+      </c>
+      <c r="I6">
+        <v>0.88681325620491125</v>
+      </c>
+      <c r="J6">
+        <v>0.88744162549260985</v>
+      </c>
+      <c r="K6">
+        <v>0.88288734202338981</v>
+      </c>
+      <c r="L6">
+        <v>0.86740230739395141</v>
+      </c>
+      <c r="M6">
+        <v>0.87425306835177607</v>
+      </c>
+      <c r="N6">
+        <v>0.87603929679048465</v>
+      </c>
+      <c r="O6">
+        <v>0.87125402922695383</v>
+      </c>
+      <c r="P6">
+        <v>0.78953411260391282</v>
+      </c>
+      <c r="Q6">
+        <v>0.63360419775310972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.99642771392989316</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.0283762514304395</v>
+      </c>
+      <c r="D8">
+        <v>1.2380952380952241</v>
+      </c>
+      <c r="E8">
+        <v>1.2380952380952241</v>
+      </c>
+      <c r="F8">
+        <v>1.2380952380952241</v>
+      </c>
+      <c r="G8">
+        <v>1.0314650726247152</v>
+      </c>
+      <c r="H8">
+        <v>1.0351629708860788</v>
+      </c>
+      <c r="I8">
+        <v>1.0678356276899739</v>
+      </c>
+      <c r="J8">
+        <v>1.0639075291153643</v>
+      </c>
+      <c r="K8">
+        <v>1.0564877098287575</v>
+      </c>
+      <c r="L8">
+        <v>1.0117879320523542</v>
+      </c>
+      <c r="M8">
+        <v>1.0367784125216681</v>
+      </c>
+      <c r="N8">
+        <v>1.0339436215788291</v>
+      </c>
+      <c r="O8">
+        <v>1.0277166820777672</v>
+      </c>
+      <c r="P8">
+        <v>1.0178419107760996</v>
+      </c>
+      <c r="Q8">
+        <v>1.0394486229277171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.97162375401182643</v>
+      </c>
+      <c r="D9">
+        <v>0.76190476190460876</v>
+      </c>
+      <c r="E9">
+        <v>0.76190476190460876</v>
+      </c>
+      <c r="F9">
+        <v>0.76190476190460876</v>
+      </c>
+      <c r="G9">
+        <v>0.96853492737470426</v>
+      </c>
+      <c r="H9">
+        <v>0.97200721520952771</v>
+      </c>
+      <c r="I9">
+        <v>0.94594737164343645</v>
+      </c>
+      <c r="J9">
+        <v>0.94943988081630226</v>
+      </c>
+      <c r="K9">
+        <v>0.95493944473687198</v>
+      </c>
+      <c r="L9">
+        <v>0.9921635401381601</v>
+      </c>
+      <c r="M9">
+        <v>0.97572906291222694</v>
+      </c>
+      <c r="N9">
+        <v>0.97800635973064054</v>
+      </c>
+      <c r="O9">
+        <v>0.98159512233037882</v>
+      </c>
+      <c r="P9">
+        <v>0.92531027852785397</v>
+      </c>
+      <c r="Q9">
+        <v>0.84870624666994454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>200</v>
+      </c>
+      <c r="Q10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>80.000000000000014</v>
+      </c>
+      <c r="D11">
+        <v>79.999999999998181</v>
+      </c>
+      <c r="E11">
+        <v>79.999999999997286</v>
+      </c>
+      <c r="F11">
+        <v>79.999999999999119</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>83.789979418307439</v>
+      </c>
+      <c r="J11">
+        <v>85.397254560161699</v>
+      </c>
+      <c r="K11">
+        <v>82.088707595463845</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>84.351462627766139</v>
+      </c>
+      <c r="N11">
+        <v>86.083347199002077</v>
+      </c>
+      <c r="O11">
+        <v>82.36898138312101</v>
+      </c>
+      <c r="P11">
+        <v>84.302930903518373</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20.000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>20.000000000001805</v>
+      </c>
+      <c r="E12">
+        <v>20.000000000002704</v>
+      </c>
+      <c r="F12">
+        <v>20.000000000000906</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>15.953297102016936</v>
+      </c>
+      <c r="J12">
+        <v>14.246995168670852</v>
+      </c>
+      <c r="K12">
+        <v>17.758407060505427</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>15.302135083504712</v>
+      </c>
+      <c r="N12">
+        <v>13.453363640181522</v>
+      </c>
+      <c r="O12">
+        <v>17.430941640564519</v>
+      </c>
+      <c r="P12">
+        <v>14.941685322250365</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>29.999999999998153</v>
+      </c>
+      <c r="E13">
+        <v>29.999999999998767</v>
+      </c>
+      <c r="F13">
+        <v>29.999999999998767</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>34.553784903611756</v>
+      </c>
+      <c r="J13">
+        <v>32.966888913499105</v>
+      </c>
+      <c r="K13">
+        <v>33.184069765209088</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>35.375340199360892</v>
+      </c>
+      <c r="N13">
+        <v>33.448293412545176</v>
+      </c>
+      <c r="O13">
+        <v>33.670905403089371</v>
+      </c>
+      <c r="P13">
+        <v>37.550960863227068</v>
+      </c>
+      <c r="Q13">
+        <v>44.925101910602201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>80.000000000001847</v>
+      </c>
+      <c r="E14">
+        <v>80.000000000001251</v>
+      </c>
+      <c r="F14">
+        <v>80.000000000001251</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>75.119576065481496</v>
+      </c>
+      <c r="J14">
+        <v>76.823333874806721</v>
+      </c>
+      <c r="K14">
+        <v>76.57358141148049</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>74.166692410395541</v>
+      </c>
+      <c r="N14">
+        <v>76.266404448062389</v>
+      </c>
+      <c r="O14">
+        <v>76.004738963413018</v>
+      </c>
+      <c r="P14">
+        <v>70.991555145634763</v>
+      </c>
+      <c r="Q14">
+        <v>58.463326814268953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>40.000000000000007</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>38.517354222119764</v>
+      </c>
+      <c r="H15">
+        <v>38.517354222113113</v>
+      </c>
+      <c r="I15">
+        <v>37.194397849630228</v>
+      </c>
+      <c r="J15">
+        <v>37.359249566828282</v>
+      </c>
+      <c r="K15">
+        <v>37.646692039851665</v>
+      </c>
+      <c r="L15">
+        <v>39.299714763812808</v>
+      </c>
+      <c r="M15">
+        <v>37.861280098811257</v>
+      </c>
+      <c r="N15">
+        <v>38.036420747024273</v>
+      </c>
+      <c r="O15">
+        <v>38.373445987225587</v>
+      </c>
+      <c r="P15">
+        <v>36.681951520633213</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>61.530004412520697</v>
+      </c>
+      <c r="H16">
+        <v>61.530004412527788</v>
+      </c>
+      <c r="I16">
+        <v>62.980517254317533</v>
+      </c>
+      <c r="J16">
+        <v>62.795108515046778</v>
+      </c>
+      <c r="K16">
+        <v>62.475062175440918</v>
+      </c>
+      <c r="L16">
+        <v>60.70717235830665</v>
+      </c>
+      <c r="M16">
+        <v>62.204472249917288</v>
+      </c>
+      <c r="N16">
+        <v>62.018844587381608</v>
+      </c>
+      <c r="O16">
+        <v>61.664268208122358</v>
+      </c>
+      <c r="P16">
+        <v>63.479442824149956</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>58.508040660361765</v>
+      </c>
+      <c r="H17">
+        <v>58.508040660355036</v>
+      </c>
+      <c r="I17">
+        <v>57.160534034089856</v>
+      </c>
+      <c r="J17">
+        <v>57.329306137553353</v>
+      </c>
+      <c r="K17">
+        <v>57.622991872990376</v>
+      </c>
+      <c r="L17">
+        <v>59.061738735805712</v>
+      </c>
+      <c r="M17">
+        <v>57.105835976687644</v>
+      </c>
+      <c r="N17">
+        <v>57.346050021717431</v>
+      </c>
+      <c r="O17">
+        <v>57.806681291667282</v>
+      </c>
+      <c r="P17">
+        <v>55.473344908633187</v>
+      </c>
+      <c r="Q17">
+        <v>50.510257216791416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>41.53971715640715</v>
+      </c>
+      <c r="H18">
+        <v>41.539717156414333</v>
+      </c>
+      <c r="I18">
+        <v>43.017230886987107</v>
+      </c>
+      <c r="J18">
+        <v>42.827412717108196</v>
+      </c>
+      <c r="K18">
+        <v>42.500414068420355</v>
+      </c>
+      <c r="L18">
+        <v>40.947503820589965</v>
+      </c>
+      <c r="M18">
+        <v>42.983585962975859</v>
+      </c>
+      <c r="N18">
+        <v>42.728988202870738</v>
+      </c>
+      <c r="O18">
+        <v>42.244367000459199</v>
+      </c>
+      <c r="P18">
+        <v>44.748551369743367</v>
+      </c>
+      <c r="Q18">
+        <v>50.510257216859216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+      <c r="M19">
+        <v>200</v>
+      </c>
+      <c r="N19">
+        <v>200</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <v>200.00000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <v>110</v>
+      </c>
+      <c r="E20">
+        <v>110</v>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+      <c r="G20">
+        <v>102.02649482409367</v>
+      </c>
+      <c r="H20">
+        <v>102.02649482409902</v>
+      </c>
+      <c r="I20">
+        <v>103.09328779209314</v>
+      </c>
+      <c r="J20">
+        <v>103.15969366572165</v>
+      </c>
+      <c r="K20">
+        <v>102.67830140301544</v>
+      </c>
+      <c r="L20">
+        <v>105.61634327199572</v>
+      </c>
+      <c r="M20">
+        <v>105.96423432063044</v>
+      </c>
+      <c r="N20">
+        <v>106.05509309478073</v>
+      </c>
+      <c r="O20">
+        <v>105.81182579537368</v>
+      </c>
+      <c r="P20">
+        <v>101.72343988424672</v>
+      </c>
+      <c r="Q20">
+        <v>94.211056383210959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>108.62947748110187</v>
+      </c>
+      <c r="H21">
+        <v>108.62947748109562</v>
+      </c>
+      <c r="I21">
+        <v>107.39363058877078</v>
+      </c>
+      <c r="J21">
+        <v>107.31758856276224</v>
+      </c>
+      <c r="K21">
+        <v>107.8711752942648</v>
+      </c>
+      <c r="L21">
+        <v>104.78402191624163</v>
+      </c>
+      <c r="M21">
+        <v>104.37266384297195</v>
+      </c>
+      <c r="N21">
+        <v>104.26620255060061</v>
+      </c>
+      <c r="O21">
+        <v>104.55214581680687</v>
+      </c>
+      <c r="P21">
+        <v>109.82972622532756</v>
+      </c>
+      <c r="Q21">
+        <v>122.60165352131571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>200.7170186096125</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
+      <c r="J22">
+        <v>200</v>
+      </c>
+      <c r="K22">
+        <v>200</v>
+      </c>
+      <c r="L22">
+        <v>200</v>
+      </c>
+      <c r="M22">
+        <v>200</v>
+      </c>
+      <c r="N22">
+        <v>200</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>200</v>
+      </c>
+      <c r="Q22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0035850930480625</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24">
+        <v>1.016185505434424</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24C9A5E-0D3F-4BC2-8487-958957C13EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C4FA66-8F24-47B7-B8D6-A17650EDB7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12384" yWindow="696" windowWidth="10656" windowHeight="10008" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -24,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>X.L</t>
   </si>
@@ -316,9 +308,6 @@
   </si>
   <si>
     <t>S...T1,1</t>
-  </si>
-  <si>
-    <t>PX.L/PW.L</t>
   </si>
 </sst>
 </file>
@@ -2759,28 +2748,28 @@
         <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>89</v>
@@ -2809,46 +2798,46 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.99999999969167375</v>
+        <v>0.99999999999737876</v>
       </c>
       <c r="D2">
+        <v>0.84841617521004631</v>
+      </c>
+      <c r="E2">
+        <v>0.84841617519703261</v>
+      </c>
+      <c r="F2">
+        <v>0.70716515735515217</v>
+      </c>
+      <c r="G2">
+        <v>0.72509467112342285</v>
+      </c>
+      <c r="H2">
+        <v>0.75612889144439233</v>
+      </c>
+      <c r="I2">
         <v>0.99999999999999989</v>
       </c>
-      <c r="E2">
+      <c r="J2">
         <v>0.99999999999999989</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>0.99999999999999989</v>
       </c>
-      <c r="G2">
-        <v>0.84841617519705081</v>
-      </c>
-      <c r="H2">
-        <v>0.84841617519703227</v>
-      </c>
-      <c r="I2">
-        <v>0.70716515735515162</v>
-      </c>
-      <c r="J2">
-        <v>0.72509467112342096</v>
-      </c>
-      <c r="K2">
-        <v>0.75612889144439288</v>
-      </c>
       <c r="L2">
-        <v>0.91659821359054672</v>
+        <v>0.91659821358300797</v>
       </c>
       <c r="M2">
-        <v>0.73369015208861166</v>
+        <v>0.73369015208861088</v>
       </c>
       <c r="N2">
-        <v>0.75685954678370782</v>
+        <v>0.75685954678370604</v>
       </c>
       <c r="O2">
-        <v>0.80071809649126724</v>
+        <v>0.80071809649126657</v>
       </c>
       <c r="P2">
-        <v>0.57048205371293126</v>
+        <v>0.57048205371293015</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,49 +2848,49 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.99999999965367625</v>
+        <v>1.0000000000023659</v>
       </c>
       <c r="D3">
+        <v>1.1506325095176519</v>
+      </c>
+      <c r="E3">
+        <v>1.1506325095207361</v>
+      </c>
+      <c r="F3">
+        <v>1.2893059702343586</v>
+      </c>
+      <c r="G3">
+        <v>1.2717929473142049</v>
+      </c>
+      <c r="H3">
+        <v>1.2414185056039879</v>
+      </c>
+      <c r="I3">
         <v>1.0000000000000002</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>1.0000000000000002</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.0000000000000002</v>
       </c>
-      <c r="G3">
-        <v>1.150632509520773</v>
-      </c>
-      <c r="H3">
-        <v>1.1506325095207364</v>
-      </c>
-      <c r="I3">
-        <v>1.2893059702343592</v>
-      </c>
-      <c r="J3">
-        <v>1.2717929473142071</v>
-      </c>
-      <c r="K3">
-        <v>1.2414185056039873</v>
-      </c>
       <c r="L3">
-        <v>1.0832385402482214</v>
+        <v>1.0832385402476867</v>
       </c>
       <c r="M3">
         <v>1.2646965132512462</v>
       </c>
       <c r="N3">
-        <v>1.241790354991813</v>
+        <v>1.241790354991815</v>
       </c>
       <c r="O3">
-        <v>1.1983681743653367</v>
+        <v>1.1983681743653383</v>
       </c>
       <c r="P3">
-        <v>1.4254342349963718</v>
+        <v>1.4254342349963727</v>
       </c>
       <c r="Q3">
-        <v>1.9797958971135601</v>
+        <v>1.9797958971135603</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2901,49 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.99999999937602346</v>
+        <v>0.99999999999981315</v>
       </c>
       <c r="D4">
-        <v>1.0000000000000835</v>
+        <v>1.0035850930534891</v>
       </c>
       <c r="E4">
-        <v>1.0000000000000835</v>
+        <v>1.0035850930478032</v>
       </c>
       <c r="F4">
-        <v>1.0000000000000835</v>
+        <v>1.0068914996667162</v>
       </c>
       <c r="G4">
-        <v>1.0035850930478354</v>
+        <v>1.006673704968486</v>
       </c>
       <c r="H4">
-        <v>1.0035850930478032</v>
+        <v>1.0057135773586172</v>
       </c>
       <c r="I4">
-        <v>1.0068914996667158</v>
+        <v>1.0000000000002727</v>
       </c>
       <c r="J4">
-        <v>1.0066737049684853</v>
+        <v>1.0000000000002727</v>
       </c>
       <c r="K4">
-        <v>1.0057135773586174</v>
+        <v>1.0000000000002727</v>
       </c>
       <c r="L4">
-        <v>1.0019757361058046</v>
+        <v>1.0019757361014827</v>
       </c>
       <c r="M4">
-        <v>1.0062537377172633</v>
+        <v>1.0062537377172638</v>
       </c>
       <c r="N4">
         <v>1.0059749908396223</v>
       </c>
       <c r="O4">
-        <v>1.0046559044043992</v>
+        <v>1.0046559044043997</v>
       </c>
       <c r="P4">
-        <v>0.9989805146510895</v>
+        <v>0.99898051465108928</v>
       </c>
       <c r="Q4">
-        <v>0.94407743479945161</v>
+        <v>0.94407743479945183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,49 +2954,49 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.0246978500088042</v>
+        <v>1.0246978470350661</v>
       </c>
       <c r="D5">
-        <v>0.9523809523809269</v>
+        <v>1.0231427180776311</v>
       </c>
       <c r="E5">
-        <v>0.9523809523809269</v>
+        <v>1.0268107803027984</v>
       </c>
       <c r="F5">
-        <v>0.9523809523809269</v>
+        <v>1.016185505434424</v>
       </c>
       <c r="G5">
-        <v>1.0231427184558559</v>
+        <v>1.0155313673319302</v>
       </c>
       <c r="H5">
-        <v>1.0268107803029183</v>
+        <v>1.0202925382350085</v>
       </c>
       <c r="I5">
-        <v>1.016185505434424</v>
+        <v>0.95238095238086795</v>
       </c>
       <c r="J5">
-        <v>1.0155313673319299</v>
+        <v>0.95238095238086795</v>
       </c>
       <c r="K5">
-        <v>1.0202925382350085</v>
+        <v>0.95238095238086795</v>
       </c>
       <c r="L5">
-        <v>1.0330796752807549</v>
+        <v>1.0330796752850495</v>
       </c>
       <c r="M5">
-        <v>1.0263074053285333</v>
+        <v>1.0263074053285339</v>
       </c>
       <c r="N5">
-        <v>1.0245496568517749</v>
+        <v>1.0245496568517756</v>
       </c>
       <c r="O5">
-        <v>1.0292660659587862</v>
+        <v>1.0292660659587864</v>
       </c>
       <c r="P5">
-        <v>1.1136635243164417</v>
+        <v>1.1136635243164419</v>
       </c>
       <c r="Q5">
-        <v>1.2983516200037846</v>
+        <v>1.2983516200037848</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,46 +3007,46 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.87283237043207507</v>
+        <v>0.87283236793118379</v>
       </c>
       <c r="D6">
-        <v>0.95238095238098064</v>
+        <v>0.87359232216741645</v>
       </c>
       <c r="E6">
-        <v>0.95238095238098064</v>
+        <v>0.87672423219269724</v>
       </c>
       <c r="F6">
-        <v>0.95238095238098064</v>
+        <v>0.88681325620491125</v>
       </c>
       <c r="G6">
-        <v>0.87359232243054408</v>
+        <v>0.88744162549260963</v>
       </c>
       <c r="H6">
-        <v>0.87672423219258488</v>
+        <v>0.88288734202338981</v>
       </c>
       <c r="I6">
-        <v>0.88681325620491125</v>
+        <v>0.95238095238104503</v>
       </c>
       <c r="J6">
-        <v>0.88744162549260985</v>
+        <v>0.95238095238104503</v>
       </c>
       <c r="K6">
-        <v>0.88288734202338981</v>
+        <v>0.95238095238104503</v>
       </c>
       <c r="L6">
-        <v>0.86740230739395141</v>
+        <v>0.86740230739016488</v>
       </c>
       <c r="M6">
-        <v>0.87425306835177607</v>
+        <v>0.87425306835177496</v>
       </c>
       <c r="N6">
-        <v>0.87603929679048465</v>
+        <v>0.87603929679048409</v>
       </c>
       <c r="O6">
-        <v>0.87125402922695383</v>
+        <v>0.87125402922695339</v>
       </c>
       <c r="P6">
-        <v>0.78953411260391282</v>
+        <v>0.78953411260391237</v>
       </c>
       <c r="Q6">
         <v>0.63360419775310972</v>
@@ -3074,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.99642771359477822</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3083,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.99642771392989316</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -3124,46 +3113,46 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1.0283762514304395</v>
+        <v>1.0283762485106709</v>
       </c>
       <c r="D8">
-        <v>1.2380952380952241</v>
+        <v>1.0314650723607428</v>
       </c>
       <c r="E8">
-        <v>1.2380952380952241</v>
+        <v>1.035162970886397</v>
       </c>
       <c r="F8">
-        <v>1.2380952380952241</v>
+        <v>1.0678356276899734</v>
       </c>
       <c r="G8">
-        <v>1.0314650726247152</v>
+        <v>1.0639075291153639</v>
       </c>
       <c r="H8">
-        <v>1.0351629708860788</v>
+        <v>1.0564877098287577</v>
       </c>
       <c r="I8">
-        <v>1.0678356276899739</v>
+        <v>1.2380952380951948</v>
       </c>
       <c r="J8">
-        <v>1.0639075291153643</v>
+        <v>1.2380952380951948</v>
       </c>
       <c r="K8">
-        <v>1.0564877098287575</v>
+        <v>1.2380952380951948</v>
       </c>
       <c r="L8">
-        <v>1.0117879320523542</v>
+        <v>1.0117879320484757</v>
       </c>
       <c r="M8">
-        <v>1.0367784125216681</v>
+        <v>1.0367784125216684</v>
       </c>
       <c r="N8">
-        <v>1.0339436215788291</v>
+        <v>1.0339436215788289</v>
       </c>
       <c r="O8">
-        <v>1.0277166820777672</v>
+        <v>1.027716682077767</v>
       </c>
       <c r="P8">
-        <v>1.0178419107760996</v>
+        <v>1.0178419107760999</v>
       </c>
       <c r="Q8">
         <v>1.0394486229277171</v>
@@ -3177,46 +3166,46 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.97162375401182643</v>
+        <v>0.97162375115908584</v>
       </c>
       <c r="D9">
-        <v>0.76190476190460876</v>
+        <v>0.96853492695477694</v>
       </c>
       <c r="E9">
-        <v>0.76190476190460876</v>
+        <v>0.97200721520920963</v>
       </c>
       <c r="F9">
-        <v>0.76190476190460876</v>
+        <v>0.94594737164343656</v>
       </c>
       <c r="G9">
-        <v>0.96853492737470426</v>
+        <v>0.94943988081630282</v>
       </c>
       <c r="H9">
-        <v>0.97200721520952771</v>
+        <v>0.95493944473687153</v>
       </c>
       <c r="I9">
-        <v>0.94594737164343645</v>
+        <v>0.76190476190425982</v>
       </c>
       <c r="J9">
-        <v>0.94943988081630226</v>
+        <v>0.76190476190425982</v>
       </c>
       <c r="K9">
-        <v>0.95493944473687198</v>
+        <v>0.76190476190425982</v>
       </c>
       <c r="L9">
-        <v>0.9921635401381601</v>
+        <v>0.99216354015068353</v>
       </c>
       <c r="M9">
-        <v>0.97572906291222694</v>
+        <v>0.97572906291222683</v>
       </c>
       <c r="N9">
-        <v>0.97800635973064054</v>
+        <v>0.97800635973064065</v>
       </c>
       <c r="O9">
-        <v>0.98159512233037882</v>
+        <v>0.98159512233037849</v>
       </c>
       <c r="P9">
-        <v>0.92531027852785397</v>
+        <v>0.92531027852785408</v>
       </c>
       <c r="Q9">
         <v>0.84870624666994454</v>
@@ -3283,43 +3272,43 @@
         <v>80</v>
       </c>
       <c r="C11">
-        <v>80.000000000000014</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>79.999999999998181</v>
+        <v>79.999999999999986</v>
       </c>
       <c r="E11">
-        <v>79.999999999997286</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>79.999999999999119</v>
+        <v>83.789979418307439</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>85.397254560161727</v>
       </c>
       <c r="H11">
-        <v>80</v>
+        <v>82.088707595463845</v>
       </c>
       <c r="I11">
-        <v>83.789979418307439</v>
+        <v>79.99999999999406</v>
       </c>
       <c r="J11">
-        <v>85.397254560161699</v>
+        <v>79.999999999991104</v>
       </c>
       <c r="K11">
-        <v>82.088707595463845</v>
+        <v>79.999999999997016</v>
       </c>
       <c r="L11">
         <v>80</v>
       </c>
       <c r="M11">
-        <v>84.351462627766139</v>
+        <v>84.351462627766182</v>
       </c>
       <c r="N11">
-        <v>86.083347199002077</v>
+        <v>86.083347199002148</v>
       </c>
       <c r="O11">
-        <v>82.36898138312101</v>
+        <v>82.368981383121024</v>
       </c>
       <c r="P11">
         <v>84.302930903518373</v>
@@ -3336,46 +3325,46 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>20.000000000000004</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>20.000000000001805</v>
+        <v>19.999999999999996</v>
       </c>
       <c r="E12">
-        <v>20.000000000002704</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>20.000000000000906</v>
+        <v>15.953297102016936</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>14.246995168670836</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>17.758407060505427</v>
       </c>
       <c r="I12">
-        <v>15.953297102016936</v>
+        <v>20.000000000005951</v>
       </c>
       <c r="J12">
-        <v>14.246995168670852</v>
+        <v>20.000000000008924</v>
       </c>
       <c r="K12">
-        <v>17.758407060505427</v>
+        <v>20.000000000002977</v>
       </c>
       <c r="L12">
         <v>20</v>
       </c>
       <c r="M12">
-        <v>15.302135083504712</v>
+        <v>15.302135083504657</v>
       </c>
       <c r="N12">
-        <v>13.453363640181522</v>
+        <v>13.453363640181482</v>
       </c>
       <c r="O12">
-        <v>17.430941640564519</v>
+        <v>17.430941640564509</v>
       </c>
       <c r="P12">
-        <v>14.941685322250365</v>
+        <v>14.941685322250358</v>
       </c>
       <c r="Q12" t="s">
         <v>81</v>
@@ -3392,43 +3381,43 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>29.999999999998153</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>29.999999999998767</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>29.999999999998767</v>
+        <v>34.553784903611756</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>32.966888913499105</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>33.184069765209088</v>
       </c>
       <c r="I13">
-        <v>34.553784903611756</v>
+        <v>29.999999999993904</v>
       </c>
       <c r="J13">
-        <v>32.966888913499105</v>
+        <v>29.999999999995943</v>
       </c>
       <c r="K13">
-        <v>33.184069765209088</v>
+        <v>29.999999999995943</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="M13">
-        <v>35.375340199360892</v>
+        <v>35.375340199360956</v>
       </c>
       <c r="N13">
-        <v>33.448293412545176</v>
+        <v>33.448293412545205</v>
       </c>
       <c r="O13">
-        <v>33.670905403089371</v>
+        <v>33.670905403089385</v>
       </c>
       <c r="P13">
-        <v>37.550960863227068</v>
+        <v>37.550960863227083</v>
       </c>
       <c r="Q13">
         <v>44.925101910602201</v>
@@ -3445,40 +3434,40 @@
         <v>80</v>
       </c>
       <c r="D14">
-        <v>80.000000000001847</v>
+        <v>80</v>
       </c>
       <c r="E14">
-        <v>80.000000000001251</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>80.000000000001251</v>
+        <v>75.119576065481496</v>
       </c>
       <c r="G14">
-        <v>80</v>
+        <v>76.823333874806707</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>76.57358141148049</v>
       </c>
       <c r="I14">
-        <v>75.119576065481496</v>
+        <v>80.000000000006082</v>
       </c>
       <c r="J14">
-        <v>76.823333874806721</v>
+        <v>80.000000000004064</v>
       </c>
       <c r="K14">
-        <v>76.57358141148049</v>
+        <v>80.000000000004064</v>
       </c>
       <c r="L14">
         <v>80</v>
       </c>
       <c r="M14">
-        <v>74.166692410395541</v>
+        <v>74.166692410395456</v>
       </c>
       <c r="N14">
-        <v>76.266404448062389</v>
+        <v>76.26640444806236</v>
       </c>
       <c r="O14">
-        <v>76.004738963413018</v>
+        <v>76.004738963413004</v>
       </c>
       <c r="P14">
         <v>70.991555145634763</v>
@@ -3495,46 +3484,46 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>40.000000000000007</v>
+        <v>40</v>
       </c>
       <c r="D15">
+        <v>38.517354218014205</v>
+      </c>
+      <c r="E15">
+        <v>38.51735422209844</v>
+      </c>
+      <c r="F15">
+        <v>37.194397849630235</v>
+      </c>
+      <c r="G15">
+        <v>37.359249566828296</v>
+      </c>
+      <c r="H15">
+        <v>37.646692039851651</v>
+      </c>
+      <c r="I15">
         <v>40</v>
       </c>
-      <c r="E15">
+      <c r="J15">
         <v>40</v>
       </c>
-      <c r="F15">
+      <c r="K15">
         <v>40</v>
       </c>
-      <c r="G15">
-        <v>38.517354222119764</v>
-      </c>
-      <c r="H15">
-        <v>38.517354222113113</v>
-      </c>
-      <c r="I15">
-        <v>37.194397849630228</v>
-      </c>
-      <c r="J15">
-        <v>37.359249566828282</v>
-      </c>
-      <c r="K15">
-        <v>37.646692039851665</v>
-      </c>
       <c r="L15">
-        <v>39.299714763812808</v>
+        <v>39.299714764397095</v>
       </c>
       <c r="M15">
-        <v>37.861280098811257</v>
+        <v>37.861280098811243</v>
       </c>
       <c r="N15">
-        <v>38.036420747024273</v>
+        <v>38.036420747024287</v>
       </c>
       <c r="O15">
-        <v>38.373445987225587</v>
+        <v>38.373445987225573</v>
       </c>
       <c r="P15">
-        <v>36.681951520633213</v>
+        <v>36.681951520633206</v>
       </c>
       <c r="Q15" t="s">
         <v>81</v>
@@ -3551,40 +3540,40 @@
         <v>60</v>
       </c>
       <c r="D16">
+        <v>61.530004416893014</v>
+      </c>
+      <c r="E16">
+        <v>61.530004412543398</v>
+      </c>
+      <c r="F16">
+        <v>62.980517254317519</v>
+      </c>
+      <c r="G16">
+        <v>62.795108515046742</v>
+      </c>
+      <c r="H16">
+        <v>62.475062175440947</v>
+      </c>
+      <c r="I16">
         <v>60</v>
       </c>
-      <c r="E16">
+      <c r="J16">
         <v>60</v>
       </c>
-      <c r="F16">
+      <c r="K16">
         <v>60</v>
       </c>
-      <c r="G16">
-        <v>61.530004412520697</v>
-      </c>
-      <c r="H16">
-        <v>61.530004412527788</v>
-      </c>
-      <c r="I16">
-        <v>62.980517254317533</v>
-      </c>
-      <c r="J16">
-        <v>62.795108515046778</v>
-      </c>
-      <c r="K16">
-        <v>62.475062175440918</v>
-      </c>
       <c r="L16">
-        <v>60.70717235830665</v>
+        <v>60.707172357710768</v>
       </c>
       <c r="M16">
-        <v>62.204472249917288</v>
+        <v>62.204472249917309</v>
       </c>
       <c r="N16">
-        <v>62.018844587381608</v>
+        <v>62.018844587381579</v>
       </c>
       <c r="O16">
-        <v>61.664268208122358</v>
+        <v>61.664268208122351</v>
       </c>
       <c r="P16">
         <v>63.479442824149956</v>
@@ -3604,46 +3593,46 @@
         <v>60</v>
       </c>
       <c r="D17">
+        <v>58.508040656204173</v>
+      </c>
+      <c r="E17">
+        <v>58.508040660340178</v>
+      </c>
+      <c r="F17">
+        <v>57.160534034089871</v>
+      </c>
+      <c r="G17">
+        <v>57.329306137553374</v>
+      </c>
+      <c r="H17">
+        <v>57.62299187299034</v>
+      </c>
+      <c r="I17">
         <v>60</v>
       </c>
-      <c r="E17">
+      <c r="J17">
         <v>60</v>
       </c>
-      <c r="F17">
+      <c r="K17">
         <v>60</v>
       </c>
-      <c r="G17">
-        <v>58.508040660361765</v>
-      </c>
-      <c r="H17">
-        <v>58.508040660355036</v>
-      </c>
-      <c r="I17">
-        <v>57.160534034089856</v>
-      </c>
-      <c r="J17">
-        <v>57.329306137553353</v>
-      </c>
-      <c r="K17">
-        <v>57.622991872990376</v>
-      </c>
       <c r="L17">
-        <v>59.061738735805712</v>
+        <v>59.061738736592389</v>
       </c>
       <c r="M17">
-        <v>57.105835976687644</v>
+        <v>57.105835976687651</v>
       </c>
       <c r="N17">
         <v>57.346050021717431</v>
       </c>
       <c r="O17">
-        <v>57.806681291667282</v>
+        <v>57.806681291667296</v>
       </c>
       <c r="P17">
         <v>55.473344908633187</v>
       </c>
       <c r="Q17">
-        <v>50.510257216791416</v>
+        <v>50.510257216791409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,40 +3646,40 @@
         <v>40</v>
       </c>
       <c r="D18">
+        <v>41.539717160834861</v>
+      </c>
+      <c r="E18">
+        <v>41.539717156430143</v>
+      </c>
+      <c r="F18">
+        <v>43.017230886987086</v>
+      </c>
+      <c r="G18">
+        <v>42.82741271710816</v>
+      </c>
+      <c r="H18">
+        <v>42.500414068420362</v>
+      </c>
+      <c r="I18">
         <v>40</v>
       </c>
-      <c r="E18">
+      <c r="J18">
         <v>40</v>
       </c>
-      <c r="F18">
+      <c r="K18">
         <v>40</v>
       </c>
-      <c r="G18">
-        <v>41.53971715640715</v>
-      </c>
-      <c r="H18">
-        <v>41.539717156414333</v>
-      </c>
-      <c r="I18">
-        <v>43.017230886987107</v>
-      </c>
-      <c r="J18">
-        <v>42.827412717108196</v>
-      </c>
-      <c r="K18">
-        <v>42.500414068420355</v>
-      </c>
       <c r="L18">
-        <v>40.947503820589965</v>
+        <v>40.947503819787705</v>
       </c>
       <c r="M18">
-        <v>42.983585962975859</v>
+        <v>42.983585962975887</v>
       </c>
       <c r="N18">
-        <v>42.728988202870738</v>
+        <v>42.728988202870696</v>
       </c>
       <c r="O18">
-        <v>42.244367000459199</v>
+        <v>42.244367000459214</v>
       </c>
       <c r="P18">
         <v>44.748551369743367</v>
@@ -3746,10 +3735,10 @@
         <v>200</v>
       </c>
       <c r="P19">
-        <v>200</v>
+        <v>199.99999999999997</v>
       </c>
       <c r="Q19">
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,40 +3752,40 @@
         <v>110</v>
       </c>
       <c r="D20">
+        <v>102.02649482742012</v>
+      </c>
+      <c r="E20">
+        <v>102.02649482411091</v>
+      </c>
+      <c r="F20">
+        <v>103.09328779209314</v>
+      </c>
+      <c r="G20">
+        <v>103.1596936657216</v>
+      </c>
+      <c r="H20">
+        <v>102.67830140301544</v>
+      </c>
+      <c r="I20">
         <v>110</v>
       </c>
-      <c r="E20">
+      <c r="J20">
         <v>110</v>
       </c>
-      <c r="F20">
+      <c r="K20">
         <v>110</v>
       </c>
-      <c r="G20">
-        <v>102.02649482409367</v>
-      </c>
-      <c r="H20">
-        <v>102.02649482409902</v>
-      </c>
-      <c r="I20">
-        <v>103.09328779209314</v>
-      </c>
-      <c r="J20">
-        <v>103.15969366572165</v>
-      </c>
-      <c r="K20">
-        <v>102.67830140301544</v>
-      </c>
       <c r="L20">
-        <v>105.61634327199572</v>
+        <v>105.61634327179119</v>
       </c>
       <c r="M20">
-        <v>105.96423432063044</v>
+        <v>105.9642343206304</v>
       </c>
       <c r="N20">
-        <v>106.05509309478073</v>
+        <v>106.05509309478072</v>
       </c>
       <c r="O20">
-        <v>105.81182579537368</v>
+        <v>105.81182579537366</v>
       </c>
       <c r="P20">
         <v>101.72343988424672</v>
@@ -3816,43 +3805,43 @@
         <v>100</v>
       </c>
       <c r="D21">
+        <v>108.629477477206</v>
+      </c>
+      <c r="E21">
+        <v>108.62947748108166</v>
+      </c>
+      <c r="F21">
+        <v>107.39363058877078</v>
+      </c>
+      <c r="G21">
+        <v>107.31758856276225</v>
+      </c>
+      <c r="H21">
+        <v>107.8711752942648</v>
+      </c>
+      <c r="I21">
         <v>100</v>
       </c>
-      <c r="E21">
+      <c r="J21">
         <v>100</v>
       </c>
-      <c r="F21">
+      <c r="K21">
         <v>100</v>
       </c>
-      <c r="G21">
-        <v>108.62947748110187</v>
-      </c>
-      <c r="H21">
-        <v>108.62947748109562</v>
-      </c>
-      <c r="I21">
-        <v>107.39363058877078</v>
-      </c>
-      <c r="J21">
-        <v>107.31758856276224</v>
-      </c>
-      <c r="K21">
-        <v>107.8711752942648</v>
-      </c>
       <c r="L21">
-        <v>104.78402191624163</v>
+        <v>104.78402191648524</v>
       </c>
       <c r="M21">
-        <v>104.37266384297195</v>
+        <v>104.37266384297199</v>
       </c>
       <c r="N21">
-        <v>104.26620255060061</v>
+        <v>104.26620255060067</v>
       </c>
       <c r="O21">
-        <v>104.55214581680687</v>
+        <v>104.5521458168069</v>
       </c>
       <c r="P21">
-        <v>109.82972622532756</v>
+        <v>109.82972622532759</v>
       </c>
       <c r="Q21">
         <v>122.60165352131571</v>
@@ -3869,7 +3858,7 @@
         <v>200</v>
       </c>
       <c r="D22">
-        <v>200</v>
+        <v>200.7170186771169</v>
       </c>
       <c r="E22">
         <v>200</v>
@@ -3878,7 +3867,7 @@
         <v>200</v>
       </c>
       <c r="G22">
-        <v>200.7170186096125</v>
+        <v>200</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -3922,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1.0035850933855845</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3931,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.0035850930480625</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3965,12 +3954,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24">
-        <v>1.016185505434424</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86643BD2-E8CC-4F3A-BB7E-5C441037A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07E8E5-8819-4B64-BA9C-263D6EE7BFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="-13350" windowWidth="14400" windowHeight="7455" firstSheet="3" activeTab="4" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" firstSheet="3" activeTab="6" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -18,26 +18,20 @@
     <sheet name="TwoxTwoCESProd" sheetId="5" r:id="rId3"/>
     <sheet name="JPMGE" sheetId="6" r:id="rId4"/>
     <sheet name="TwoxTwowTax" sheetId="7" r:id="rId5"/>
+    <sheet name="TwoxTwowOTax" sheetId="8" r:id="rId6"/>
+    <sheet name="TwoxTwoCET-Scalar" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
   <si>
     <t>X.L</t>
   </si>
@@ -247,6 +241,117 @@
   </si>
   <si>
     <t>CWI.L</t>
+  </si>
+  <si>
+    <t>Otax=.1</t>
+  </si>
+  <si>
+    <t>Otax=.2</t>
+  </si>
+  <si>
+    <t>Otax=.5</t>
+  </si>
+  <si>
+    <t>Otax=.9</t>
+  </si>
+  <si>
+    <t>A.L</t>
+  </si>
+  <si>
+    <t>B.L</t>
+  </si>
+  <si>
+    <t>W.L</t>
+  </si>
+  <si>
+    <t>PW.L</t>
+  </si>
+  <si>
+    <t>CONS.L</t>
+  </si>
+  <si>
+    <t>SAX.L</t>
+  </si>
+  <si>
+    <t>SAY.L</t>
+  </si>
+  <si>
+    <t>SBX.L</t>
+  </si>
+  <si>
+    <t>SBY.L</t>
+  </si>
+  <si>
+    <t>DAL.L</t>
+  </si>
+  <si>
+    <t>DAK.L</t>
+  </si>
+  <si>
+    <t>DBL.L</t>
+  </si>
+  <si>
+    <t>DBK.L</t>
+  </si>
+  <si>
+    <t>SW.L</t>
+  </si>
+  <si>
+    <t>DWX.L</t>
+  </si>
+  <si>
+    <t>DWY.L</t>
+  </si>
+  <si>
+    <t>DW.L</t>
+  </si>
+  <si>
+    <t>Sub=0Tr=0</t>
+  </si>
+  <si>
+    <t>diff=10</t>
+  </si>
+  <si>
+    <t>PW.FX=1</t>
+  </si>
+  <si>
+    <t>TA=2B=1.5</t>
+  </si>
+  <si>
+    <t>TrA=3B=1</t>
+  </si>
+  <si>
+    <t>TrA/B=1</t>
+  </si>
+  <si>
+    <t>S0Tr2,1.5</t>
+  </si>
+  <si>
+    <t>S0Tr=3,1</t>
+  </si>
+  <si>
+    <t>Sub=0Tr=1</t>
+  </si>
+  <si>
+    <t>1.52,.5T0</t>
+  </si>
+  <si>
+    <t>S..T2,1.5</t>
+  </si>
+  <si>
+    <t>S...T3,1</t>
+  </si>
+  <si>
+    <t>S...T1,1</t>
+  </si>
+  <si>
+    <t>TA=0.1</t>
+  </si>
+  <si>
+    <t>TA=100%</t>
+  </si>
+  <si>
+    <t>Undf</t>
   </si>
 </sst>
 </file>
@@ -609,9 +714,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -625,7 +730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +747,7 @@
         <v>1.0488088481700486</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -659,7 +764,7 @@
         <v>1.0388601182540098</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,7 +781,7 @@
         <v>1.0454820635789062</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -693,7 +798,7 @@
         <v>1.048808848169914</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +815,7 @@
         <v>1.0588528529215189</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,7 +832,7 @@
         <v>1.0521462187826638</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -744,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -761,7 +866,7 @@
         <v>1.0999999999996399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -778,7 +883,7 @@
         <v>164.99999999997118</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -795,7 +900,7 @@
         <v>52.440442408500388</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -812,7 +917,7 @@
         <v>21.177057058432069</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -829,7 +934,7 @@
         <v>47.673129462283626</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -846,7 +951,7 @@
         <v>28.877805079687114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -863,7 +968,7 @@
         <v>100.31820580257069</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -880,7 +985,7 @@
         <v>49.683306602973595</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -897,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,7 +1019,7 @@
         <v>1.0095765827768624</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -931,7 +1036,7 @@
         <v>1.0031820580257051</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -948,7 +1053,7 @@
         <v>0.95346258924580818</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -965,7 +1070,7 @@
         <v>1.0488088481700457</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -995,9 +1100,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1011,7 +1116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1136,7 @@
         <v>2.0451802919810183</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1153,7 @@
         <v>6.086084552975235E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1065,7 +1170,7 @@
         <v>-5.5193504067180932E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1190,7 @@
         <v>3.9504305501987567</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1105,7 +1210,7 @@
         <v>1.0326000343166328</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1230,7 @@
         <v>3.0648345557341203</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1145,7 +1250,7 @@
         <v>0.95924189654998493</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1165,7 +1270,7 @@
         <v>0.94903401664811615</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1185,7 +1290,7 @@
         <v>0.99692550469586405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1205,7 +1310,7 @@
         <v>1.0997574149564511</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1225,7 +1330,7 @@
         <v>2.1058244871455893</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1245,7 +1350,7 @@
         <v>4.2894913534466479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1265,7 +1370,7 @@
         <v>1.0372737425956957</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1285,7 +1390,7 @@
         <v>1.018450090273892</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1305,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1430,7 @@
         <v>1.0764751417262008</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1358,9 +1463,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1374,7 +1479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1496,7 @@
         <v>1.0505065382287513</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1513,7 @@
         <v>1.0324804191325847</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1425,7 +1530,7 @@
         <v>1.0444631317219772</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1442,7 +1547,7 @@
         <v>1.0950935908893114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1564,7 @@
         <v>1.1142128759827274</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1581,7 @@
         <v>1.1014299521552819</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1615,7 @@
         <v>1.1945055822716992</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1632,7 @@
         <v>172.56044658173593</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1649,7 @@
         <v>52.32335976642014</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1666,7 @@
         <v>21.340810008438144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1683,7 @@
         <v>47.874200147361819</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1700,7 @@
         <v>28.773271804644232</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1717,7 @@
         <v>100.57861367465195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1734,7 @@
         <v>49.426369767125827</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,7 +1768,7 @@
         <v>1.0174590420877996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1680,7 +1785,7 @@
         <v>1.0057861367454675</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1802,7 @@
         <v>0.91316395997525013</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1819,7 @@
         <v>1.0907794477197668</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1836,7 @@
         <v>157.57598073567559</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1755,12 +1860,12 @@
       <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1822,7 +1927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1890,7 +1995,7 @@
         <v>3.9827830288229387</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1958,7 +2063,7 @@
         <v>1.9711588500763977</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2026,7 +2131,7 @@
         <v>2.0265111225373742</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2199,7 @@
         <v>6.0177649222559033</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2137,7 +2242,7 @@
         <v>1.0310953593282555</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2180,7 +2285,7 @@
         <v>3.0618580948607583</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2328,7 @@
         <v>0.96107338276642651</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2266,7 +2371,7 @@
         <v>0.95130881612337159</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2309,7 +2414,7 @@
         <v>0.98785653343465762</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2352,7 +2457,7 @@
         <v>1.1043704861326116</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -2395,7 +2500,7 @@
         <v>1.0355526292708772</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2438,7 +2543,7 @@
         <v>1.0176064151448934</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2481,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2524,7 +2629,7 @@
         <v>1.0728580957681633</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2567,7 +2672,7 @@
         <v>6.5457161915363269</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2610,7 +2715,7 @@
         <v>2.0825117586808339</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -2653,7 +2758,7 @@
         <v>4.3132252303282845</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2673,76 +2778,1203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999B2CB6-D228-42B8-B68B-E63D641C5E20}">
   <dimension ref="A1:E21"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0488088482495366</v>
+      </c>
+      <c r="D2">
+        <v>1.048808848291152</v>
+      </c>
+      <c r="E2">
+        <v>1.0488088481593842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0388601183172488</v>
+      </c>
+      <c r="D3">
+        <v>1.0388601180790369</v>
+      </c>
+      <c r="E3">
+        <v>1.0388601182505068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0454820636535147</v>
+      </c>
+      <c r="D4">
+        <v>1.0454820633736372</v>
+      </c>
+      <c r="E4">
+        <v>1.0454820635708237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.98905852579244424</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.048808848138622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.99853032667237385</v>
+      </c>
+      <c r="D6">
+        <v>1.0095765827722971</v>
+      </c>
+      <c r="E6">
+        <v>1.058852852879361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.9922057674249718</v>
+      </c>
+      <c r="D7">
+        <v>1.0031820580243815</v>
+      </c>
+      <c r="E7">
+        <v>1.0521462187479544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.94303030266405441</v>
+      </c>
+      <c r="D8">
+        <v>0.95346258924320726</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0373333333393082</v>
+      </c>
+      <c r="D9">
+        <v>1.048808848128669</v>
+      </c>
+      <c r="E9">
+        <v>1.0999999998972825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>187.5</v>
+      </c>
+      <c r="C10">
+        <v>194.5</v>
+      </c>
+      <c r="D10">
+        <v>196.65165902915749</v>
+      </c>
+      <c r="E10">
+        <v>206.24999999007531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>124.99999999999999</v>
+      </c>
+      <c r="E11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>62.5</v>
+      </c>
+      <c r="C12">
+        <v>62.500000000000007</v>
+      </c>
+      <c r="D12">
+        <v>62.500000000000007</v>
+      </c>
+      <c r="E12">
+        <v>62.499999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>52.440442418841862</v>
+      </c>
+      <c r="D13">
+        <v>52.440442407536104</v>
+      </c>
+      <c r="E13">
+        <v>52.440442406059141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>47.673129452884808</v>
+      </c>
+      <c r="D14">
+        <v>47.673129463162773</v>
+      </c>
+      <c r="E14">
+        <v>47.673129464505458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>21.177057063443652</v>
+      </c>
+      <c r="D15">
+        <v>21.177057057964916</v>
+      </c>
+      <c r="E15">
+        <v>21.17705705724919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.877805075132347</v>
+      </c>
+      <c r="D16">
+        <v>28.877805080113006</v>
+      </c>
+      <c r="E16">
+        <v>28.877805080763672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>187.5</v>
+      </c>
+      <c r="C17">
+        <v>196.02788693503402</v>
+      </c>
+      <c r="D17">
+        <v>196.02788688255697</v>
+      </c>
+      <c r="E17">
+        <v>196.02788691952946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>125</v>
+      </c>
+      <c r="C18">
+        <v>131.10110603221005</v>
+      </c>
+      <c r="D18">
+        <v>131.10110599531828</v>
+      </c>
+      <c r="E18">
+        <v>131.10110601980654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>62.5</v>
+      </c>
+      <c r="C19">
+        <v>64.928757393926062</v>
+      </c>
+      <c r="D19">
+        <v>64.928757378323226</v>
+      </c>
+      <c r="E19">
+        <v>64.928757390805515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>187.5</v>
+      </c>
+      <c r="C20">
+        <v>187.49999997857734</v>
+      </c>
+      <c r="D20">
+        <v>187.50000003446129</v>
+      </c>
+      <c r="E20">
+        <v>187.49999999867345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>187.5</v>
+      </c>
+      <c r="C21">
+        <v>196.027886912637</v>
+      </c>
+      <c r="D21">
+        <v>196.02788691858564</v>
+      </c>
+      <c r="E21">
+        <v>196.02788691814257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEAD0FC-6E99-420C-BC7A-3D842CD4A7CD}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0488088482223459</v>
+      </c>
+      <c r="D2">
+        <v>1.0488088481702906</v>
+      </c>
+      <c r="E2">
+        <v>1.0488088481593985</v>
+      </c>
+      <c r="F2">
+        <v>1.0116855688658395</v>
+      </c>
+      <c r="G2">
+        <v>0.96884811102168134</v>
+      </c>
+      <c r="H2">
+        <v>0.78881063774659022</v>
+      </c>
+      <c r="I2">
+        <v>0.26532998322513834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0388601182966062</v>
+      </c>
+      <c r="D3">
+        <v>1.038860118253863</v>
+      </c>
+      <c r="E3">
+        <v>1.0388601182505193</v>
+      </c>
+      <c r="F3">
+        <v>1.1123672179049628</v>
+      </c>
+      <c r="G3">
+        <v>1.197101452804781</v>
+      </c>
+      <c r="H3">
+        <v>1.5521999426621624</v>
+      </c>
+      <c r="I3">
+        <v>2.5753333516762882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0454820636283344</v>
+      </c>
+      <c r="D4">
+        <v>1.0454820635787618</v>
+      </c>
+      <c r="E4">
+        <v>1.0454820635708377</v>
+      </c>
+      <c r="F4">
+        <v>1.0441905629409307</v>
+      </c>
+      <c r="G4">
+        <v>1.039634741431309</v>
+      </c>
+      <c r="H4">
+        <v>0.98847204957489676</v>
+      </c>
+      <c r="I4">
+        <v>0.56598124103192959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.99795751000197275</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.0488088481386348</v>
+      </c>
+      <c r="F5">
+        <v>1.1709323695052041</v>
+      </c>
+      <c r="G5">
+        <v>1.3245970219534051</v>
+      </c>
+      <c r="H5">
+        <v>2.1692292538029863</v>
+      </c>
+      <c r="I5">
+        <v>11.608186765877146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.0075145327263733</v>
+      </c>
+      <c r="D6">
+        <v>1.0095765827768821</v>
+      </c>
+      <c r="E6">
+        <v>1.0588528528793759</v>
+      </c>
+      <c r="F6">
+        <v>1.0649499204188559</v>
+      </c>
+      <c r="G6">
+        <v>1.0720338858305598</v>
+      </c>
+      <c r="H6">
+        <v>1.102378027521483</v>
+      </c>
+      <c r="I6">
+        <v>1.195961679231847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.0011330687136686</v>
+      </c>
+      <c r="D7">
+        <v>1.0031820580257127</v>
+      </c>
+      <c r="E7">
+        <v>1.0521462187479675</v>
+      </c>
+      <c r="F7">
+        <v>1.1344819828665367</v>
+      </c>
+      <c r="G7">
+        <v>1.2344078852090752</v>
+      </c>
+      <c r="H7">
+        <v>1.731066762936565</v>
+      </c>
+      <c r="I7">
+        <v>5.4418764732304421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.95151515128525777</v>
+      </c>
+      <c r="D8">
+        <v>0.95346258924559502</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0466666666627262</v>
+      </c>
+      <c r="D9">
+        <v>1.0488088481701119</v>
+      </c>
+      <c r="E9">
+        <v>1.0999999998973022</v>
+      </c>
+      <c r="F9">
+        <v>1.1105769136174084</v>
+      </c>
+      <c r="G9">
+        <v>1.1229166445216221</v>
+      </c>
+      <c r="H9">
+        <v>1.1763888888885616</v>
+      </c>
+      <c r="I9">
+        <v>1.347499999874207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>157</v>
+      </c>
+      <c r="D10">
+        <v>157.32132722551978</v>
+      </c>
+      <c r="E10">
+        <v>164.99999999178419</v>
+      </c>
+      <c r="F10">
+        <v>177.69230689285564</v>
+      </c>
+      <c r="G10">
+        <v>192.49999801341977</v>
+      </c>
+      <c r="H10">
+        <v>256.66666666662962</v>
+      </c>
+      <c r="I10">
+        <v>461.99999997773762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>101.16855688658394</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>52.440442414743885</v>
+      </c>
+      <c r="D13">
+        <v>52.440442408506513</v>
+      </c>
+      <c r="E13">
+        <v>52.440442406059617</v>
+      </c>
+      <c r="F13">
+        <v>52.691956540287258</v>
+      </c>
+      <c r="G13">
+        <v>52.983880674258423</v>
+      </c>
+      <c r="H13">
+        <v>54.230731345072272</v>
+      </c>
+      <c r="I13">
+        <v>58.040933828510354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>47.673129456610248</v>
+      </c>
+      <c r="D14">
+        <v>47.673129462280592</v>
+      </c>
+      <c r="E14">
+        <v>47.673129464505038</v>
+      </c>
+      <c r="F14">
+        <v>47.445571661180352</v>
+      </c>
+      <c r="G14">
+        <v>47.184161827817846</v>
+      </c>
+      <c r="H14">
+        <v>46.099322985198228</v>
+      </c>
+      <c r="I14">
+        <v>43.073049227405299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>21.177057061457788</v>
+      </c>
+      <c r="D15">
+        <v>21.177057058435174</v>
+      </c>
+      <c r="E15">
+        <v>21.177057057249414</v>
+      </c>
+      <c r="F15">
+        <v>21.298998374443727</v>
+      </c>
+      <c r="G15">
+        <v>21.440677637410172</v>
+      </c>
+      <c r="H15">
+        <v>22.047560550428731</v>
+      </c>
+      <c r="I15">
+        <v>23.919233584290627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.87780507693768</v>
+      </c>
+      <c r="D16">
+        <v>28.877805079685501</v>
+      </c>
+      <c r="E16">
+        <v>28.877805080763462</v>
+      </c>
+      <c r="F16">
+        <v>28.767478568955543</v>
+      </c>
+      <c r="G16">
+        <v>28.640608911640356</v>
+      </c>
+      <c r="H16">
+        <v>28.112591965135366</v>
+      </c>
+      <c r="I16">
+        <v>26.626234048078171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
+      </c>
+      <c r="H17">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100.31820580330329</v>
+      </c>
+      <c r="D18">
+        <v>100.31820580257127</v>
+      </c>
+      <c r="E18">
+        <v>100.31820580223697</v>
+      </c>
+      <c r="F18">
+        <v>96.887063026974317</v>
+      </c>
+      <c r="G18">
+        <v>93.191201905025864</v>
+      </c>
+      <c r="H18">
+        <v>79.801005813550731</v>
+      </c>
+      <c r="I18">
+        <v>46.879642643468536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>49.683306602247974</v>
+      </c>
+      <c r="D19">
+        <v>49.683306602973047</v>
+      </c>
+      <c r="E19">
+        <v>49.683306603304153</v>
+      </c>
+      <c r="F19">
+        <v>53.264569586499768</v>
+      </c>
+      <c r="G19">
+        <v>57.573174760245493</v>
+      </c>
+      <c r="H19">
+        <v>78.515115492123201</v>
+      </c>
+      <c r="I19">
+        <v>227.51048665392318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>149.99999998584357</v>
+      </c>
+      <c r="D20">
+        <v>150.00000000003155</v>
+      </c>
+      <c r="E20">
+        <v>149.99999999868393</v>
+      </c>
+      <c r="F20">
+        <v>149.99999986703938</v>
+      </c>
+      <c r="G20">
+        <v>149.99999971122381</v>
+      </c>
+      <c r="H20">
+        <v>149.99999999999787</v>
+      </c>
+      <c r="I20">
+        <v>149.9999999995207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>156.82230952944988</v>
+      </c>
+      <c r="D21">
+        <v>156.82230953684726</v>
+      </c>
+      <c r="E21">
+        <v>156.82230953424974</v>
+      </c>
+      <c r="F21">
+        <v>156.62858430230338</v>
+      </c>
+      <c r="G21">
+        <v>155.94521091447459</v>
+      </c>
+      <c r="H21">
+        <v>148.27080743623242</v>
+      </c>
+      <c r="I21">
+        <v>84.897186154518167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABAD22F-3EC2-4900-9FF5-8F65369CA290}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0488088482495366</v>
+        <v>0.99999999999737876</v>
       </c>
       <c r="D2">
-        <v>1.048808848291152</v>
+        <v>0.84841617521004631</v>
       </c>
       <c r="E2">
-        <v>1.0488088481593842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.84841617519703261</v>
+      </c>
+      <c r="F2">
+        <v>0.70716515735515217</v>
+      </c>
+      <c r="G2">
+        <v>0.72509467112342285</v>
+      </c>
+      <c r="H2">
+        <v>0.75612889144439233</v>
+      </c>
+      <c r="I2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K2">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L2">
+        <v>0.91659821358300797</v>
+      </c>
+      <c r="M2">
+        <v>0.73369015208861088</v>
+      </c>
+      <c r="N2">
+        <v>0.75685954678370604</v>
+      </c>
+      <c r="O2">
+        <v>0.80071809649126657</v>
+      </c>
+      <c r="P2">
+        <v>0.57048205371293015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0388601183172488</v>
+        <v>1.0000000000023659</v>
       </c>
       <c r="D3">
-        <v>1.0388601180790369</v>
+        <v>1.1506325095176519</v>
       </c>
       <c r="E3">
-        <v>1.0388601182505068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.1506325095207361</v>
+      </c>
+      <c r="F3">
+        <v>1.2893059702343586</v>
+      </c>
+      <c r="G3">
+        <v>1.2717929473142049</v>
+      </c>
+      <c r="H3">
+        <v>1.2414185056039879</v>
+      </c>
+      <c r="I3">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J3">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="K3">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="L3">
+        <v>1.0832385402476867</v>
+      </c>
+      <c r="M3">
+        <v>1.2646965132512462</v>
+      </c>
+      <c r="N3">
+        <v>1.241790354991815</v>
+      </c>
+      <c r="O3">
+        <v>1.1983681743653383</v>
+      </c>
+      <c r="P3">
+        <v>1.4254342349963727</v>
+      </c>
+      <c r="Q3">
+        <v>1.9797958971135603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.0454820636535147</v>
+        <v>0.99999999999981315</v>
       </c>
       <c r="D4">
-        <v>1.0454820633736372</v>
+        <v>1.0035850930534891</v>
       </c>
       <c r="E4">
-        <v>1.0454820635708237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.0035850930478032</v>
+      </c>
+      <c r="F4">
+        <v>1.0068914996667162</v>
+      </c>
+      <c r="G4">
+        <v>1.006673704968486</v>
+      </c>
+      <c r="H4">
+        <v>1.0057135773586172</v>
+      </c>
+      <c r="I4">
+        <v>1.0000000000002727</v>
+      </c>
+      <c r="J4">
+        <v>1.0000000000002727</v>
+      </c>
+      <c r="K4">
+        <v>1.0000000000002727</v>
+      </c>
+      <c r="L4">
+        <v>1.0019757361014827</v>
+      </c>
+      <c r="M4">
+        <v>1.0062537377172638</v>
+      </c>
+      <c r="N4">
+        <v>1.0059749908396223</v>
+      </c>
+      <c r="O4">
+        <v>1.0046559044043997</v>
+      </c>
+      <c r="P4">
+        <v>0.99898051465108928</v>
+      </c>
+      <c r="Q4">
+        <v>0.94407743479945183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2750,16 +3982,52 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.98905852579244424</v>
+        <v>1.0246978470350661</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>1.0231427180776311</v>
       </c>
       <c r="E5">
-        <v>1.048808848138622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.0268107803027984</v>
+      </c>
+      <c r="F5">
+        <v>1.016185505434424</v>
+      </c>
+      <c r="G5">
+        <v>1.0155313673319302</v>
+      </c>
+      <c r="H5">
+        <v>1.0202925382350085</v>
+      </c>
+      <c r="I5">
+        <v>0.95238095238086795</v>
+      </c>
+      <c r="J5">
+        <v>0.95238095238086795</v>
+      </c>
+      <c r="K5">
+        <v>0.95238095238086795</v>
+      </c>
+      <c r="L5">
+        <v>1.0330796752850495</v>
+      </c>
+      <c r="M5">
+        <v>1.0263074053285339</v>
+      </c>
+      <c r="N5">
+        <v>1.0245496568517756</v>
+      </c>
+      <c r="O5">
+        <v>1.0292660659587864</v>
+      </c>
+      <c r="P5">
+        <v>1.1136635243164419</v>
+      </c>
+      <c r="Q5">
+        <v>1.2983516200037848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2767,33 +4035,105 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.99853032667237385</v>
+        <v>0.87283236793118379</v>
       </c>
       <c r="D6">
-        <v>1.0095765827722971</v>
+        <v>0.87359232216741645</v>
       </c>
       <c r="E6">
-        <v>1.058852852879361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.87672423219269724</v>
+      </c>
+      <c r="F6">
+        <v>0.88681325620491125</v>
+      </c>
+      <c r="G6">
+        <v>0.88744162549260963</v>
+      </c>
+      <c r="H6">
+        <v>0.88288734202338981</v>
+      </c>
+      <c r="I6">
+        <v>0.95238095238104503</v>
+      </c>
+      <c r="J6">
+        <v>0.95238095238104503</v>
+      </c>
+      <c r="K6">
+        <v>0.95238095238104503</v>
+      </c>
+      <c r="L6">
+        <v>0.86740230739016488</v>
+      </c>
+      <c r="M6">
+        <v>0.87425306835177496</v>
+      </c>
+      <c r="N6">
+        <v>0.87603929679048409</v>
+      </c>
+      <c r="O6">
+        <v>0.87125402922695339</v>
+      </c>
+      <c r="P6">
+        <v>0.78953411260391237</v>
+      </c>
+      <c r="Q6">
+        <v>0.63360419775310972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9922057674249718</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.0031820580243815</v>
+        <v>0.99642771359477822</v>
       </c>
       <c r="E7">
-        <v>1.0521462187479544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2801,16 +4141,52 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.94303030266405441</v>
+        <v>1.0283762485106709</v>
       </c>
       <c r="D8">
-        <v>0.95346258924320726</v>
+        <v>1.0314650723607428</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.035162970886397</v>
+      </c>
+      <c r="F8">
+        <v>1.0678356276899734</v>
+      </c>
+      <c r="G8">
+        <v>1.0639075291153639</v>
+      </c>
+      <c r="H8">
+        <v>1.0564877098287577</v>
+      </c>
+      <c r="I8">
+        <v>1.2380952380951948</v>
+      </c>
+      <c r="J8">
+        <v>1.2380952380951948</v>
+      </c>
+      <c r="K8">
+        <v>1.2380952380951948</v>
+      </c>
+      <c r="L8">
+        <v>1.0117879320484757</v>
+      </c>
+      <c r="M8">
+        <v>1.0367784125216684</v>
+      </c>
+      <c r="N8">
+        <v>1.0339436215788289</v>
+      </c>
+      <c r="O8">
+        <v>1.027716682077767</v>
+      </c>
+      <c r="P8">
+        <v>1.0178419107760999</v>
+      </c>
+      <c r="Q8">
+        <v>1.0394486229277171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2818,217 +4194,791 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.0373333333393082</v>
+        <v>0.97162375115908584</v>
       </c>
       <c r="D9">
-        <v>1.048808848128669</v>
+        <v>0.96853492695477694</v>
       </c>
       <c r="E9">
-        <v>1.0999999998972825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.97200721520920963</v>
+      </c>
+      <c r="F9">
+        <v>0.94594737164343656</v>
+      </c>
+      <c r="G9">
+        <v>0.94943988081630282</v>
+      </c>
+      <c r="H9">
+        <v>0.95493944473687153</v>
+      </c>
+      <c r="I9">
+        <v>0.76190476190425982</v>
+      </c>
+      <c r="J9">
+        <v>0.76190476190425982</v>
+      </c>
+      <c r="K9">
+        <v>0.76190476190425982</v>
+      </c>
+      <c r="L9">
+        <v>0.99216354015068353</v>
+      </c>
+      <c r="M9">
+        <v>0.97572906291222683</v>
+      </c>
+      <c r="N9">
+        <v>0.97800635973064065</v>
+      </c>
+      <c r="O9">
+        <v>0.98159512233037849</v>
+      </c>
+      <c r="P9">
+        <v>0.92531027852785408</v>
+      </c>
+      <c r="Q9">
+        <v>0.84870624666994454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B10">
-        <v>187.5</v>
+        <v>200</v>
       </c>
       <c r="C10">
-        <v>194.5</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>196.65165902915749</v>
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>206.24999999007531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>200</v>
+      </c>
+      <c r="Q10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B11">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>124.99999999999999</v>
+        <v>79.999999999999986</v>
       </c>
       <c r="E11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>83.789979418307439</v>
+      </c>
+      <c r="G11">
+        <v>85.397254560161727</v>
+      </c>
+      <c r="H11">
+        <v>82.088707595463845</v>
+      </c>
+      <c r="I11">
+        <v>79.99999999999406</v>
+      </c>
+      <c r="J11">
+        <v>79.999999999991104</v>
+      </c>
+      <c r="K11">
+        <v>79.999999999997016</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>84.351462627766182</v>
+      </c>
+      <c r="N11">
+        <v>86.083347199002148</v>
+      </c>
+      <c r="O11">
+        <v>82.368981383121024</v>
+      </c>
+      <c r="P11">
+        <v>84.302930903518373</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>15.953297102016936</v>
+      </c>
+      <c r="G12">
+        <v>14.246995168670836</v>
+      </c>
+      <c r="H12">
+        <v>17.758407060505427</v>
+      </c>
+      <c r="I12">
+        <v>20.000000000005951</v>
+      </c>
+      <c r="J12">
+        <v>20.000000000008924</v>
+      </c>
+      <c r="K12">
+        <v>20.000000000002977</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>15.302135083504657</v>
+      </c>
+      <c r="N12">
+        <v>13.453363640181482</v>
+      </c>
+      <c r="O12">
+        <v>17.430941640564509</v>
+      </c>
+      <c r="P12">
+        <v>14.941685322250358</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>34.553784903611756</v>
+      </c>
+      <c r="G13">
+        <v>32.966888913499105</v>
+      </c>
+      <c r="H13">
+        <v>33.184069765209088</v>
+      </c>
+      <c r="I13">
+        <v>29.999999999993904</v>
+      </c>
+      <c r="J13">
+        <v>29.999999999995943</v>
+      </c>
+      <c r="K13">
+        <v>29.999999999995943</v>
+      </c>
+      <c r="L13">
+        <v>29.999999999999996</v>
+      </c>
+      <c r="M13">
+        <v>35.375340199360956</v>
+      </c>
+      <c r="N13">
+        <v>33.448293412545205</v>
+      </c>
+      <c r="O13">
+        <v>33.670905403089385</v>
+      </c>
+      <c r="P13">
+        <v>37.550960863227083</v>
+      </c>
+      <c r="Q13">
+        <v>44.925101910602201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>75.119576065481496</v>
+      </c>
+      <c r="G14">
+        <v>76.823333874806707</v>
+      </c>
+      <c r="H14">
+        <v>76.57358141148049</v>
+      </c>
+      <c r="I14">
+        <v>80.000000000006082</v>
+      </c>
+      <c r="J14">
+        <v>80.000000000004064</v>
+      </c>
+      <c r="K14">
+        <v>80.000000000004064</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>74.166692410395456</v>
+      </c>
+      <c r="N14">
+        <v>76.26640444806236</v>
+      </c>
+      <c r="O14">
+        <v>76.004738963413004</v>
+      </c>
+      <c r="P14">
+        <v>70.991555145634763</v>
+      </c>
+      <c r="Q14">
+        <v>58.463326814268953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>38.517354218014205</v>
+      </c>
+      <c r="E15">
+        <v>38.51735422209844</v>
+      </c>
+      <c r="F15">
+        <v>37.194397849630235</v>
+      </c>
+      <c r="G15">
+        <v>37.359249566828296</v>
+      </c>
+      <c r="H15">
+        <v>37.646692039851651</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>39.299714764397095</v>
+      </c>
+      <c r="M15">
+        <v>37.861280098811243</v>
+      </c>
+      <c r="N15">
+        <v>38.036420747024287</v>
+      </c>
+      <c r="O15">
+        <v>38.373445987225573</v>
+      </c>
+      <c r="P15">
+        <v>36.681951520633206</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
         <v>60</v>
       </c>
-      <c r="B12">
-        <v>62.5</v>
-      </c>
-      <c r="C12">
-        <v>62.500000000000007</v>
-      </c>
-      <c r="D12">
-        <v>62.500000000000007</v>
-      </c>
-      <c r="E12">
-        <v>62.499999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>52.440442418841862</v>
-      </c>
-      <c r="D13">
-        <v>52.440442407536104</v>
-      </c>
-      <c r="E13">
-        <v>52.440442406059141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>47.673129452884808</v>
-      </c>
-      <c r="D14">
-        <v>47.673129463162773</v>
-      </c>
-      <c r="E14">
-        <v>47.673129464505458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>21.177057063443652</v>
-      </c>
-      <c r="D15">
-        <v>21.177057057964916</v>
-      </c>
-      <c r="E15">
-        <v>21.17705705724919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
       <c r="C16">
-        <v>28.877805075132347</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>28.877805080113006</v>
+        <v>61.530004416893014</v>
       </c>
       <c r="E16">
-        <v>28.877805080763672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61.530004412543398</v>
+      </c>
+      <c r="F16">
+        <v>62.980517254317519</v>
+      </c>
+      <c r="G16">
+        <v>62.795108515046742</v>
+      </c>
+      <c r="H16">
+        <v>62.475062175440947</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>60.707172357710768</v>
+      </c>
+      <c r="M16">
+        <v>62.204472249917309</v>
+      </c>
+      <c r="N16">
+        <v>62.018844587381579</v>
+      </c>
+      <c r="O16">
+        <v>61.664268208122351</v>
+      </c>
+      <c r="P16">
+        <v>63.479442824149956</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>187.5</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>196.02788693503402</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>196.02788688255697</v>
+        <v>58.508040656204173</v>
       </c>
       <c r="E17">
-        <v>196.02788691952946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>58.508040660340178</v>
+      </c>
+      <c r="F17">
+        <v>57.160534034089871</v>
+      </c>
+      <c r="G17">
+        <v>57.329306137553374</v>
+      </c>
+      <c r="H17">
+        <v>57.62299187299034</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>59.061738736592389</v>
+      </c>
+      <c r="M17">
+        <v>57.105835976687651</v>
+      </c>
+      <c r="N17">
+        <v>57.346050021717431</v>
+      </c>
+      <c r="O17">
+        <v>57.806681291667296</v>
+      </c>
+      <c r="P17">
+        <v>55.473344908633187</v>
+      </c>
+      <c r="Q17">
+        <v>50.510257216791409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B18">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="C18">
-        <v>131.10110603221005</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>131.10110599531828</v>
+        <v>41.539717160834861</v>
       </c>
       <c r="E18">
-        <v>131.10110601980654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41.539717156430143</v>
+      </c>
+      <c r="F18">
+        <v>43.017230886987086</v>
+      </c>
+      <c r="G18">
+        <v>42.82741271710816</v>
+      </c>
+      <c r="H18">
+        <v>42.500414068420362</v>
+      </c>
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>40.947503819787705</v>
+      </c>
+      <c r="M18">
+        <v>42.983585962975887</v>
+      </c>
+      <c r="N18">
+        <v>42.728988202870696</v>
+      </c>
+      <c r="O18">
+        <v>42.244367000459214</v>
+      </c>
+      <c r="P18">
+        <v>44.748551369743367</v>
+      </c>
+      <c r="Q18">
+        <v>50.510257216859216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>62.5</v>
+        <v>200</v>
       </c>
       <c r="C19">
-        <v>64.928757393926062</v>
+        <v>200</v>
       </c>
       <c r="D19">
-        <v>64.928757378323226</v>
+        <v>200</v>
       </c>
       <c r="E19">
-        <v>64.928757390805515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+      <c r="M19">
+        <v>200</v>
+      </c>
+      <c r="N19">
+        <v>200</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>199.99999999999997</v>
+      </c>
+      <c r="Q19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B20">
-        <v>187.5</v>
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>187.49999997857734</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>187.50000003446129</v>
+        <v>102.02649482742012</v>
       </c>
       <c r="E20">
-        <v>187.49999999867345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>102.02649482411091</v>
+      </c>
+      <c r="F20">
+        <v>103.09328779209314</v>
+      </c>
+      <c r="G20">
+        <v>103.1596936657216</v>
+      </c>
+      <c r="H20">
+        <v>102.67830140301544</v>
+      </c>
+      <c r="I20">
+        <v>110</v>
+      </c>
+      <c r="J20">
+        <v>110</v>
+      </c>
+      <c r="K20">
+        <v>110</v>
+      </c>
+      <c r="L20">
+        <v>105.61634327179119</v>
+      </c>
+      <c r="M20">
+        <v>105.9642343206304</v>
+      </c>
+      <c r="N20">
+        <v>106.05509309478072</v>
+      </c>
+      <c r="O20">
+        <v>105.81182579537366</v>
+      </c>
+      <c r="P20">
+        <v>101.72343988424672</v>
+      </c>
+      <c r="Q20">
+        <v>94.211056383210959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>108.629477477206</v>
+      </c>
+      <c r="E21">
+        <v>108.62947748108166</v>
+      </c>
+      <c r="F21">
+        <v>107.39363058877078</v>
+      </c>
+      <c r="G21">
+        <v>107.31758856276225</v>
+      </c>
+      <c r="H21">
+        <v>107.8711752942648</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>104.78402191648524</v>
+      </c>
+      <c r="M21">
+        <v>104.37266384297199</v>
+      </c>
+      <c r="N21">
+        <v>104.26620255060067</v>
+      </c>
+      <c r="O21">
+        <v>104.5521458168069</v>
+      </c>
+      <c r="P21">
+        <v>109.82972622532759</v>
+      </c>
+      <c r="Q21">
+        <v>122.60165352131571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>200.7170186771169</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
+      <c r="J22">
+        <v>200</v>
+      </c>
+      <c r="K22">
+        <v>200</v>
+      </c>
+      <c r="L22">
+        <v>200</v>
+      </c>
+      <c r="M22">
+        <v>200</v>
+      </c>
+      <c r="N22">
+        <v>200</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>200</v>
+      </c>
+      <c r="Q22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21">
-        <v>187.5</v>
-      </c>
-      <c r="C21">
-        <v>196.027886912637</v>
-      </c>
-      <c r="D21">
-        <v>196.02788691858564</v>
-      </c>
-      <c r="E21">
-        <v>196.02788691814257</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0035850933855845</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07E8E5-8819-4B64-BA9C-263D6EE7BFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2E16D-3A5C-43DA-95BD-FEB39BD5ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" firstSheet="3" activeTab="6" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" firstSheet="3" activeTab="5" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -3145,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEAD0FC-6E99-420C-BC7A-3D842CD4A7CD}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3453,7 +3453,7 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>101.16855688658394</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -3764,7 +3764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABAD22F-3EC2-4900-9FF5-8F65369CA290}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2E16D-3A5C-43DA-95BD-FEB39BD5ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B2191-4E62-4B3D-9789-BE5856971FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" firstSheet="3" activeTab="5" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="5" activeTab="7" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="TwoxTwowTax" sheetId="7" r:id="rId5"/>
     <sheet name="TwoxTwowOTax" sheetId="8" r:id="rId6"/>
     <sheet name="TwoxTwoCET-Scalar" sheetId="9" r:id="rId7"/>
+    <sheet name="TwoxTwowOTax_IndCon" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="115">
   <si>
     <t>X.L</t>
   </si>
@@ -352,6 +353,30 @@
   </si>
   <si>
     <t>Undf</t>
+  </si>
+  <si>
+    <t>RAA.L</t>
+  </si>
+  <si>
+    <t>RAB.L</t>
+  </si>
+  <si>
+    <t>DURAA.L</t>
+  </si>
+  <si>
+    <t>DURAB.L</t>
+  </si>
+  <si>
+    <t>Otaxa=.1</t>
+  </si>
+  <si>
+    <t>Otaxa=.2</t>
+  </si>
+  <si>
+    <t>Otaxa=.5</t>
+  </si>
+  <si>
+    <t>Otaxa=.9</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEAD0FC-6E99-420C-BC7A-3D842CD4A7CD}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4984,4 +5009,916 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7451895E-4CE7-43DD-A1ED-1D95ED3FA1C3}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0488088483186848</v>
+      </c>
+      <c r="D2">
+        <v>1.0488088481702902</v>
+      </c>
+      <c r="E2">
+        <v>1.0488088481593985</v>
+      </c>
+      <c r="F2">
+        <v>1.0116855688658399</v>
+      </c>
+      <c r="G2">
+        <v>0.96884811102168134</v>
+      </c>
+      <c r="H2">
+        <v>0.78881063774659033</v>
+      </c>
+      <c r="I2">
+        <v>0.26532998322513918</v>
+      </c>
+      <c r="J2">
+        <v>1.0488088477828985</v>
+      </c>
+      <c r="K2">
+        <v>1.0488088481701499</v>
+      </c>
+      <c r="L2">
+        <v>1.0488088481508704</v>
+      </c>
+      <c r="M2">
+        <v>1.0488088481700473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0388601183809216</v>
+      </c>
+      <c r="D3">
+        <v>1.0388601182538633</v>
+      </c>
+      <c r="E3">
+        <v>1.0388601182505182</v>
+      </c>
+      <c r="F3">
+        <v>1.1123672179049622</v>
+      </c>
+      <c r="G3">
+        <v>1.1971014528047808</v>
+      </c>
+      <c r="H3">
+        <v>1.5521999426621618</v>
+      </c>
+      <c r="I3">
+        <v>2.5753333516762922</v>
+      </c>
+      <c r="J3">
+        <v>1.03886011809678</v>
+      </c>
+      <c r="K3">
+        <v>1.038860118254084</v>
+      </c>
+      <c r="L3">
+        <v>1.0388601182463502</v>
+      </c>
+      <c r="M3">
+        <v>1.0388601182540023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0454820637214235</v>
+      </c>
+      <c r="D4">
+        <v>1.0454820635787621</v>
+      </c>
+      <c r="E4">
+        <v>1.0454820635708375</v>
+      </c>
+      <c r="F4">
+        <v>1.0441905629409312</v>
+      </c>
+      <c r="G4">
+        <v>1.0396347414313092</v>
+      </c>
+      <c r="H4">
+        <v>0.98847204957489676</v>
+      </c>
+      <c r="I4">
+        <v>0.56598124103193115</v>
+      </c>
+      <c r="J4">
+        <v>1.0454820632747557</v>
+      </c>
+      <c r="K4">
+        <v>1.0454820635789983</v>
+      </c>
+      <c r="L4">
+        <v>1.0454820635638864</v>
+      </c>
+      <c r="M4">
+        <v>1.0454820635789031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.9979575093627594</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.048808848138634</v>
+      </c>
+      <c r="F5">
+        <v>1.1709323695052041</v>
+      </c>
+      <c r="G5">
+        <v>1.3245970219534056</v>
+      </c>
+      <c r="H5">
+        <v>2.1692292538029858</v>
+      </c>
+      <c r="I5">
+        <v>11.608186765877173</v>
+      </c>
+      <c r="J5">
+        <v>1.1653431632449567</v>
+      </c>
+      <c r="K5">
+        <v>1.3110110602126839</v>
+      </c>
+      <c r="L5">
+        <v>2.0976176962134967</v>
+      </c>
+      <c r="M5">
+        <v>10.488088481700085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.0075145321457899</v>
+      </c>
+      <c r="D6">
+        <v>1.0095765827768821</v>
+      </c>
+      <c r="E6">
+        <v>1.0588528528793753</v>
+      </c>
+      <c r="F6">
+        <v>1.0649499204188564</v>
+      </c>
+      <c r="G6">
+        <v>1.07203388583056</v>
+      </c>
+      <c r="H6">
+        <v>1.102378027521483</v>
+      </c>
+      <c r="I6">
+        <v>1.1959616792318508</v>
+      </c>
+      <c r="J6">
+        <v>1.1765031680734017</v>
+      </c>
+      <c r="K6">
+        <v>1.3235660661522233</v>
+      </c>
+      <c r="L6">
+        <v>2.1177057056757684</v>
+      </c>
+      <c r="M6">
+        <v>10.588528529216054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.0011330680946173</v>
+      </c>
+      <c r="D7">
+        <v>1.0031820580257129</v>
+      </c>
+      <c r="E7">
+        <v>1.0521462187479667</v>
+      </c>
+      <c r="F7">
+        <v>1.1344819828665369</v>
+      </c>
+      <c r="G7">
+        <v>1.2344078852090754</v>
+      </c>
+      <c r="H7">
+        <v>1.731066762936565</v>
+      </c>
+      <c r="I7">
+        <v>5.4418764732304545</v>
+      </c>
+      <c r="J7">
+        <v>1.1690513526718143</v>
+      </c>
+      <c r="K7">
+        <v>1.3151827734786337</v>
+      </c>
+      <c r="L7">
+        <v>2.1042924374260297</v>
+      </c>
+      <c r="M7">
+        <v>10.521462187827565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.95151515026786349</v>
+      </c>
+      <c r="D8">
+        <v>0.95346258924559524</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0466666662537283</v>
+      </c>
+      <c r="D9">
+        <v>1.0488088481701119</v>
+      </c>
+      <c r="E9">
+        <v>1.0999999998973014</v>
+      </c>
+      <c r="F9">
+        <v>1.1105769136174086</v>
+      </c>
+      <c r="G9">
+        <v>1.1229166445216223</v>
+      </c>
+      <c r="H9">
+        <v>1.1763888888885614</v>
+      </c>
+      <c r="I9">
+        <v>1.3474999998742136</v>
+      </c>
+      <c r="J9">
+        <v>1.0999999961516416</v>
+      </c>
+      <c r="K9">
+        <v>1.0999999999999863</v>
+      </c>
+      <c r="L9">
+        <v>1.0999999998056436</v>
+      </c>
+      <c r="M9">
+        <v>1.0999999999996521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>50.000000000000007</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+      <c r="I12">
+        <v>150</v>
+      </c>
+      <c r="J12">
+        <v>150</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+      <c r="L12">
+        <v>150</v>
+      </c>
+      <c r="M12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>52.440442432533608</v>
+      </c>
+      <c r="D13">
+        <v>52.440442408506506</v>
+      </c>
+      <c r="E13">
+        <v>52.440442406059596</v>
+      </c>
+      <c r="F13">
+        <v>52.691956540287265</v>
+      </c>
+      <c r="G13">
+        <v>52.983880674258423</v>
+      </c>
+      <c r="H13">
+        <v>54.230731345072272</v>
+      </c>
+      <c r="I13">
+        <v>58.040933828510497</v>
+      </c>
+      <c r="J13">
+        <v>52.440442316775936</v>
+      </c>
+      <c r="K13">
+        <v>52.440442408507252</v>
+      </c>
+      <c r="L13">
+        <v>52.440442403874791</v>
+      </c>
+      <c r="M13">
+        <v>52.440442408499287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>47.673129440437769</v>
+      </c>
+      <c r="D14">
+        <v>47.673129462280592</v>
+      </c>
+      <c r="E14">
+        <v>47.673129464505053</v>
+      </c>
+      <c r="F14">
+        <v>47.445571661180352</v>
+      </c>
+      <c r="G14">
+        <v>47.184161827817846</v>
+      </c>
+      <c r="H14">
+        <v>46.099322985198235</v>
+      </c>
+      <c r="I14">
+        <v>43.0730492274052</v>
+      </c>
+      <c r="J14">
+        <v>47.673129545672026</v>
+      </c>
+      <c r="K14">
+        <v>47.67312946227991</v>
+      </c>
+      <c r="L14">
+        <v>47.67312946649124</v>
+      </c>
+      <c r="M14">
+        <v>47.673129462287157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>21.177057070078629</v>
+      </c>
+      <c r="D15">
+        <v>21.177057058435174</v>
+      </c>
+      <c r="E15">
+        <v>21.177057057249407</v>
+      </c>
+      <c r="F15">
+        <v>21.29899837444373</v>
+      </c>
+      <c r="G15">
+        <v>21.440677637410175</v>
+      </c>
+      <c r="H15">
+        <v>22.047560550428727</v>
+      </c>
+      <c r="I15">
+        <v>23.919233584290698</v>
+      </c>
+      <c r="J15">
+        <v>21.177057013982832</v>
+      </c>
+      <c r="K15">
+        <v>21.177057058435533</v>
+      </c>
+      <c r="L15">
+        <v>21.177057056190659</v>
+      </c>
+      <c r="M15">
+        <v>21.177057058431675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.877805069100546</v>
+      </c>
+      <c r="D16">
+        <v>28.877805079685508</v>
+      </c>
+      <c r="E16">
+        <v>28.877805080763476</v>
+      </c>
+      <c r="F16">
+        <v>28.767478568955539</v>
+      </c>
+      <c r="G16">
+        <v>28.640608911640356</v>
+      </c>
+      <c r="H16">
+        <v>28.112591965135362</v>
+      </c>
+      <c r="I16">
+        <v>26.626234048078118</v>
+      </c>
+      <c r="J16">
+        <v>28.877805120096724</v>
+      </c>
+      <c r="K16">
+        <v>28.877805079685178</v>
+      </c>
+      <c r="L16">
+        <v>28.877805081725974</v>
+      </c>
+      <c r="M16">
+        <v>28.877805079688688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100.31820580545239</v>
+      </c>
+      <c r="D17">
+        <v>100.31820580257127</v>
+      </c>
+      <c r="E17">
+        <v>100.318205802237</v>
+      </c>
+      <c r="F17">
+        <v>96.887063026974317</v>
+      </c>
+      <c r="G17">
+        <v>93.191201905025878</v>
+      </c>
+      <c r="H17">
+        <v>79.801005813550731</v>
+      </c>
+      <c r="I17">
+        <v>46.879642643468557</v>
+      </c>
+      <c r="J17">
+        <v>100.31820579012654</v>
+      </c>
+      <c r="K17">
+        <v>100.31820580257138</v>
+      </c>
+      <c r="L17">
+        <v>100.31820580194328</v>
+      </c>
+      <c r="M17">
+        <v>100.31820580257032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>49.683306600119259</v>
+      </c>
+      <c r="D18">
+        <v>49.683306602973047</v>
+      </c>
+      <c r="E18">
+        <v>49.683306603304153</v>
+      </c>
+      <c r="F18">
+        <v>53.264569586499746</v>
+      </c>
+      <c r="G18">
+        <v>57.573174760245507</v>
+      </c>
+      <c r="H18">
+        <v>78.515115492123186</v>
+      </c>
+      <c r="I18">
+        <v>227.51048665392312</v>
+      </c>
+      <c r="J18">
+        <v>49.683306615299706</v>
+      </c>
+      <c r="K18">
+        <v>49.683306602972934</v>
+      </c>
+      <c r="L18">
+        <v>49.683306603595071</v>
+      </c>
+      <c r="M18">
+        <v>49.683306602973971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>78.5</v>
+      </c>
+      <c r="D19">
+        <v>78.66066361275989</v>
+      </c>
+      <c r="E19">
+        <v>82.499999995892054</v>
+      </c>
+      <c r="F19">
+        <v>94.769230348159326</v>
+      </c>
+      <c r="G19">
+        <v>109.08333223255492</v>
+      </c>
+      <c r="H19">
+        <v>171.11111111108713</v>
+      </c>
+      <c r="I19">
+        <v>369.59999998277107</v>
+      </c>
+      <c r="J19">
+        <v>94.722222049211879</v>
+      </c>
+      <c r="K19">
+        <v>109.99999999999929</v>
+      </c>
+      <c r="L19">
+        <v>192.49999998355372</v>
+      </c>
+      <c r="M19">
+        <v>1072.4999999997528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>78.499999935461872</v>
+      </c>
+      <c r="D20">
+        <v>78.66066361275989</v>
+      </c>
+      <c r="E20">
+        <v>82.499999995892054</v>
+      </c>
+      <c r="F20">
+        <v>82.923076544696343</v>
+      </c>
+      <c r="G20">
+        <v>83.416665780864889</v>
+      </c>
+      <c r="H20">
+        <v>85.555555555542455</v>
+      </c>
+      <c r="I20">
+        <v>92.399999994968539</v>
+      </c>
+      <c r="J20">
+        <v>88.611110946695504</v>
+      </c>
+      <c r="K20">
+        <v>96.249999999999375</v>
+      </c>
+      <c r="L20">
+        <v>137.49999998745824</v>
+      </c>
+      <c r="M20">
+        <v>577.49999999986312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>78.411154757743773</v>
+      </c>
+      <c r="D21">
+        <v>78.411154768423614</v>
+      </c>
+      <c r="E21">
+        <v>78.411154767124899</v>
+      </c>
+      <c r="F21">
+        <v>83.53524496590282</v>
+      </c>
+      <c r="G21">
+        <v>88.368952871748021</v>
+      </c>
+      <c r="H21">
+        <v>98.847204957488685</v>
+      </c>
+      <c r="I21">
+        <v>67.917748923721135</v>
+      </c>
+      <c r="J21">
+        <v>81.024859885520428</v>
+      </c>
+      <c r="K21">
+        <v>83.638565086319787</v>
+      </c>
+      <c r="L21">
+        <v>91.479680561424104</v>
+      </c>
+      <c r="M21">
+        <v>101.93450119894401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>78.411154757743773</v>
+      </c>
+      <c r="D22">
+        <v>78.411154768423614</v>
+      </c>
+      <c r="E22">
+        <v>78.411154767124899</v>
+      </c>
+      <c r="F22">
+        <v>73.093339336400547</v>
+      </c>
+      <c r="G22">
+        <v>67.576258042726579</v>
+      </c>
+      <c r="H22">
+        <v>49.423602478743703</v>
+      </c>
+      <c r="I22">
+        <v>16.979437230797199</v>
+      </c>
+      <c r="J22">
+        <v>75.797449568129579</v>
+      </c>
+      <c r="K22">
+        <v>73.183744450529815</v>
+      </c>
+      <c r="L22">
+        <v>65.342628972068269</v>
+      </c>
+      <c r="M22">
+        <v>54.887808337892558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B2191-4E62-4B3D-9789-BE5856971FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EC14CB-8026-4392-8FDC-CB6AF227E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="5" activeTab="7" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="3864" yWindow="3072" windowWidth="13824" windowHeight="7260" firstSheet="7" activeTab="8" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TwoxTwowOTax" sheetId="8" r:id="rId6"/>
     <sheet name="TwoxTwoCET-Scalar" sheetId="9" r:id="rId7"/>
     <sheet name="TwoxTwowOTax_IndCon" sheetId="10" r:id="rId8"/>
+    <sheet name="TwoxTwoOutTax_1-2" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
   <si>
     <t>X.L</t>
   </si>
@@ -377,6 +378,18 @@
   </si>
   <si>
     <t>Otaxa=.9</t>
+  </si>
+  <si>
+    <t>OUTTAX=0.1</t>
+  </si>
+  <si>
+    <t>SUBes=1</t>
+  </si>
+  <si>
+    <t>OUTTAX=0.2</t>
+  </si>
+  <si>
+    <t>S1Tr=3,1</t>
   </si>
 </sst>
 </file>
@@ -5015,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7451895E-4CE7-43DD-A1ED-1D95ED3FA1C3}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5921,4 +5934,1230 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F07C38F-0BBA-4014-8D0C-146F422C055E}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.89337249339501046</v>
+      </c>
+      <c r="E2">
+        <v>0.89337249339497415</v>
+      </c>
+      <c r="F2">
+        <v>0.77047179008375588</v>
+      </c>
+      <c r="G2">
+        <v>0.64533631428135496</v>
+      </c>
+      <c r="H2">
+        <v>0.65743472294980465</v>
+      </c>
+      <c r="I2">
+        <v>0.59043552853534853</v>
+      </c>
+      <c r="J2">
+        <v>0.64533631351198184</v>
+      </c>
+      <c r="K2">
+        <v>0.65743472294980621</v>
+      </c>
+      <c r="L2">
+        <v>0.87514262265812059</v>
+      </c>
+      <c r="M2">
+        <v>0.65301554051929644</v>
+      </c>
+      <c r="N2">
+        <v>0.71778700395030315</v>
+      </c>
+      <c r="O2">
+        <v>0.74236189253677176</v>
+      </c>
+      <c r="P2">
+        <v>0.54435839325680246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D3">
+        <v>1.1061558951437069</v>
+      </c>
+      <c r="E3">
+        <v>1.1061558951436663</v>
+      </c>
+      <c r="F3">
+        <v>1.2273542775350592</v>
+      </c>
+      <c r="G3">
+        <v>1.3495011899745444</v>
+      </c>
+      <c r="H3">
+        <v>1.3377464494522329</v>
+      </c>
+      <c r="I3">
+        <v>1.4026964717016865</v>
+      </c>
+      <c r="J3">
+        <v>1.3495011908864791</v>
+      </c>
+      <c r="K3">
+        <v>1.3377464494522311</v>
+      </c>
+      <c r="L3">
+        <v>1.1244941079798842</v>
+      </c>
+      <c r="M3">
+        <v>1.3442824845818007</v>
+      </c>
+      <c r="N3">
+        <v>1.2804060756948956</v>
+      </c>
+      <c r="O3">
+        <v>1.2561259176857724</v>
+      </c>
+      <c r="P3">
+        <v>1.4510658620714896</v>
+      </c>
+      <c r="Q3">
+        <v>1.9797958971136496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D4">
+        <v>0.99772417746473985</v>
+      </c>
+      <c r="E4">
+        <v>0.99772417746469655</v>
+      </c>
+      <c r="F4">
+        <v>0.98946475655091437</v>
+      </c>
+      <c r="G4">
+        <v>0.98384389955615403</v>
+      </c>
+      <c r="H4">
+        <v>0.98388691369682391</v>
+      </c>
+      <c r="I4">
+        <v>0.98045633684843492</v>
+      </c>
+      <c r="J4">
+        <v>0.98384389959535268</v>
+      </c>
+      <c r="K4">
+        <v>0.98388691369682346</v>
+      </c>
+      <c r="L4">
+        <v>0.99422149404419036</v>
+      </c>
+      <c r="M4">
+        <v>0.98334630994723393</v>
+      </c>
+      <c r="N4">
+        <v>0.98762504070267321</v>
+      </c>
+      <c r="O4">
+        <v>0.98786684869299235</v>
+      </c>
+      <c r="P4">
+        <v>0.96551294640069996</v>
+      </c>
+      <c r="Q4">
+        <v>0.85094165473951278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0638297871620572</v>
+      </c>
+      <c r="D5">
+        <v>1.0684569174936085</v>
+      </c>
+      <c r="E5">
+        <v>1.0660252991930357</v>
+      </c>
+      <c r="F5">
+        <v>1.1480730086871633</v>
+      </c>
+      <c r="G5">
+        <v>1.143932026014441</v>
+      </c>
+      <c r="H5">
+        <v>1.145388031746748</v>
+      </c>
+      <c r="I5">
+        <v>1.1430546388918983</v>
+      </c>
+      <c r="J5">
+        <v>1.1439320266250896</v>
+      </c>
+      <c r="K5">
+        <v>1.1453880317467473</v>
+      </c>
+      <c r="L5">
+        <v>1.1552359586956371</v>
+      </c>
+      <c r="M5">
+        <v>1.1581490156249072</v>
+      </c>
+      <c r="N5">
+        <v>1.155598046894343</v>
+      </c>
+      <c r="O5">
+        <v>1.1575889833220461</v>
+      </c>
+      <c r="P5">
+        <v>1.2537168559460676</v>
+      </c>
+      <c r="Q5">
+        <v>1.5055868680147453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.93617021283726842</v>
+      </c>
+      <c r="D6">
+        <v>0.94020377794879728</v>
+      </c>
+      <c r="E6">
+        <v>0.93806404102884222</v>
+      </c>
+      <c r="F6">
+        <v>0.87102474531723251</v>
+      </c>
+      <c r="G6">
+        <v>0.87417781586558641</v>
+      </c>
+      <c r="H6">
+        <v>0.87306656982859454</v>
+      </c>
+      <c r="I6">
+        <v>0.87484881821820093</v>
+      </c>
+      <c r="J6">
+        <v>0.87417781537648442</v>
+      </c>
+      <c r="K6">
+        <v>0.8730665698285951</v>
+      </c>
+      <c r="L6">
+        <v>0.85595981739436022</v>
+      </c>
+      <c r="M6">
+        <v>0.85345573386848617</v>
+      </c>
+      <c r="N6">
+        <v>0.85564819249958657</v>
+      </c>
+      <c r="O6">
+        <v>0.85393661198955706</v>
+      </c>
+      <c r="P6">
+        <v>0.7749369221744975</v>
+      </c>
+      <c r="Q6">
+        <v>0.59749254452861233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.0022810136897868</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.9787234044661598</v>
+      </c>
+      <c r="D8">
+        <v>0.98313214830210061</v>
+      </c>
+      <c r="E8">
+        <v>0.98089471402976547</v>
+      </c>
+      <c r="F8">
+        <v>0.96237274603924516</v>
+      </c>
+      <c r="G8">
+        <v>0.99079613084182516</v>
+      </c>
+      <c r="H8">
+        <v>0.98833168062153587</v>
+      </c>
+      <c r="I8">
+        <v>1.0035788978164959</v>
+      </c>
+      <c r="J8">
+        <v>0.99079612939730155</v>
+      </c>
+      <c r="K8">
+        <v>0.98833168062153542</v>
+      </c>
+      <c r="L8">
+        <v>0.92664016312691877</v>
+      </c>
+      <c r="M8">
+        <v>0.95693303095438265</v>
+      </c>
+      <c r="N8">
+        <v>0.94793633761497709</v>
+      </c>
+      <c r="O8">
+        <v>0.94504731852562995</v>
+      </c>
+      <c r="P8">
+        <v>0.92927845149325294</v>
+      </c>
+      <c r="Q8">
+        <v>0.93690421845409078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.93617021255885335</v>
+      </c>
+      <c r="D9">
+        <v>0.94050545000475572</v>
+      </c>
+      <c r="E9">
+        <v>0.93836502653465148</v>
+      </c>
+      <c r="F9">
+        <v>0.87502750843624399</v>
+      </c>
+      <c r="G9">
+        <v>0.85572088168510851</v>
+      </c>
+      <c r="H9">
+        <v>0.8578333330738287</v>
+      </c>
+      <c r="I9">
+        <v>0.84752137041884756</v>
+      </c>
+      <c r="J9">
+        <v>0.8557208828592785</v>
+      </c>
+      <c r="K9">
+        <v>0.85783333307382881</v>
+      </c>
+      <c r="L9">
+        <v>0.90004342852983255</v>
+      </c>
+      <c r="M9">
+        <v>0.88509599493431801</v>
+      </c>
+      <c r="N9">
+        <v>0.88903972814453491</v>
+      </c>
+      <c r="O9">
+        <v>0.89108439606482159</v>
+      </c>
+      <c r="P9">
+        <v>0.84027401686099978</v>
+      </c>
+      <c r="Q9">
+        <v>0.76497909102369444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>199.99999999979775</v>
+      </c>
+      <c r="D10">
+        <v>199.99999999979775</v>
+      </c>
+      <c r="E10">
+        <v>199.54483549293934</v>
+      </c>
+      <c r="F10">
+        <v>197.89295130594959</v>
+      </c>
+      <c r="G10">
+        <v>196.76877991123038</v>
+      </c>
+      <c r="H10">
+        <v>196.77738273926926</v>
+      </c>
+      <c r="I10">
+        <v>196.09126736158467</v>
+      </c>
+      <c r="J10">
+        <v>196.76877988306461</v>
+      </c>
+      <c r="K10">
+        <v>196.77738273926923</v>
+      </c>
+      <c r="L10">
+        <v>198.84429879258502</v>
+      </c>
+      <c r="M10">
+        <v>196.66926198933004</v>
+      </c>
+      <c r="N10">
+        <v>197.52500814053451</v>
+      </c>
+      <c r="O10">
+        <v>197.57336970586019</v>
+      </c>
+      <c r="P10">
+        <v>193.10258927643696</v>
+      </c>
+      <c r="Q10">
+        <v>170.18833094777852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>82.069466121608045</v>
+      </c>
+      <c r="H11">
+        <v>80.747628722199408</v>
+      </c>
+      <c r="I11">
+        <v>81.354566612697411</v>
+      </c>
+      <c r="J11">
+        <v>82.069466167985382</v>
+      </c>
+      <c r="K11">
+        <v>80.747628722199366</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>82.417927311586453</v>
+      </c>
+      <c r="N11">
+        <v>83.35049623579954</v>
+      </c>
+      <c r="O11">
+        <v>81.225339410207141</v>
+      </c>
+      <c r="P11">
+        <v>83.433232535582817</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>17.883410386329814</v>
+      </c>
+      <c r="H12">
+        <v>19.234217268593486</v>
+      </c>
+      <c r="I12">
+        <v>18.615470122805476</v>
+      </c>
+      <c r="J12">
+        <v>17.883410337779104</v>
+      </c>
+      <c r="K12">
+        <v>19.2342172685935</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>17.482954987675999</v>
+      </c>
+      <c r="N12">
+        <v>16.521274681467307</v>
+      </c>
+      <c r="O12">
+        <v>18.72461106202643</v>
+      </c>
+      <c r="P12">
+        <v>16.115952567746049</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>24.485376219145216</v>
+      </c>
+      <c r="H13">
+        <v>24.528999781244689</v>
+      </c>
+      <c r="I13">
+        <v>26.905664219245825</v>
+      </c>
+      <c r="J13">
+        <v>24.485376237890613</v>
+      </c>
+      <c r="K13">
+        <v>24.528999781244671</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>27.936209019788301</v>
+      </c>
+      <c r="N13">
+        <v>25.027423604599701</v>
+      </c>
+      <c r="O13">
+        <v>25.091438252400668</v>
+      </c>
+      <c r="P13">
+        <v>28.125819289701205</v>
+      </c>
+      <c r="Q13">
+        <v>35.02889636959808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>74.845610463324249</v>
+      </c>
+      <c r="H14">
+        <v>74.788452844852941</v>
+      </c>
+      <c r="I14">
+        <v>72.061407044880269</v>
+      </c>
+      <c r="J14">
+        <v>74.845610438794367</v>
+      </c>
+      <c r="K14">
+        <v>74.788452844852955</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>70.68907519906378</v>
+      </c>
+      <c r="N14">
+        <v>74.124977375131124</v>
+      </c>
+      <c r="O14">
+        <v>74.038361041448354</v>
+      </c>
+      <c r="P14">
+        <v>69.5395797882924</v>
+      </c>
+      <c r="Q14">
+        <v>55.604906946346318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>38.950195569881757</v>
+      </c>
+      <c r="E15">
+        <v>38.950195569950637</v>
+      </c>
+      <c r="F15">
+        <v>37.780441241921935</v>
+      </c>
+      <c r="G15">
+        <v>36.6326796525479</v>
+      </c>
+      <c r="H15">
+        <v>36.74177319144264</v>
+      </c>
+      <c r="I15">
+        <v>36.142606841209023</v>
+      </c>
+      <c r="J15">
+        <v>36.63267971475203</v>
+      </c>
+      <c r="K15">
+        <v>36.741773191442654</v>
+      </c>
+      <c r="L15">
+        <v>38.962246098925824</v>
+      </c>
+      <c r="M15">
+        <v>37.266665983254953</v>
+      </c>
+      <c r="N15">
+        <v>37.742208702045104</v>
+      </c>
+      <c r="O15">
+        <v>37.926598689166809</v>
+      </c>
+      <c r="P15">
+        <v>36.501668499162456</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>61.073313472895634</v>
+      </c>
+      <c r="E16">
+        <v>61.073313472823642</v>
+      </c>
+      <c r="F16">
+        <v>62.327526793196704</v>
+      </c>
+      <c r="G16">
+        <v>63.622703452038728</v>
+      </c>
+      <c r="H16">
+        <v>63.496702180821892</v>
+      </c>
+      <c r="I16">
+        <v>64.196536165199802</v>
+      </c>
+      <c r="J16">
+        <v>63.622703380015693</v>
+      </c>
+      <c r="K16">
+        <v>63.496702180821885</v>
+      </c>
+      <c r="L16">
+        <v>61.052960199979267</v>
+      </c>
+      <c r="M16">
+        <v>62.841791142654223</v>
+      </c>
+      <c r="N16">
+        <v>62.331212543599925</v>
+      </c>
+      <c r="O16">
+        <v>62.135132465669322</v>
+      </c>
+      <c r="P16">
+        <v>63.678287301078122</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>58.945549132481268</v>
+      </c>
+      <c r="E17">
+        <v>58.945549132550752</v>
+      </c>
+      <c r="F17">
+        <v>57.759391158658246</v>
+      </c>
+      <c r="G17">
+        <v>56.583574803824867</v>
+      </c>
+      <c r="H17">
+        <v>56.695857837595206</v>
+      </c>
+      <c r="I17">
+        <v>56.077791965846245</v>
+      </c>
+      <c r="J17">
+        <v>56.583574867879364</v>
+      </c>
+      <c r="K17">
+        <v>56.695857837595227</v>
+      </c>
+      <c r="L17">
+        <v>58.606334436129941</v>
+      </c>
+      <c r="M17">
+        <v>56.286003007094564</v>
+      </c>
+      <c r="N17">
+        <v>56.942195509126336</v>
+      </c>
+      <c r="O17">
+        <v>57.195490828323436</v>
+      </c>
+      <c r="P17">
+        <v>55.221484067444962</v>
+      </c>
+      <c r="Q17">
+        <v>50.510257216772381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>41.078099264723591</v>
+      </c>
+      <c r="E18">
+        <v>41.078099264650952</v>
+      </c>
+      <c r="F18">
+        <v>42.349955357975226</v>
+      </c>
+      <c r="G18">
+        <v>43.676848518197758</v>
+      </c>
+      <c r="H18">
+        <v>43.547163378947886</v>
+      </c>
+      <c r="I18">
+        <v>44.2690812820871</v>
+      </c>
+      <c r="J18">
+        <v>43.676848444032274</v>
+      </c>
+      <c r="K18">
+        <v>43.547163378947864</v>
+      </c>
+      <c r="L18">
+        <v>41.414136337644095</v>
+      </c>
+      <c r="M18">
+        <v>43.862309050474138</v>
+      </c>
+      <c r="N18">
+        <v>43.15776591871434</v>
+      </c>
+      <c r="O18">
+        <v>42.888411696208443</v>
+      </c>
+      <c r="P18">
+        <v>45.026343428197329</v>
+      </c>
+      <c r="Q18">
+        <v>50.510257216882515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+      <c r="M19">
+        <v>200</v>
+      </c>
+      <c r="N19">
+        <v>200</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>200</v>
+      </c>
+      <c r="Q19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>93.806404102931722</v>
+      </c>
+      <c r="E20">
+        <v>93.806404102884244</v>
+      </c>
+      <c r="F20">
+        <v>87.102474531839732</v>
+      </c>
+      <c r="G20">
+        <v>87.417781586558661</v>
+      </c>
+      <c r="H20">
+        <v>87.306656982865633</v>
+      </c>
+      <c r="I20">
+        <v>87.484881822108363</v>
+      </c>
+      <c r="J20">
+        <v>87.417781538771095</v>
+      </c>
+      <c r="K20">
+        <v>87.306656982865675</v>
+      </c>
+      <c r="L20">
+        <v>93.038917913952417</v>
+      </c>
+      <c r="M20">
+        <v>92.92183526645816</v>
+      </c>
+      <c r="N20">
+        <v>93.024340642293922</v>
+      </c>
+      <c r="O20">
+        <v>92.944309968961193</v>
+      </c>
+      <c r="P20">
+        <v>89.310036642749864</v>
+      </c>
+      <c r="Q20">
+        <v>81.498026247360883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>106.60252991924966</v>
+      </c>
+      <c r="E21">
+        <v>106.60252991930359</v>
+      </c>
+      <c r="F21">
+        <v>114.80730086886987</v>
+      </c>
+      <c r="G21">
+        <v>114.39320260144412</v>
+      </c>
+      <c r="H21">
+        <v>114.5388031746829</v>
+      </c>
+      <c r="I21">
+        <v>114.30546388956648</v>
+      </c>
+      <c r="J21">
+        <v>114.39320266397803</v>
+      </c>
+      <c r="K21">
+        <v>114.53880317468281</v>
+      </c>
+      <c r="L21">
+        <v>108.08696224654723</v>
+      </c>
+      <c r="M21">
+        <v>108.24541249180129</v>
+      </c>
+      <c r="N21">
+        <v>108.10664295323195</v>
+      </c>
+      <c r="O21">
+        <v>108.21493002930822</v>
+      </c>
+      <c r="P21">
+        <v>113.59698981509563</v>
+      </c>
+      <c r="Q21">
+        <v>129.37005259843761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>199.99999999979775</v>
+      </c>
+      <c r="D22">
+        <v>199.5448354929313</v>
+      </c>
+      <c r="E22">
+        <v>199.54483549293934</v>
+      </c>
+      <c r="F22">
+        <v>197.89295130594959</v>
+      </c>
+      <c r="G22">
+        <v>196.76877991123038</v>
+      </c>
+      <c r="H22">
+        <v>196.77738273926926</v>
+      </c>
+      <c r="I22">
+        <v>196.09126736158467</v>
+      </c>
+      <c r="J22">
+        <v>196.76877988306461</v>
+      </c>
+      <c r="K22">
+        <v>196.77738273926923</v>
+      </c>
+      <c r="L22">
+        <v>198.84429879258502</v>
+      </c>
+      <c r="M22">
+        <v>196.66926198933004</v>
+      </c>
+      <c r="N22">
+        <v>197.52500814053451</v>
+      </c>
+      <c r="O22">
+        <v>197.57336970586019</v>
+      </c>
+      <c r="P22">
+        <v>193.10258927643696</v>
+      </c>
+      <c r="Q22">
+        <v>170.18833094777852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.99999999999898881</v>
+      </c>
+      <c r="D23">
+        <v>0.99772417746465647</v>
+      </c>
+      <c r="E23">
+        <v>0.99772417746469666</v>
+      </c>
+      <c r="F23">
+        <v>0.98946475652974797</v>
+      </c>
+      <c r="G23">
+        <v>0.98384389955615192</v>
+      </c>
+      <c r="H23">
+        <v>0.98388691369634629</v>
+      </c>
+      <c r="I23">
+        <v>0.98045633680792332</v>
+      </c>
+      <c r="J23">
+        <v>0.98384389941532302</v>
+      </c>
+      <c r="K23">
+        <v>0.98388691369634618</v>
+      </c>
+      <c r="L23">
+        <v>0.99422149396292514</v>
+      </c>
+      <c r="M23">
+        <v>0.98334630994665018</v>
+      </c>
+      <c r="N23">
+        <v>0.98762504070267254</v>
+      </c>
+      <c r="O23">
+        <v>0.98786684852930096</v>
+      </c>
+      <c r="P23">
+        <v>0.96551294638218477</v>
+      </c>
+      <c r="Q23">
+        <v>0.85094165473889261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EC14CB-8026-4392-8FDC-CB6AF227E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797361AB-1A26-4CF4-BE77-8106D1BA2B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3864" yWindow="3072" windowWidth="13824" windowHeight="7260" firstSheet="7" activeTab="8" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
@@ -389,7 +389,7 @@
     <t>OUTTAX=0.2</t>
   </si>
   <si>
-    <t>S1Tr=3,1</t>
+    <t>S1Tr2,1.5</t>
   </si>
 </sst>
 </file>
@@ -5967,10 +5967,10 @@
         <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>99</v>
@@ -6023,25 +6023,25 @@
         <v>0.59043552853534853</v>
       </c>
       <c r="J2">
-        <v>0.64533631351198184</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K2">
-        <v>0.65743472294980621</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="L2">
-        <v>0.87514262265812059</v>
+        <v>0.87514262258757747</v>
       </c>
       <c r="M2">
-        <v>0.65301554051929644</v>
+        <v>0.65301554051929678</v>
       </c>
       <c r="N2">
-        <v>0.71778700395030315</v>
+        <v>0.71778700395030381</v>
       </c>
       <c r="O2">
-        <v>0.74236189253677176</v>
+        <v>0.7423618925367752</v>
       </c>
       <c r="P2">
-        <v>0.54435839325680246</v>
+        <v>0.54435839325680269</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,28 +6073,28 @@
         <v>1.4026964717016865</v>
       </c>
       <c r="J3">
-        <v>1.3495011908864791</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K3">
-        <v>1.3377464494522311</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L3">
-        <v>1.1244941079798842</v>
+        <v>1.1244941080643807</v>
       </c>
       <c r="M3">
-        <v>1.3442824845818007</v>
+        <v>1.3442824845817996</v>
       </c>
       <c r="N3">
-        <v>1.2804060756948956</v>
+        <v>1.2804060756948938</v>
       </c>
       <c r="O3">
-        <v>1.2561259176857724</v>
+        <v>1.2561259176857693</v>
       </c>
       <c r="P3">
-        <v>1.4510658620714896</v>
+        <v>1.4510658620714891</v>
       </c>
       <c r="Q3">
-        <v>1.9797958971136496</v>
+        <v>1.9797958971136493</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,25 +6126,25 @@
         <v>0.98045633684843492</v>
       </c>
       <c r="J4">
-        <v>0.98384389959535268</v>
+        <v>0.99836641864624298</v>
       </c>
       <c r="K4">
-        <v>0.98388691369682346</v>
+        <v>0.99893794959861781</v>
       </c>
       <c r="L4">
-        <v>0.99422149404419036</v>
+        <v>0.99422149404252358</v>
       </c>
       <c r="M4">
-        <v>0.98334630994723393</v>
+        <v>0.98334630994723327</v>
       </c>
       <c r="N4">
-        <v>0.98762504070267321</v>
+        <v>0.98762504070267221</v>
       </c>
       <c r="O4">
-        <v>0.98786684869299235</v>
+        <v>0.98786684869299268</v>
       </c>
       <c r="P4">
-        <v>0.96551294640069996</v>
+        <v>0.96551294640069951</v>
       </c>
       <c r="Q4">
         <v>0.85094165473951278</v>
@@ -6179,28 +6179,28 @@
         <v>1.1430546388918983</v>
       </c>
       <c r="J5">
-        <v>1.1439320266250896</v>
+        <v>1.0831733772497101</v>
       </c>
       <c r="K5">
-        <v>1.1453880317467473</v>
+        <v>1.0557280901465067</v>
       </c>
       <c r="L5">
-        <v>1.1552359586956371</v>
+        <v>1.1552359587842187</v>
       </c>
       <c r="M5">
         <v>1.1581490156249072</v>
       </c>
       <c r="N5">
-        <v>1.155598046894343</v>
+        <v>1.1555980468943421</v>
       </c>
       <c r="O5">
-        <v>1.1575889833220461</v>
+        <v>1.1575889833220443</v>
       </c>
       <c r="P5">
-        <v>1.2537168559460676</v>
+        <v>1.2537168559460672</v>
       </c>
       <c r="Q5">
-        <v>1.5055868680147453</v>
+        <v>1.5055868680147451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,28 +6232,28 @@
         <v>0.87484881821820093</v>
       </c>
       <c r="J6">
-        <v>0.87417781537648442</v>
+        <v>0.91682662275028926</v>
       </c>
       <c r="K6">
-        <v>0.8730665698285951</v>
+        <v>0.9442719098534933</v>
       </c>
       <c r="L6">
-        <v>0.85595981739436022</v>
+        <v>0.85595981732131754</v>
       </c>
       <c r="M6">
         <v>0.85345573386848617</v>
       </c>
       <c r="N6">
-        <v>0.85564819249958657</v>
+        <v>0.85564819249958746</v>
       </c>
       <c r="O6">
-        <v>0.85393661198955706</v>
+        <v>0.85393661198955839</v>
       </c>
       <c r="P6">
-        <v>0.7749369221744975</v>
+        <v>0.77493692217449794</v>
       </c>
       <c r="Q6">
-        <v>0.59749254452861233</v>
+        <v>0.59749254452861256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,28 +6338,28 @@
         <v>1.0035788978164959</v>
       </c>
       <c r="J8">
-        <v>0.99079612939730155</v>
+        <v>1.1026615242409006</v>
       </c>
       <c r="K8">
-        <v>0.98833168062153542</v>
+        <v>1.1718933282765274</v>
       </c>
       <c r="L8">
-        <v>0.92664016312691877</v>
+        <v>0.92664016290016515</v>
       </c>
       <c r="M8">
         <v>0.95693303095438265</v>
       </c>
       <c r="N8">
-        <v>0.94793633761497709</v>
+        <v>0.94793633761497686</v>
       </c>
       <c r="O8">
-        <v>0.94504731852562995</v>
+        <v>0.94504731852562951</v>
       </c>
       <c r="P8">
         <v>0.92927845149325294</v>
       </c>
       <c r="Q8">
-        <v>0.93690421845409078</v>
+        <v>0.93690421845409066</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,25 +6391,25 @@
         <v>0.84752137041884756</v>
       </c>
       <c r="J9">
-        <v>0.8557208828592785</v>
+        <v>0.72706545913678722</v>
       </c>
       <c r="K9">
-        <v>0.85783333307382881</v>
+        <v>0.661136947939996</v>
       </c>
       <c r="L9">
-        <v>0.90004342852983255</v>
+        <v>0.90004342873448051</v>
       </c>
       <c r="M9">
-        <v>0.88509599493431801</v>
+        <v>0.88509599493431845</v>
       </c>
       <c r="N9">
-        <v>0.88903972814453491</v>
+        <v>0.88903972814453536</v>
       </c>
       <c r="O9">
-        <v>0.89108439606482159</v>
+        <v>0.89108439606482148</v>
       </c>
       <c r="P9">
-        <v>0.84027401686099978</v>
+        <v>0.84027401686099956</v>
       </c>
       <c r="Q9">
         <v>0.76497909102369444</v>
@@ -6444,25 +6444,25 @@
         <v>196.09126736158467</v>
       </c>
       <c r="J10">
-        <v>196.76877988306461</v>
+        <v>199.67328372924806</v>
       </c>
       <c r="K10">
-        <v>196.77738273926923</v>
+        <v>199.787589545804</v>
       </c>
       <c r="L10">
-        <v>198.84429879258502</v>
+        <v>198.84429879031092</v>
       </c>
       <c r="M10">
-        <v>196.66926198933004</v>
+        <v>196.6692619893301</v>
       </c>
       <c r="N10">
         <v>197.52500814053451</v>
       </c>
       <c r="O10">
-        <v>197.57336970586019</v>
+        <v>197.57336970586016</v>
       </c>
       <c r="P10">
-        <v>193.10258927643696</v>
+        <v>193.10258927643693</v>
       </c>
       <c r="Q10">
         <v>170.18833094777852</v>
@@ -6497,10 +6497,10 @@
         <v>81.354566612697411</v>
       </c>
       <c r="J11">
-        <v>82.069466167985382</v>
+        <v>77.091007507421452</v>
       </c>
       <c r="K11">
-        <v>80.747628722199366</v>
+        <v>78.072005841314947</v>
       </c>
       <c r="L11">
         <v>80</v>
@@ -6509,10 +6509,10 @@
         <v>82.417927311586453</v>
       </c>
       <c r="N11">
-        <v>83.35049623579954</v>
+        <v>83.350496235799483</v>
       </c>
       <c r="O11">
-        <v>81.225339410207141</v>
+        <v>81.225339410207084</v>
       </c>
       <c r="P11">
         <v>83.433232535582817</v>
@@ -6550,10 +6550,10 @@
         <v>18.615470122805476</v>
       </c>
       <c r="J12">
-        <v>17.883410337779104</v>
+        <v>22.826613486796894</v>
       </c>
       <c r="K12">
-        <v>19.2342172685935</v>
+        <v>21.821789018740443</v>
       </c>
       <c r="L12">
         <v>20</v>
@@ -6562,13 +6562,13 @@
         <v>17.482954987675999</v>
       </c>
       <c r="N12">
-        <v>16.521274681467307</v>
+        <v>16.521274681467379</v>
       </c>
       <c r="O12">
-        <v>18.72461106202643</v>
+        <v>18.724611062026483</v>
       </c>
       <c r="P12">
-        <v>16.115952567746049</v>
+        <v>16.11595256774606</v>
       </c>
       <c r="Q12" t="s">
         <v>106</v>
@@ -6603,10 +6603,10 @@
         <v>26.905664219245825</v>
       </c>
       <c r="J13">
-        <v>24.485376237890613</v>
+        <v>22.745634357202448</v>
       </c>
       <c r="K13">
-        <v>24.528999781244671</v>
+        <v>21.821789028458028</v>
       </c>
       <c r="L13">
         <v>20</v>
@@ -6615,16 +6615,16 @@
         <v>27.936209019788301</v>
       </c>
       <c r="N13">
-        <v>25.027423604599701</v>
+        <v>25.027423604599669</v>
       </c>
       <c r="O13">
-        <v>25.091438252400668</v>
+        <v>25.091438252400611</v>
       </c>
       <c r="P13">
-        <v>28.125819289701205</v>
+        <v>28.125819289701191</v>
       </c>
       <c r="Q13">
-        <v>35.02889636959808</v>
+        <v>35.028896369598066</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,10 +6656,10 @@
         <v>72.061407044880269</v>
       </c>
       <c r="J14">
-        <v>74.845610438794367</v>
+        <v>77.010028377827553</v>
       </c>
       <c r="K14">
-        <v>74.788452844852955</v>
+        <v>78.072005830450337</v>
       </c>
       <c r="L14">
         <v>80</v>
@@ -6668,16 +6668,16 @@
         <v>70.68907519906378</v>
       </c>
       <c r="N14">
-        <v>74.124977375131124</v>
+        <v>74.124977375131166</v>
       </c>
       <c r="O14">
-        <v>74.038361041448354</v>
+        <v>74.038361041448425</v>
       </c>
       <c r="P14">
-        <v>69.5395797882924</v>
+        <v>69.539579788292428</v>
       </c>
       <c r="Q14">
-        <v>55.604906946346318</v>
+        <v>55.60490694634634</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,19 +6709,19 @@
         <v>36.142606841209023</v>
       </c>
       <c r="J15">
-        <v>36.63267971475203</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>36.741773191442654</v>
+        <v>40</v>
       </c>
       <c r="L15">
-        <v>38.962246098925824</v>
+        <v>38.962246115576093</v>
       </c>
       <c r="M15">
         <v>37.266665983254953</v>
       </c>
       <c r="N15">
-        <v>37.742208702045104</v>
+        <v>37.742208702045119</v>
       </c>
       <c r="O15">
         <v>37.926598689166809</v>
@@ -6762,25 +6762,25 @@
         <v>64.196536165199802</v>
       </c>
       <c r="J16">
-        <v>63.622703380015693</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>63.496702180821885</v>
+        <v>60</v>
       </c>
       <c r="L16">
-        <v>61.052960199979267</v>
+        <v>61.052960182836976</v>
       </c>
       <c r="M16">
-        <v>62.841791142654223</v>
+        <v>62.841791142654181</v>
       </c>
       <c r="N16">
-        <v>62.331212543599925</v>
+        <v>62.331212543599889</v>
       </c>
       <c r="O16">
-        <v>62.135132465669322</v>
+        <v>62.135132465669287</v>
       </c>
       <c r="P16">
-        <v>63.678287301078122</v>
+        <v>63.678287301078129</v>
       </c>
       <c r="Q16" t="s">
         <v>106</v>
@@ -6815,28 +6815,28 @@
         <v>56.077791965846245</v>
       </c>
       <c r="J17">
-        <v>56.583574867879364</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>56.695857837595227</v>
+        <v>60</v>
       </c>
       <c r="L17">
-        <v>58.606334436129941</v>
+        <v>58.606334458651354</v>
       </c>
       <c r="M17">
-        <v>56.286003007094564</v>
+        <v>56.286003007094578</v>
       </c>
       <c r="N17">
-        <v>56.942195509126336</v>
+        <v>56.942195509126392</v>
       </c>
       <c r="O17">
-        <v>57.195490828323436</v>
+        <v>57.195490828323443</v>
       </c>
       <c r="P17">
-        <v>55.221484067444962</v>
+        <v>55.221484067444941</v>
       </c>
       <c r="Q17">
-        <v>50.510257216772381</v>
+        <v>50.510257216772395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,22 +6868,22 @@
         <v>44.2690812820871</v>
       </c>
       <c r="J18">
-        <v>43.676848444032274</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>43.547163378947864</v>
+        <v>40</v>
       </c>
       <c r="L18">
-        <v>41.414136337644095</v>
+        <v>41.41413631445721</v>
       </c>
       <c r="M18">
-        <v>43.862309050474138</v>
+        <v>43.86230905047411</v>
       </c>
       <c r="N18">
-        <v>43.15776591871434</v>
+        <v>43.157765918714325</v>
       </c>
       <c r="O18">
-        <v>42.888411696208443</v>
+        <v>42.888411696208422</v>
       </c>
       <c r="P18">
         <v>45.026343428197329</v>
@@ -6974,25 +6974,25 @@
         <v>87.484881822108363</v>
       </c>
       <c r="J20">
-        <v>87.417781538771095</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>87.306656982865675</v>
+        <v>100</v>
       </c>
       <c r="L20">
-        <v>93.038917913952417</v>
+        <v>93.038917910466012</v>
       </c>
       <c r="M20">
         <v>92.92183526645816</v>
       </c>
       <c r="N20">
-        <v>93.024340642293922</v>
+        <v>93.02434064229395</v>
       </c>
       <c r="O20">
-        <v>92.944309968961193</v>
+        <v>92.944309968961264</v>
       </c>
       <c r="P20">
-        <v>89.310036642749864</v>
+        <v>89.310036642749893</v>
       </c>
       <c r="Q20">
         <v>81.498026247360883</v>
@@ -7027,28 +7027,28 @@
         <v>114.30546388956648</v>
       </c>
       <c r="J21">
-        <v>114.39320266397803</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>114.53880317468281</v>
+        <v>100</v>
       </c>
       <c r="L21">
-        <v>108.08696224654723</v>
+        <v>108.08696225125264</v>
       </c>
       <c r="M21">
         <v>108.24541249180129</v>
       </c>
       <c r="N21">
-        <v>108.10664295323195</v>
+        <v>108.10664295323191</v>
       </c>
       <c r="O21">
-        <v>108.21493002930822</v>
+        <v>108.21493002930814</v>
       </c>
       <c r="P21">
-        <v>113.59698981509563</v>
+        <v>113.59698981509561</v>
       </c>
       <c r="Q21">
-        <v>129.37005259843761</v>
+        <v>129.37005259843758</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,25 +7080,25 @@
         <v>196.09126736158467</v>
       </c>
       <c r="J22">
-        <v>196.76877988306461</v>
+        <v>199.67328372924806</v>
       </c>
       <c r="K22">
-        <v>196.77738273926923</v>
+        <v>199.787589545804</v>
       </c>
       <c r="L22">
-        <v>198.84429879258502</v>
+        <v>198.84429879031092</v>
       </c>
       <c r="M22">
-        <v>196.66926198933004</v>
+        <v>196.6692619893301</v>
       </c>
       <c r="N22">
         <v>197.52500814053451</v>
       </c>
       <c r="O22">
-        <v>197.57336970586019</v>
+        <v>197.57336970586016</v>
       </c>
       <c r="P22">
-        <v>193.10258927643696</v>
+        <v>193.10258927643693</v>
       </c>
       <c r="Q22">
         <v>170.18833094777852</v>
@@ -7133,25 +7133,25 @@
         <v>0.98045633680792332</v>
       </c>
       <c r="J23">
-        <v>0.98384389941532302</v>
+        <v>0.99836641864624032</v>
       </c>
       <c r="K23">
-        <v>0.98388691369634618</v>
+        <v>0.99893794772902</v>
       </c>
       <c r="L23">
-        <v>0.99422149396292514</v>
+        <v>0.99422149395155457</v>
       </c>
       <c r="M23">
-        <v>0.98334630994665018</v>
+        <v>0.98334630994665051</v>
       </c>
       <c r="N23">
         <v>0.98762504070267254</v>
       </c>
       <c r="O23">
-        <v>0.98786684852930096</v>
+        <v>0.98786684852930084</v>
       </c>
       <c r="P23">
-        <v>0.96551294638218477</v>
+        <v>0.96551294638218466</v>
       </c>
       <c r="Q23">
         <v>0.85094165473889261</v>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797361AB-1A26-4CF4-BE77-8106D1BA2B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71F2693-8C2D-4398-BDDC-468A70B5AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3864" yWindow="3072" windowWidth="13824" windowHeight="7260" firstSheet="7" activeTab="8" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="123">
   <si>
     <t>X.L</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>S1Tr2,1.5</t>
+  </si>
+  <si>
+    <t>S...T1</t>
+  </si>
+  <si>
+    <t>S.T1,O2=.1</t>
+  </si>
+  <si>
+    <t>S.T1,O3=.1</t>
+  </si>
+  <si>
+    <t>S.T1,O4=.1</t>
   </si>
 </sst>
 </file>
@@ -5938,13 +5950,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F07C38F-0BBA-4014-8D0C-146F422C055E}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -5985,16 +5997,25 @@
         <v>102</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,10 +6062,19 @@
         <v>0.7423618925367752</v>
       </c>
       <c r="P2">
-        <v>0.54435839325680269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.69377214014432131</v>
+      </c>
+      <c r="Q2">
+        <v>0.83618649566317793</v>
+      </c>
+      <c r="R2">
+        <v>0.85040405052448198</v>
+      </c>
+      <c r="S2">
+        <v>0.63672356266481245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -6091,13 +6121,22 @@
         <v>1.2561259176857693</v>
       </c>
       <c r="P3">
-        <v>1.4510658620714891</v>
+        <v>1.3041089181496648</v>
       </c>
       <c r="Q3">
-        <v>1.9797958971136493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1.1631923403568185</v>
+      </c>
+      <c r="R3">
+        <v>1.1490766698982966</v>
+      </c>
+      <c r="S3">
+        <v>1.3603228285174447</v>
+      </c>
+      <c r="T3">
+        <v>1.9797958971155629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -6144,13 +6183,22 @@
         <v>0.98786684869299268</v>
       </c>
       <c r="P4">
-        <v>0.96551294640069951</v>
+        <v>0.98418612250917614</v>
       </c>
       <c r="Q4">
-        <v>0.85094165473951278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.99442372344833319</v>
+      </c>
+      <c r="R4">
+        <v>0.99396861965710737</v>
+      </c>
+      <c r="S4">
+        <v>0.97648968838754668</v>
+      </c>
+      <c r="T4">
+        <v>0.85056947165921182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6197,13 +6245,22 @@
         <v>1.1575889833220443</v>
       </c>
       <c r="P5">
-        <v>1.2537168559460672</v>
+        <v>1.1725176580766463</v>
       </c>
       <c r="Q5">
-        <v>1.5055868680147451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1.1319256299272371</v>
+      </c>
+      <c r="R5">
+        <v>1.0849624848283628</v>
+      </c>
+      <c r="S5">
+        <v>1.1824559830178498</v>
+      </c>
+      <c r="T5">
+        <v>1.4648348042647581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6250,13 +6307,22 @@
         <v>0.85393661198955839</v>
       </c>
       <c r="P6">
-        <v>0.77493692217449794</v>
+        <v>0.84120347768908854</v>
       </c>
       <c r="Q6">
-        <v>0.59749254452861256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.87624588647428336</v>
+      </c>
+      <c r="R6">
+        <v>0.91850118568567074</v>
+      </c>
+      <c r="S6">
+        <v>0.83282430569964583</v>
+      </c>
+      <c r="T6">
+        <v>0.62362040411274389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -6308,8 +6374,17 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6356,13 +6431,22 @@
         <v>0.94504731852562951</v>
       </c>
       <c r="P8">
-        <v>0.92927845149325294</v>
+        <v>0.94342777899101993</v>
       </c>
       <c r="Q8">
-        <v>0.93690421845409066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.92056787331633572</v>
+      </c>
+      <c r="R8">
+        <v>0.8968790646206628</v>
+      </c>
+      <c r="S8">
+        <v>0.88286436730008111</v>
+      </c>
+      <c r="T8">
+        <v>0.89951712296347752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6409,13 +6493,22 @@
         <v>0.89108439606482148</v>
       </c>
       <c r="P9">
-        <v>0.84027401686099956</v>
+        <v>0.8802349330443886</v>
       </c>
       <c r="Q9">
-        <v>0.76497909102369444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.88627413482653572</v>
+      </c>
+      <c r="R9">
+        <v>0.8662472661043461</v>
+      </c>
+      <c r="S9">
+        <v>0.81377743568132777</v>
+      </c>
+      <c r="T9">
+        <v>0.73445265538062998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -6462,13 +6555,22 @@
         <v>197.57336970586016</v>
       </c>
       <c r="P10">
-        <v>193.10258927643693</v>
+        <v>196.83722450183529</v>
       </c>
       <c r="Q10">
-        <v>170.18833094777852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>198.88474468966345</v>
+      </c>
+      <c r="R10">
+        <v>198.79372393141773</v>
+      </c>
+      <c r="S10">
+        <v>195.29793766496834</v>
+      </c>
+      <c r="T10">
+        <v>170.11389433125416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -6515,13 +6617,22 @@
         <v>81.225339410207084</v>
       </c>
       <c r="P11">
-        <v>83.433232535582817</v>
-      </c>
-      <c r="Q11" t="s">
+        <v>82.943374540427769</v>
+      </c>
+      <c r="Q11">
+        <v>80.514148762097307</v>
+      </c>
+      <c r="R11">
+        <v>79.058295270308733</v>
+      </c>
+      <c r="S11">
+        <v>81.862278102834352</v>
+      </c>
+      <c r="T11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -6568,13 +6679,22 @@
         <v>18.724611062026483</v>
       </c>
       <c r="P12">
-        <v>16.11595256774606</v>
-      </c>
-      <c r="Q12" t="s">
+        <v>16.736163089596715</v>
+      </c>
+      <c r="Q12">
+        <v>19.4773705175703</v>
+      </c>
+      <c r="R12">
+        <v>20.915221424555138</v>
+      </c>
+      <c r="S12">
+        <v>18.017820510637556</v>
+      </c>
+      <c r="T12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -6621,13 +6741,22 @@
         <v>25.091438252400611</v>
       </c>
       <c r="P13">
-        <v>28.125819289701191</v>
+        <v>25.570332306536635</v>
       </c>
       <c r="Q13">
-        <v>35.028896369598066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>22.475273219007104</v>
+      </c>
+      <c r="R13">
+        <v>24.536392619677358</v>
+      </c>
+      <c r="S13">
+        <v>27.696453088650369</v>
+      </c>
+      <c r="T13">
+        <v>35.49727753675554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
@@ -6674,13 +6803,22 @@
         <v>74.038361041448425</v>
       </c>
       <c r="P14">
-        <v>69.539579788292428</v>
+        <v>73.38005466700848</v>
       </c>
       <c r="Q14">
-        <v>55.60490694634634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>77.326892960495485</v>
+      </c>
+      <c r="R14">
+        <v>74.778751987795104</v>
+      </c>
+      <c r="S14">
+        <v>70.225536275864485</v>
+      </c>
+      <c r="T14">
+        <v>54.403797201245055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -6727,13 +6865,22 @@
         <v>37.926598689166809</v>
       </c>
       <c r="P15">
-        <v>36.501668499162456</v>
-      </c>
-      <c r="Q15" t="s">
+        <v>37.564144245789578</v>
+      </c>
+      <c r="Q15">
+        <v>38.651358465980621</v>
+      </c>
+      <c r="R15">
+        <v>38.764129586006291</v>
+      </c>
+      <c r="S15">
+        <v>37.149389102107399</v>
+      </c>
+      <c r="T15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -6780,13 +6927,22 @@
         <v>62.135132465669287</v>
       </c>
       <c r="P16">
-        <v>63.678287301078129</v>
-      </c>
-      <c r="Q16" t="s">
+        <v>62.521566128006533</v>
+      </c>
+      <c r="Q16">
+        <v>61.374452484344168</v>
+      </c>
+      <c r="R16">
+        <v>61.257505860021823</v>
+      </c>
+      <c r="S16">
+        <v>62.968805282449473</v>
+      </c>
+      <c r="T16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -6833,13 +6989,22 @@
         <v>57.195490828323443</v>
       </c>
       <c r="P17">
-        <v>55.221484067444941</v>
+        <v>56.696984603722349</v>
       </c>
       <c r="Q17">
-        <v>50.510257216772395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>58.184922358539822</v>
+      </c>
+      <c r="R17">
+        <v>58.337993400336217</v>
+      </c>
+      <c r="S17">
+        <v>56.123522311498256</v>
+      </c>
+      <c r="T17">
+        <v>50.510257216513139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -6886,13 +7051,22 @@
         <v>42.888411696208422</v>
       </c>
       <c r="P18">
-        <v>45.026343428197329</v>
+        <v>43.41990034278696</v>
       </c>
       <c r="Q18">
-        <v>50.510257216882515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>41.849924526617386</v>
+      </c>
+      <c r="R18">
+        <v>41.691185755123989</v>
+      </c>
+      <c r="S18">
+        <v>44.038280264995819</v>
+      </c>
+      <c r="T18">
+        <v>50.510257217200085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -6944,8 +7118,17 @@
       <c r="Q19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>200</v>
+      </c>
+      <c r="S19">
+        <v>200</v>
+      </c>
+      <c r="T19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -6992,13 +7175,22 @@
         <v>92.944309968961264</v>
       </c>
       <c r="P20">
-        <v>89.310036642749893</v>
+        <v>92.35072390066351</v>
       </c>
       <c r="Q20">
-        <v>81.498026247360883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>93.992035142064012</v>
+      </c>
+      <c r="R20">
+        <v>96.00473190097928</v>
+      </c>
+      <c r="S20">
+        <v>91.961809567869651</v>
+      </c>
+      <c r="T20">
+        <v>82.623897009689543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -7045,13 +7237,22 @@
         <v>108.21493002930814</v>
       </c>
       <c r="P21">
-        <v>113.59698981509561</v>
+        <v>109.03086818218077</v>
       </c>
       <c r="Q21">
-        <v>129.37005259843758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>106.8284688791214</v>
+      </c>
+      <c r="R21">
+        <v>104.34223604174038</v>
+      </c>
+      <c r="S21">
+        <v>109.57798354612098</v>
+      </c>
+      <c r="T21">
+        <v>126.63094323947512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -7098,13 +7299,22 @@
         <v>197.57336970586016</v>
       </c>
       <c r="P22">
-        <v>193.10258927643693</v>
+        <v>196.83722450183529</v>
       </c>
       <c r="Q22">
-        <v>170.18833094777852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>198.88474468966345</v>
+      </c>
+      <c r="R22">
+        <v>198.79372393141773</v>
+      </c>
+      <c r="S22">
+        <v>195.29793766496834</v>
+      </c>
+      <c r="T22">
+        <v>170.11389433125416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -7151,10 +7361,19 @@
         <v>0.98786684852930084</v>
       </c>
       <c r="P23">
-        <v>0.96551294638218466</v>
+        <v>0.98418612250917648</v>
       </c>
       <c r="Q23">
-        <v>0.85094165473889261</v>
+        <v>0.9944237234483172</v>
+      </c>
+      <c r="R23">
+        <v>0.9939686196570886</v>
+      </c>
+      <c r="S23">
+        <v>0.97648968832484173</v>
+      </c>
+      <c r="T23">
+        <v>0.85056947165627084</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71F2693-8C2D-4398-BDDC-468A70B5AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A98C6B-EF7F-408B-B117-065C63E183A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="3072" windowWidth="13824" windowHeight="7260" firstSheet="7" activeTab="8" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="7" activeTab="8" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="127">
   <si>
     <t>X.L</t>
   </si>
@@ -402,6 +402,18 @@
   </si>
   <si>
     <t>S.T1,O4=.1</t>
+  </si>
+  <si>
+    <t>O4,I=0.1</t>
+  </si>
+  <si>
+    <t>ITAX=0.1</t>
+  </si>
+  <si>
+    <t>O2=.3,I=.2</t>
+  </si>
+  <si>
+    <t>ITAX=100%</t>
   </si>
 </sst>
 </file>
@@ -5950,13 +5962,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F07C38F-0BBA-4014-8D0C-146F422C055E}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -6009,13 +6021,19 @@
         <v>122</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -6073,8 +6091,14 @@
       <c r="S2">
         <v>0.63672356266481245</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>0.54435839324634638</v>
+      </c>
+      <c r="U2">
+        <v>0.26298581656113768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -6133,10 +6157,16 @@
         <v>1.3603228285174447</v>
       </c>
       <c r="T3">
-        <v>1.9797958971155629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.4510658620690864</v>
+      </c>
+      <c r="U3">
+        <v>1.7255770390585923</v>
+      </c>
+      <c r="V3">
+        <v>1.9797958977022081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,10 +6225,16 @@
         <v>0.97648968838754668</v>
       </c>
       <c r="T4">
-        <v>0.85056947165921182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.96551294639121377</v>
+      </c>
+      <c r="U4">
+        <v>0.91527149061040103</v>
+      </c>
+      <c r="V4">
+        <v>0.85094165634213248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6257,10 +6293,16 @@
         <v>1.1824559830178498</v>
       </c>
       <c r="T5">
-        <v>1.4648348042647581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.253716855956764</v>
+      </c>
+      <c r="U5">
+        <v>1.3799838239044699</v>
+      </c>
+      <c r="V5">
+        <v>1.5055868687041585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6319,10 +6361,16 @@
         <v>0.83282430569964583</v>
       </c>
       <c r="T6">
-        <v>0.62362040411274389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.77493692216806154</v>
+      </c>
+      <c r="U6">
+        <v>0.68107531417393674</v>
+      </c>
+      <c r="V6">
+        <v>0.59749254327701107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -6383,8 +6431,14 @@
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6443,10 +6497,16 @@
         <v>0.88286436730008111</v>
       </c>
       <c r="T8">
-        <v>0.89951712296347752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.9292784514896667</v>
+      </c>
+      <c r="U8">
+        <v>0.92558632011647268</v>
+      </c>
+      <c r="V8">
+        <v>0.93690421725376627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6505,10 +6565,16 @@
         <v>0.81377743568132777</v>
       </c>
       <c r="T9">
-        <v>0.73445265538062998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.84027401688006276</v>
+      </c>
+      <c r="U9">
+        <v>0.79214910866172539</v>
+      </c>
+      <c r="V9">
+        <v>0.76497908901895417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -6567,10 +6633,16 @@
         <v>195.29793766496834</v>
       </c>
       <c r="T10">
-        <v>170.11389433125416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>193.10258927785549</v>
+      </c>
+      <c r="U10">
+        <v>183.05429809302706</v>
+      </c>
+      <c r="V10">
+        <v>170.18833062727202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -6628,11 +6700,17 @@
       <c r="S11">
         <v>81.862278102834352</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11">
+        <v>83.433232535765256</v>
+      </c>
+      <c r="U11">
+        <v>87.427869776331136</v>
+      </c>
+      <c r="V11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -6690,11 +6768,17 @@
       <c r="S12">
         <v>18.017820510637556</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12">
+        <v>16.115952567509943</v>
+      </c>
+      <c r="U12">
+        <v>9.4388503851486849</v>
+      </c>
+      <c r="V12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -6753,10 +6837,16 @@
         <v>27.696453088650369</v>
       </c>
       <c r="T13">
-        <v>35.49727753675554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>28.125819289987454</v>
+      </c>
+      <c r="U13">
+        <v>31.827759090372432</v>
+      </c>
+      <c r="V13">
+        <v>35.02889640415664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
@@ -6815,10 +6905,16 @@
         <v>70.225536275864485</v>
       </c>
       <c r="T14">
-        <v>54.403797201245055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.539579787829297</v>
+      </c>
+      <c r="U14">
+        <v>62.832913390522151</v>
+      </c>
+      <c r="V14">
+        <v>55.604906859264212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -6876,11 +6972,17 @@
       <c r="S15">
         <v>37.149389102107399</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15">
+        <v>36.501668500052006</v>
+      </c>
+      <c r="U15">
+        <v>34.695155696294023</v>
+      </c>
+      <c r="V15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -6938,11 +7040,17 @@
       <c r="S16">
         <v>62.968805282449473</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16">
+        <v>63.678287300094347</v>
+      </c>
+      <c r="U16">
+        <v>65.731733209666629</v>
+      </c>
+      <c r="V16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -7001,10 +7109,16 @@
         <v>56.123522311498256</v>
       </c>
       <c r="T17">
-        <v>50.510257216513139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55.221484068689186</v>
+      </c>
+      <c r="U17">
+        <v>52.663928705525308</v>
+      </c>
+      <c r="V17">
+        <v>50.510257155949404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -7063,10 +7177,16 @@
         <v>44.038280264995819</v>
       </c>
       <c r="T18">
-        <v>50.510257217200085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45.026343426821327</v>
+      </c>
+      <c r="U18">
+        <v>47.933812623576941</v>
+      </c>
+      <c r="V18">
+        <v>50.510257291375197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -7127,8 +7247,14 @@
       <c r="T19">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <v>200</v>
+      </c>
+      <c r="V19">
+        <v>200.00000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -7187,10 +7313,16 @@
         <v>91.961809567869651</v>
       </c>
       <c r="T20">
-        <v>82.623897009689543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>89.310036642418936</v>
+      </c>
+      <c r="U20">
+        <v>85.126151992605983</v>
+      </c>
+      <c r="V20">
+        <v>81.498026207158986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -7249,10 +7381,16 @@
         <v>109.57798354612098</v>
       </c>
       <c r="T21">
-        <v>126.63094323947512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>113.59698981563102</v>
+      </c>
+      <c r="U21">
+        <v>121.17204299879612</v>
+      </c>
+      <c r="V21">
+        <v>129.37005269973994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -7311,10 +7449,16 @@
         <v>195.29793766496834</v>
       </c>
       <c r="T22">
-        <v>170.11389433125416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>193.10258927785549</v>
+      </c>
+      <c r="U22">
+        <v>183.05429809302706</v>
+      </c>
+      <c r="V22">
+        <v>170.18833062727202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -7373,7 +7517,13 @@
         <v>0.97648968832484173</v>
       </c>
       <c r="T23">
-        <v>0.85056947165627084</v>
+        <v>0.96551294638927743</v>
+      </c>
+      <c r="U23">
+        <v>0.91527149046513534</v>
+      </c>
+      <c r="V23">
+        <v>0.85094165313636017</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A98C6B-EF7F-408B-B117-065C63E183A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221B019F-EE8C-498E-A4B2-0F1C4FF83561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="7" activeTab="8" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="9072" firstSheet="5" activeTab="5" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="128">
   <si>
     <t>X.L</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>ITAX=100%</t>
+  </si>
+  <si>
+    <t>Itax=.1</t>
   </si>
 </sst>
 </file>
@@ -3205,13 +3208,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEAD0FC-6E99-420C-BC7A-3D842CD4A7CD}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -3236,8 +3239,11 @@
       <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3265,8 +3271,11 @@
       <c r="I2">
         <v>0.26532998322513834</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1.03413946975517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3294,8 +3303,11 @@
       <c r="I3">
         <v>2.5753333516762882</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1.0671374602439139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3323,8 +3335,11 @@
       <c r="I4">
         <v>0.56598124103192959</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1.0450238394808722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3367,11 @@
       <c r="I5">
         <v>11.608186765877146</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>1.137553415066088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3381,8 +3399,11 @@
       <c r="I6">
         <v>1.195961679231847</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1.1023780243665877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3410,8 +3431,11 @@
       <c r="I7">
         <v>5.4418764732304421</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1.1257053102015093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3439,8 +3463,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3468,8 +3495,11 @@
       <c r="I9">
         <v>1.347499999874207</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>1.1763888813745906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3497,8 +3527,11 @@
       <c r="I10">
         <v>461.99999997773762</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>176.45833271126418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -3526,8 +3559,11 @@
       <c r="I11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -3555,8 +3591,11 @@
       <c r="I12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -3584,8 +3623,11 @@
       <c r="I13">
         <v>58.040933828510354</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>51.706973359820239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3613,8 +3655,11 @@
       <c r="I14">
         <v>43.073049227405299</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>48.349377995940998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -3642,8 +3687,11 @@
       <c r="I15">
         <v>23.919233584290627</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>22.047560465933849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -3671,8 +3719,11 @@
       <c r="I16">
         <v>26.626234048078171</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>28.112592036960997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3751,11 @@
       <c r="I17">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -3729,8 +3783,11 @@
       <c r="I18">
         <v>46.879642643468536</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>98.958457271621995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -3758,8 +3815,11 @@
       <c r="I19">
         <v>227.51048665392318</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>51.058043851920374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -3787,8 +3847,11 @@
       <c r="I20">
         <v>149.9999999995207</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>149.9999999172434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3815,6 +3878,9 @@
       </c>
       <c r="I21">
         <v>84.897186154518167</v>
+      </c>
+      <c r="J21">
+        <v>156.75357583564821</v>
       </c>
     </row>
   </sheetData>
@@ -5964,7 +6030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F07C38F-0BBA-4014-8D0C-146F422C055E}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221B019F-EE8C-498E-A4B2-0F1C4FF83561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D5B43-8CD6-4A83-BB20-1B7CB0C102D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="9072" firstSheet="5" activeTab="5" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="7" activeTab="9" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="TwoxTwoCET-Scalar" sheetId="9" r:id="rId7"/>
     <sheet name="TwoxTwowOTax_IndCon" sheetId="10" r:id="rId8"/>
     <sheet name="TwoxTwoOutTax_1-2" sheetId="11" r:id="rId9"/>
+    <sheet name="SimpleDemNest" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="160">
   <si>
     <t>X.L</t>
   </si>
@@ -417,6 +418,102 @@
   </si>
   <si>
     <t>Itax=.1</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>PFX</t>
+  </si>
+  <si>
+    <t>SCY</t>
+  </si>
+  <si>
+    <t>SFXY</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>DKY</t>
+  </si>
+  <si>
+    <t>DLY</t>
+  </si>
+  <si>
+    <t>DFXM</t>
+  </si>
+  <si>
+    <t>GOVT</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>CFXC</t>
+  </si>
+  <si>
+    <t>CXG</t>
+  </si>
+  <si>
+    <t>CXHH</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>endow=1.1</t>
+  </si>
+  <si>
+    <t>sigmac=0.5</t>
+  </si>
+  <si>
+    <t>sigmadm=4</t>
+  </si>
+  <si>
+    <t>sigma=0.4</t>
+  </si>
+  <si>
+    <t>esubkl=1.5</t>
+  </si>
+  <si>
+    <t>t_elasY=1</t>
+  </si>
+  <si>
+    <t>endow=2</t>
+  </si>
+  <si>
+    <t>sigmac=4</t>
+  </si>
+  <si>
+    <t>sigma=3</t>
+  </si>
+  <si>
+    <t>t_elY=0.5</t>
+  </si>
+  <si>
+    <t>sigmac=.1</t>
+  </si>
+  <si>
+    <t>esubkl=0</t>
   </si>
 </sst>
 </file>
@@ -1157,6 +1254,975 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1C099-339A-499F-B548-AD9626FC6E95}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0409467150618095</v>
+      </c>
+      <c r="D2">
+        <v>1.0409467150618095</v>
+      </c>
+      <c r="E2">
+        <v>1.0409467150618095</v>
+      </c>
+      <c r="F2">
+        <v>1.0409467150618095</v>
+      </c>
+      <c r="G2">
+        <v>1.0413315905142031</v>
+      </c>
+      <c r="H2">
+        <v>1.0413315905141234</v>
+      </c>
+      <c r="I2">
+        <v>1.3655637484781848</v>
+      </c>
+      <c r="J2">
+        <v>1.3655637484781848</v>
+      </c>
+      <c r="K2">
+        <v>1.3655637484781848</v>
+      </c>
+      <c r="L2">
+        <v>1.3655637484548107</v>
+      </c>
+      <c r="M2">
+        <v>1.3655637484548107</v>
+      </c>
+      <c r="N2">
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0409467150618097</v>
+      </c>
+      <c r="D3">
+        <v>1.0409467150618097</v>
+      </c>
+      <c r="E3">
+        <v>1.0409467150618097</v>
+      </c>
+      <c r="F3">
+        <v>1.0409467150618097</v>
+      </c>
+      <c r="G3">
+        <v>1.0486808002757482</v>
+      </c>
+      <c r="H3">
+        <v>1.0512865797894155</v>
+      </c>
+      <c r="I3">
+        <v>1.4615181132137973</v>
+      </c>
+      <c r="J3">
+        <v>1.4615181132137973</v>
+      </c>
+      <c r="K3">
+        <v>1.4615181132137973</v>
+      </c>
+      <c r="L3">
+        <v>1.4531870931903248</v>
+      </c>
+      <c r="M3">
+        <v>1.4531870931903248</v>
+      </c>
+      <c r="N3">
+        <v>0.49256427487327714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.96066396630169593</v>
+      </c>
+      <c r="D4">
+        <v>0.96066396630169593</v>
+      </c>
+      <c r="E4">
+        <v>0.96066396630169593</v>
+      </c>
+      <c r="F4">
+        <v>0.96066396630169593</v>
+      </c>
+      <c r="G4">
+        <v>0.98510801142359916</v>
+      </c>
+      <c r="H4">
+        <v>0.9792169213926406</v>
+      </c>
+      <c r="I4">
+        <v>0.84773893640196851</v>
+      </c>
+      <c r="J4">
+        <v>0.84773893640196851</v>
+      </c>
+      <c r="K4">
+        <v>0.84773893640196851</v>
+      </c>
+      <c r="L4">
+        <v>0.85984235927002339</v>
+      </c>
+      <c r="M4">
+        <v>0.85984235927002339</v>
+      </c>
+      <c r="N4">
+        <v>0.28503598493747223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="H5">
+        <v>0.99999999999955436</v>
+      </c>
+      <c r="I5">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="J5">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="K5">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="L5">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M5">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.99999999999999944</v>
+      </c>
+      <c r="H6">
+        <v>0.99999999999955447</v>
+      </c>
+      <c r="I6">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="J6">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="K6">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="L6">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="M6">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.96066396630169604</v>
+      </c>
+      <c r="D7">
+        <v>0.96066396630169604</v>
+      </c>
+      <c r="E7">
+        <v>0.96066396630169604</v>
+      </c>
+      <c r="F7">
+        <v>0.96066396630169604</v>
+      </c>
+      <c r="G7">
+        <v>0.97820432308343963</v>
+      </c>
+      <c r="H7">
+        <v>0.97577968773204271</v>
+      </c>
+      <c r="I7">
+        <v>0.82649460766956562</v>
+      </c>
+      <c r="J7">
+        <v>0.82649460766956562</v>
+      </c>
+      <c r="K7">
+        <v>0.82649460766956562</v>
+      </c>
+      <c r="L7">
+        <v>0.83123284371043515</v>
+      </c>
+      <c r="M7">
+        <v>0.83123284371043515</v>
+      </c>
+      <c r="N7">
+        <v>0.40603837956264377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.90909090909090839</v>
+      </c>
+      <c r="D8">
+        <v>0.90909090909090839</v>
+      </c>
+      <c r="E8">
+        <v>0.90909090909090839</v>
+      </c>
+      <c r="F8">
+        <v>0.90909090909090839</v>
+      </c>
+      <c r="G8">
+        <v>0.93843646859576813</v>
+      </c>
+      <c r="H8">
+        <v>0.93843646666839553</v>
+      </c>
+      <c r="I8">
+        <v>0.62996052472375974</v>
+      </c>
+      <c r="J8">
+        <v>0.62996052472375974</v>
+      </c>
+      <c r="K8">
+        <v>0.62996052472375974</v>
+      </c>
+      <c r="L8">
+        <v>0.6299605249474346</v>
+      </c>
+      <c r="M8">
+        <v>0.6299605249474346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="D9">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="E9">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="F9">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="G9">
+        <v>0.99999999999955469</v>
+      </c>
+      <c r="H9">
+        <v>0.99999999794519723</v>
+      </c>
+      <c r="I9">
+        <v>0.99999999980729937</v>
+      </c>
+      <c r="J9">
+        <v>0.99999999980729937</v>
+      </c>
+      <c r="K9">
+        <v>0.99999999980729937</v>
+      </c>
+      <c r="L9">
+        <v>0.999999999999997</v>
+      </c>
+      <c r="M9">
+        <v>0.999999999999997</v>
+      </c>
+      <c r="N9">
+        <v>0.99999999999998435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.96066396630169637</v>
+      </c>
+      <c r="D10">
+        <v>0.96066396630169637</v>
+      </c>
+      <c r="E10">
+        <v>0.96066396630169637</v>
+      </c>
+      <c r="F10">
+        <v>0.96066396630169637</v>
+      </c>
+      <c r="G10">
+        <v>0.9679393996641118</v>
+      </c>
+      <c r="H10">
+        <v>0.97064644621227558</v>
+      </c>
+      <c r="I10">
+        <v>0.79562214965188616</v>
+      </c>
+      <c r="J10">
+        <v>0.79562214965188616</v>
+      </c>
+      <c r="K10">
+        <v>0.79562214965188616</v>
+      </c>
+      <c r="L10">
+        <v>0.79009348793890188</v>
+      </c>
+      <c r="M10">
+        <v>0.79009348793890188</v>
+      </c>
+      <c r="N10">
+        <v>0.69034816848588632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>60.360967186806775</v>
+      </c>
+      <c r="I11">
+        <v>62.606779928077714</v>
+      </c>
+      <c r="J11">
+        <v>62.606779928077714</v>
+      </c>
+      <c r="K11">
+        <v>62.606779928077714</v>
+      </c>
+      <c r="L11">
+        <v>61.725506400393442</v>
+      </c>
+      <c r="M11">
+        <v>61.725506400393442</v>
+      </c>
+      <c r="N11">
+        <v>42.099947494810046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12">
+        <v>130</v>
+      </c>
+      <c r="C12">
+        <v>130</v>
+      </c>
+      <c r="D12">
+        <v>130</v>
+      </c>
+      <c r="E12">
+        <v>130</v>
+      </c>
+      <c r="F12">
+        <v>130</v>
+      </c>
+      <c r="G12">
+        <v>130</v>
+      </c>
+      <c r="H12">
+        <v>129.63744143029052</v>
+      </c>
+      <c r="I12">
+        <v>127.30873522758507</v>
+      </c>
+      <c r="J12">
+        <v>127.30873522758507</v>
+      </c>
+      <c r="K12">
+        <v>127.30873522758507</v>
+      </c>
+      <c r="L12">
+        <v>128.19957530716826</v>
+      </c>
+      <c r="M12">
+        <v>128.19957530716826</v>
+      </c>
+      <c r="N12">
+        <v>141.95735496038023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>105.67303629318663</v>
+      </c>
+      <c r="D14">
+        <v>105.67303629318663</v>
+      </c>
+      <c r="E14">
+        <v>105.67303629318663</v>
+      </c>
+      <c r="F14">
+        <v>105.67303629318663</v>
+      </c>
+      <c r="G14">
+        <v>105.63397961033002</v>
+      </c>
+      <c r="H14">
+        <v>105.63397961036699</v>
+      </c>
+      <c r="I14">
+        <v>80.552812061435645</v>
+      </c>
+      <c r="J14">
+        <v>80.552812061435645</v>
+      </c>
+      <c r="K14">
+        <v>80.552812061435645</v>
+      </c>
+      <c r="L14">
+        <v>80.552812070816401</v>
+      </c>
+      <c r="M14">
+        <v>80.552812070816401</v>
+      </c>
+      <c r="N14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>84.538429034549324</v>
+      </c>
+      <c r="D15">
+        <v>84.538429034549324</v>
+      </c>
+      <c r="E15">
+        <v>84.538429034549324</v>
+      </c>
+      <c r="F15">
+        <v>84.538429034549324</v>
+      </c>
+      <c r="G15">
+        <v>84.507183688333086</v>
+      </c>
+      <c r="H15">
+        <v>84.507183688293594</v>
+      </c>
+      <c r="I15">
+        <v>117.16772666335125</v>
+      </c>
+      <c r="J15">
+        <v>117.16772666335125</v>
+      </c>
+      <c r="K15">
+        <v>117.16772666335125</v>
+      </c>
+      <c r="L15">
+        <v>117.16772664846026</v>
+      </c>
+      <c r="M15">
+        <v>117.16772664846026</v>
+      </c>
+      <c r="N15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>39.999999999999993</v>
+      </c>
+      <c r="D16">
+        <v>39.999999999999993</v>
+      </c>
+      <c r="E16">
+        <v>39.999999999999993</v>
+      </c>
+      <c r="F16">
+        <v>39.999999999999993</v>
+      </c>
+      <c r="G16">
+        <v>40.424196945504349</v>
+      </c>
+      <c r="H16">
+        <v>40.211539080021154</v>
+      </c>
+      <c r="I16">
+        <v>41.552116568193583</v>
+      </c>
+      <c r="J16">
+        <v>41.552116568193583</v>
+      </c>
+      <c r="K16">
+        <v>41.552116568193583</v>
+      </c>
+      <c r="L16">
+        <v>42.082758883577291</v>
+      </c>
+      <c r="M16">
+        <v>42.082758883577291</v>
+      </c>
+      <c r="N16">
+        <v>23.526585459229359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>110</v>
+      </c>
+      <c r="D17">
+        <v>109.99999999999996</v>
+      </c>
+      <c r="E17">
+        <v>109.99999999999996</v>
+      </c>
+      <c r="F17">
+        <v>109.99999999999996</v>
+      </c>
+      <c r="G17">
+        <v>109.99999999999996</v>
+      </c>
+      <c r="H17">
+        <v>109.99999999995102</v>
+      </c>
+      <c r="I17">
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>110</v>
+      </c>
+      <c r="K17">
+        <v>110</v>
+      </c>
+      <c r="L17">
+        <v>110</v>
+      </c>
+      <c r="M17">
+        <v>110</v>
+      </c>
+      <c r="N17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>79.999999999999943</v>
+      </c>
+      <c r="D18">
+        <v>79.999999999999943</v>
+      </c>
+      <c r="E18">
+        <v>79.999999999999943</v>
+      </c>
+      <c r="F18">
+        <v>79.999999999999943</v>
+      </c>
+      <c r="G18">
+        <v>82.582409236427594</v>
+      </c>
+      <c r="H18">
+        <v>82.582409066818812</v>
+      </c>
+      <c r="I18">
+        <v>100.79368395580155</v>
+      </c>
+      <c r="J18">
+        <v>100.79368395580155</v>
+      </c>
+      <c r="K18">
+        <v>100.79368395580155</v>
+      </c>
+      <c r="L18">
+        <v>100.79368399158953</v>
+      </c>
+      <c r="M18">
+        <v>100.79368399158953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>89.999999999999943</v>
+      </c>
+      <c r="H19">
+        <v>89.999999999959897</v>
+      </c>
+      <c r="I19">
+        <v>89.999999999999972</v>
+      </c>
+      <c r="J19">
+        <v>89.999999999999972</v>
+      </c>
+      <c r="K19">
+        <v>89.999999999999972</v>
+      </c>
+      <c r="L19">
+        <v>90.000000000000028</v>
+      </c>
+      <c r="M19">
+        <v>90.000000000000028</v>
+      </c>
+      <c r="N19">
+        <v>89.999999999999972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>93.685204355562888</v>
+      </c>
+      <c r="D20">
+        <v>93.685204355562888</v>
+      </c>
+      <c r="E20">
+        <v>93.685204355562888</v>
+      </c>
+      <c r="F20">
+        <v>93.685204355562888</v>
+      </c>
+      <c r="G20">
+        <v>92.981027563534639</v>
+      </c>
+      <c r="H20">
+        <v>92.721711753197241</v>
+      </c>
+      <c r="I20">
+        <v>113.11902269108303</v>
+      </c>
+      <c r="J20">
+        <v>113.11902269108303</v>
+      </c>
+      <c r="K20">
+        <v>113.11902269108303</v>
+      </c>
+      <c r="L20">
+        <v>113.91057055131651</v>
+      </c>
+      <c r="M20">
+        <v>113.91057055131651</v>
+      </c>
+      <c r="N20">
+        <v>130.36899945341128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20.818934301236194</v>
+      </c>
+      <c r="D21">
+        <v>20.818934301236194</v>
+      </c>
+      <c r="E21">
+        <v>20.818934301236194</v>
+      </c>
+      <c r="F21">
+        <v>20.818934301236194</v>
+      </c>
+      <c r="G21">
+        <v>20.445626264406847</v>
+      </c>
+      <c r="H21">
+        <v>20.496429891248273</v>
+      </c>
+      <c r="I21">
+        <v>24.198584980963417</v>
+      </c>
+      <c r="J21">
+        <v>24.198584980963417</v>
+      </c>
+      <c r="K21">
+        <v>24.198584980963417</v>
+      </c>
+      <c r="L21">
+        <v>24.060646967129607</v>
+      </c>
+      <c r="M21">
+        <v>24.060646967129607</v>
+      </c>
+      <c r="N21">
+        <v>49.256427487329155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>83.275737204944761</v>
+      </c>
+      <c r="D22">
+        <v>83.275737204944761</v>
+      </c>
+      <c r="E22">
+        <v>83.275737204944761</v>
+      </c>
+      <c r="F22">
+        <v>83.275737204944761</v>
+      </c>
+      <c r="G22">
+        <v>84.422453763152532</v>
+      </c>
+      <c r="H22">
+        <v>84.632228058324415</v>
+      </c>
+      <c r="I22">
+        <v>121.95322633744162</v>
+      </c>
+      <c r="J22">
+        <v>121.95322633744162</v>
+      </c>
+      <c r="K22">
+        <v>121.95322633744162</v>
+      </c>
+      <c r="L22">
+        <v>121.25806235190294</v>
+      </c>
+      <c r="M22">
+        <v>121.25806235190294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD2B994-3CF8-4777-9095-AA4EE6BD17EC}">
   <dimension ref="A1:F18"/>
@@ -3210,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEAD0FC-6E99-420C-BC7A-3D842CD4A7CD}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D5B43-8CD6-4A83-BB20-1B7CB0C102D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ABEA84-EC44-438C-8545-FABA2064CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="7" activeTab="9" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="8" activeTab="10" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="TwoxTwowOTax_IndCon" sheetId="10" r:id="rId8"/>
     <sheet name="TwoxTwoOutTax_1-2" sheetId="11" r:id="rId9"/>
     <sheet name="SimpleDemNest" sheetId="12" r:id="rId10"/>
+    <sheet name="TwoxTwowAuxDem" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="174">
   <si>
     <t>X.L</t>
   </si>
@@ -514,6 +515,48 @@
   </si>
   <si>
     <t>esubkl=0</t>
+  </si>
+  <si>
+    <t>SXX.L</t>
+  </si>
+  <si>
+    <t>SYY.L</t>
+  </si>
+  <si>
+    <t>SWW.L</t>
+  </si>
+  <si>
+    <t>DKX.L</t>
+  </si>
+  <si>
+    <t>DLX.L</t>
+  </si>
+  <si>
+    <t>DLY.L</t>
+  </si>
+  <si>
+    <t>DKY.L</t>
+  </si>
+  <si>
+    <t>DXW.L</t>
+  </si>
+  <si>
+    <t>DYW.L</t>
+  </si>
+  <si>
+    <t>CWCONS.L</t>
+  </si>
+  <si>
+    <t>UnEmp=.1</t>
+  </si>
+  <si>
+    <t>TKX=0.25</t>
+  </si>
+  <si>
+    <t>TY=0.5</t>
+  </si>
+  <si>
+    <t>&amp;TY=.5</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1C099-339A-499F-B548-AD9626FC6E95}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2216,6 +2259,456 @@
       </c>
       <c r="M22">
         <v>121.25806235190294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F8E8DA-95C7-4996-9A21-15383900C73E}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D2">
+        <v>1.0371252977019936</v>
+      </c>
+      <c r="E2">
+        <v>0.98447088030257324</v>
+      </c>
+      <c r="F2">
+        <v>1.0069367675479344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>1.053409075564238</v>
+      </c>
+      <c r="E3">
+        <v>0.44661553192056858</v>
+      </c>
+      <c r="F3">
+        <v>0.41177381270347702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>1.0452354763862961</v>
+      </c>
+      <c r="E4">
+        <v>0.66308369432539305</v>
+      </c>
+      <c r="F4">
+        <v>0.64391784561311827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D6">
+        <v>0.9845418287728368</v>
+      </c>
+      <c r="E6">
+        <v>2.2042916262845966</v>
+      </c>
+      <c r="F6">
+        <v>2.4453637808572513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D7">
+        <v>0.99224081188632707</v>
+      </c>
+      <c r="E7">
+        <v>1.4846856995121664</v>
+      </c>
+      <c r="F7">
+        <v>1.5637658970763419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D8">
+        <v>0.99224081188632707</v>
+      </c>
+      <c r="E8">
+        <v>1.4846856995121667</v>
+      </c>
+      <c r="F8">
+        <v>1.5637658970763419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0499999999722394</v>
+      </c>
+      <c r="D9">
+        <v>0.97310521759683544</v>
+      </c>
+      <c r="E9">
+        <v>0.704929765951823</v>
+      </c>
+      <c r="F9">
+        <v>0.84532963183954124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.19999999999999957</v>
+      </c>
+      <c r="D10">
+        <v>0.10830961355206511</v>
+      </c>
+      <c r="E10">
+        <v>0.70637102840442134</v>
+      </c>
+      <c r="F10">
+        <v>0.72063893707626925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>45.67280458551334</v>
+      </c>
+      <c r="E14">
+        <v>63.048046154598161</v>
+      </c>
+      <c r="F14">
+        <v>65.720582199051307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>40.000000000000007</v>
+      </c>
+      <c r="D15">
+        <v>44.79199395149989</v>
+      </c>
+      <c r="E15">
+        <v>29.935254602427996</v>
+      </c>
+      <c r="F15">
+        <v>28.421418146269836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>60.000000000000014</v>
+      </c>
+      <c r="D16">
+        <v>59.53444871317862</v>
+      </c>
+      <c r="E16">
+        <v>44.540570960010214</v>
+      </c>
+      <c r="F16">
+        <v>46.91297691147642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>40.470107896625159</v>
+      </c>
+      <c r="E17">
+        <v>62.539326087466797</v>
+      </c>
+      <c r="F17">
+        <v>57.855863291935997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>99.224081188632667</v>
+      </c>
+      <c r="E18">
+        <v>148.46856994948786</v>
+      </c>
+      <c r="F18">
+        <v>156.37658970757903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>100.78198639087648</v>
+      </c>
+      <c r="E19">
+        <v>67.354322894079274</v>
+      </c>
+      <c r="F19">
+        <v>63.948190830224604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>210</v>
+      </c>
+      <c r="D20">
+        <v>207.42505954038575</v>
+      </c>
+      <c r="E20">
+        <v>196.89417562455813</v>
+      </c>
+      <c r="F20">
+        <v>201.38735349872735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>200.00000000000006</v>
+      </c>
+      <c r="D21">
+        <v>209.0470952772589</v>
+      </c>
+      <c r="E21">
+        <v>132.61673880825623</v>
+      </c>
+      <c r="F21">
+        <v>128.78356912325972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D22">
+        <v>1.0452354763862945</v>
+      </c>
+      <c r="E22">
+        <v>0.66308369404128109</v>
+      </c>
+      <c r="F22">
+        <v>0.64391784561629861</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ABEA84-EC44-438C-8545-FABA2064CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB02F2-B1E3-4C22-999B-B93660607B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="8" activeTab="10" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="9" activeTab="11" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="TwoxTwoOutTax_1-2" sheetId="11" r:id="rId9"/>
     <sheet name="SimpleDemNest" sheetId="12" r:id="rId10"/>
     <sheet name="TwoxTwowAuxDem" sheetId="13" r:id="rId11"/>
+    <sheet name="two_by_two_AuxinInput" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="203">
   <si>
     <t>X.L</t>
   </si>
@@ -557,6 +558,93 @@
   </si>
   <si>
     <t>&amp;TY=.5</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>PKS</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>SXX</t>
+  </si>
+  <si>
+    <t>SYY</t>
+  </si>
+  <si>
+    <t>SWW</t>
+  </si>
+  <si>
+    <t>SLSTL</t>
+  </si>
+  <si>
+    <t>SKSTK</t>
+  </si>
+  <si>
+    <t>DLSX</t>
+  </si>
+  <si>
+    <t>DKSX</t>
+  </si>
+  <si>
+    <t>DLSY</t>
+  </si>
+  <si>
+    <t>DKSY</t>
+  </si>
+  <si>
+    <t>DXW</t>
+  </si>
+  <si>
+    <t>DYW</t>
+  </si>
+  <si>
+    <t>DLW</t>
+  </si>
+  <si>
+    <t>DLTL</t>
+  </si>
+  <si>
+    <t>DKTK</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>CWCONS</t>
+  </si>
+  <si>
+    <t>L.15,K.25</t>
+  </si>
+  <si>
+    <t>L.1,K.3</t>
+  </si>
+  <si>
+    <t>L.05,K.35</t>
+  </si>
+  <si>
+    <t>L.0,K.4</t>
+  </si>
+  <si>
+    <t>L-.05,K.45</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F8E8DA-95C7-4996-9A21-15383900C73E}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2710,6 +2798,709 @@
       <c r="F22">
         <v>0.64391784561629861</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9F4BC-EEDA-4A84-A728-E202F2F9DA58}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.006387575650056</v>
+      </c>
+      <c r="D2">
+        <v>1.0126852580817098</v>
+      </c>
+      <c r="E2">
+        <v>1.0193022237638398</v>
+      </c>
+      <c r="F2">
+        <v>1.026928314669364</v>
+      </c>
+      <c r="G2">
+        <v>1.0377545680283367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0095966476462173</v>
+      </c>
+      <c r="D3">
+        <v>1.0190881035617243</v>
+      </c>
+      <c r="E3">
+        <v>1.0290926053375762</v>
+      </c>
+      <c r="F3">
+        <v>1.0406631890486693</v>
+      </c>
+      <c r="G3">
+        <v>1.0571630630829592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0008350269671129</v>
+      </c>
+      <c r="D4">
+        <v>1.0014491088570601</v>
+      </c>
+      <c r="E4">
+        <v>1.001862188438271</v>
+      </c>
+      <c r="F4">
+        <v>1.0020312308441757</v>
+      </c>
+      <c r="G4">
+        <v>1.0016777194890492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0160455226090923</v>
+      </c>
+      <c r="D5">
+        <v>1.0320154991633979</v>
+      </c>
+      <c r="E5">
+        <v>1.0489563810795042</v>
+      </c>
+      <c r="F5">
+        <v>1.0686864948681873</v>
+      </c>
+      <c r="G5">
+        <v>1.0970757978651695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.99062365945204522</v>
+      </c>
+      <c r="D7">
+        <v>0.98023361021433086</v>
+      </c>
+      <c r="E7">
+        <v>0.96816873805100456</v>
+      </c>
+      <c r="F7">
+        <v>0.95318925131473309</v>
+      </c>
+      <c r="G7">
+        <v>0.93155409308673487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.98747489439651848</v>
+      </c>
+      <c r="D8">
+        <v>0.97407488427239663</v>
+      </c>
+      <c r="E8">
+        <v>0.95895796214597595</v>
+      </c>
+      <c r="F8">
+        <v>0.94060887491218026</v>
+      </c>
+      <c r="G8">
+        <v>0.91445165767240888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.99916566972116849</v>
+      </c>
+      <c r="D9">
+        <v>0.99732896542206706</v>
+      </c>
+      <c r="E9">
+        <v>0.9943694698123019</v>
+      </c>
+      <c r="F9">
+        <v>0.99001673768539966</v>
+      </c>
+      <c r="G9">
+        <v>0.98375023335117484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.0237432725840783</v>
+      </c>
+      <c r="D10">
+        <v>1.0469473301163175</v>
+      </c>
+      <c r="E10">
+        <v>1.0711351761369892</v>
+      </c>
+      <c r="F10">
+        <v>1.0991328545245336</v>
+      </c>
+      <c r="G10">
+        <v>1.1409855970537344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.95689374406213035</v>
+      </c>
+      <c r="D11">
+        <v>0.91107593331151671</v>
+      </c>
+      <c r="E11">
+        <v>0.85945629637063958</v>
+      </c>
+      <c r="F11">
+        <v>0.79586881245096153</v>
+      </c>
+      <c r="G11">
+        <v>0.69919000272678622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.99695134301753163</v>
+      </c>
+      <c r="D12">
+        <v>0.9926681265402667</v>
+      </c>
+      <c r="E12">
+        <v>0.98685654767402087</v>
+      </c>
+      <c r="F12">
+        <v>0.97885703141359282</v>
+      </c>
+      <c r="G12">
+        <v>0.96672451546625382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.98120735816782156</v>
+      </c>
+      <c r="D13">
+        <v>0.96187327355543928</v>
+      </c>
+      <c r="E13">
+        <v>0.94079845975902054</v>
+      </c>
+      <c r="F13">
+        <v>0.91594404543711139</v>
+      </c>
+      <c r="G13">
+        <v>0.88118297509381738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.0009381670421438</v>
+      </c>
+      <c r="D14">
+        <v>1.024890126404802</v>
+      </c>
+      <c r="E14">
+        <v>1.0796578594751951</v>
+      </c>
+      <c r="F14">
+        <v>1.1897677711350092</v>
+      </c>
+      <c r="G14">
+        <v>1.464804238667671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16">
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17">
+        <v>340</v>
+      </c>
+      <c r="C17">
+        <v>340</v>
+      </c>
+      <c r="D17">
+        <v>340</v>
+      </c>
+      <c r="E17">
+        <v>340</v>
+      </c>
+      <c r="F17">
+        <v>340</v>
+      </c>
+      <c r="G17">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>119.99999999999999</v>
+      </c>
+      <c r="G18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>120</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>48.460639087018805</v>
+      </c>
+      <c r="D20">
+        <v>48.916228970963118</v>
+      </c>
+      <c r="E20">
+        <v>49.396445056204186</v>
+      </c>
+      <c r="F20">
+        <v>49.951833074336434</v>
+      </c>
+      <c r="G20">
+        <v>50.74382702798205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>71.543013588470316</v>
+      </c>
+      <c r="D21">
+        <v>71.09810222416634</v>
+      </c>
+      <c r="E21">
+        <v>70.63655736385509</v>
+      </c>
+      <c r="F21">
+        <v>70.11200194940696</v>
+      </c>
+      <c r="G21">
+        <v>69.380566675601443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22">
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <v>72.459905446804385</v>
+      </c>
+      <c r="D22">
+        <v>72.913338581883423</v>
+      </c>
+      <c r="E22">
+        <v>73.389760110996932</v>
+      </c>
+      <c r="F22">
+        <v>73.938838656194577</v>
+      </c>
+      <c r="G22">
+        <v>74.718328898040255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>47.543739484384446</v>
+      </c>
+      <c r="D23">
+        <v>47.100932522162822</v>
+      </c>
+      <c r="E23">
+        <v>46.643032659100584</v>
+      </c>
+      <c r="F23">
+        <v>46.124433443138592</v>
+      </c>
+      <c r="G23">
+        <v>45.404537555464387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>120.66574992281421</v>
+      </c>
+      <c r="D24">
+        <v>121.34638684585452</v>
+      </c>
+      <c r="E24">
+        <v>122.08891428703427</v>
+      </c>
+      <c r="F24">
+        <v>122.98159375382461</v>
+      </c>
+      <c r="G24">
+        <v>124.32197077012238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>121.05051727124193</v>
+      </c>
+      <c r="D25">
+        <v>122.11361650416337</v>
+      </c>
+      <c r="E25">
+        <v>123.26157635813239</v>
+      </c>
+      <c r="F25">
+        <v>124.62643762174304</v>
+      </c>
+      <c r="G25">
+        <v>126.64708928003867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>98.313353437742862</v>
+      </c>
+      <c r="D26">
+        <v>96.658381566822541</v>
+      </c>
+      <c r="E26">
+        <v>94.927588833650503</v>
+      </c>
+      <c r="F26">
+        <v>92.9425627130626</v>
+      </c>
+      <c r="G26">
+        <v>90.141188584628551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29">
+        <v>340</v>
+      </c>
+      <c r="C29">
+        <v>340</v>
+      </c>
+      <c r="D29">
+        <v>339.58322924414983</v>
+      </c>
+      <c r="E29">
+        <v>338.71519886840156</v>
+      </c>
+      <c r="F29">
+        <v>337.28941467454194</v>
+      </c>
+      <c r="G29">
+        <v>335.03623469860844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30">
+        <v>340</v>
+      </c>
+      <c r="C30">
+        <v>340.28390916881636</v>
+      </c>
+      <c r="D30">
+        <v>340.49269701139843</v>
+      </c>
+      <c r="E30">
+        <v>340.63314406901054</v>
+      </c>
+      <c r="F30">
+        <v>340.69061848670492</v>
+      </c>
+      <c r="G30">
+        <v>340.57042462627646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB02F2-B1E3-4C22-999B-B93660607B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1AC005-37E3-4E73-BE34-E243D4E22CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="9" activeTab="11" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="10" activeTab="12" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="SimpleDemNest" sheetId="12" r:id="rId10"/>
     <sheet name="TwoxTwowAuxDem" sheetId="13" r:id="rId11"/>
     <sheet name="two_by_two_AuxinInput" sheetId="14" r:id="rId12"/>
+    <sheet name="two_by_two_AuxinOutput" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="209">
   <si>
     <t>X.L</t>
   </si>
@@ -645,6 +646,24 @@
   </si>
   <si>
     <t>L-.05,K.45</t>
+  </si>
+  <si>
+    <t>SHAREX</t>
+  </si>
+  <si>
+    <t>MARKUP</t>
+  </si>
+  <si>
+    <t>DLX</t>
+  </si>
+  <si>
+    <t>DKX</t>
+  </si>
+  <si>
+    <t>S.5,M.FX=0</t>
+  </si>
+  <si>
+    <t>S.FX.2,M.5</t>
   </si>
 </sst>
 </file>
@@ -2808,7 +2827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E9F4BC-EEDA-4A84-A728-E202F2F9DA58}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3501,6 +3520,335 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACD633F-C1BD-47FD-A50A-F5FB7B2472E2}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.4753291369925161</v>
+      </c>
+      <c r="D2">
+        <v>1.172020118830339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.67462966970460647</v>
+      </c>
+      <c r="D3">
+        <v>0.88730009696688272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0219884210945194</v>
+      </c>
+      <c r="D4">
+        <v>1.0127539873734788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.85587331307868264</v>
+      </c>
+      <c r="D5">
+        <v>1.1577604455328296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.93361463212308304</v>
+      </c>
+      <c r="D6">
+        <v>1.1941203540878473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.89150825224546415</v>
+      </c>
+      <c r="D7">
+        <v>1.1767023168054411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.8092946958164402</v>
+      </c>
+      <c r="D8">
+        <v>1.1366179966603065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.1568021389813885</v>
+      </c>
+      <c r="D9">
+        <v>1.2858741341480677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.66719621535058538</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0.13513513513513509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>180</v>
+      </c>
+      <c r="D14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>18.507205170502843</v>
+      </c>
+      <c r="D15">
+        <v>15.416666680220644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>46.241340904254422</v>
+      </c>
+      <c r="D16">
+        <v>48.668562530759708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>69.21690975728059</v>
+      </c>
+      <c r="D17">
+        <v>63.035445027072385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>32.282603935879955</v>
+      </c>
+      <c r="D18">
+        <v>37.145792807438056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>115.48695515904296</v>
+      </c>
+      <c r="D19">
+        <v>92.580834712218973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>66.011478777535345</v>
+      </c>
+      <c r="D20">
+        <v>87.612599703686627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <v>164</v>
+      </c>
+      <c r="D21">
+        <v>214.50779345311349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22">
+        <v>180</v>
+      </c>
+      <c r="C22">
+        <v>183.95791579682032</v>
+      </c>
+      <c r="D22">
+        <v>182.29571772712671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23">
+        <v>0.91978957898410163</v>
+      </c>
+      <c r="D23">
+        <v>0.91147858863563358</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D5B43-8CD6-4A83-BB20-1B7CB0C102D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579E12D-0498-48F8-A1E2-3BFC2D221ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" firstSheet="7" activeTab="9" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2928" yWindow="2316" windowWidth="17280" windowHeight="9072" firstSheet="8" activeTab="10" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="TwoxTwowOTax_IndCon" sheetId="10" r:id="rId8"/>
     <sheet name="TwoxTwoOutTax_1-2" sheetId="11" r:id="rId9"/>
     <sheet name="SimpleDemNest" sheetId="12" r:id="rId10"/>
+    <sheet name="two_by_two_PriceinIntput" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="182">
   <si>
     <t>X.L</t>
   </si>
@@ -514,6 +515,72 @@
   </si>
   <si>
     <t>esubkl=0</t>
+  </si>
+  <si>
+    <t>Itax=0.1</t>
+  </si>
+  <si>
+    <t>Otax=0.1</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>DXL</t>
+  </si>
+  <si>
+    <t>DXK</t>
+  </si>
+  <si>
+    <t>DYL</t>
+  </si>
+  <si>
+    <t>DYK</t>
+  </si>
+  <si>
+    <t>DUX</t>
+  </si>
+  <si>
+    <t>DUY</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>PX/PX</t>
+  </si>
+  <si>
+    <t>PY/PX</t>
+  </si>
+  <si>
+    <t>PU/PX</t>
+  </si>
+  <si>
+    <t>PL/PX</t>
+  </si>
+  <si>
+    <t>PK/PX</t>
+  </si>
+  <si>
+    <t>RA/PX</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A1C099-339A-499F-B548-AD9626FC6E95}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2216,6 +2283,637 @@
       </c>
       <c r="M22">
         <v>121.25806235190294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11282225-CC33-40D0-A467-E5A8A58B1ADF}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0533624393223964</v>
+      </c>
+      <c r="D2">
+        <v>1.0533624393076026</v>
+      </c>
+      <c r="E2">
+        <v>1.0533624392983827</v>
+      </c>
+      <c r="F2">
+        <v>1.0692230525392665</v>
+      </c>
+      <c r="G2">
+        <v>1.0306253077634344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0432700717339818</v>
+      </c>
+      <c r="D3">
+        <v>1.0432700717206651</v>
+      </c>
+      <c r="E3">
+        <v>1.043270071718168</v>
+      </c>
+      <c r="F3">
+        <v>1.0159922067315308</v>
+      </c>
+      <c r="G3">
+        <v>1.0873120422296021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0500286076528291</v>
+      </c>
+      <c r="D4">
+        <v>1.0500286076372356</v>
+      </c>
+      <c r="E4">
+        <v>1.0500286076315015</v>
+      </c>
+      <c r="F4">
+        <v>1.0513947937746249</v>
+      </c>
+      <c r="G4">
+        <v>1.0489563308826293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.99683505738742828</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.0442749417809107</v>
+      </c>
+      <c r="F5">
+        <v>0.96924826808406228</v>
+      </c>
+      <c r="G5">
+        <v>1.080588241014147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.006478222756964</v>
+      </c>
+      <c r="D6">
+        <v>1.0096737823300179</v>
+      </c>
+      <c r="E6">
+        <v>1.0543770302540776</v>
+      </c>
+      <c r="F6">
+        <v>1.0200300602347367</v>
+      </c>
+      <c r="G6">
+        <v>1.0242520502029886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.0031749912758545</v>
+      </c>
+      <c r="E7">
+        <v>1.0475905056086889</v>
+      </c>
+      <c r="F7">
+        <v>0.98568358717211357</v>
+      </c>
+      <c r="G7">
+        <v>1.0617044348776998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.95457146145108884</v>
+      </c>
+      <c r="D8">
+        <v>0.95760221755176367</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0500286076528458</v>
+      </c>
+      <c r="D9">
+        <v>1.0533624393068366</v>
+      </c>
+      <c r="E9">
+        <v>1.0999999999351249</v>
+      </c>
+      <c r="F9">
+        <v>1.0363425908479043</v>
+      </c>
+      <c r="G9">
+        <v>1.0440764845854245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>110</v>
+      </c>
+      <c r="G10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12">
+        <v>164</v>
+      </c>
+      <c r="C12">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <v>164</v>
+      </c>
+      <c r="F12">
+        <v>164</v>
+      </c>
+      <c r="G12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>52.213747091206962</v>
+      </c>
+      <c r="D13">
+        <v>52.213747089924226</v>
+      </c>
+      <c r="E13">
+        <v>52.213747088526816</v>
+      </c>
+      <c r="F13">
+        <v>52.868087335139379</v>
+      </c>
+      <c r="G13">
+        <v>53.047059029882369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>47.467042807627351</v>
+      </c>
+      <c r="D14">
+        <v>47.46704280902668</v>
+      </c>
+      <c r="E14">
+        <v>47.467042810551135</v>
+      </c>
+      <c r="F14">
+        <v>46.762927451330512</v>
+      </c>
+      <c r="G14">
+        <v>46.573667250728739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>25.305048727435071</v>
+      </c>
+      <c r="D15">
+        <v>25.305048726675256</v>
+      </c>
+      <c r="E15">
+        <v>25.305048725847506</v>
+      </c>
+      <c r="F15">
+        <v>24.480721438762444</v>
+      </c>
+      <c r="G15">
+        <v>24.582049170514459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.755737188715777</v>
+      </c>
+      <c r="D16">
+        <v>28.755737189406524</v>
+      </c>
+      <c r="E16">
+        <v>28.755737190159014</v>
+      </c>
+      <c r="F16">
+        <v>29.527785568878645</v>
+      </c>
+      <c r="G16">
+        <v>29.43037403561884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>110.3492490405403</v>
+      </c>
+      <c r="D17">
+        <v>110.34924904034398</v>
+      </c>
+      <c r="E17">
+        <v>110.34924904012642</v>
+      </c>
+      <c r="F17">
+        <v>111.86524460134066</v>
+      </c>
+      <c r="G17">
+        <v>108.07769639007446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>53.652427622403614</v>
+      </c>
+      <c r="D18">
+        <v>53.652427622598076</v>
+      </c>
+      <c r="E18">
+        <v>53.652427622813583</v>
+      </c>
+      <c r="F18">
+        <v>52.181710894781091</v>
+      </c>
+      <c r="G18">
+        <v>55.974542078075267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19">
+        <v>164</v>
+      </c>
+      <c r="C19">
+        <v>172.20469165071995</v>
+      </c>
+      <c r="D19">
+        <v>172.75144004633617</v>
+      </c>
+      <c r="E19">
+        <v>180.39999999442588</v>
+      </c>
+      <c r="F19">
+        <v>169.96018504007139</v>
+      </c>
+      <c r="G19">
+        <v>182.64378039376402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20">
+        <v>164</v>
+      </c>
+      <c r="C20">
+        <v>172.20469165071995</v>
+      </c>
+      <c r="D20">
+        <v>172.20469165267772</v>
+      </c>
+      <c r="E20">
+        <v>172.20469165058611</v>
+      </c>
+      <c r="F20">
+        <v>172.42874615339829</v>
+      </c>
+      <c r="G20">
+        <v>172.02883815287367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>1.0933333333333333</v>
+      </c>
+      <c r="C21">
+        <v>1.1480312776714663</v>
+      </c>
+      <c r="D21">
+        <v>1.1480312776845181</v>
+      </c>
+      <c r="E21">
+        <v>1.1480312776705741</v>
+      </c>
+      <c r="F21">
+        <v>1.1495249743559885</v>
+      </c>
+      <c r="G21">
+        <v>1.1468589210191578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1.009673782335474</v>
+      </c>
+      <c r="D23">
+        <v>1.0096737823300179</v>
+      </c>
+      <c r="E23">
+        <v>1.0096737823239719</v>
+      </c>
+      <c r="F23">
+        <v>1.0523929666142775</v>
+      </c>
+      <c r="G23">
+        <v>0.94786525646597253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1.0031749912777612</v>
+      </c>
+      <c r="D24">
+        <v>1.0031749912758545</v>
+      </c>
+      <c r="E24">
+        <v>1.0031749912739683</v>
+      </c>
+      <c r="F24">
+        <v>1.0169567691057517</v>
+      </c>
+      <c r="G24">
+        <v>0.98252451264995777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.95760221751519581</v>
+      </c>
+      <c r="D25">
+        <v>0.95760221755176367</v>
+      </c>
+      <c r="E25">
+        <v>0.95760221756790975</v>
+      </c>
+      <c r="F25">
+        <v>1.0317274045552081</v>
+      </c>
+      <c r="G25">
+        <v>0.92542187860705039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1.0533624393235435</v>
+      </c>
+      <c r="D26">
+        <v>1.0533624393068366</v>
+      </c>
+      <c r="E26">
+        <v>1.0533624392625762</v>
+      </c>
+      <c r="F26">
+        <v>1.0692230514855281</v>
+      </c>
+      <c r="G26">
+        <v>0.96621122177448859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27">
+        <v>164</v>
+      </c>
+      <c r="C27">
+        <v>172.75144004470056</v>
+      </c>
+      <c r="D27">
+        <v>172.75144004633617</v>
+      </c>
+      <c r="E27">
+        <v>172.75144004391314</v>
+      </c>
+      <c r="F27">
+        <v>175.35258058911575</v>
+      </c>
+      <c r="G27">
+        <v>169.02255036789066</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579E12D-0498-48F8-A1E2-3BFC2D221ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F4175F-36E1-4122-AAD0-3252ACA3B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2316" windowWidth="17280" windowHeight="9072" firstSheet="8" activeTab="10" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="2928" yWindow="2316" windowWidth="17280" windowHeight="9072" firstSheet="9" activeTab="11" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="TwoxTwoOutTax_1-2" sheetId="11" r:id="rId9"/>
     <sheet name="SimpleDemNest" sheetId="12" r:id="rId10"/>
     <sheet name="two_by_two_PriceinIntput" sheetId="13" r:id="rId11"/>
+    <sheet name="two_by_two_PriceinOutput" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="182">
   <si>
     <t>X.L</t>
   </si>
@@ -2294,6 +2295,637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11282225-CC33-40D0-A467-E5A8A58B1ADF}">
   <dimension ref="A1:G27"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0533624393223964</v>
+      </c>
+      <c r="D2">
+        <v>1.0533624393076026</v>
+      </c>
+      <c r="E2">
+        <v>1.0533624392983827</v>
+      </c>
+      <c r="F2">
+        <v>1.0692230525392665</v>
+      </c>
+      <c r="G2">
+        <v>1.0306253077634344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0432700717339818</v>
+      </c>
+      <c r="D3">
+        <v>1.0432700717206651</v>
+      </c>
+      <c r="E3">
+        <v>1.043270071718168</v>
+      </c>
+      <c r="F3">
+        <v>1.0159922067315308</v>
+      </c>
+      <c r="G3">
+        <v>1.0873120422296021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0500286076528291</v>
+      </c>
+      <c r="D4">
+        <v>1.0500286076372356</v>
+      </c>
+      <c r="E4">
+        <v>1.0500286076315015</v>
+      </c>
+      <c r="F4">
+        <v>1.0513947937746249</v>
+      </c>
+      <c r="G4">
+        <v>1.0489563308826293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.99683505738742828</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.0442749417809107</v>
+      </c>
+      <c r="F5">
+        <v>0.96924826808406228</v>
+      </c>
+      <c r="G5">
+        <v>1.080588241014147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.006478222756964</v>
+      </c>
+      <c r="D6">
+        <v>1.0096737823300179</v>
+      </c>
+      <c r="E6">
+        <v>1.0543770302540776</v>
+      </c>
+      <c r="F6">
+        <v>1.0200300602347367</v>
+      </c>
+      <c r="G6">
+        <v>1.0242520502029886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.0031749912758545</v>
+      </c>
+      <c r="E7">
+        <v>1.0475905056086889</v>
+      </c>
+      <c r="F7">
+        <v>0.98568358717211357</v>
+      </c>
+      <c r="G7">
+        <v>1.0617044348776998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.95457146145108884</v>
+      </c>
+      <c r="D8">
+        <v>0.95760221755176367</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0500286076528458</v>
+      </c>
+      <c r="D9">
+        <v>1.0533624393068366</v>
+      </c>
+      <c r="E9">
+        <v>1.0999999999351249</v>
+      </c>
+      <c r="F9">
+        <v>1.0363425908479043</v>
+      </c>
+      <c r="G9">
+        <v>1.0440764845854245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>110</v>
+      </c>
+      <c r="G10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12">
+        <v>164</v>
+      </c>
+      <c r="C12">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <v>164</v>
+      </c>
+      <c r="F12">
+        <v>164</v>
+      </c>
+      <c r="G12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>52.213747091206962</v>
+      </c>
+      <c r="D13">
+        <v>52.213747089924226</v>
+      </c>
+      <c r="E13">
+        <v>52.213747088526816</v>
+      </c>
+      <c r="F13">
+        <v>52.868087335139379</v>
+      </c>
+      <c r="G13">
+        <v>53.047059029882369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>47.467042807627351</v>
+      </c>
+      <c r="D14">
+        <v>47.46704280902668</v>
+      </c>
+      <c r="E14">
+        <v>47.467042810551135</v>
+      </c>
+      <c r="F14">
+        <v>46.762927451330512</v>
+      </c>
+      <c r="G14">
+        <v>46.573667250728739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>25.305048727435071</v>
+      </c>
+      <c r="D15">
+        <v>25.305048726675256</v>
+      </c>
+      <c r="E15">
+        <v>25.305048725847506</v>
+      </c>
+      <c r="F15">
+        <v>24.480721438762444</v>
+      </c>
+      <c r="G15">
+        <v>24.582049170514459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.755737188715777</v>
+      </c>
+      <c r="D16">
+        <v>28.755737189406524</v>
+      </c>
+      <c r="E16">
+        <v>28.755737190159014</v>
+      </c>
+      <c r="F16">
+        <v>29.527785568878645</v>
+      </c>
+      <c r="G16">
+        <v>29.43037403561884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>110.3492490405403</v>
+      </c>
+      <c r="D17">
+        <v>110.34924904034398</v>
+      </c>
+      <c r="E17">
+        <v>110.34924904012642</v>
+      </c>
+      <c r="F17">
+        <v>111.86524460134066</v>
+      </c>
+      <c r="G17">
+        <v>108.07769639007446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>53.652427622403614</v>
+      </c>
+      <c r="D18">
+        <v>53.652427622598076</v>
+      </c>
+      <c r="E18">
+        <v>53.652427622813583</v>
+      </c>
+      <c r="F18">
+        <v>52.181710894781091</v>
+      </c>
+      <c r="G18">
+        <v>55.974542078075267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19">
+        <v>164</v>
+      </c>
+      <c r="C19">
+        <v>172.20469165071995</v>
+      </c>
+      <c r="D19">
+        <v>172.75144004633617</v>
+      </c>
+      <c r="E19">
+        <v>180.39999999442588</v>
+      </c>
+      <c r="F19">
+        <v>169.96018504007139</v>
+      </c>
+      <c r="G19">
+        <v>182.64378039376402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20">
+        <v>164</v>
+      </c>
+      <c r="C20">
+        <v>172.20469165071995</v>
+      </c>
+      <c r="D20">
+        <v>172.20469165267772</v>
+      </c>
+      <c r="E20">
+        <v>172.20469165058611</v>
+      </c>
+      <c r="F20">
+        <v>172.42874615339829</v>
+      </c>
+      <c r="G20">
+        <v>172.02883815287367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>1.0933333333333333</v>
+      </c>
+      <c r="C21">
+        <v>1.1480312776714663</v>
+      </c>
+      <c r="D21">
+        <v>1.1480312776845181</v>
+      </c>
+      <c r="E21">
+        <v>1.1480312776705741</v>
+      </c>
+      <c r="F21">
+        <v>1.1495249743559885</v>
+      </c>
+      <c r="G21">
+        <v>1.1468589210191578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1.009673782335474</v>
+      </c>
+      <c r="D23">
+        <v>1.0096737823300179</v>
+      </c>
+      <c r="E23">
+        <v>1.0096737823239719</v>
+      </c>
+      <c r="F23">
+        <v>1.0523929666142775</v>
+      </c>
+      <c r="G23">
+        <v>0.94786525646597253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1.0031749912777612</v>
+      </c>
+      <c r="D24">
+        <v>1.0031749912758545</v>
+      </c>
+      <c r="E24">
+        <v>1.0031749912739683</v>
+      </c>
+      <c r="F24">
+        <v>1.0169567691057517</v>
+      </c>
+      <c r="G24">
+        <v>0.98252451264995777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.95760221751519581</v>
+      </c>
+      <c r="D25">
+        <v>0.95760221755176367</v>
+      </c>
+      <c r="E25">
+        <v>0.95760221756790975</v>
+      </c>
+      <c r="F25">
+        <v>1.0317274045552081</v>
+      </c>
+      <c r="G25">
+        <v>0.92542187860705039</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1.0533624393235435</v>
+      </c>
+      <c r="D26">
+        <v>1.0533624393068366</v>
+      </c>
+      <c r="E26">
+        <v>1.0533624392625762</v>
+      </c>
+      <c r="F26">
+        <v>1.0692230514855281</v>
+      </c>
+      <c r="G26">
+        <v>0.96621122177448859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27">
+        <v>164</v>
+      </c>
+      <c r="C27">
+        <v>172.75144004470056</v>
+      </c>
+      <c r="D27">
+        <v>172.75144004633617</v>
+      </c>
+      <c r="E27">
+        <v>172.75144004391314</v>
+      </c>
+      <c r="F27">
+        <v>175.35258058911575</v>
+      </c>
+      <c r="G27">
+        <v>169.02255036789066</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA46F24-F233-430F-8251-B777E1D305D5}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2326,19 +2958,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0533624393223964</v>
+        <v>1.0363877164159934</v>
       </c>
       <c r="D2">
-        <v>1.0533624393076026</v>
+        <v>1.0363877163707826</v>
       </c>
       <c r="E2">
-        <v>1.0533624392983827</v>
+        <v>1.0363877163440884</v>
       </c>
       <c r="F2">
-        <v>1.0692230525392665</v>
+        <v>1.019624477737967</v>
       </c>
       <c r="G2">
-        <v>1.0306253077634344</v>
+        <v>1.0682942220014657</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2349,19 +2981,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0432700717339818</v>
+        <v>1.0432700717765628</v>
       </c>
       <c r="D3">
-        <v>1.0432700717206651</v>
+        <v>1.0432700717215022</v>
       </c>
       <c r="E3">
-        <v>1.043270071718168</v>
+        <v>1.0432700716683327</v>
       </c>
       <c r="F3">
-        <v>1.0159922067315308</v>
+        <v>1.0675789736310193</v>
       </c>
       <c r="G3">
-        <v>1.0873120422296021</v>
+        <v>0.99500526524801314</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2372,19 +3004,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.0500286076528291</v>
+        <v>1.0387958255232288</v>
       </c>
       <c r="D4">
-        <v>1.0500286076372356</v>
+        <v>1.0387958254741989</v>
       </c>
       <c r="E4">
-        <v>1.0500286076315015</v>
+        <v>1.0387958254390572</v>
       </c>
       <c r="F4">
-        <v>1.0513947937746249</v>
+        <v>1.0361893620037979</v>
       </c>
       <c r="G4">
-        <v>1.0489563308826293</v>
+        <v>1.0420004625145436</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2395,19 +3027,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.99683505738742828</v>
+        <v>1.0023235600640814</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1.0442749417809107</v>
+        <v>1.0613788472823071</v>
       </c>
       <c r="F5">
-        <v>0.96924826808406228</v>
+        <v>1.1362130503366883</v>
       </c>
       <c r="G5">
-        <v>1.080588241014147</v>
+        <v>1.0168399930513876</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2418,19 +3050,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1.006478222756964</v>
+        <v>0.99571132501722914</v>
       </c>
       <c r="D6">
-        <v>1.0096737823300179</v>
+        <v>0.99340309327606224</v>
       </c>
       <c r="E6">
-        <v>1.0543770302540776</v>
+        <v>1.0543770300718067</v>
       </c>
       <c r="F6">
-        <v>1.0200300602347367</v>
+        <v>1.0851755857677472</v>
       </c>
       <c r="G6">
-        <v>1.0242520502029886</v>
+        <v>1.0917372271452674</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2444,16 +3076,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.0031749912758545</v>
+        <v>0.9976818263563586</v>
       </c>
       <c r="E7">
-        <v>1.0475905056086889</v>
+        <v>1.0589183868286272</v>
       </c>
       <c r="F7">
-        <v>0.98568358717211357</v>
+        <v>1.1180491525357026</v>
       </c>
       <c r="G7">
-        <v>1.0617044348776998</v>
+        <v>1.0424988551880285</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2464,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.95457146145108884</v>
+        <v>0.94435984116129768</v>
       </c>
       <c r="D8">
-        <v>0.95760221755176367</v>
+        <v>0.94217065124599342</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2487,19 +3119,19 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.0500286076528458</v>
+        <v>1.0387958255234089</v>
       </c>
       <c r="D9">
-        <v>1.0533624393068366</v>
+        <v>1.0363877163706223</v>
       </c>
       <c r="E9">
-        <v>1.0999999999351249</v>
+        <v>1.0999999994203249</v>
       </c>
       <c r="F9">
-        <v>1.0363425908479043</v>
+        <v>1.1585106377976897</v>
       </c>
       <c r="G9">
-        <v>1.0440764845854245</v>
+        <v>1.1711502493765573</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2507,22 +3139,22 @@
         <v>165</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2553,22 +3185,22 @@
         <v>167</v>
       </c>
       <c r="B12">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C12">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D12">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E12">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F12">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G12">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2576,22 +3208,22 @@
         <v>168</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>52.213747091206962</v>
+        <v>31.841365430736488</v>
       </c>
       <c r="D13">
-        <v>52.213747089924226</v>
+        <v>31.84136542602463</v>
       </c>
       <c r="E13">
-        <v>52.213747088526816</v>
+        <v>31.841365415536767</v>
       </c>
       <c r="F13">
-        <v>52.868087335139379</v>
+        <v>30.987628643211458</v>
       </c>
       <c r="G13">
-        <v>53.047059029882369</v>
+        <v>31.198499786803925</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2602,19 +3234,19 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>47.467042807627351</v>
+        <v>48.244493065449426</v>
       </c>
       <c r="D14">
-        <v>47.46704280902668</v>
+        <v>48.244493069732918</v>
       </c>
       <c r="E14">
-        <v>47.467042810551135</v>
+        <v>48.244493079267343</v>
       </c>
       <c r="F14">
-        <v>46.762927451330512</v>
+        <v>49.037661510429018</v>
       </c>
       <c r="G14">
-        <v>46.573667250728739</v>
+        <v>48.838524040436795</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2625,19 +3257,19 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>25.305048727435071</v>
+        <v>25.305048730005584</v>
       </c>
       <c r="D15">
-        <v>25.305048726675256</v>
+        <v>25.305048726677036</v>
       </c>
       <c r="E15">
-        <v>25.305048725847506</v>
+        <v>25.3050487192682</v>
       </c>
       <c r="F15">
-        <v>24.480721438762444</v>
+        <v>26.044214056358804</v>
       </c>
       <c r="G15">
-        <v>24.582049170514459</v>
+        <v>26.201693451486413</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,19 +3280,19 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>28.755737188715777</v>
+        <v>28.755737186378955</v>
       </c>
       <c r="D16">
-        <v>28.755737189406524</v>
+        <v>28.755737189404904</v>
       </c>
       <c r="E16">
-        <v>28.755737190159014</v>
+        <v>28.755737196140213</v>
       </c>
       <c r="F16">
-        <v>29.527785568878645</v>
+        <v>28.100965591766641</v>
       </c>
       <c r="G16">
-        <v>29.43037403561884</v>
+        <v>27.965768552577323</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2668,22 +3300,22 @@
         <v>172</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>110.3492490405403</v>
+        <v>99.768182635147326</v>
       </c>
       <c r="D17">
-        <v>110.34924904034398</v>
+        <v>99.768182635635839</v>
       </c>
       <c r="E17">
-        <v>110.34924904012642</v>
+        <v>99.768182637088472</v>
       </c>
       <c r="F17">
-        <v>111.86524460134066</v>
+        <v>98.401365149245521</v>
       </c>
       <c r="G17">
-        <v>108.07769639007446</v>
+        <v>102.52339230478557</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2694,19 +3326,19 @@
         <v>54</v>
       </c>
       <c r="C18">
-        <v>53.652427622403614</v>
+        <v>54.232585934539976</v>
       </c>
       <c r="D18">
-        <v>53.652427622598076</v>
+        <v>54.232585934048203</v>
       </c>
       <c r="E18">
-        <v>53.652427622813583</v>
+        <v>54.232585932585913</v>
       </c>
       <c r="F18">
-        <v>52.181710894781091</v>
+        <v>55.635839055654536</v>
       </c>
       <c r="G18">
-        <v>55.974542078075267</v>
+        <v>51.564549399269403</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2714,22 +3346,22 @@
         <v>174</v>
       </c>
       <c r="B19">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C19">
-        <v>172.20469165071995</v>
+        <v>159.97455711734904</v>
       </c>
       <c r="D19">
-        <v>172.75144004633617</v>
+        <v>159.60370832107745</v>
       </c>
       <c r="E19">
-        <v>180.39999999442588</v>
+        <v>169.39999994784262</v>
       </c>
       <c r="F19">
-        <v>169.96018504007139</v>
+        <v>178.41063825195459</v>
       </c>
       <c r="G19">
-        <v>182.64378039376402</v>
+        <v>167.28778054862835</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2737,22 +3369,22 @@
         <v>175</v>
       </c>
       <c r="B20">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C20">
-        <v>172.20469165071995</v>
+        <v>159.97455711734904</v>
       </c>
       <c r="D20">
-        <v>172.20469165267772</v>
+        <v>159.97455712305333</v>
       </c>
       <c r="E20">
-        <v>172.20469165058611</v>
+        <v>159.97455710933642</v>
       </c>
       <c r="F20">
-        <v>172.42874615339829</v>
+        <v>159.57316174098833</v>
       </c>
       <c r="G20">
-        <v>172.02883815287367</v>
+        <v>160.46807122723965</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2760,22 +3392,22 @@
         <v>58</v>
       </c>
       <c r="B21">
-        <v>1.0933333333333333</v>
+        <v>1.0266666666666666</v>
       </c>
       <c r="C21">
-        <v>1.1480312776714663</v>
+        <v>1.0664970474489937</v>
       </c>
       <c r="D21">
-        <v>1.1480312776845181</v>
+        <v>1.0664970474870221</v>
       </c>
       <c r="E21">
-        <v>1.1480312776705741</v>
+        <v>1.0664970473955762</v>
       </c>
       <c r="F21">
-        <v>1.1495249743559885</v>
+        <v>1.0638210782732556</v>
       </c>
       <c r="G21">
-        <v>1.1468589210191578</v>
+        <v>1.0697871415149309</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2809,19 +3441,19 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1.009673782335474</v>
+        <v>0.99340309326219023</v>
       </c>
       <c r="D23">
-        <v>1.0096737823300179</v>
+        <v>0.99340309327606224</v>
       </c>
       <c r="E23">
-        <v>1.0096737823239719</v>
+        <v>0.99340309331731191</v>
       </c>
       <c r="F23">
-        <v>1.0523929666142775</v>
+        <v>0.95508107871686787</v>
       </c>
       <c r="G23">
-        <v>0.94786525646597253</v>
+        <v>1.0736568531978412</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2832,19 +3464,19 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1.0031749912777612</v>
+        <v>0.9976818263516295</v>
       </c>
       <c r="D24">
-        <v>1.0031749912758545</v>
+        <v>0.9976818263563586</v>
       </c>
       <c r="E24">
-        <v>1.0031749912739683</v>
+        <v>0.9976818263714412</v>
       </c>
       <c r="F24">
-        <v>1.0169567691057517</v>
+        <v>0.98401365149291031</v>
       </c>
       <c r="G24">
-        <v>0.98252451264995777</v>
+        <v>1.0252339230478558</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2855,19 +3487,19 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0.95760221751519581</v>
+        <v>0.94217065106293829</v>
       </c>
       <c r="D25">
-        <v>0.95760221755176367</v>
+        <v>0.94217065124599342</v>
       </c>
       <c r="E25">
-        <v>0.95760221756790975</v>
+        <v>0.94217065146957701</v>
       </c>
       <c r="F25">
-        <v>1.0317274045552081</v>
+        <v>0.88011662927447898</v>
       </c>
       <c r="G25">
-        <v>0.92542187860705039</v>
+        <v>0.98343889582779564</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2878,19 +3510,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1.0533624393235435</v>
+        <v>1.0363877164146433</v>
       </c>
       <c r="D26">
-        <v>1.0533624393068366</v>
+        <v>1.0363877163706223</v>
       </c>
       <c r="E26">
-        <v>1.0533624392625762</v>
+        <v>1.0363877160703818</v>
       </c>
       <c r="F26">
-        <v>1.0692230514855281</v>
+        <v>1.0196244775171295</v>
       </c>
       <c r="G26">
-        <v>0.96621122177448859</v>
+        <v>1.151754708095329</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2898,22 +3530,22 @@
         <v>181</v>
       </c>
       <c r="B27">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C27">
-        <v>172.75144004470056</v>
+        <v>159.60370831462987</v>
       </c>
       <c r="D27">
-        <v>172.75144004633617</v>
+        <v>159.60370832107745</v>
       </c>
       <c r="E27">
-        <v>172.75144004391314</v>
+        <v>159.6037083098052</v>
       </c>
       <c r="F27">
-        <v>175.35258058911575</v>
+        <v>157.02216956501869</v>
       </c>
       <c r="G27">
-        <v>169.02255036789066</v>
+        <v>164.51731018822565</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F4175F-36E1-4122-AAD0-3252ACA3B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8ED1DD-6AD1-4768-9648-D97791C9EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2316" windowWidth="17280" windowHeight="9072" firstSheet="9" activeTab="11" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" firstSheet="11" activeTab="12" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="SimpleDemNest" sheetId="12" r:id="rId10"/>
     <sheet name="two_by_two_PriceinIntput" sheetId="13" r:id="rId11"/>
     <sheet name="two_by_two_PriceinOutput" sheetId="14" r:id="rId12"/>
+    <sheet name="two_by_two_PriceinDem" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="187">
   <si>
     <t>X.L</t>
   </si>
@@ -582,6 +583,21 @@
   </si>
   <si>
     <t>RA/PX</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>eRA=.5</t>
+  </si>
+  <si>
+    <t>pr_Ud=2</t>
+  </si>
+  <si>
+    <t>prU2,eRA.6</t>
+  </si>
+  <si>
+    <t>prU.5,eRA.6</t>
   </si>
 </sst>
 </file>
@@ -2926,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA46F24-F233-430F-8251-B777E1D305D5}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3546,6 +3562,828 @@
       </c>
       <c r="G27">
         <v>164.51731018822565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A14072-42EB-4D8D-A8E8-16263FAFBB19}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0363877164248041</v>
+      </c>
+      <c r="D2">
+        <v>1.0365519507521972</v>
+      </c>
+      <c r="E2">
+        <v>1.0595609099982088</v>
+      </c>
+      <c r="F2">
+        <v>1.0633532225145439</v>
+      </c>
+      <c r="G2">
+        <v>0.99833470833445848</v>
+      </c>
+      <c r="H2">
+        <v>0.98248710709607423</v>
+      </c>
+      <c r="I2">
+        <v>0.94048657015713999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0432700717660239</v>
+      </c>
+      <c r="D3">
+        <v>1.0430251457731119</v>
+      </c>
+      <c r="E3">
+        <v>1.0087067867541124</v>
+      </c>
+      <c r="F3">
+        <v>1.0030495908339756</v>
+      </c>
+      <c r="G3">
+        <v>1.1000067470042523</v>
+      </c>
+      <c r="H3">
+        <v>1.122931737696433</v>
+      </c>
+      <c r="I3">
+        <v>1.1855074833626025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0388246300487494</v>
+      </c>
+      <c r="D4">
+        <v>1.0389899529717939</v>
+      </c>
+      <c r="E4">
+        <v>1.0621536850625561</v>
+      </c>
+      <c r="F4">
+        <v>1.0659719353994179</v>
+      </c>
+      <c r="G4">
+        <v>1.0005254867593421</v>
+      </c>
+      <c r="H4">
+        <v>0.99843756359281499</v>
+      </c>
+      <c r="I4">
+        <v>0.99193526198210002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0023513532505028</v>
+      </c>
+      <c r="D5">
+        <v>1.0023520310092886</v>
+      </c>
+      <c r="E5">
+        <v>1.0024470278582813</v>
+      </c>
+      <c r="F5">
+        <v>1.0024626933265708</v>
+      </c>
+      <c r="G5">
+        <v>1.0021944327932055</v>
+      </c>
+      <c r="H5">
+        <v>1.0162347743614695</v>
+      </c>
+      <c r="I5">
+        <v>1.054704334391892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.99573893485424703</v>
+      </c>
+      <c r="D6">
+        <v>0.99573771069529127</v>
+      </c>
+      <c r="E6">
+        <v>0.99556615181885155</v>
+      </c>
+      <c r="F6">
+        <v>0.99553786527941868</v>
+      </c>
+      <c r="G6">
+        <v>0.99602242514969408</v>
+      </c>
+      <c r="H6">
+        <v>0.97114380037066672</v>
+      </c>
+      <c r="I6">
+        <v>0.90770374205596749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.94438602708152408</v>
+      </c>
+      <c r="D8">
+        <v>0.94437046939986447</v>
+      </c>
+      <c r="E8">
+        <v>0.94219250114219932</v>
+      </c>
+      <c r="F8">
+        <v>0.94183384552627059</v>
+      </c>
+      <c r="G8">
+        <v>0.9479952509302686</v>
+      </c>
+      <c r="H8">
+        <v>0.89903690333116493</v>
+      </c>
+      <c r="I8">
+        <v>0.84467427236056358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0388246300416317</v>
+      </c>
+      <c r="D9">
+        <v>1.0388360220635884</v>
+      </c>
+      <c r="E9">
+        <v>1.0404339284158413</v>
+      </c>
+      <c r="F9">
+        <v>1.0406976527852307</v>
+      </c>
+      <c r="G9">
+        <v>1.0361901997164102</v>
+      </c>
+      <c r="H9">
+        <v>1.0329715504842176</v>
+      </c>
+      <c r="I9">
+        <v>0.96149717694622527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>54.000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>124</v>
+      </c>
+      <c r="D12">
+        <v>123.99999999999999</v>
+      </c>
+      <c r="E12">
+        <v>124</v>
+      </c>
+      <c r="F12">
+        <v>124</v>
+      </c>
+      <c r="G12">
+        <v>124</v>
+      </c>
+      <c r="H12">
+        <v>124</v>
+      </c>
+      <c r="I12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>31.841365430850797</v>
+      </c>
+      <c r="D13">
+        <v>31.841911518828791</v>
+      </c>
+      <c r="E13">
+        <v>31.918541910798012</v>
+      </c>
+      <c r="F13">
+        <v>31.931195659031214</v>
+      </c>
+      <c r="G13">
+        <v>31.715172575173078</v>
+      </c>
+      <c r="H13">
+        <v>30.827982414866039</v>
+      </c>
+      <c r="I13">
+        <v>30.648734246825121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>48.244493065345502</v>
+      </c>
+      <c r="D14">
+        <v>48.243996628540472</v>
+      </c>
+      <c r="E14">
+        <v>48.174468386692752</v>
+      </c>
+      <c r="F14">
+        <v>48.16301308279445</v>
+      </c>
+      <c r="G14">
+        <v>48.359578823666638</v>
+      </c>
+      <c r="H14">
+        <v>49.189872358276297</v>
+      </c>
+      <c r="I14">
+        <v>49.36228226730212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>25.305048730086334</v>
+      </c>
+      <c r="D15">
+        <v>25.305434497175867</v>
+      </c>
+      <c r="E15">
+        <v>25.359560402662385</v>
+      </c>
+      <c r="F15">
+        <v>25.368496662333634</v>
+      </c>
+      <c r="G15">
+        <v>25.215883919305377</v>
+      </c>
+      <c r="H15">
+        <v>25.924910448641455</v>
+      </c>
+      <c r="I15">
+        <v>25.790876462309562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.755737186305545</v>
+      </c>
+      <c r="D16">
+        <v>28.755386493763073</v>
+      </c>
+      <c r="E16">
+        <v>28.706277005056187</v>
+      </c>
+      <c r="F16">
+        <v>28.698187104056096</v>
+      </c>
+      <c r="G16">
+        <v>28.837054010514596</v>
+      </c>
+      <c r="H16">
+        <v>28.204372131496182</v>
+      </c>
+      <c r="I16">
+        <v>28.321572766511753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>79.812333011330708</v>
+      </c>
+      <c r="D17">
+        <v>79.812279044731554</v>
+      </c>
+      <c r="E17">
+        <v>79.804715637612503</v>
+      </c>
+      <c r="F17">
+        <v>79.803468530612463</v>
+      </c>
+      <c r="G17">
+        <v>79.824829775826657</v>
+      </c>
+      <c r="H17">
+        <v>78.721966634399251</v>
+      </c>
+      <c r="I17">
+        <v>75.850641162032716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>44.188289178863421</v>
+      </c>
+      <c r="D18">
+        <v>44.18834350389114</v>
+      </c>
+      <c r="E18">
+        <v>44.195958168740567</v>
+      </c>
+      <c r="F18">
+        <v>44.197213922797879</v>
+      </c>
+      <c r="G18">
+        <v>44.175712201847752</v>
+      </c>
+      <c r="H18">
+        <v>45.307399360636374</v>
+      </c>
+      <c r="I18">
+        <v>48.473965635901294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19">
+        <v>134</v>
+      </c>
+      <c r="C19">
+        <v>139.20250041197306</v>
+      </c>
+      <c r="D19">
+        <v>139.202487647439</v>
+      </c>
+      <c r="E19">
+        <v>139.20094884111393</v>
+      </c>
+      <c r="F19">
+        <v>139.20074264707893</v>
+      </c>
+      <c r="G19">
+        <v>139.20613388257078</v>
+      </c>
+      <c r="H19">
+        <v>138.76352763367868</v>
+      </c>
+      <c r="I19">
+        <v>137.46365821827374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>128.81425411257209</v>
+      </c>
+      <c r="D20">
+        <v>128.83475414329422</v>
+      </c>
+      <c r="E20">
+        <v>131.70705694774205</v>
+      </c>
+      <c r="F20">
+        <v>132.18051998952777</v>
+      </c>
+      <c r="G20">
+        <v>124.06516035720092</v>
+      </c>
+      <c r="H20">
+        <v>123.80625788538022</v>
+      </c>
+      <c r="I20">
+        <v>122.99997248577242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10.432700716801408</v>
+      </c>
+      <c r="D21">
+        <v>10.412112941775911</v>
+      </c>
+      <c r="E21">
+        <v>7.5272666509210593</v>
+      </c>
+      <c r="F21">
+        <v>7.0516882404877128</v>
+      </c>
+      <c r="G21">
+        <v>15.201438384376063</v>
+      </c>
+      <c r="H21">
+        <v>15.401704405248296</v>
+      </c>
+      <c r="I21">
+        <v>15.934368299221509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1.0391557242667655</v>
+      </c>
+      <c r="D22">
+        <v>1.0391553971951093</v>
+      </c>
+      <c r="E22">
+        <v>1.0454956618531788</v>
+      </c>
+      <c r="F22">
+        <v>1.046614299839608</v>
+      </c>
+      <c r="G22">
+        <v>1.0534806670456223</v>
+      </c>
+      <c r="H22">
+        <v>1.0530112713727526</v>
+      </c>
+      <c r="I22">
+        <v>1.0506793942727906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.99340309326184617</v>
+      </c>
+      <c r="D24">
+        <v>0.99340120026759737</v>
+      </c>
+      <c r="E24">
+        <v>0.99313592055419553</v>
+      </c>
+      <c r="F24">
+        <v>0.99309218378573993</v>
+      </c>
+      <c r="G24">
+        <v>0.9938415067560199</v>
+      </c>
+      <c r="H24">
+        <v>0.95562937312479324</v>
+      </c>
+      <c r="I24">
+        <v>0.86062388525151912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.99765416264179452</v>
+      </c>
+      <c r="D25">
+        <v>0.997653488059559</v>
+      </c>
+      <c r="E25">
+        <v>0.99755894547015678</v>
+      </c>
+      <c r="F25">
+        <v>0.9975433566326557</v>
+      </c>
+      <c r="G25">
+        <v>0.99781037219784841</v>
+      </c>
+      <c r="H25">
+        <v>0.98402458292999251</v>
+      </c>
+      <c r="I25">
+        <v>0.94813301452540932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.94217065105862896</v>
+      </c>
+      <c r="D26">
+        <v>0.94215449281721775</v>
+      </c>
+      <c r="E26">
+        <v>0.93989255786930181</v>
+      </c>
+      <c r="F26">
+        <v>0.93952009565651817</v>
+      </c>
+      <c r="G26">
+        <v>0.94591949417252408</v>
+      </c>
+      <c r="H26">
+        <v>0.88467441383912149</v>
+      </c>
+      <c r="I26">
+        <v>0.80086356414527782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1.0363877164158561</v>
+      </c>
+      <c r="D27">
+        <v>1.0363983809336559</v>
+      </c>
+      <c r="E27">
+        <v>1.0378941724618791</v>
+      </c>
+      <c r="F27">
+        <v>1.0381410297991052</v>
+      </c>
+      <c r="G27">
+        <v>1.0339213288467941</v>
+      </c>
+      <c r="H27">
+        <v>1.0164693991437799</v>
+      </c>
+      <c r="I27">
+        <v>0.91162721683569548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28">
+        <v>134</v>
+      </c>
+      <c r="C28">
+        <v>138.87595398615105</v>
+      </c>
+      <c r="D28">
+        <v>138.87584734803519</v>
+      </c>
+      <c r="E28">
+        <v>138.86115173438685</v>
+      </c>
+      <c r="F28">
+        <v>138.85877606592558</v>
+      </c>
+      <c r="G28">
+        <v>138.90132426159147</v>
+      </c>
+      <c r="H28">
+        <v>136.54672240562513</v>
+      </c>
+      <c r="I28">
+        <v>130.33383265418243</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A974A849-D1F9-453D-AF47-780ADA818E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46DA6A1-3EB7-408B-AA10-986167F4266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="-16200" windowWidth="19200" windowHeight="15750" firstSheet="12" activeTab="13" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="13" activeTab="16" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="two_by_two_AuxinOutput" sheetId="15" r:id="rId13"/>
     <sheet name="two_by_two_PriceinIntput" sheetId="17" r:id="rId14"/>
     <sheet name="two_by_two_PriceinOutput" sheetId="16" r:id="rId15"/>
+    <sheet name="123" sheetId="18" r:id="rId16"/>
+    <sheet name="The123" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="253">
   <si>
     <t>X.L</t>
   </si>
@@ -729,6 +731,75 @@
   </si>
   <si>
     <t>RA/PX</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>YD</t>
+  </si>
+  <si>
+    <t>YX</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>CAHH</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>PAA</t>
+  </si>
+  <si>
+    <t>PMM</t>
+  </si>
+  <si>
+    <t>PFXX</t>
+  </si>
+  <si>
+    <t>PFXM</t>
+  </si>
+  <si>
+    <t>PXX</t>
+  </si>
+  <si>
+    <t>TAU_LS</t>
+  </si>
+  <si>
+    <t>TAU_TL</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Lump Sum F</t>
+  </si>
+  <si>
+    <t>Wage Tax F</t>
+  </si>
+  <si>
+    <t>Lump Sum R</t>
+  </si>
+  <si>
+    <t>Wage Tax R</t>
   </si>
 </sst>
 </file>
@@ -3924,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC547432-C581-4E9F-9FCD-4D8C390A851F}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5175,6 +5246,1246 @@
       </c>
       <c r="G27">
         <v>164.51731018822565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00B6D55-9979-44CC-A647-170B2883E40E}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D2">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E2">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F2">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0070022344597493</v>
+      </c>
+      <c r="D3">
+        <v>1.0647664462896207</v>
+      </c>
+      <c r="E3">
+        <v>1.0393745275783166</v>
+      </c>
+      <c r="F3">
+        <v>1.1815614680983193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0347436346818013</v>
+      </c>
+      <c r="D4">
+        <v>1.0851741633351151</v>
+      </c>
+      <c r="E4">
+        <v>1.068007736401561</v>
+      </c>
+      <c r="F4">
+        <v>1.1324982091819222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.028143742844291</v>
+      </c>
+      <c r="D5">
+        <v>1.0058066298219333</v>
+      </c>
+      <c r="E5">
+        <v>1.0611956758123793</v>
+      </c>
+      <c r="F5">
+        <v>1.1514791966109479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.98238636886087427</v>
+      </c>
+      <c r="D6">
+        <v>1.0386148317802442</v>
+      </c>
+      <c r="E6">
+        <v>1.0139673311008839</v>
+      </c>
+      <c r="F6">
+        <v>1.1514791966109481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>35.583000148600661</v>
+      </c>
+      <c r="C7">
+        <v>34.956254142742267</v>
+      </c>
+      <c r="D7">
+        <v>36.957031549322892</v>
+      </c>
+      <c r="E7">
+        <v>36.07999954124368</v>
+      </c>
+      <c r="F7">
+        <v>40.973084253007229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>414.18399999999997</v>
+      </c>
+      <c r="C8">
+        <v>414.18399999999997</v>
+      </c>
+      <c r="D8">
+        <v>427.49885183400283</v>
+      </c>
+      <c r="E8">
+        <v>427.49885184051067</v>
+      </c>
+      <c r="F8">
+        <v>441.241739054047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D9">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E9">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F9">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.0033052715012549</v>
+      </c>
+      <c r="D10">
+        <v>0.99522228336449259</v>
+      </c>
+      <c r="E10">
+        <v>1.0033052714923001</v>
+      </c>
+      <c r="F10">
+        <v>0.93669213122219863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.0068124561470682</v>
+      </c>
+      <c r="D11">
+        <v>0.99958436023046626</v>
+      </c>
+      <c r="E11">
+        <v>1.0068124561223903</v>
+      </c>
+      <c r="F11">
+        <v>0.9472408940241287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.1372188172900564</v>
+      </c>
+      <c r="D12">
+        <v>1.1296637752263212</v>
+      </c>
+      <c r="E12">
+        <v>1.1372188172832904</v>
+      </c>
+      <c r="F12">
+        <v>1.0749730402403119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.1866382802313127</v>
+      </c>
+      <c r="D13">
+        <v>1.1763622839379608</v>
+      </c>
+      <c r="E13">
+        <v>1.1866382802221103</v>
+      </c>
+      <c r="F13">
+        <v>1.1019746385409115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D14">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E14">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F14">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15">
+        <v>218.30799991386419</v>
+      </c>
+      <c r="C15">
+        <v>198.42331840632735</v>
+      </c>
+      <c r="D15">
+        <v>198.50418277240834</v>
+      </c>
+      <c r="E15">
+        <v>198.42331836459431</v>
+      </c>
+      <c r="F15">
+        <v>199.12799494751147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16">
+        <v>106.38600008706536</v>
+      </c>
+      <c r="C16">
+        <v>125.82581157214146</v>
+      </c>
+      <c r="D16">
+        <v>125.74927232940006</v>
+      </c>
+      <c r="E16">
+        <v>125.82581161163735</v>
+      </c>
+      <c r="F16">
+        <v>125.15817095937935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17">
+        <v>143.8619999197816</v>
+      </c>
+      <c r="C17">
+        <v>143.38806357451722</v>
+      </c>
+      <c r="D17">
+        <v>144.55263150907996</v>
+      </c>
+      <c r="E17">
+        <v>143.38806352119306</v>
+      </c>
+      <c r="F17">
+        <v>153.58514842255414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18">
+        <v>163.32000008552319</v>
+      </c>
+      <c r="C18">
+        <v>163.82689661913358</v>
+      </c>
+      <c r="D18">
+        <v>162.58710861084509</v>
+      </c>
+      <c r="E18">
+        <v>163.82689667634895</v>
+      </c>
+      <c r="F18">
+        <v>153.5909766849224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>218.30799867558773</v>
+      </c>
+      <c r="C19">
+        <v>197.73211986280506</v>
+      </c>
+      <c r="D19">
+        <v>197.63793222090473</v>
+      </c>
+      <c r="E19">
+        <v>197.73211991140732</v>
+      </c>
+      <c r="F19">
+        <v>196.91044500939407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20">
+        <v>144.70100117343947</v>
+      </c>
+      <c r="C20">
+        <v>163.44325015529287</v>
+      </c>
+      <c r="D20">
+        <v>163.53144811235779</v>
+      </c>
+      <c r="E20">
+        <v>163.4432501097871</v>
+      </c>
+      <c r="F20">
+        <v>164.21342752105784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21">
+        <v>291.69399999999996</v>
+      </c>
+      <c r="C21">
+        <v>294.51199292542111</v>
+      </c>
+      <c r="D21">
+        <v>291.52206936434942</v>
+      </c>
+      <c r="E21">
+        <v>294.51199291362445</v>
+      </c>
+      <c r="F21">
+        <v>269.87003753576283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22">
+        <v>35.583000148600661</v>
+      </c>
+      <c r="C22">
+        <v>35.582999979199407</v>
+      </c>
+      <c r="D22">
+        <v>35.582999990455043</v>
+      </c>
+      <c r="E22">
+        <v>35.582999998699101</v>
+      </c>
+      <c r="F22">
+        <v>35.582999999999878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23">
+        <v>122.48999999999998</v>
+      </c>
+      <c r="C23">
+        <v>121.4416109430898</v>
+      </c>
+      <c r="D23">
+        <v>123.99968652971447</v>
+      </c>
+      <c r="E23">
+        <v>121.44161095256374</v>
+      </c>
+      <c r="F23">
+        <v>113.32554285571725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="C24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="D24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="E24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="F24">
+        <v>413.65300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="C25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="D25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="E25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="F25">
+        <v>144.70099999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26">
+        <v>106.386</v>
+      </c>
+      <c r="C26">
+        <v>106.386</v>
+      </c>
+      <c r="D26">
+        <v>106.386</v>
+      </c>
+      <c r="E26">
+        <v>106.386</v>
+      </c>
+      <c r="F26">
+        <v>106.386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="C27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="D27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="E27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="F27">
+        <v>144.70099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28">
+        <v>106.386</v>
+      </c>
+      <c r="C28">
+        <v>106.386</v>
+      </c>
+      <c r="D28">
+        <v>106.386</v>
+      </c>
+      <c r="E28">
+        <v>106.386</v>
+      </c>
+      <c r="F28">
+        <v>106.386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29">
+        <v>0.38090042610962555</v>
+      </c>
+      <c r="E29">
+        <v>0.38090042654947287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30">
+        <v>9.09035579940565E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.11902313383111375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31">
+        <v>0.10012595030539158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C32">
+        <v>1.0041857009029531</v>
+      </c>
+      <c r="D32">
+        <v>1.0031868420707351</v>
+      </c>
+      <c r="E32">
+        <v>1.0041857008984718</v>
+      </c>
+      <c r="F32">
+        <v>0.92518199735257778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3694F3D5-F7B8-4C96-9882-2E0CBB4FB167}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D2">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E2">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F2">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0070022344597493</v>
+      </c>
+      <c r="D3">
+        <v>1.0647664462896207</v>
+      </c>
+      <c r="E3">
+        <v>1.0393745275783166</v>
+      </c>
+      <c r="F3">
+        <v>1.1815614680983193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0347436346818013</v>
+      </c>
+      <c r="D4">
+        <v>1.0851741633351151</v>
+      </c>
+      <c r="E4">
+        <v>1.068007736401561</v>
+      </c>
+      <c r="F4">
+        <v>1.1324982091819222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.028143742844291</v>
+      </c>
+      <c r="D5">
+        <v>1.0058066298219333</v>
+      </c>
+      <c r="E5">
+        <v>1.0611956758123793</v>
+      </c>
+      <c r="F5">
+        <v>1.1514791966109479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.98238636886087427</v>
+      </c>
+      <c r="D6">
+        <v>1.0386148317802442</v>
+      </c>
+      <c r="E6">
+        <v>1.0139673311008839</v>
+      </c>
+      <c r="F6">
+        <v>1.1514791966109481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>35.583000148600661</v>
+      </c>
+      <c r="C7">
+        <v>34.956254142742267</v>
+      </c>
+      <c r="D7">
+        <v>36.957031549322892</v>
+      </c>
+      <c r="E7">
+        <v>36.07999954124368</v>
+      </c>
+      <c r="F7">
+        <v>40.973084253007229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>414.18399999999997</v>
+      </c>
+      <c r="C8">
+        <v>414.18399999999997</v>
+      </c>
+      <c r="D8">
+        <v>427.49885183400283</v>
+      </c>
+      <c r="E8">
+        <v>427.49885184051067</v>
+      </c>
+      <c r="F8">
+        <v>441.241739054047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D9">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E9">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F9">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.0033052715012549</v>
+      </c>
+      <c r="D10">
+        <v>0.99522228336449259</v>
+      </c>
+      <c r="E10">
+        <v>1.0033052714923001</v>
+      </c>
+      <c r="F10">
+        <v>0.93669213122219863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.0068124561470682</v>
+      </c>
+      <c r="D11">
+        <v>0.99958436023046626</v>
+      </c>
+      <c r="E11">
+        <v>1.0068124561223903</v>
+      </c>
+      <c r="F11">
+        <v>0.9472408940241287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.1372188172900564</v>
+      </c>
+      <c r="D12">
+        <v>1.1296637752263212</v>
+      </c>
+      <c r="E12">
+        <v>1.1372188172832904</v>
+      </c>
+      <c r="F12">
+        <v>1.0749730402403119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.1866382802313127</v>
+      </c>
+      <c r="D13">
+        <v>1.1763622839379608</v>
+      </c>
+      <c r="E13">
+        <v>1.1866382802221103</v>
+      </c>
+      <c r="F13">
+        <v>1.1019746385409115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D14">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E14">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F14">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15">
+        <v>218.30799991386419</v>
+      </c>
+      <c r="C15">
+        <v>198.42331840632735</v>
+      </c>
+      <c r="D15">
+        <v>198.50418277240834</v>
+      </c>
+      <c r="E15">
+        <v>198.42331836459431</v>
+      </c>
+      <c r="F15">
+        <v>199.12799494751147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16">
+        <v>106.38600008706536</v>
+      </c>
+      <c r="C16">
+        <v>125.82581157214146</v>
+      </c>
+      <c r="D16">
+        <v>125.74927232940006</v>
+      </c>
+      <c r="E16">
+        <v>125.82581161163735</v>
+      </c>
+      <c r="F16">
+        <v>125.15817095937935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17">
+        <v>143.8619999197816</v>
+      </c>
+      <c r="C17">
+        <v>143.38806357451722</v>
+      </c>
+      <c r="D17">
+        <v>144.55263150907996</v>
+      </c>
+      <c r="E17">
+        <v>143.38806352119306</v>
+      </c>
+      <c r="F17">
+        <v>153.58514842255414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18">
+        <v>163.32000008552319</v>
+      </c>
+      <c r="C18">
+        <v>163.82689661913358</v>
+      </c>
+      <c r="D18">
+        <v>162.58710861084509</v>
+      </c>
+      <c r="E18">
+        <v>163.82689667634895</v>
+      </c>
+      <c r="F18">
+        <v>153.5909766849224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>218.30799867558773</v>
+      </c>
+      <c r="C19">
+        <v>197.73211986280506</v>
+      </c>
+      <c r="D19">
+        <v>197.63793222090473</v>
+      </c>
+      <c r="E19">
+        <v>197.73211991140732</v>
+      </c>
+      <c r="F19">
+        <v>196.91044500939407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20">
+        <v>144.70100117343947</v>
+      </c>
+      <c r="C20">
+        <v>163.44325015529287</v>
+      </c>
+      <c r="D20">
+        <v>163.53144811235779</v>
+      </c>
+      <c r="E20">
+        <v>163.4432501097871</v>
+      </c>
+      <c r="F20">
+        <v>164.21342752105784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21">
+        <v>291.69399999999996</v>
+      </c>
+      <c r="C21">
+        <v>294.51199292542111</v>
+      </c>
+      <c r="D21">
+        <v>291.52206936434942</v>
+      </c>
+      <c r="E21">
+        <v>294.51199291362445</v>
+      </c>
+      <c r="F21">
+        <v>269.87003753576283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22">
+        <v>35.583000148600661</v>
+      </c>
+      <c r="C22">
+        <v>35.582999979199407</v>
+      </c>
+      <c r="D22">
+        <v>35.582999990455043</v>
+      </c>
+      <c r="E22">
+        <v>35.582999998699101</v>
+      </c>
+      <c r="F22">
+        <v>35.582999999999878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23">
+        <v>122.48999999999998</v>
+      </c>
+      <c r="C23">
+        <v>121.4416109430898</v>
+      </c>
+      <c r="D23">
+        <v>123.99968652971447</v>
+      </c>
+      <c r="E23">
+        <v>121.44161095256374</v>
+      </c>
+      <c r="F23">
+        <v>113.32554285571725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="C24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="D24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="E24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="F24">
+        <v>413.65300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="C25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="D25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="E25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="F25">
+        <v>144.70099999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26">
+        <v>106.386</v>
+      </c>
+      <c r="C26">
+        <v>106.386</v>
+      </c>
+      <c r="D26">
+        <v>106.386</v>
+      </c>
+      <c r="E26">
+        <v>106.386</v>
+      </c>
+      <c r="F26">
+        <v>106.386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="C27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="D27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="E27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="F27">
+        <v>144.70099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28">
+        <v>106.386</v>
+      </c>
+      <c r="C28">
+        <v>106.386</v>
+      </c>
+      <c r="D28">
+        <v>106.386</v>
+      </c>
+      <c r="E28">
+        <v>106.386</v>
+      </c>
+      <c r="F28">
+        <v>106.386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29">
+        <v>0.38090042610962555</v>
+      </c>
+      <c r="E29">
+        <v>0.38090042654947287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30">
+        <v>9.09035579940565E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.11902313383111375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31">
+        <v>0.10012595030539158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C32">
+        <v>1.0041857009029531</v>
+      </c>
+      <c r="D32">
+        <v>1.0031868420707351</v>
+      </c>
+      <c r="E32">
+        <v>1.0041857008984718</v>
+      </c>
+      <c r="F32">
+        <v>0.92518199735257778</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46DA6A1-3EB7-408B-AA10-986167F4266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA0310-A59A-4C5C-8242-EE447E93296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="13" activeTab="16" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="14" activeTab="17" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="two_by_two_PriceinOutput" sheetId="16" r:id="rId15"/>
     <sheet name="123" sheetId="18" r:id="rId16"/>
     <sheet name="The123" sheetId="19" r:id="rId17"/>
+    <sheet name="The123Nested" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="255">
   <si>
     <t>X.L</t>
   </si>
@@ -800,6 +801,12 @@
   </si>
   <si>
     <t>Wage Tax R</t>
+  </si>
+  <si>
+    <t>PDHHC</t>
+  </si>
+  <si>
+    <t>PMHHC</t>
   </si>
 </sst>
 </file>
@@ -5877,6 +5884,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3694F3D5-F7B8-4C96-9882-2E0CBB4FB167}">
   <dimension ref="A1:F32"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D2">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E2">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F2">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0070022344597493</v>
+      </c>
+      <c r="D3">
+        <v>1.0647664462896207</v>
+      </c>
+      <c r="E3">
+        <v>1.0393745275783166</v>
+      </c>
+      <c r="F3">
+        <v>1.1815614680983193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0347436346818013</v>
+      </c>
+      <c r="D4">
+        <v>1.0851741633351151</v>
+      </c>
+      <c r="E4">
+        <v>1.068007736401561</v>
+      </c>
+      <c r="F4">
+        <v>1.1324982091819222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.028143742844291</v>
+      </c>
+      <c r="D5">
+        <v>1.0058066298219333</v>
+      </c>
+      <c r="E5">
+        <v>1.0611956758123793</v>
+      </c>
+      <c r="F5">
+        <v>1.1514791966109479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.98238636886087427</v>
+      </c>
+      <c r="D6">
+        <v>1.0386148317802442</v>
+      </c>
+      <c r="E6">
+        <v>1.0139673311008839</v>
+      </c>
+      <c r="F6">
+        <v>1.1514791966109481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7">
+        <v>35.583000148600661</v>
+      </c>
+      <c r="C7">
+        <v>34.956254142742267</v>
+      </c>
+      <c r="D7">
+        <v>36.957031549322892</v>
+      </c>
+      <c r="E7">
+        <v>36.07999954124368</v>
+      </c>
+      <c r="F7">
+        <v>40.973084253007229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>414.18399999999997</v>
+      </c>
+      <c r="C8">
+        <v>414.18399999999997</v>
+      </c>
+      <c r="D8">
+        <v>427.49885183400283</v>
+      </c>
+      <c r="E8">
+        <v>427.49885184051067</v>
+      </c>
+      <c r="F8">
+        <v>441.241739054047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D9">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E9">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F9">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.0033052715012549</v>
+      </c>
+      <c r="D10">
+        <v>0.99522228336449259</v>
+      </c>
+      <c r="E10">
+        <v>1.0033052714923001</v>
+      </c>
+      <c r="F10">
+        <v>0.93669213122219863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.0068124561470682</v>
+      </c>
+      <c r="D11">
+        <v>0.99958436023046626</v>
+      </c>
+      <c r="E11">
+        <v>1.0068124561223903</v>
+      </c>
+      <c r="F11">
+        <v>0.9472408940241287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.1372188172900564</v>
+      </c>
+      <c r="D12">
+        <v>1.1296637752263212</v>
+      </c>
+      <c r="E12">
+        <v>1.1372188172832904</v>
+      </c>
+      <c r="F12">
+        <v>1.0749730402403119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.1866382802313127</v>
+      </c>
+      <c r="D13">
+        <v>1.1763622839379608</v>
+      </c>
+      <c r="E13">
+        <v>1.1866382802221103</v>
+      </c>
+      <c r="F13">
+        <v>1.1019746385409115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.0755261761982433</v>
+      </c>
+      <c r="D14">
+        <v>1.1369322976554099</v>
+      </c>
+      <c r="E14">
+        <v>1.1101013217020295</v>
+      </c>
+      <c r="F14">
+        <v>1.2591699016841988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15">
+        <v>218.30799991386419</v>
+      </c>
+      <c r="C15">
+        <v>198.42331840632735</v>
+      </c>
+      <c r="D15">
+        <v>198.50418277240834</v>
+      </c>
+      <c r="E15">
+        <v>198.42331836459431</v>
+      </c>
+      <c r="F15">
+        <v>199.12799494751147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16">
+        <v>106.38600008706536</v>
+      </c>
+      <c r="C16">
+        <v>125.82581157214146</v>
+      </c>
+      <c r="D16">
+        <v>125.74927232940006</v>
+      </c>
+      <c r="E16">
+        <v>125.82581161163735</v>
+      </c>
+      <c r="F16">
+        <v>125.15817095937935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17">
+        <v>143.8619999197816</v>
+      </c>
+      <c r="C17">
+        <v>143.38806357451722</v>
+      </c>
+      <c r="D17">
+        <v>144.55263150907996</v>
+      </c>
+      <c r="E17">
+        <v>143.38806352119306</v>
+      </c>
+      <c r="F17">
+        <v>153.58514842255414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18">
+        <v>163.32000008552319</v>
+      </c>
+      <c r="C18">
+        <v>163.82689661913358</v>
+      </c>
+      <c r="D18">
+        <v>162.58710861084509</v>
+      </c>
+      <c r="E18">
+        <v>163.82689667634895</v>
+      </c>
+      <c r="F18">
+        <v>153.5909766849224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>218.30799867558773</v>
+      </c>
+      <c r="C19">
+        <v>197.73211986280506</v>
+      </c>
+      <c r="D19">
+        <v>197.63793222090473</v>
+      </c>
+      <c r="E19">
+        <v>197.73211991140732</v>
+      </c>
+      <c r="F19">
+        <v>196.91044500939407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20">
+        <v>144.70100117343947</v>
+      </c>
+      <c r="C20">
+        <v>163.44325015529287</v>
+      </c>
+      <c r="D20">
+        <v>163.53144811235779</v>
+      </c>
+      <c r="E20">
+        <v>163.4432501097871</v>
+      </c>
+      <c r="F20">
+        <v>164.21342752105784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21">
+        <v>291.69399999999996</v>
+      </c>
+      <c r="C21">
+        <v>294.51199292542111</v>
+      </c>
+      <c r="D21">
+        <v>291.52206936434942</v>
+      </c>
+      <c r="E21">
+        <v>294.51199291362445</v>
+      </c>
+      <c r="F21">
+        <v>269.87003753576283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22">
+        <v>35.583000148600661</v>
+      </c>
+      <c r="C22">
+        <v>35.582999979199407</v>
+      </c>
+      <c r="D22">
+        <v>35.582999990455043</v>
+      </c>
+      <c r="E22">
+        <v>35.582999998699101</v>
+      </c>
+      <c r="F22">
+        <v>35.582999999999878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23">
+        <v>122.48999999999998</v>
+      </c>
+      <c r="C23">
+        <v>121.4416109430898</v>
+      </c>
+      <c r="D23">
+        <v>123.99968652971447</v>
+      </c>
+      <c r="E23">
+        <v>121.44161095256374</v>
+      </c>
+      <c r="F23">
+        <v>113.32554285571725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="C24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="D24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="E24">
+        <v>413.65300000000002</v>
+      </c>
+      <c r="F24">
+        <v>413.65300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="C25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="D25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="E25">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="F25">
+        <v>144.70099999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26">
+        <v>106.386</v>
+      </c>
+      <c r="C26">
+        <v>106.386</v>
+      </c>
+      <c r="D26">
+        <v>106.386</v>
+      </c>
+      <c r="E26">
+        <v>106.386</v>
+      </c>
+      <c r="F26">
+        <v>106.386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="C27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="D27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="E27">
+        <v>144.70099999999999</v>
+      </c>
+      <c r="F27">
+        <v>144.70099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28">
+        <v>106.386</v>
+      </c>
+      <c r="C28">
+        <v>106.386</v>
+      </c>
+      <c r="D28">
+        <v>106.386</v>
+      </c>
+      <c r="E28">
+        <v>106.386</v>
+      </c>
+      <c r="F28">
+        <v>106.386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29">
+        <v>0.38090042610962555</v>
+      </c>
+      <c r="E29">
+        <v>0.38090042654947287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30">
+        <v>9.09035579940565E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.11902313383111375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31">
+        <v>0.10012595030539158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C32">
+        <v>1.0041857009029531</v>
+      </c>
+      <c r="D32">
+        <v>1.0031868420707351</v>
+      </c>
+      <c r="E32">
+        <v>1.0041857008984718</v>
+      </c>
+      <c r="F32">
+        <v>0.92518199735257778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC21389E-4BBB-4228-B023-E87E0DD3496F}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5906,16 +6533,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0755261761982433</v>
+        <v>1.0574822307388072</v>
       </c>
       <c r="D2">
-        <v>1.1369322976554099</v>
+        <v>1.1208854073780947</v>
       </c>
       <c r="E2">
-        <v>1.1101013217020295</v>
+        <v>1.093845224084691</v>
       </c>
       <c r="F2">
-        <v>1.2591699016841988</v>
+        <v>1.2159780481743121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5926,16 +6553,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0070022344597493</v>
+        <v>1.021386644660353</v>
       </c>
       <c r="D3">
-        <v>1.0647664462896207</v>
+        <v>1.0829933415282671</v>
       </c>
       <c r="E3">
-        <v>1.0393745275783166</v>
+        <v>1.0565084411957109</v>
       </c>
       <c r="F3">
-        <v>1.1815614680983193</v>
+        <v>1.1770495671905572</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5946,16 +6573,16 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.0347436346818013</v>
+        <v>1.0378734693729745</v>
       </c>
       <c r="D4">
-        <v>1.0851741633351151</v>
+        <v>1.0908152401097198</v>
       </c>
       <c r="E4">
-        <v>1.068007736401561</v>
+        <v>1.0735621882843041</v>
       </c>
       <c r="F4">
-        <v>1.1324982091819222</v>
+        <v>1.1308395339573694</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5966,16 +6593,16 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.028143742844291</v>
+        <v>1.0297727391968678</v>
       </c>
       <c r="D5">
-        <v>1.0058066298219333</v>
+        <v>1.0063236931541308</v>
       </c>
       <c r="E5">
-        <v>1.0611956758123793</v>
+        <v>1.0651829032082272</v>
       </c>
       <c r="F5">
-        <v>1.1514791966109479</v>
+        <v>1.1300212683742732</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5986,16 +6613,16 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.98238636886087427</v>
+        <v>0.98163793480205663</v>
       </c>
       <c r="D6">
-        <v>1.0386148317802442</v>
+        <v>1.0406731332718653</v>
       </c>
       <c r="E6">
-        <v>1.0139673311008839</v>
+        <v>1.0153929168191886</v>
       </c>
       <c r="F6">
-        <v>1.1514791966109481</v>
+        <v>1.1300212683742734</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,19 +6630,19 @@
         <v>142</v>
       </c>
       <c r="B7">
-        <v>35.583000148600661</v>
+        <v>35.583000010682497</v>
       </c>
       <c r="C7">
-        <v>34.956254142742267</v>
+        <v>34.929622632672398</v>
       </c>
       <c r="D7">
-        <v>36.957031549322892</v>
+        <v>37.030272059403188</v>
       </c>
       <c r="E7">
-        <v>36.07999954124368</v>
+        <v>36.130726157936543</v>
       </c>
       <c r="F7">
-        <v>40.973084253007229</v>
+        <v>40.20954679256181</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6029,13 +6656,13 @@
         <v>414.18399999999997</v>
       </c>
       <c r="D8">
-        <v>427.49885183400283</v>
+        <v>428.42629130657741</v>
       </c>
       <c r="E8">
-        <v>427.49885184051067</v>
+        <v>428.42629132493204</v>
       </c>
       <c r="F8">
-        <v>441.241739054047</v>
+        <v>443.1583236012043</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6046,16 +6673,16 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.0755261761982433</v>
+        <v>1.0574822307388074</v>
       </c>
       <c r="D9">
-        <v>1.1369322976554099</v>
+        <v>1.1208854073780949</v>
       </c>
       <c r="E9">
-        <v>1.1101013217020295</v>
+        <v>1.093845224084691</v>
       </c>
       <c r="F9">
-        <v>1.2591699016841988</v>
+        <v>1.2159780481743123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,16 +6693,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1.0033052715012549</v>
+        <v>1.0040490717945083</v>
       </c>
       <c r="D10">
-        <v>0.99522228336449259</v>
+        <v>0.99535920768400654</v>
       </c>
       <c r="E10">
-        <v>1.0033052714923001</v>
+        <v>1.0040490717929504</v>
       </c>
       <c r="F10">
-        <v>0.93669213122219863</v>
+        <v>0.95006363418230078</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6086,16 +6713,16 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.0068124561470682</v>
+        <v>0.99999999999534794</v>
       </c>
       <c r="D11">
-        <v>0.99958436023046626</v>
+        <v>1.0000000000678941</v>
       </c>
       <c r="E11">
-        <v>1.0068124561223903</v>
+        <v>0.99999999998997346</v>
       </c>
       <c r="F11">
-        <v>0.9472408940241287</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6106,16 +6733,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1.1372188172900564</v>
+        <v>1.0733288863492836</v>
       </c>
       <c r="D12">
-        <v>1.1296637752263212</v>
+        <v>1.0656392915983663</v>
       </c>
       <c r="E12">
-        <v>1.1372188172832904</v>
+        <v>1.0733288863487671</v>
       </c>
       <c r="F12">
-        <v>1.0749730402403119</v>
+        <v>1.0255960162277276</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6126,16 +6753,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1.1866382802313127</v>
+        <v>1.0997383413572057</v>
       </c>
       <c r="D13">
-        <v>1.1763622839379608</v>
+        <v>1.0892793331225463</v>
       </c>
       <c r="E13">
-        <v>1.1866382802221103</v>
+        <v>1.0997383413565034</v>
       </c>
       <c r="F13">
-        <v>1.1019746385409115</v>
+        <v>1.0348144412250524</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6146,16 +6773,16 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1.0755261761982433</v>
+        <v>0.93693736312063669</v>
       </c>
       <c r="D14">
-        <v>1.1369322976554099</v>
+        <v>0.99311306367343266</v>
       </c>
       <c r="E14">
-        <v>1.1101013217020295</v>
+        <v>0.96915525398473434</v>
       </c>
       <c r="F14">
-        <v>1.2591699016841988</v>
+        <v>1.077365872401518</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,16 +6793,16 @@
         <v>218.30799991386419</v>
       </c>
       <c r="C15">
-        <v>198.42331840632735</v>
+        <v>208.10018361533406</v>
       </c>
       <c r="D15">
-        <v>198.50418277240834</v>
+        <v>208.20318131403775</v>
       </c>
       <c r="E15">
-        <v>198.42331836459431</v>
+        <v>208.10018361109925</v>
       </c>
       <c r="F15">
-        <v>199.12799494751147</v>
+        <v>208.76394986753999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6186,16 +6813,16 @@
         <v>106.38600008706536</v>
       </c>
       <c r="C16">
-        <v>125.82581157214146</v>
+        <v>116.52494531022273</v>
       </c>
       <c r="D16">
-        <v>125.74927232940006</v>
+        <v>116.42437246751885</v>
       </c>
       <c r="E16">
-        <v>125.82581161163735</v>
+        <v>116.52494531435714</v>
       </c>
       <c r="F16">
-        <v>125.15817095937935</v>
+        <v>115.87620574375572</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6206,16 +6833,16 @@
         <v>143.8619999197816</v>
       </c>
       <c r="C17">
-        <v>143.38806357451722</v>
+        <v>143.28184154070982</v>
       </c>
       <c r="D17">
-        <v>144.55263150907996</v>
+        <v>144.53274644770912</v>
       </c>
       <c r="E17">
-        <v>143.38806352119306</v>
+        <v>143.28184153681914</v>
       </c>
       <c r="F17">
-        <v>153.58514842255414</v>
+        <v>151.42354135448923</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6226,16 +6853,16 @@
         <v>163.32000008552319</v>
       </c>
       <c r="C18">
-        <v>163.82689661913358</v>
+        <v>163.94095191372836</v>
       </c>
       <c r="D18">
-        <v>162.58710861084509</v>
+        <v>162.60811549096849</v>
       </c>
       <c r="E18">
-        <v>163.82689667634895</v>
+        <v>163.94095191790899</v>
       </c>
       <c r="F18">
-        <v>153.5909766849224</v>
+        <v>155.64913036779717</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6243,19 +6870,19 @@
         <v>236</v>
       </c>
       <c r="B19">
-        <v>218.30799867558773</v>
+        <v>51.445328799999999</v>
       </c>
       <c r="C19">
-        <v>197.73211986280506</v>
+        <v>43.892526476037276</v>
       </c>
       <c r="D19">
-        <v>197.63793222090473</v>
+        <v>43.863185803202192</v>
       </c>
       <c r="E19">
-        <v>197.73211991140732</v>
+        <v>43.892526477243379</v>
       </c>
       <c r="F19">
-        <v>196.91044500939407</v>
+        <v>43.70321723812647</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6263,229 +6890,249 @@
         <v>237</v>
       </c>
       <c r="B20">
-        <v>144.70100117343947</v>
+        <v>38.486671200000004</v>
       </c>
       <c r="C20">
-        <v>163.44325015529287</v>
+        <v>46.373881647352938</v>
       </c>
       <c r="D20">
-        <v>163.53144811235779</v>
+        <v>46.40587232379157</v>
       </c>
       <c r="E20">
-        <v>163.4432501097871</v>
+        <v>46.373881646038136</v>
       </c>
       <c r="F20">
-        <v>164.21342752105784</v>
+        <v>46.580480256246055</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B21">
-        <v>291.69399999999996</v>
+        <v>166.86267100000001</v>
       </c>
       <c r="C21">
-        <v>294.51199292542111</v>
+        <v>165.05026971742276</v>
       </c>
       <c r="D21">
-        <v>291.52206936434942</v>
+        <v>163.37376779290139</v>
       </c>
       <c r="E21">
-        <v>294.51199291362445</v>
+        <v>165.05026971788689</v>
       </c>
       <c r="F21">
-        <v>269.87003753576283</v>
+        <v>154.63581965928029</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B22">
-        <v>35.583000148600661</v>
+        <v>124.831329</v>
       </c>
       <c r="C22">
-        <v>35.582999979199407</v>
+        <v>128.92004541555693</v>
       </c>
       <c r="D22">
-        <v>35.582999990455043</v>
+        <v>127.63220550400438</v>
       </c>
       <c r="E22">
-        <v>35.582999998699101</v>
+        <v>128.92004541501973</v>
       </c>
       <c r="F22">
-        <v>35.582999999999878</v>
+        <v>120.91780992203401</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23">
-        <v>122.48999999999998</v>
+        <v>35.583000010682497</v>
       </c>
       <c r="C23">
-        <v>121.4416109430898</v>
+        <v>35.582999998584832</v>
       </c>
       <c r="D23">
-        <v>123.99968652971447</v>
+        <v>35.58299995982447</v>
       </c>
       <c r="E23">
-        <v>121.44161095256374</v>
+        <v>35.582999998778163</v>
       </c>
       <c r="F23">
-        <v>113.32554285571725</v>
+        <v>35.583000000000034</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24">
-        <v>413.65300000000002</v>
+        <v>122.49</v>
       </c>
       <c r="C24">
-        <v>413.65300000000002</v>
+        <v>121.20523939719774</v>
       </c>
       <c r="D24">
-        <v>413.65300000000002</v>
+        <v>123.95651502786397</v>
       </c>
       <c r="E24">
-        <v>413.65300000000002</v>
+        <v>121.20523939823869</v>
       </c>
       <c r="F24">
-        <v>413.65300000000002</v>
+        <v>115.81337527552746</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25">
-        <v>144.70099999999999</v>
+        <v>121.959</v>
       </c>
       <c r="C25">
-        <v>144.70099999999999</v>
+        <v>121.959</v>
       </c>
       <c r="D25">
-        <v>144.70099999999999</v>
+        <v>121.959</v>
       </c>
       <c r="E25">
-        <v>144.70099999999999</v>
+        <v>121.959</v>
       </c>
       <c r="F25">
-        <v>144.70099999999999</v>
+        <v>121.959</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26">
-        <v>106.386</v>
+        <v>163.31800000000001</v>
       </c>
       <c r="C26">
-        <v>106.386</v>
+        <v>163.31800000000001</v>
       </c>
       <c r="D26">
-        <v>106.386</v>
+        <v>163.31800000000001</v>
       </c>
       <c r="E26">
-        <v>106.386</v>
+        <v>163.31800000000001</v>
       </c>
       <c r="F26">
-        <v>106.386</v>
+        <v>163.31800000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27">
-        <v>144.70099999999999</v>
+        <v>106.386</v>
       </c>
       <c r="C27">
-        <v>144.70099999999999</v>
+        <v>106.386</v>
       </c>
       <c r="D27">
-        <v>144.70099999999999</v>
+        <v>106.386</v>
       </c>
       <c r="E27">
-        <v>144.70099999999999</v>
+        <v>106.386</v>
       </c>
       <c r="F27">
-        <v>144.70099999999999</v>
+        <v>106.386</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28">
-        <v>106.386</v>
+        <v>144.70099999999999</v>
       </c>
       <c r="C28">
-        <v>106.386</v>
+        <v>144.70099999999999</v>
       </c>
       <c r="D28">
-        <v>106.386</v>
+        <v>144.70099999999999</v>
       </c>
       <c r="E28">
-        <v>106.386</v>
+        <v>144.70099999999999</v>
       </c>
       <c r="F28">
-        <v>106.386</v>
+        <v>144.70099999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="B29">
+        <v>106.386</v>
       </c>
       <c r="C29">
-        <v>0.38090042610962555</v>
+        <v>106.386</v>
+      </c>
+      <c r="D29">
+        <v>106.386</v>
       </c>
       <c r="E29">
-        <v>0.38090042654947287</v>
+        <v>106.386</v>
+      </c>
+      <c r="F29">
+        <v>106.386</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30">
-        <v>9.09035579940565E-2</v>
-      </c>
-      <c r="F30">
-        <v>0.11902313383111375</v>
+        <v>246</v>
+      </c>
+      <c r="C30">
+        <v>0.40774249079963698</v>
+      </c>
+      <c r="E30">
+        <v>0.40774249079698927</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="D31">
+        <v>9.5814285352822548E-2</v>
       </c>
       <c r="F31">
-        <v>0.10012595030539158</v>
+        <v>0.10751460657981388</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32">
+        <v>7.7394234876065712E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B32">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="C32">
-        <v>1.0041857009029531</v>
-      </c>
-      <c r="D32">
-        <v>1.0031868420707351</v>
-      </c>
-      <c r="E32">
-        <v>1.0041857008984718</v>
-      </c>
-      <c r="F32">
-        <v>0.92518199735257778</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1.001987242980396</v>
+      </c>
+      <c r="D33">
+        <v>1.0015004288360945</v>
+      </c>
+      <c r="E33">
+        <v>1.0019872429829184</v>
+      </c>
+      <c r="F33">
+        <v>0.94459176904078701</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8ED1DD-6AD1-4768-9648-D97791C9EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE8EB6-CB6F-4316-B0D7-9D83F1478608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" firstSheet="11" activeTab="12" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="13" activeTab="15" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="two_by_two_PriceinIntput" sheetId="13" r:id="rId11"/>
     <sheet name="two_by_two_PriceinOutput" sheetId="14" r:id="rId12"/>
     <sheet name="two_by_two_PriceinDem" sheetId="15" r:id="rId13"/>
+    <sheet name="TwoxTwowAuxDem" sheetId="16" r:id="rId14"/>
+    <sheet name="two_by_two_AuxinInput" sheetId="17" r:id="rId15"/>
+    <sheet name="two_by_two_AuxinOutput" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="235">
   <si>
     <t>X.L</t>
   </si>
@@ -598,6 +601,150 @@
   </si>
   <si>
     <t>prU.5,eRA.6</t>
+  </si>
+  <si>
+    <t>SXX.L</t>
+  </si>
+  <si>
+    <t>SYY.L</t>
+  </si>
+  <si>
+    <t>SWW.L</t>
+  </si>
+  <si>
+    <t>DKX.L</t>
+  </si>
+  <si>
+    <t>DLX.L</t>
+  </si>
+  <si>
+    <t>DLY.L</t>
+  </si>
+  <si>
+    <t>DKY.L</t>
+  </si>
+  <si>
+    <t>DXW.L</t>
+  </si>
+  <si>
+    <t>DYW.L</t>
+  </si>
+  <si>
+    <t>CWCONS.L</t>
+  </si>
+  <si>
+    <t>UnEmp=.1</t>
+  </si>
+  <si>
+    <t>TKX=0.25</t>
+  </si>
+  <si>
+    <t>&amp;TY=.5</t>
+  </si>
+  <si>
+    <t>TY=0.5</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PKS</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>SXX</t>
+  </si>
+  <si>
+    <t>SYY</t>
+  </si>
+  <si>
+    <t>SWW</t>
+  </si>
+  <si>
+    <t>SLSTL</t>
+  </si>
+  <si>
+    <t>SKSTK</t>
+  </si>
+  <si>
+    <t>DLSX</t>
+  </si>
+  <si>
+    <t>DKSX</t>
+  </si>
+  <si>
+    <t>DLSY</t>
+  </si>
+  <si>
+    <t>DKSY</t>
+  </si>
+  <si>
+    <t>DXW</t>
+  </si>
+  <si>
+    <t>DYW</t>
+  </si>
+  <si>
+    <t>DLW</t>
+  </si>
+  <si>
+    <t>DLTL</t>
+  </si>
+  <si>
+    <t>DKTK</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>CWCONS</t>
+  </si>
+  <si>
+    <t>L.15,K.25</t>
+  </si>
+  <si>
+    <t>L.1,K.3</t>
+  </si>
+  <si>
+    <t>L.05,K.35</t>
+  </si>
+  <si>
+    <t>L.0,K.4</t>
+  </si>
+  <si>
+    <t>L-.05,K.45</t>
+  </si>
+  <si>
+    <t>SHAREX</t>
+  </si>
+  <si>
+    <t>MARKUP</t>
+  </si>
+  <si>
+    <t>DLX</t>
+  </si>
+  <si>
+    <t>DKX</t>
+  </si>
+  <si>
+    <t>S.5,M.FX=0</t>
+  </si>
+  <si>
+    <t>S.FX.2,M.5</t>
   </si>
 </sst>
 </file>
@@ -3573,7 +3720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A14072-42EB-4D8D-A8E8-16263FAFBB19}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4384,6 +4531,1485 @@
       </c>
       <c r="I28">
         <v>130.33383265418243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19CE32B-082C-4B1E-A36F-A00937C7D439}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D2">
+        <v>1.0371252977019936</v>
+      </c>
+      <c r="E2">
+        <v>0.98447088030257324</v>
+      </c>
+      <c r="F2">
+        <v>1.0069367675479344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>1.053409075564238</v>
+      </c>
+      <c r="E3">
+        <v>0.44661553192056858</v>
+      </c>
+      <c r="F3">
+        <v>0.41177381270347702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D4">
+        <v>1.0452354763862961</v>
+      </c>
+      <c r="E4">
+        <v>0.66308369432539305</v>
+      </c>
+      <c r="F4">
+        <v>0.64391784561311827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D6">
+        <v>0.9845418287728368</v>
+      </c>
+      <c r="E6">
+        <v>2.2042916262845966</v>
+      </c>
+      <c r="F6">
+        <v>2.4453637808572513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D7">
+        <v>0.99224081188632707</v>
+      </c>
+      <c r="E7">
+        <v>1.4846856995121664</v>
+      </c>
+      <c r="F7">
+        <v>1.5637658970763419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.0499999999722391</v>
+      </c>
+      <c r="D8">
+        <v>0.99224081188632707</v>
+      </c>
+      <c r="E8">
+        <v>1.4846856995121667</v>
+      </c>
+      <c r="F8">
+        <v>1.5637658970763419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0499999999722394</v>
+      </c>
+      <c r="D9">
+        <v>0.97310521759683544</v>
+      </c>
+      <c r="E9">
+        <v>0.704929765951823</v>
+      </c>
+      <c r="F9">
+        <v>0.84532963183954124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.19999999999999957</v>
+      </c>
+      <c r="D10">
+        <v>0.10830961355206511</v>
+      </c>
+      <c r="E10">
+        <v>0.70637102840442134</v>
+      </c>
+      <c r="F10">
+        <v>0.72063893707626925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>45.67280458551334</v>
+      </c>
+      <c r="E14">
+        <v>63.048046154598161</v>
+      </c>
+      <c r="F14">
+        <v>65.720582199051307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>40.000000000000007</v>
+      </c>
+      <c r="D15">
+        <v>44.79199395149989</v>
+      </c>
+      <c r="E15">
+        <v>29.935254602427996</v>
+      </c>
+      <c r="F15">
+        <v>28.421418146269836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>60.000000000000014</v>
+      </c>
+      <c r="D16">
+        <v>59.53444871317862</v>
+      </c>
+      <c r="E16">
+        <v>44.540570960010214</v>
+      </c>
+      <c r="F16">
+        <v>46.91297691147642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>40.470107896625159</v>
+      </c>
+      <c r="E17">
+        <v>62.539326087466797</v>
+      </c>
+      <c r="F17">
+        <v>57.855863291935997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>99.224081188632667</v>
+      </c>
+      <c r="E18">
+        <v>148.46856994948786</v>
+      </c>
+      <c r="F18">
+        <v>156.37658970757903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>100.78198639087648</v>
+      </c>
+      <c r="E19">
+        <v>67.354322894079274</v>
+      </c>
+      <c r="F19">
+        <v>63.948190830224604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>210</v>
+      </c>
+      <c r="D20">
+        <v>207.42505954038575</v>
+      </c>
+      <c r="E20">
+        <v>196.89417562455813</v>
+      </c>
+      <c r="F20">
+        <v>201.38735349872735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>200.00000000000006</v>
+      </c>
+      <c r="D21">
+        <v>209.0470952772589</v>
+      </c>
+      <c r="E21">
+        <v>132.61673880825623</v>
+      </c>
+      <c r="F21">
+        <v>128.78356912325972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D22">
+        <v>1.0452354763862945</v>
+      </c>
+      <c r="E22">
+        <v>0.66308369404128109</v>
+      </c>
+      <c r="F22">
+        <v>0.64391784561629861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C81B5D1-B345-4C07-AAF1-065CD1BD27E8}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.006387575650056</v>
+      </c>
+      <c r="D2">
+        <v>1.0126852580817098</v>
+      </c>
+      <c r="E2">
+        <v>1.0193022237638398</v>
+      </c>
+      <c r="F2">
+        <v>1.026928314669364</v>
+      </c>
+      <c r="G2">
+        <v>1.0377545680283367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0095966476462173</v>
+      </c>
+      <c r="D3">
+        <v>1.0190881035617243</v>
+      </c>
+      <c r="E3">
+        <v>1.0290926053375762</v>
+      </c>
+      <c r="F3">
+        <v>1.0406631890486693</v>
+      </c>
+      <c r="G3">
+        <v>1.0571630630829592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0008350269671129</v>
+      </c>
+      <c r="D4">
+        <v>1.0014491088570601</v>
+      </c>
+      <c r="E4">
+        <v>1.001862188438271</v>
+      </c>
+      <c r="F4">
+        <v>1.0020312308441757</v>
+      </c>
+      <c r="G4">
+        <v>1.0016777194890492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0160455226090923</v>
+      </c>
+      <c r="D5">
+        <v>1.0320154991633979</v>
+      </c>
+      <c r="E5">
+        <v>1.0489563810795042</v>
+      </c>
+      <c r="F5">
+        <v>1.0686864948681873</v>
+      </c>
+      <c r="G5">
+        <v>1.0970757978651695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.99062365945204522</v>
+      </c>
+      <c r="D7">
+        <v>0.98023361021433086</v>
+      </c>
+      <c r="E7">
+        <v>0.96816873805100456</v>
+      </c>
+      <c r="F7">
+        <v>0.95318925131473309</v>
+      </c>
+      <c r="G7">
+        <v>0.93155409308673487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.98747489439651848</v>
+      </c>
+      <c r="D8">
+        <v>0.97407488427239663</v>
+      </c>
+      <c r="E8">
+        <v>0.95895796214597595</v>
+      </c>
+      <c r="F8">
+        <v>0.94060887491218026</v>
+      </c>
+      <c r="G8">
+        <v>0.91445165767240888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.99916566972116849</v>
+      </c>
+      <c r="D9">
+        <v>0.99732896542206706</v>
+      </c>
+      <c r="E9">
+        <v>0.9943694698123019</v>
+      </c>
+      <c r="F9">
+        <v>0.99001673768539966</v>
+      </c>
+      <c r="G9">
+        <v>0.98375023335117484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.0237432725840783</v>
+      </c>
+      <c r="D10">
+        <v>1.0469473301163175</v>
+      </c>
+      <c r="E10">
+        <v>1.0711351761369892</v>
+      </c>
+      <c r="F10">
+        <v>1.0991328545245336</v>
+      </c>
+      <c r="G10">
+        <v>1.1409855970537344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.95689374406213035</v>
+      </c>
+      <c r="D11">
+        <v>0.91107593331151671</v>
+      </c>
+      <c r="E11">
+        <v>0.85945629637063958</v>
+      </c>
+      <c r="F11">
+        <v>0.79586881245096153</v>
+      </c>
+      <c r="G11">
+        <v>0.69919000272678622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.99695134301753163</v>
+      </c>
+      <c r="D12">
+        <v>0.9926681265402667</v>
+      </c>
+      <c r="E12">
+        <v>0.98685654767402087</v>
+      </c>
+      <c r="F12">
+        <v>0.97885703141359282</v>
+      </c>
+      <c r="G12">
+        <v>0.96672451546625382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.98120735816782156</v>
+      </c>
+      <c r="D13">
+        <v>0.96187327355543928</v>
+      </c>
+      <c r="E13">
+        <v>0.94079845975902054</v>
+      </c>
+      <c r="F13">
+        <v>0.91594404543711139</v>
+      </c>
+      <c r="G13">
+        <v>0.88118297509381738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.0009381670421438</v>
+      </c>
+      <c r="D14">
+        <v>1.024890126404802</v>
+      </c>
+      <c r="E14">
+        <v>1.0796578594751951</v>
+      </c>
+      <c r="F14">
+        <v>1.1897677711350092</v>
+      </c>
+      <c r="G14">
+        <v>1.464804238667671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16">
+        <v>120</v>
+      </c>
+      <c r="G16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17">
+        <v>340</v>
+      </c>
+      <c r="C17">
+        <v>340</v>
+      </c>
+      <c r="D17">
+        <v>340</v>
+      </c>
+      <c r="E17">
+        <v>340</v>
+      </c>
+      <c r="F17">
+        <v>340</v>
+      </c>
+      <c r="G17">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>119.99999999999999</v>
+      </c>
+      <c r="G18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>120</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>48.460639087018805</v>
+      </c>
+      <c r="D20">
+        <v>48.916228970963118</v>
+      </c>
+      <c r="E20">
+        <v>49.396445056204186</v>
+      </c>
+      <c r="F20">
+        <v>49.951833074336434</v>
+      </c>
+      <c r="G20">
+        <v>50.74382702798205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>71.543013588470316</v>
+      </c>
+      <c r="D21">
+        <v>71.09810222416634</v>
+      </c>
+      <c r="E21">
+        <v>70.63655736385509</v>
+      </c>
+      <c r="F21">
+        <v>70.11200194940696</v>
+      </c>
+      <c r="G21">
+        <v>69.380566675601443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22">
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <v>72.459905446804385</v>
+      </c>
+      <c r="D22">
+        <v>72.913338581883423</v>
+      </c>
+      <c r="E22">
+        <v>73.389760110996932</v>
+      </c>
+      <c r="F22">
+        <v>73.938838656194577</v>
+      </c>
+      <c r="G22">
+        <v>74.718328898040255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>47.543739484384446</v>
+      </c>
+      <c r="D23">
+        <v>47.100932522162822</v>
+      </c>
+      <c r="E23">
+        <v>46.643032659100584</v>
+      </c>
+      <c r="F23">
+        <v>46.124433443138592</v>
+      </c>
+      <c r="G23">
+        <v>45.404537555464387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>120.66574992281421</v>
+      </c>
+      <c r="D24">
+        <v>121.34638684585452</v>
+      </c>
+      <c r="E24">
+        <v>122.08891428703427</v>
+      </c>
+      <c r="F24">
+        <v>122.98159375382461</v>
+      </c>
+      <c r="G24">
+        <v>124.32197077012238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>121.05051727124193</v>
+      </c>
+      <c r="D25">
+        <v>122.11361650416337</v>
+      </c>
+      <c r="E25">
+        <v>123.26157635813239</v>
+      </c>
+      <c r="F25">
+        <v>124.62643762174304</v>
+      </c>
+      <c r="G25">
+        <v>126.64708928003867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>98.313353437742862</v>
+      </c>
+      <c r="D26">
+        <v>96.658381566822541</v>
+      </c>
+      <c r="E26">
+        <v>94.927588833650503</v>
+      </c>
+      <c r="F26">
+        <v>92.9425627130626</v>
+      </c>
+      <c r="G26">
+        <v>90.141188584628551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29">
+        <v>340</v>
+      </c>
+      <c r="C29">
+        <v>340</v>
+      </c>
+      <c r="D29">
+        <v>339.58322924414983</v>
+      </c>
+      <c r="E29">
+        <v>338.71519886840156</v>
+      </c>
+      <c r="F29">
+        <v>337.28941467454194</v>
+      </c>
+      <c r="G29">
+        <v>335.03623469860844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30">
+        <v>340</v>
+      </c>
+      <c r="C30">
+        <v>340.28390916881636</v>
+      </c>
+      <c r="D30">
+        <v>340.49269701139843</v>
+      </c>
+      <c r="E30">
+        <v>340.63314406901054</v>
+      </c>
+      <c r="F30">
+        <v>340.69061848670492</v>
+      </c>
+      <c r="G30">
+        <v>340.57042462627646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E4A9CC-FD66-466A-9BFD-5A01D2004702}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.4753291369925161</v>
+      </c>
+      <c r="D2">
+        <v>1.172020118830339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.67462966970460647</v>
+      </c>
+      <c r="D3">
+        <v>0.88730009696688272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0219884210945194</v>
+      </c>
+      <c r="D4">
+        <v>1.0127539873734788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.85587331307868264</v>
+      </c>
+      <c r="D5">
+        <v>1.1577604455328296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.93361463212308304</v>
+      </c>
+      <c r="D6">
+        <v>1.1941203540878473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.89150825224546415</v>
+      </c>
+      <c r="D7">
+        <v>1.1767023168054411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.8092946958164402</v>
+      </c>
+      <c r="D8">
+        <v>1.1366179966603065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.1568021389813885</v>
+      </c>
+      <c r="D9">
+        <v>1.2858741341480677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.66719621535058538</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0.13513513513513509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>180</v>
+      </c>
+      <c r="D14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>18.507205170502843</v>
+      </c>
+      <c r="D15">
+        <v>15.416666680220644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>46.241340904254422</v>
+      </c>
+      <c r="D16">
+        <v>48.668562530759708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>69.21690975728059</v>
+      </c>
+      <c r="D17">
+        <v>63.035445027072385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>32.282603935879955</v>
+      </c>
+      <c r="D18">
+        <v>37.145792807438056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>115.48695515904296</v>
+      </c>
+      <c r="D19">
+        <v>92.580834712218973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>66.011478777535345</v>
+      </c>
+      <c r="D20">
+        <v>87.612599703686627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21">
+        <v>180</v>
+      </c>
+      <c r="C21">
+        <v>164</v>
+      </c>
+      <c r="D21">
+        <v>214.50779345311349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22">
+        <v>180</v>
+      </c>
+      <c r="C22">
+        <v>183.95791579682032</v>
+      </c>
+      <c r="D22">
+        <v>182.29571772712671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23">
+        <v>0.91978957898410163</v>
+      </c>
+      <c r="D23">
+        <v>0.91147858863563358</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA0310-A59A-4C5C-8242-EE447E93296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6550B1E6-5E9B-4C0F-BFE1-A8CE03D1C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="14" activeTab="17" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="15" activeTab="18" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="123" sheetId="18" r:id="rId16"/>
     <sheet name="The123" sheetId="19" r:id="rId17"/>
     <sheet name="The123Nested" sheetId="20" r:id="rId18"/>
+    <sheet name="two_by_two_PriceinDem" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="260">
   <si>
     <t>X.L</t>
   </si>
@@ -807,6 +808,21 @@
   </si>
   <si>
     <t>PMHHC</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>eRA=.6</t>
+  </si>
+  <si>
+    <t>pr_Ud=3</t>
+  </si>
+  <si>
+    <t>prU2,eRA.5</t>
+  </si>
+  <si>
+    <t>prU.5,eRA.6</t>
   </si>
 </sst>
 </file>
@@ -6504,7 +6520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC21389E-4BBB-4228-B023-E87E0DD3496F}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7133,6 +7149,828 @@
       </c>
       <c r="F33">
         <v>0.94459176904078701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126CD16-64E6-45FB-8C64-23F2A918E49C}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0363877164248041</v>
+      </c>
+      <c r="D2">
+        <v>1.0365191201635342</v>
+      </c>
+      <c r="E2">
+        <v>1.0750070482317526</v>
+      </c>
+      <c r="F2">
+        <v>1.0595609099982375</v>
+      </c>
+      <c r="G2">
+        <v>0.99833470833488758</v>
+      </c>
+      <c r="H2">
+        <v>0.98248710709607356</v>
+      </c>
+      <c r="I2">
+        <v>0.94048657015713999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.0432700717660239</v>
+      </c>
+      <c r="D3">
+        <v>1.0430741066727305</v>
+      </c>
+      <c r="E3">
+        <v>0.9856633946311647</v>
+      </c>
+      <c r="F3">
+        <v>1.0087067867539614</v>
+      </c>
+      <c r="G3">
+        <v>1.1000067470017649</v>
+      </c>
+      <c r="H3">
+        <v>1.1229317376964334</v>
+      </c>
+      <c r="I3">
+        <v>1.1855074833626029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0388246300487494</v>
+      </c>
+      <c r="D4">
+        <v>1.0389569047712837</v>
+      </c>
+      <c r="E4">
+        <v>1.077706227526201</v>
+      </c>
+      <c r="F4">
+        <v>1.062153685062508</v>
+      </c>
+      <c r="G4">
+        <v>1.0005254867585018</v>
+      </c>
+      <c r="H4">
+        <v>0.99843756359281455</v>
+      </c>
+      <c r="I4">
+        <v>0.99193526198210025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.0023513532505028</v>
+      </c>
+      <c r="D5">
+        <v>1.0023518955237618</v>
+      </c>
+      <c r="E5">
+        <v>1.0025108479973333</v>
+      </c>
+      <c r="F5">
+        <v>1.0024470278582356</v>
+      </c>
+      <c r="G5">
+        <v>1.0021944327924277</v>
+      </c>
+      <c r="H5">
+        <v>1.0162347743614697</v>
+      </c>
+      <c r="I5">
+        <v>1.0547043343918923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.99573893485424703</v>
+      </c>
+      <c r="D6">
+        <v>0.9957379554075485</v>
+      </c>
+      <c r="E6">
+        <v>0.99545092202416496</v>
+      </c>
+      <c r="F6">
+        <v>0.99556615181893504</v>
+      </c>
+      <c r="G6">
+        <v>0.99602242515110884</v>
+      </c>
+      <c r="H6">
+        <v>0.97114380037066661</v>
+      </c>
+      <c r="I6">
+        <v>0.90770374205596738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.94438602708152408</v>
+      </c>
+      <c r="D8">
+        <v>0.94437357942991329</v>
+      </c>
+      <c r="E8">
+        <v>0.94073225025073981</v>
+      </c>
+      <c r="F8">
+        <v>0.94219250114330766</v>
+      </c>
+      <c r="G8">
+        <v>0.94799525094925208</v>
+      </c>
+      <c r="H8">
+        <v>0.89903690333116504</v>
+      </c>
+      <c r="I8">
+        <v>0.84467427236056347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.0388246300416317</v>
+      </c>
+      <c r="D9">
+        <v>1.0388337447788984</v>
+      </c>
+      <c r="E9">
+        <v>1.0415087178322844</v>
+      </c>
+      <c r="F9">
+        <v>1.0404339284150994</v>
+      </c>
+      <c r="G9">
+        <v>1.0361901997038321</v>
+      </c>
+      <c r="H9">
+        <v>1.0329715504842174</v>
+      </c>
+      <c r="I9">
+        <v>0.96149717694622538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>53.999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>124</v>
+      </c>
+      <c r="D12">
+        <v>124</v>
+      </c>
+      <c r="E12">
+        <v>124</v>
+      </c>
+      <c r="F12">
+        <v>124.00000000000001</v>
+      </c>
+      <c r="G12">
+        <v>124</v>
+      </c>
+      <c r="H12">
+        <v>124</v>
+      </c>
+      <c r="I12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>31.841365430850797</v>
+      </c>
+      <c r="D13">
+        <v>31.841802353436101</v>
+      </c>
+      <c r="E13">
+        <v>31.970122669751873</v>
+      </c>
+      <c r="F13">
+        <v>31.918541910760322</v>
+      </c>
+      <c r="G13">
+        <v>31.715172574535519</v>
+      </c>
+      <c r="H13">
+        <v>30.827982414866039</v>
+      </c>
+      <c r="I13">
+        <v>30.648734246825121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>48.244493065345502</v>
+      </c>
+      <c r="D14">
+        <v>48.244095867355547</v>
+      </c>
+      <c r="E14">
+        <v>48.127818367352575</v>
+      </c>
+      <c r="F14">
+        <v>48.174468386726872</v>
+      </c>
+      <c r="G14">
+        <v>48.359578824249922</v>
+      </c>
+      <c r="H14">
+        <v>49.189872358276311</v>
+      </c>
+      <c r="I14">
+        <v>49.362282267302113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>25.305048730086334</v>
+      </c>
+      <c r="D15">
+        <v>25.305357380693888</v>
+      </c>
+      <c r="E15">
+        <v>25.395985012953503</v>
+      </c>
+      <c r="F15">
+        <v>25.359560402635765</v>
+      </c>
+      <c r="G15">
+        <v>25.215883918854793</v>
+      </c>
+      <c r="H15">
+        <v>25.924910448641455</v>
+      </c>
+      <c r="I15">
+        <v>25.790876462309562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>28.755737186305545</v>
+      </c>
+      <c r="D16">
+        <v>28.755456597924343</v>
+      </c>
+      <c r="E16">
+        <v>28.673334317227702</v>
+      </c>
+      <c r="F16">
+        <v>28.706277005080288</v>
+      </c>
+      <c r="G16">
+        <v>28.837054010926813</v>
+      </c>
+      <c r="H16">
+        <v>28.204372131496193</v>
+      </c>
+      <c r="I16">
+        <v>28.321572766511746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>79.812333011330708</v>
+      </c>
+      <c r="D17">
+        <v>79.812289832779825</v>
+      </c>
+      <c r="E17">
+        <v>79.799635245655324</v>
+      </c>
+      <c r="F17">
+        <v>79.804715637616169</v>
+      </c>
+      <c r="G17">
+        <v>79.824829775888887</v>
+      </c>
+      <c r="H17">
+        <v>78.721966634399237</v>
+      </c>
+      <c r="I17">
+        <v>75.850641162032716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>44.188289178863421</v>
+      </c>
+      <c r="D18">
+        <v>44.188332644183888</v>
+      </c>
+      <c r="E18">
+        <v>44.201074132845875</v>
+      </c>
+      <c r="F18">
+        <v>44.195958168736873</v>
+      </c>
+      <c r="G18">
+        <v>44.175712201785153</v>
+      </c>
+      <c r="H18">
+        <v>45.307399360636381</v>
+      </c>
+      <c r="I18">
+        <v>48.473965635901315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19">
+        <v>134</v>
+      </c>
+      <c r="C19">
+        <v>139.20250041197306</v>
+      </c>
+      <c r="D19">
+        <v>139.20249020044872</v>
+      </c>
+      <c r="E19">
+        <v>139.20019309147671</v>
+      </c>
+      <c r="F19">
+        <v>139.20094884112044</v>
+      </c>
+      <c r="G19">
+        <v>139.20613388269214</v>
+      </c>
+      <c r="H19">
+        <v>138.76352763367868</v>
+      </c>
+      <c r="I19">
+        <v>137.46365821827374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>128.81425411257209</v>
+      </c>
+      <c r="D20">
+        <v>128.83065617550108</v>
+      </c>
+      <c r="E20">
+        <v>133.63557221313272</v>
+      </c>
+      <c r="F20">
+        <v>131.70705694774796</v>
+      </c>
+      <c r="G20">
+        <v>124.06516035730138</v>
+      </c>
+      <c r="H20">
+        <v>123.80625788538022</v>
+      </c>
+      <c r="I20">
+        <v>122.99997248577242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10.432700716801408</v>
+      </c>
+      <c r="D21">
+        <v>10.416228455108469</v>
+      </c>
+      <c r="E21">
+        <v>5.5900504537469322</v>
+      </c>
+      <c r="F21">
+        <v>7.5272666509210788</v>
+      </c>
+      <c r="G21">
+        <v>15.201438384375418</v>
+      </c>
+      <c r="H21">
+        <v>15.401704405248296</v>
+      </c>
+      <c r="I21">
+        <v>15.934368299221513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1.0391557242667655</v>
+      </c>
+      <c r="D22">
+        <v>1.0391554626179134</v>
+      </c>
+      <c r="E22">
+        <v>1.0548832266630734</v>
+      </c>
+      <c r="F22">
+        <v>1.0454956618532232</v>
+      </c>
+      <c r="G22">
+        <v>1.0534806670463777</v>
+      </c>
+      <c r="H22">
+        <v>1.0530112713727526</v>
+      </c>
+      <c r="I22">
+        <v>1.0506793942727906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.99340309326184617</v>
+      </c>
+      <c r="D24">
+        <v>0.99340157868134993</v>
+      </c>
+      <c r="E24">
+        <v>0.99295775603099801</v>
+      </c>
+      <c r="F24">
+        <v>0.9931359205543242</v>
+      </c>
+      <c r="G24">
+        <v>0.99384150675820293</v>
+      </c>
+      <c r="H24">
+        <v>0.9556293731247929</v>
+      </c>
+      <c r="I24">
+        <v>0.86062388525151878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.99765416264179452</v>
+      </c>
+      <c r="D25">
+        <v>0.99765362291001314</v>
+      </c>
+      <c r="E25">
+        <v>0.99749544057069406</v>
+      </c>
+      <c r="F25">
+        <v>0.9975589454702023</v>
+      </c>
+      <c r="G25">
+        <v>0.9978103721986229</v>
+      </c>
+      <c r="H25">
+        <v>0.98402458292999229</v>
+      </c>
+      <c r="I25">
+        <v>0.94813301452540921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.94217065105862896</v>
+      </c>
+      <c r="D26">
+        <v>0.94215772289875011</v>
+      </c>
+      <c r="E26">
+        <v>0.93837613042292212</v>
+      </c>
+      <c r="F26">
+        <v>0.93989255787045034</v>
+      </c>
+      <c r="G26">
+        <v>0.94591949419220012</v>
+      </c>
+      <c r="H26">
+        <v>0.88467441383912149</v>
+      </c>
+      <c r="I26">
+        <v>0.8008635641452776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1.0363877164158561</v>
+      </c>
+      <c r="D27">
+        <v>1.036396249079844</v>
+      </c>
+      <c r="E27">
+        <v>1.0389001973523331</v>
+      </c>
+      <c r="F27">
+        <v>1.0378941724611865</v>
+      </c>
+      <c r="G27">
+        <v>1.0339213288350459</v>
+      </c>
+      <c r="H27">
+        <v>1.0164693991437794</v>
+      </c>
+      <c r="I27">
+        <v>0.91162721683569548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28">
+        <v>134</v>
+      </c>
+      <c r="C28">
+        <v>138.87595398615105</v>
+      </c>
+      <c r="D28">
+        <v>138.87586866657327</v>
+      </c>
+      <c r="E28">
+        <v>138.85155793530822</v>
+      </c>
+      <c r="F28">
+        <v>138.86115173439967</v>
+      </c>
+      <c r="G28">
+        <v>138.90132426182038</v>
+      </c>
+      <c r="H28">
+        <v>136.5467224056251</v>
+      </c>
+      <c r="I28">
+        <v>130.3338326541824</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6550B1E6-5E9B-4C0F-BFE1-A8CE03D1C0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B907D860-3BA5-42AE-B0D8-7E6166417A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="15" activeTab="18" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
@@ -822,7 +822,7 @@
     <t>prU2,eRA.5</t>
   </si>
   <si>
-    <t>prU.5,eRA.6</t>
+    <t>prUd.5,e.6</t>
   </si>
 </sst>
 </file>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B907D860-3BA5-42AE-B0D8-7E6166417A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A386C-75FF-44C1-B6EF-CBAFE049B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="15" activeTab="18" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="261">
   <si>
     <t>X.L</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>prUd.5,e.6</t>
+  </si>
+  <si>
+    <t>prUd.5,e.0</t>
   </si>
 </sst>
 </file>
@@ -7158,13 +7161,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126CD16-64E6-45FB-8C64-23F2A918E49C}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -7184,13 +7187,16 @@
         <v>259</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -7213,13 +7219,16 @@
         <v>0.99833470833488758</v>
       </c>
       <c r="H2">
-        <v>0.98248710709607356</v>
+        <v>1.0367159805528305</v>
       </c>
       <c r="I2">
-        <v>0.94048657015713999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0218924908754679</v>
+      </c>
+      <c r="J2">
+        <v>0.98256190948137989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -7242,13 +7251,16 @@
         <v>1.1000067470017649</v>
       </c>
       <c r="H3">
-        <v>1.1229317376964334</v>
+        <v>1.0427805239888699</v>
       </c>
       <c r="I3">
-        <v>1.1855074833626029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0641978434498767</v>
+      </c>
+      <c r="J3">
+        <v>1.1228202670038634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>211</v>
       </c>
@@ -7271,13 +7283,16 @@
         <v>1.0005254867585018</v>
       </c>
       <c r="H4">
-        <v>0.99843756359281455</v>
+        <v>1.03915507046988</v>
       </c>
       <c r="I4">
-        <v>0.99193526198210025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0387071207235727</v>
+      </c>
+      <c r="J4">
+        <v>1.0365510187680878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -7300,13 +7315,16 @@
         <v>1.0021944327924277</v>
       </c>
       <c r="H5">
-        <v>1.0162347743614697</v>
+        <v>1.0023527079378749</v>
       </c>
       <c r="I5">
-        <v>1.0547043343918923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0164544020024273</v>
+      </c>
+      <c r="J5">
+        <v>1.0549472850165791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -7329,13 +7347,16 @@
         <v>0.99602242515110884</v>
       </c>
       <c r="H6">
-        <v>0.97114380037066661</v>
+        <v>0.99573648804003345</v>
       </c>
       <c r="I6">
-        <v>0.90770374205596738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.9707623117768589</v>
+      </c>
+      <c r="J6">
+        <v>0.9073237033949143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>212</v>
       </c>
@@ -7363,8 +7384,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -7387,13 +7411,16 @@
         <v>0.94799525094925208</v>
       </c>
       <c r="H8">
-        <v>0.89903690333116504</v>
+        <v>0.94435493123749292</v>
       </c>
       <c r="I8">
-        <v>0.84467427236056347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.89431602404483068</v>
+      </c>
+      <c r="J8">
+        <v>0.83994765227154744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>178</v>
       </c>
@@ -7416,13 +7443,16 @@
         <v>1.0361901997038321</v>
       </c>
       <c r="H9">
-        <v>1.0329715504842174</v>
+        <v>1.0388474003327777</v>
       </c>
       <c r="I9">
-        <v>0.96149717694622538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0365981349629205</v>
+      </c>
+      <c r="J9">
+        <v>0.96509548914632604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>213</v>
       </c>
@@ -7450,8 +7480,11 @@
       <c r="I10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -7477,10 +7510,13 @@
         <v>54</v>
       </c>
       <c r="I11">
-        <v>53.999999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="J11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
@@ -7508,8 +7544,11 @@
       <c r="I12">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>216</v>
       </c>
@@ -7532,13 +7571,16 @@
         <v>31.715172574535519</v>
       </c>
       <c r="H13">
-        <v>30.827982414866039</v>
+        <v>31.842456944360443</v>
       </c>
       <c r="I13">
-        <v>30.648734246825121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30.997413605068637</v>
+      </c>
+      <c r="J13">
+        <v>30.828302885539017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>217</v>
       </c>
@@ -7561,13 +7603,16 @@
         <v>48.359578824249922</v>
       </c>
       <c r="H14">
-        <v>49.189872358276311</v>
+        <v>48.243500807548365</v>
       </c>
       <c r="I14">
-        <v>49.362282267302113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49.028373084915735</v>
+      </c>
+      <c r="J14">
+        <v>49.189565550386192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -7590,13 +7635,16 @@
         <v>25.215883918854793</v>
       </c>
       <c r="H15">
-        <v>25.924910448641455</v>
+        <v>25.305819795566755</v>
       </c>
       <c r="I15">
-        <v>25.790876462309562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26.051524132661086</v>
+      </c>
+      <c r="J15">
+        <v>25.925150004988197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>219</v>
       </c>
@@ -7619,13 +7667,16 @@
         <v>28.837054010926813</v>
       </c>
       <c r="H16">
-        <v>28.204372131496193</v>
+        <v>28.755036236909774</v>
       </c>
       <c r="I16">
-        <v>28.321572766511746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28.094657293907357</v>
+      </c>
+      <c r="J16">
+        <v>28.204163637656286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>220</v>
       </c>
@@ -7648,13 +7699,16 @@
         <v>79.824829775888887</v>
       </c>
       <c r="H17">
-        <v>78.721966634399237</v>
+        <v>79.812225144363239</v>
       </c>
       <c r="I17">
-        <v>75.850641162032716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>78.704956997971451</v>
+      </c>
+      <c r="J17">
+        <v>75.833173027923138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>221</v>
       </c>
@@ -7677,13 +7731,16 @@
         <v>44.175712201785153</v>
       </c>
       <c r="H18">
-        <v>45.307399360636381</v>
+        <v>44.188397762351457</v>
       </c>
       <c r="I18">
-        <v>48.473965635901315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45.325204188719908</v>
+      </c>
+      <c r="J18">
+        <v>48.494269283791553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>222</v>
       </c>
@@ -7706,13 +7763,16 @@
         <v>139.20613388269214</v>
       </c>
       <c r="H19">
-        <v>138.76352763367868</v>
+        <v>139.2024749421293</v>
       </c>
       <c r="I19">
-        <v>137.46365821827374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>138.88306022726826</v>
+      </c>
+      <c r="J19">
+        <v>137.93719941830233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>223</v>
       </c>
@@ -7735,13 +7795,16 @@
         <v>124.06516035730138</v>
       </c>
       <c r="H20">
-        <v>123.80625788538022</v>
+        <v>128.85522873815168</v>
       </c>
       <c r="I20">
-        <v>122.99997248577242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>128.79968296955442</v>
+      </c>
+      <c r="J20">
+        <v>128.53232632723834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>255</v>
       </c>
@@ -7764,13 +7827,16 @@
         <v>15.201438384375418</v>
       </c>
       <c r="H21">
-        <v>15.401704405248296</v>
+        <v>10.391550704689651</v>
       </c>
       <c r="I21">
-        <v>15.934368299221513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10.387071207222132</v>
+      </c>
+      <c r="J21">
+        <v>10.365510187680512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -7793,13 +7859,16 @@
         <v>1.0534806670463777</v>
       </c>
       <c r="H22">
-        <v>1.0530112713727526</v>
+        <v>1.0391550704689652</v>
       </c>
       <c r="I22">
-        <v>1.0506793942727906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0387071207222132</v>
+      </c>
+      <c r="J22">
+        <v>1.0365510187680511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>224</v>
       </c>
@@ -7827,8 +7896,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>225</v>
       </c>
@@ -7851,13 +7923,16 @@
         <v>0.99384150675820293</v>
       </c>
       <c r="H24">
-        <v>0.9556293731247929</v>
+        <v>0.9933993095988608</v>
       </c>
       <c r="I24">
-        <v>0.86062388525151878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.95504757504561499</v>
+      </c>
+      <c r="J24">
+        <v>0.860065442398532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>226</v>
       </c>
@@ -7880,13 +7955,16 @@
         <v>0.9978103721986229</v>
       </c>
       <c r="H25">
-        <v>0.98402458292999229</v>
+        <v>0.99765281430454245</v>
       </c>
       <c r="I25">
-        <v>0.94813301452540921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.9838119624746452</v>
+      </c>
+      <c r="J25">
+        <v>0.94791466284903936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>227</v>
       </c>
@@ -7909,13 +7987,16 @@
         <v>0.94591949419220012</v>
       </c>
       <c r="H26">
-        <v>0.88467441383912149</v>
+        <v>0.94213835485145747</v>
       </c>
       <c r="I26">
-        <v>0.8008635641452776</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.87983880268806691</v>
+      </c>
+      <c r="J26">
+        <v>0.79619869561382606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>228</v>
       </c>
@@ -7938,13 +8019,16 @@
         <v>1.0339213288350459</v>
       </c>
       <c r="H27">
-        <v>1.0164693991437794</v>
+        <v>1.0364090325749533</v>
       </c>
       <c r="I27">
-        <v>0.91162721683569548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.019817645455428</v>
+      </c>
+      <c r="J27">
+        <v>0.91482816521126842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>229</v>
       </c>
@@ -7967,10 +8051,13 @@
         <v>138.90132426182038</v>
       </c>
       <c r="H28">
-        <v>136.5467224056251</v>
+        <v>138.87574088417284</v>
       </c>
       <c r="I28">
-        <v>130.3338326541824</v>
+        <v>136.63481603667313</v>
+      </c>
+      <c r="J28">
+        <v>130.75269388094077</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A386C-75FF-44C1-B6EF-CBAFE049B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9022499-15D9-4809-BDDB-B8F8A8280CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="15" activeTab="18" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
@@ -7222,10 +7222,10 @@
         <v>1.0367159805528305</v>
       </c>
       <c r="I2">
-        <v>1.0218924908754679</v>
+        <v>0.98248710709578213</v>
       </c>
       <c r="J2">
-        <v>0.98256190948137989</v>
+        <v>0.94048657015713977</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7254,10 +7254,10 @@
         <v>1.0427805239888699</v>
       </c>
       <c r="I3">
-        <v>1.0641978434498767</v>
+        <v>1.1229317376962069</v>
       </c>
       <c r="J3">
-        <v>1.1228202670038634</v>
+        <v>1.1855074833626034</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7286,10 +7286,10 @@
         <v>1.03915507046988</v>
       </c>
       <c r="I4">
-        <v>1.0387071207235727</v>
+        <v>0.99843756359250291</v>
       </c>
       <c r="J4">
-        <v>1.0365510187680878</v>
+        <v>0.99193526198210025</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -7318,10 +7318,10 @@
         <v>1.0023527079378749</v>
       </c>
       <c r="I5">
-        <v>1.0164544020024273</v>
+        <v>1.0162347743614448</v>
       </c>
       <c r="J5">
-        <v>1.0549472850165791</v>
+        <v>1.0547043343918925</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -7350,10 +7350,10 @@
         <v>0.99573648804003345</v>
       </c>
       <c r="I6">
-        <v>0.9707623117768589</v>
+        <v>0.97114380037071235</v>
       </c>
       <c r="J6">
-        <v>0.9073237033949143</v>
+        <v>0.90770374205596716</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -7414,10 +7414,10 @@
         <v>0.94435493123749292</v>
       </c>
       <c r="I8">
-        <v>0.89431602404483068</v>
+        <v>0.89903690333205444</v>
       </c>
       <c r="J8">
-        <v>0.83994765227154744</v>
+        <v>0.84467427236056314</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -7446,10 +7446,10 @@
         <v>1.0388474003327777</v>
       </c>
       <c r="I9">
-        <v>1.0365981349629205</v>
+        <v>1.0329715504839792</v>
       </c>
       <c r="J9">
-        <v>0.96509548914632604</v>
+        <v>0.96149717694622538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -7574,10 +7574,10 @@
         <v>31.842456944360443</v>
       </c>
       <c r="I13">
-        <v>30.997413605068637</v>
+        <v>30.827982414842523</v>
       </c>
       <c r="J13">
-        <v>30.828302885539017</v>
+        <v>30.648734246825128</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7606,10 +7606,10 @@
         <v>48.243500807548365</v>
       </c>
       <c r="I14">
-        <v>49.028373084915735</v>
+        <v>49.1898723582988</v>
       </c>
       <c r="J14">
-        <v>49.189565550386192</v>
+        <v>49.362282267302106</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -7638,10 +7638,10 @@
         <v>25.305819795566755</v>
       </c>
       <c r="I15">
-        <v>26.051524132661086</v>
+        <v>25.92491044862388</v>
       </c>
       <c r="J15">
-        <v>25.925150004988197</v>
+        <v>25.790876462309569</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -7670,10 +7670,10 @@
         <v>28.755036236909774</v>
       </c>
       <c r="I16">
-        <v>28.094657293907357</v>
+        <v>28.20437213151148</v>
       </c>
       <c r="J16">
-        <v>28.204163637656286</v>
+        <v>28.321572766511743</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -7702,10 +7702,10 @@
         <v>79.812225144363239</v>
       </c>
       <c r="I17">
-        <v>78.704956997971451</v>
+        <v>78.721966634401255</v>
       </c>
       <c r="J17">
-        <v>75.833173027923138</v>
+        <v>75.850641162032716</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -7734,10 +7734,10 @@
         <v>44.188397762351457</v>
       </c>
       <c r="I18">
-        <v>45.325204188719908</v>
+        <v>45.307399360634292</v>
       </c>
       <c r="J18">
-        <v>48.494269283791553</v>
+        <v>48.473965635901322</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -7766,10 +7766,10 @@
         <v>139.2024749421293</v>
       </c>
       <c r="I19">
-        <v>138.88306022726826</v>
+        <v>138.76352763371224</v>
       </c>
       <c r="J19">
-        <v>137.93719941830233</v>
+        <v>137.46365821827374</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -7798,10 +7798,10 @@
         <v>128.85522873815168</v>
       </c>
       <c r="I20">
-        <v>128.79968296955442</v>
+        <v>123.80625788540992</v>
       </c>
       <c r="J20">
-        <v>128.53232632723834</v>
+        <v>122.99997248577242</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -7830,10 +7830,10 @@
         <v>10.391550704689651</v>
       </c>
       <c r="I21">
-        <v>10.387071207222132</v>
+        <v>15.401704405251559</v>
       </c>
       <c r="J21">
-        <v>10.365510187680512</v>
+        <v>15.934368299221514</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -7862,10 +7862,10 @@
         <v>1.0391550704689652</v>
       </c>
       <c r="I22">
-        <v>1.0387071207222132</v>
+        <v>1.0530112713730022</v>
       </c>
       <c r="J22">
-        <v>1.0365510187680511</v>
+        <v>1.0506793942727906</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -7926,10 +7926,10 @@
         <v>0.9933993095988608</v>
       </c>
       <c r="I24">
-        <v>0.95504757504561499</v>
+        <v>0.95562937312486129</v>
       </c>
       <c r="J24">
-        <v>0.860065442398532</v>
+        <v>0.86062388525151834</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -7958,10 +7958,10 @@
         <v>0.99765281430454245</v>
       </c>
       <c r="I25">
-        <v>0.9838119624746452</v>
+        <v>0.98402458293001638</v>
       </c>
       <c r="J25">
-        <v>0.94791466284903936</v>
+        <v>0.94813301452540899</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -7990,10 +7990,10 @@
         <v>0.94213835485145747</v>
       </c>
       <c r="I26">
-        <v>0.87983880268806691</v>
+        <v>0.88467441384001833</v>
       </c>
       <c r="J26">
-        <v>0.79619869561382606</v>
+        <v>0.80086356414527704</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -8022,10 +8022,10 @@
         <v>1.0364090325749533</v>
       </c>
       <c r="I27">
-        <v>1.019817645455428</v>
+        <v>1.0164693991435698</v>
       </c>
       <c r="J27">
-        <v>0.91482816521126842</v>
+        <v>0.91162721683569525</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -8054,10 +8054,10 @@
         <v>138.87574088417284</v>
       </c>
       <c r="I28">
-        <v>136.63481603667313</v>
+        <v>136.54672240566148</v>
       </c>
       <c r="J28">
-        <v>130.75269388094077</v>
+        <v>130.33383265418237</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9022499-15D9-4809-BDDB-B8F8A8280CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B717B9F-4B47-412F-B41E-711EE24BA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="15" activeTab="18" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="-16200" yWindow="-13815" windowWidth="16200" windowHeight="11430" firstSheet="18" activeTab="19" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="The123" sheetId="19" r:id="rId17"/>
     <sheet name="The123Nested" sheetId="20" r:id="rId18"/>
     <sheet name="two_by_two_PriceinDem" sheetId="21" r:id="rId19"/>
+    <sheet name="TwoxTwowOTax_IndPrice_Nest" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="271">
   <si>
     <t>X.L</t>
   </si>
@@ -826,6 +827,36 @@
   </si>
   <si>
     <t>prUd.5,e.0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>PC.L</t>
+  </si>
+  <si>
+    <t>PF.L</t>
+  </si>
+  <si>
+    <t>SY.L(i)</t>
+  </si>
+  <si>
+    <t>Pr.x=2</t>
+  </si>
+  <si>
+    <t>PC.x=1</t>
+  </si>
+  <si>
+    <t>PF.l=1</t>
   </si>
 </sst>
 </file>
@@ -7163,7 +7194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126CD16-64E6-45FB-8C64-23F2A918E49C}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8421,6 +8452,450 @@
       </c>
       <c r="F18">
         <v>6.552950283452402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FD2B6C-BADC-4482-8705-A7286C663A49}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>52.440442414743885</v>
+      </c>
+      <c r="E2">
+        <v>52.440442408506513</v>
+      </c>
+      <c r="F2">
+        <v>52.440442406059617</v>
+      </c>
+      <c r="G2">
+        <v>51.056545362143005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>47.673129456610248</v>
+      </c>
+      <c r="E3">
+        <v>47.673129462280592</v>
+      </c>
+      <c r="F3">
+        <v>47.673129464505024</v>
+      </c>
+      <c r="G3">
+        <v>48.965318398797884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>21.177057061457788</v>
+      </c>
+      <c r="E4">
+        <v>21.177057058435174</v>
+      </c>
+      <c r="F4">
+        <v>21.177057057249421</v>
+      </c>
+      <c r="G4">
+        <v>20.508207428582388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>28.87780507693768</v>
+      </c>
+      <c r="E5">
+        <v>28.877805079685501</v>
+      </c>
+      <c r="F5">
+        <v>28.877805080763462</v>
+      </c>
+      <c r="G5">
+        <v>29.502316482825769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.0488088482223459</v>
+      </c>
+      <c r="E6">
+        <v>1.0488088481702902</v>
+      </c>
+      <c r="F6">
+        <v>1.0488088481593993</v>
+      </c>
+      <c r="G6">
+        <v>1.256776502947158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.0388601182966062</v>
+      </c>
+      <c r="E7">
+        <v>1.0388601182538628</v>
+      </c>
+      <c r="F7">
+        <v>1.0388601182505186</v>
+      </c>
+      <c r="G7">
+        <v>0.6257657257513739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.0454820636283344</v>
+      </c>
+      <c r="E8">
+        <v>1.0454820635787618</v>
+      </c>
+      <c r="F8">
+        <v>1.0454820635708382</v>
+      </c>
+      <c r="G8">
+        <v>1.0931727477635904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.99795751000197275</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1.0488088481386344</v>
+      </c>
+      <c r="G9">
+        <v>1.0211309078784696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.0075145327263733</v>
+      </c>
+      <c r="E10">
+        <v>1.0095765827768823</v>
+      </c>
+      <c r="F10">
+        <v>1.0588528528793757</v>
+      </c>
+      <c r="G10">
+        <v>1.0254103720418588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.95151515128525777</v>
+      </c>
+      <c r="E11">
+        <v>0.95346258924559502</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1.0466666666627262</v>
+      </c>
+      <c r="E12">
+        <v>1.0488088481701119</v>
+      </c>
+      <c r="F12">
+        <v>1.0999999998973025</v>
+      </c>
+      <c r="G12">
+        <v>1.0427083297266266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1.0011330687136686</v>
+      </c>
+      <c r="E13">
+        <v>1.0031820580257127</v>
+      </c>
+      <c r="F13">
+        <v>1.0521462187479673</v>
+      </c>
+      <c r="G13">
+        <v>0.97829409400508083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100.31820580330329</v>
+      </c>
+      <c r="E14">
+        <v>100.31820580257127</v>
+      </c>
+      <c r="F14">
+        <v>100.318205802237</v>
+      </c>
+      <c r="G14">
+        <v>114.96595624939472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>49.683306602247974</v>
+      </c>
+      <c r="E15">
+        <v>49.68330660297304</v>
+      </c>
+      <c r="F15">
+        <v>49.683306603304153</v>
+      </c>
+      <c r="G15">
+        <v>28.6215388689448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>157.32132722551978</v>
+      </c>
+      <c r="F19">
+        <v>164.99999999178419</v>
+      </c>
+      <c r="G19">
+        <v>160.41666637813012</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B717B9F-4B47-412F-B41E-711EE24BA741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0694E654-8E77-43B2-87AA-7A353EEC9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-13815" windowWidth="16200" windowHeight="11430" firstSheet="18" activeTab="19" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="-16200" yWindow="-13815" windowWidth="16200" windowHeight="11430" firstSheet="19" activeTab="20" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="The123Nested" sheetId="20" r:id="rId18"/>
     <sheet name="two_by_two_PriceinDem" sheetId="21" r:id="rId19"/>
     <sheet name="TwoxTwowOTax_IndPrice_Nest" sheetId="22" r:id="rId20"/>
+    <sheet name="TwoxTwo_DemandIndPrice_Nest" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="274">
   <si>
     <t>X.L</t>
   </si>
@@ -857,6 +858,15 @@
   </si>
   <si>
     <t>PF.l=1</t>
+  </si>
+  <si>
+    <t>FDRA</t>
+  </si>
+  <si>
+    <t>FDRA.L</t>
+  </si>
+  <si>
+    <t>Pr.l=1.5</t>
   </si>
 </sst>
 </file>
@@ -8461,7 +8471,474 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FD2B6C-BADC-4482-8705-A7286C663A49}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>52.440442414743885</v>
+      </c>
+      <c r="E2">
+        <v>52.440442408506513</v>
+      </c>
+      <c r="F2">
+        <v>52.440442406059617</v>
+      </c>
+      <c r="G2">
+        <v>51.056545362143005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>47.673129456610248</v>
+      </c>
+      <c r="E3">
+        <v>47.673129462280592</v>
+      </c>
+      <c r="F3">
+        <v>47.673129464505024</v>
+      </c>
+      <c r="G3">
+        <v>48.965318398797884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>21.177057061457788</v>
+      </c>
+      <c r="E4">
+        <v>21.177057058435174</v>
+      </c>
+      <c r="F4">
+        <v>21.177057057249421</v>
+      </c>
+      <c r="G4">
+        <v>20.508207428582388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>28.87780507693768</v>
+      </c>
+      <c r="E5">
+        <v>28.877805079685501</v>
+      </c>
+      <c r="F5">
+        <v>28.877805080763462</v>
+      </c>
+      <c r="G5">
+        <v>29.502316482825769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.0488088482223459</v>
+      </c>
+      <c r="E6">
+        <v>1.0488088481702902</v>
+      </c>
+      <c r="F6">
+        <v>1.0488088481593993</v>
+      </c>
+      <c r="G6">
+        <v>1.256776502947158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.0388601182966062</v>
+      </c>
+      <c r="E7">
+        <v>1.0388601182538628</v>
+      </c>
+      <c r="F7">
+        <v>1.0388601182505186</v>
+      </c>
+      <c r="G7">
+        <v>0.6257657257513739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1.0454820636283344</v>
+      </c>
+      <c r="E8">
+        <v>1.0454820635787618</v>
+      </c>
+      <c r="F8">
+        <v>1.0454820635708382</v>
+      </c>
+      <c r="G8">
+        <v>1.0931727477635904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.99795751000197275</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1.0488088481386344</v>
+      </c>
+      <c r="G9">
+        <v>1.0211309078784696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.0075145327263733</v>
+      </c>
+      <c r="E10">
+        <v>1.0095765827768823</v>
+      </c>
+      <c r="F10">
+        <v>1.0588528528793757</v>
+      </c>
+      <c r="G10">
+        <v>1.0254103720418588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.95151515128525777</v>
+      </c>
+      <c r="E11">
+        <v>0.95346258924559502</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1.0466666666627262</v>
+      </c>
+      <c r="E12">
+        <v>1.0488088481701119</v>
+      </c>
+      <c r="F12">
+        <v>1.0999999998973025</v>
+      </c>
+      <c r="G12">
+        <v>1.0427083297266266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1.0011330687136686</v>
+      </c>
+      <c r="E13">
+        <v>1.0031820580257127</v>
+      </c>
+      <c r="F13">
+        <v>1.0521462187479673</v>
+      </c>
+      <c r="G13">
+        <v>0.97829409400508083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100.31820580330329</v>
+      </c>
+      <c r="E14">
+        <v>100.31820580257127</v>
+      </c>
+      <c r="F14">
+        <v>100.318205802237</v>
+      </c>
+      <c r="G14">
+        <v>114.96595624939472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>49.683306602247974</v>
+      </c>
+      <c r="E15">
+        <v>49.68330660297304</v>
+      </c>
+      <c r="F15">
+        <v>49.683306603304153</v>
+      </c>
+      <c r="G15">
+        <v>28.6215388689448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>157.32132722551978</v>
+      </c>
+      <c r="F19">
+        <v>164.99999999178419</v>
+      </c>
+      <c r="G19">
+        <v>160.41666637813012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="D20">
+        <v>156.82230954744654</v>
+      </c>
+      <c r="E20">
+        <v>156.82230953684729</v>
+      </c>
+      <c r="F20">
+        <v>156.82230953424977</v>
+      </c>
+      <c r="G20">
+        <v>163.97591211186131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391905BC-1CB1-477C-AE0B-70AD8093AF6F}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8478,10 +8955,10 @@
         <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8498,13 +8975,13 @@
         <v>52.440442414743885</v>
       </c>
       <c r="E2">
-        <v>52.440442408506513</v>
+        <v>52.44044240850053</v>
       </c>
       <c r="F2">
-        <v>52.440442406059617</v>
+        <v>52.440442408507572</v>
       </c>
       <c r="G2">
-        <v>51.056545362143005</v>
+        <v>56.505734300898233</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -8518,16 +8995,16 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>47.673129456610248</v>
+        <v>47.673129456610255</v>
       </c>
       <c r="E3">
-        <v>47.673129462280592</v>
+        <v>47.673129462286035</v>
       </c>
       <c r="F3">
-        <v>47.673129464505024</v>
+        <v>47.673129462279618</v>
       </c>
       <c r="G3">
-        <v>48.965318398797884</v>
+        <v>44.243297267623674</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -8535,22 +9012,22 @@
         <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>21.177057061457788</v>
+        <v>1.0488088482223461</v>
       </c>
       <c r="E4">
-        <v>21.177057058435174</v>
+        <v>1.0488088481701505</v>
       </c>
       <c r="F4">
-        <v>21.177057057249421</v>
+        <v>1.0488088481701512</v>
       </c>
       <c r="G4">
-        <v>20.508207428582388</v>
+        <v>1.1301146860180615</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8558,73 +9035,73 @@
         <v>264</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>28.87780507693768</v>
+        <v>1.038860118296606</v>
       </c>
       <c r="E5">
-        <v>28.877805079685501</v>
+        <v>1.0388601182540864</v>
       </c>
       <c r="F5">
-        <v>28.877805080763462</v>
+        <v>1.0388601182540844</v>
       </c>
       <c r="G5">
-        <v>29.502316482825769</v>
+        <v>1.1028031931984548</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>1.0488088482223459</v>
+        <v>21.177057061457777</v>
       </c>
       <c r="E6">
-        <v>1.0488088481702902</v>
+        <v>21.177057058432275</v>
       </c>
       <c r="F6">
-        <v>1.0488088481593993</v>
+        <v>21.17705705843569</v>
       </c>
       <c r="G6">
-        <v>1.256776502947158</v>
+        <v>23.162051242333568</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>1.0388601182966062</v>
+        <v>28.87780507693768</v>
       </c>
       <c r="E7">
-        <v>1.0388601182538628</v>
+        <v>28.877805079688141</v>
       </c>
       <c r="F7">
-        <v>1.0388601182505186</v>
+        <v>28.877805079685036</v>
       </c>
       <c r="G7">
-        <v>0.6257657257513739</v>
+        <v>27.203403277237111</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -8636,266 +9113,358 @@
         <v>1.0454820636283344</v>
       </c>
       <c r="E8">
-        <v>1.0454820635787618</v>
+        <v>1.0454820635789994</v>
       </c>
       <c r="F8">
-        <v>1.0454820635708382</v>
+        <v>1.0454820635789992</v>
       </c>
       <c r="G8">
-        <v>1.0931727477635904</v>
+        <v>1.120936516833051</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>0.99795751000197275</v>
+        <v>157</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>156.82230953684154</v>
       </c>
       <c r="F9">
-        <v>1.0488088481386344</v>
+        <v>196.02788418875843</v>
       </c>
       <c r="G9">
-        <v>1.0211309078784696</v>
+        <v>179.17273628427864</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.0075145327263733</v>
+        <v>0.99795751000197275</v>
       </c>
       <c r="E10">
-        <v>1.0095765827768823</v>
+        <v>0.99682803534981368</v>
       </c>
       <c r="F10">
-        <v>1.0588528528793757</v>
+        <v>1.2460350268196583</v>
       </c>
       <c r="G10">
-        <v>1.0254103720418588</v>
+        <v>1.1301146860180069</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.95151515128525777</v>
+        <v>1.0075145327263735</v>
       </c>
       <c r="E11">
-        <v>0.95346258924559502</v>
+        <v>1.0063742415446353</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>1.2579677843968975</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.15810256211672</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.0466666666627262</v>
+        <v>0.95151515128525788</v>
       </c>
       <c r="E12">
-        <v>1.0488088481701119</v>
+        <v>0.95043823961735774</v>
       </c>
       <c r="F12">
-        <v>1.0999999998973025</v>
+        <v>1.1880477829621725</v>
       </c>
       <c r="G12">
-        <v>1.0427083297266266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.0011330687136686</v>
+        <v>1.046666666662726</v>
       </c>
       <c r="E13">
-        <v>1.0031820580257127</v>
+        <v>1.0454820635788122</v>
       </c>
       <c r="F13">
-        <v>1.0521462187479673</v>
+        <v>1.3068525612583894</v>
       </c>
       <c r="G13">
-        <v>0.97829409400508083</v>
+        <v>1.2771592035534829</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>100.31820580330329</v>
+        <v>1.0011330687136686</v>
       </c>
       <c r="E14">
-        <v>100.31820580257127</v>
+        <v>0.99999999999989331</v>
       </c>
       <c r="F14">
-        <v>100.318205802237</v>
+        <v>1.4999999651541418</v>
       </c>
       <c r="G14">
-        <v>114.96595624939472</v>
+        <v>1.2787360111381831</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>49.683306602247974</v>
+        <v>1.0011330687136686</v>
       </c>
       <c r="E15">
-        <v>49.68330660297304</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>49.683306603304153</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>28.6215388689448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D16">
-        <v>150</v>
+        <v>100.31820580330329</v>
       </c>
       <c r="E16">
-        <v>150</v>
+        <v>100.31820580257052</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>100.31820580257143</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>100.81879473522184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>49.68330660224796</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>49.683306602973794</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>49.683306602972884</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>49.191152961729621</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="C19">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D19">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E19">
-        <v>157.32132722551978</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>164.99999999178419</v>
+        <v>75</v>
       </c>
       <c r="G19">
-        <v>160.41666637813012</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>78.411154773723268</v>
+      </c>
+      <c r="E22">
+        <v>78.411154768429128</v>
+      </c>
+      <c r="F22">
+        <v>78.411155497039374</v>
+      </c>
+      <c r="G22">
+        <v>84.070238762479107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>78.411154773723268</v>
+      </c>
+      <c r="E23">
+        <v>78.411154768420772</v>
+      </c>
+      <c r="F23">
+        <v>78.411153675503371</v>
+      </c>
+      <c r="G23">
+        <v>71.669094513711457</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0694E654-8E77-43B2-87AA-7A353EEC9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4C928-0F0A-49F4-AF6E-0665547CA3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="-13815" windowWidth="16200" windowHeight="11430" firstSheet="19" activeTab="20" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="4170" yWindow="-11790" windowWidth="17280" windowHeight="9075" firstSheet="19" activeTab="21" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="two_by_two_PriceinDem" sheetId="21" r:id="rId19"/>
     <sheet name="TwoxTwowOTax_IndPrice_Nest" sheetId="22" r:id="rId20"/>
     <sheet name="TwoxTwo_DemandIndPrice_Nest" sheetId="23" r:id="rId21"/>
+    <sheet name="WNDCnat" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="357">
   <si>
     <t>X.L</t>
   </si>
@@ -867,6 +868,255 @@
   </si>
   <si>
     <t>Pr.l=1.5</t>
+  </si>
+  <si>
+    <t>ppd</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>amb</t>
+  </si>
+  <si>
+    <t>fbp</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>agr</t>
+  </si>
+  <si>
+    <t>eec</t>
+  </si>
+  <si>
+    <t>fnd</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>hou</t>
+  </si>
+  <si>
+    <t>fbt</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>tex</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>fen</t>
+  </si>
+  <si>
+    <t>uti</t>
+  </si>
+  <si>
+    <t>nmp</t>
+  </si>
+  <si>
+    <t>brd</t>
+  </si>
+  <si>
+    <t>bnk</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>edu</t>
+  </si>
+  <si>
+    <t>ote</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>mch</t>
+  </si>
+  <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>amd</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>hos</t>
+  </si>
+  <si>
+    <t>rnt</t>
+  </si>
+  <si>
+    <t>pla</t>
+  </si>
+  <si>
+    <t>fof</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>tsv</t>
+  </si>
+  <si>
+    <t>nrs</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>fpd</t>
+  </si>
+  <si>
+    <t>slg</t>
+  </si>
+  <si>
+    <t>pri</t>
+  </si>
+  <si>
+    <t>grd</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>sle</t>
+  </si>
+  <si>
+    <t>osv</t>
+  </si>
+  <si>
+    <t>trn</t>
+  </si>
+  <si>
+    <t>smn</t>
+  </si>
+  <si>
+    <t>fmt</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>mvt</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>wst</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>adm</t>
+  </si>
+  <si>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>pmt</t>
+  </si>
+  <si>
+    <t>trk</t>
+  </si>
+  <si>
+    <t>fdd</t>
+  </si>
+  <si>
+    <t>gmt</t>
+  </si>
+  <si>
+    <t>wtt</t>
+  </si>
+  <si>
+    <t>wpd</t>
+  </si>
+  <si>
+    <t>wht</t>
+  </si>
+  <si>
+    <t>wrh</t>
+  </si>
+  <si>
+    <t>ott</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>mmf</t>
+  </si>
+  <si>
+    <t>otr</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>DPARA</t>
+  </si>
+  <si>
+    <t>SPAA</t>
+  </si>
+  <si>
+    <t>DPYA</t>
+  </si>
+  <si>
+    <t>SPMMS</t>
+  </si>
+  <si>
+    <t>trd</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>PVA</t>
+  </si>
+  <si>
+    <t>compen</t>
+  </si>
+  <si>
+    <t>surplus</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>benchmarkmge</t>
+  </si>
+  <si>
+    <t>Countermge</t>
   </si>
 </sst>
 </file>
@@ -8940,7 +9190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391905BC-1CB1-477C-AE0B-70AD8093AF6F}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9465,6 +9715,6859 @@
       </c>
       <c r="G23">
         <v>71.669094513711457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365A110-3AE1-496C-B34F-8DB60510C5E7}">
+  <dimension ref="A1:D489"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1.0187953979911399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.0391645094000266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.99921350704747747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.96924160562385353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.0440198759031358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.0255766609928192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.99872785190736213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.0265093759737423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.99342306828625959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.99505822466491678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.94669727709815188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1.0233319401153151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.99526434878665049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.98775501305163738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1.0052842773710482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1.0042071199238547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1.028145696320546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.99766877051988589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.0231476262926913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.98197655655657656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0043384422831221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.96132564275551791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1.0027934945264336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1.015755777520104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1.0058344176942187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.99702770482450853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1.0573171670379458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1.0760189989743263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.96974167350447449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1.0200621013273283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1.0080341178397869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1.0120016226700093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.97302437880837256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1.001527153985093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.98639150613368387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.9817910613048173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1.006471620649575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1.0070157882318385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1.0193346461426687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1.0037685850748588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.99154134479847611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1.0279433586049462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.99645864243665416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.99268578225738491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1.0218713885759587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.97047217429279509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1.0018351928233884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1.0846338209237512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1.0230990082438574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.98526698040996408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1.0029195546707181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1.0240404824936278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1.002404414330027</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.97751793940646314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.84929079157941056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1.0185867291009589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1.0264747063808075</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1.0231104205583923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1.0154952746429153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1.0065181502971217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1.0230309838821325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1.0194303233500202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1.0234945487307707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1.0054452547018236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1.0853479121150811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0.99696958508848665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1.0224548485923945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1.016804201305844</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1.0159868630865658</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1.0367103086944183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1.0009498873687064</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0.97034602427936656</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1.0418646080485681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1.0253805603457939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0.99850450959911097</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1.0235957708084791</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1.0072110973929076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.99539064909876529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0.94734024041686415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.99501230507002425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1.024555680090212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1.0053916028043972</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1.004195695666068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1.0204804211895944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1.0057216161251967</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1.0231397237400985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0.98224769216326313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1.0042505469528067</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.97190425151924997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1.0032554171624886</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1.015755777520104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1.0064743701781294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.99709513705168773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1.0422794269826494</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1.0735762474280539</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0.97584341167359268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1.0129865045475264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1.0131575706441214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1.0150793421308018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0.9772321206232969</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1.0019767086954172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0.98630195295120227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0.98184694913572512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1.0064484365116071</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1.0073073472896346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1.010830245258336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1.0026422254600165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0.99257781177270865</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1.0622261216905831</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0.99699645684112748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0.99904311812028135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0.98696555138233655</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1.0073196293540587</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1.0089421424140788</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1.0787753546942462</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0.99866030357201674</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1.0029811729149916</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1.0159592676619764</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1.0024119448233197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0.97811811625810108</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1.0776072535463099</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1.0140389207035418</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1.0181067982424326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1.0069376794156404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1.0063465045476498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1.0198012676113621</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1.0196995846188524</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0.98433973173757039</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1.0069058156554569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1.0779792107528965</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1.0071156124511513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1.0210803024236823</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1.0163015566206877</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144">
+        <v>44.991751278660821</v>
+      </c>
+      <c r="D144">
+        <v>45.098345025811753</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145">
+        <v>739.64097764919507</v>
+      </c>
+      <c r="D145">
+        <v>774.30644850203009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146">
+        <v>1051.4952695012853</v>
+      </c>
+      <c r="D146">
+        <v>1020.0491765708387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C147">
+        <v>1032.6371595102296</v>
+      </c>
+      <c r="D147">
+        <v>1080.8633601544798</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148">
+        <v>198.97363290562865</v>
+      </c>
+      <c r="D148">
+        <v>204.12596182013189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C149">
+        <v>147.86076592987101</v>
+      </c>
+      <c r="D149">
+        <v>144.62798584003582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C150">
+        <v>86.293779459071658</v>
+      </c>
+      <c r="D150">
+        <v>87.216977149171214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C151">
+        <v>130.55827193807741</v>
+      </c>
+      <c r="D151">
+        <v>129.47108538379464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C152">
+        <v>2035.1123590347649</v>
+      </c>
+      <c r="D152">
+        <v>1927.9438323977242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C153">
+        <v>386.98479881645665</v>
+      </c>
+      <c r="D153">
+        <v>383.94378959599209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C154">
+        <v>72.742311765498982</v>
+      </c>
+      <c r="D154">
+        <v>75.543779640822734</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C155">
+        <v>104.83945495027561</v>
+      </c>
+      <c r="D155">
+        <v>106.26613899431139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C156">
+        <v>6.1572491370796731</v>
+      </c>
+      <c r="D156">
+        <v>5.970720042307768</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157">
+        <v>264.75348987442987</v>
+      </c>
+      <c r="D157">
+        <v>272.9921654426908</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158">
+        <v>20.880004290096807</v>
+      </c>
+      <c r="D158">
+        <v>21.069086609512066</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C159">
+        <v>330.91099384305198</v>
+      </c>
+      <c r="D159">
+        <v>343.60847997151768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C160">
+        <v>279.34731686750808</v>
+      </c>
+      <c r="D160">
+        <v>270.46373815642323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C161">
+        <v>5.6306996273294105</v>
+      </c>
+      <c r="D161">
+        <v>5.530008379429785</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162">
+        <v>351.69347483319501</v>
+      </c>
+      <c r="D162">
+        <v>340.64769678053227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163">
+        <v>32.616171384530446</v>
+      </c>
+      <c r="D163">
+        <v>32.155916106725968</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164">
+        <v>24.097900488570588</v>
+      </c>
+      <c r="D164">
+        <v>24.103893844554545</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C165">
+        <v>55.616948273621389</v>
+      </c>
+      <c r="D165">
+        <v>54.463311416979636</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C166">
+        <v>157.44526392532515</v>
+      </c>
+      <c r="D166">
+        <v>167.15347566218165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C167">
+        <v>1066.451109494192</v>
+      </c>
+      <c r="D167">
+        <v>1040.724704958496</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C168">
+        <v>105.36548395002612</v>
+      </c>
+      <c r="D168">
+        <v>107.15232315497242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C169">
+        <v>67.370555668046762</v>
+      </c>
+      <c r="D169">
+        <v>68.170472940880586</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C170">
+        <v>11.788288294408922</v>
+      </c>
+      <c r="D170">
+        <v>11.565124272297838</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C171">
+        <v>162.33788092300463</v>
+      </c>
+      <c r="D171">
+        <v>158.55105630940992</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C172">
+        <v>72.80321496547009</v>
+      </c>
+      <c r="D172">
+        <v>70.831654751916787</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C173">
+        <v>242.29760788508045</v>
+      </c>
+      <c r="D173">
+        <v>238.93256874662833</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C174">
+        <v>224.45567089354273</v>
+      </c>
+      <c r="D174">
+        <v>218.5218524308462</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175">
+        <v>78.23231666289513</v>
+      </c>
+      <c r="D175">
+        <v>78.405524739373789</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C176">
+        <v>32.534170184569341</v>
+      </c>
+      <c r="D176">
+        <v>32.443065402388392</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C177">
+        <v>119.65095894325064</v>
+      </c>
+      <c r="D177">
+        <v>122.36341197331805</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C178">
+        <v>8.4208721060060565</v>
+      </c>
+      <c r="D178">
+        <v>8.3727494598589143</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C179">
+        <v>45.891327578234161</v>
+      </c>
+      <c r="D179">
+        <v>45.255872143887402</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C180">
+        <v>70.850533666396245</v>
+      </c>
+      <c r="D180">
+        <v>70.283657579611955</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C181">
+        <v>615.30041570816866</v>
+      </c>
+      <c r="D181">
+        <v>612.78702450005449</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C182">
+        <v>1.5080196292847601</v>
+      </c>
+      <c r="D182">
+        <v>1.2512047812748921</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C183">
+        <v>40.68840848070186</v>
+      </c>
+      <c r="D183">
+        <v>40.725595118737083</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C184">
+        <v>310.68454385264516</v>
+      </c>
+      <c r="D184">
+        <v>358.72952964435234</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185">
+        <v>164.51940292196997</v>
+      </c>
+      <c r="D185">
+        <v>162.83882540989578</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C186">
+        <v>27.029921387179954</v>
+      </c>
+      <c r="D186">
+        <v>26.856246147365461</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C187">
+        <v>338.06098683966081</v>
+      </c>
+      <c r="D187">
+        <v>344.57383094877162</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C188">
+        <v>63.912381669686944</v>
+      </c>
+      <c r="D188">
+        <v>62.601562121783751</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C189">
+        <v>210.49648190016345</v>
+      </c>
+      <c r="D189">
+        <v>205.87362970767813</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C190">
+        <v>399.69788581042695</v>
+      </c>
+      <c r="D190">
+        <v>432.45998415353347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C191">
+        <v>1.7399277891747682</v>
+      </c>
+      <c r="D191">
+        <v>1.7184884534766836</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C192">
+        <v>12.289381494171259</v>
+      </c>
+      <c r="D192">
+        <v>12.365375939871454</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C193">
+        <v>21.407284289846721</v>
+      </c>
+      <c r="D193">
+        <v>21.415759193021461</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C194">
+        <v>7.8941541362558754</v>
+      </c>
+      <c r="D194">
+        <v>7.9182384442887264</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C195">
+        <v>8.7326556258581808E-2</v>
+      </c>
+      <c r="D195">
+        <v>8.5460563059011785E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C196">
+        <v>5.468275487406447</v>
+      </c>
+      <c r="D196">
+        <v>5.3147376811125673</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C197">
+        <v>630.3529437010294</v>
+      </c>
+      <c r="D197">
+        <v>632.50858223046907</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C198">
+        <v>129.27475893868615</v>
+      </c>
+      <c r="D198">
+        <v>143.42273283792542</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C199">
+        <v>264.6237768744914</v>
+      </c>
+      <c r="D199">
+        <v>268.6590107811603</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200">
+        <v>23.347048088926709</v>
+      </c>
+      <c r="D200">
+        <v>23.029115873936696</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201">
+        <v>0.64394639769458206</v>
+      </c>
+      <c r="D201">
+        <v>0.65393235800165772</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C202">
+        <v>237.61937898161042</v>
+      </c>
+      <c r="D202">
+        <v>236.98893839335526</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C203">
+        <v>959.33669599938219</v>
+      </c>
+      <c r="D203">
+        <v>959.30454451645585</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C204">
+        <v>524.89002497366346</v>
+      </c>
+      <c r="D204">
+        <v>525.36404787825381</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C205">
+        <v>1093.3797600000503</v>
+      </c>
+      <c r="D205">
+        <v>1093.380418608471</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C206">
+        <v>1517.7057199341443</v>
+      </c>
+      <c r="D206">
+        <v>1515.6565341994256</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C207">
+        <v>204.69323700000001</v>
+      </c>
+      <c r="D207">
+        <v>204.69323700000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C208">
+        <v>1661.394300000014</v>
+      </c>
+      <c r="D208">
+        <v>1661.3920523793759</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C209">
+        <v>517.5891997512025</v>
+      </c>
+      <c r="D209">
+        <v>516.05645743995058</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C210">
+        <v>298.91294299999998</v>
+      </c>
+      <c r="D210">
+        <v>298.23241753236528</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C211">
+        <v>380.89812899999998</v>
+      </c>
+      <c r="D211">
+        <v>380.89812899999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C212">
+        <v>348.39064695779967</v>
+      </c>
+      <c r="D212">
+        <v>348.82437875027074</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C213">
+        <v>2035.1123600000001</v>
+      </c>
+      <c r="D213">
+        <v>2035.1123600000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C214">
+        <v>1174.6318399920517</v>
+      </c>
+      <c r="D214">
+        <v>1174.5237332466215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C215">
+        <v>145.78984</v>
+      </c>
+      <c r="D215">
+        <v>145.34723676754547</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C216">
+        <v>348.31410901195284</v>
+      </c>
+      <c r="D216">
+        <v>348.46915937195479</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C217">
+        <v>70.479368399999998</v>
+      </c>
+      <c r="D217">
+        <v>70.484566529757757</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C218">
+        <v>652.12944600000003</v>
+      </c>
+      <c r="D218">
+        <v>652.03285818802021</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C219">
+        <v>214.38181499775422</v>
+      </c>
+      <c r="D219">
+        <v>214.11632887632879</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C220">
+        <v>707.1212560084756</v>
+      </c>
+      <c r="D220">
+        <v>706.8021236283289</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C221">
+        <v>792.04689259435463</v>
+      </c>
+      <c r="D221">
+        <v>792.55497564074847</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C222">
+        <v>1255.2662700053706</v>
+      </c>
+      <c r="D222">
+        <v>1255.2026914972255</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C223">
+        <v>392.68760999753084</v>
+      </c>
+      <c r="D223">
+        <v>392.7159028178117</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C224">
+        <v>277.83692394471211</v>
+      </c>
+      <c r="D224">
+        <v>276.94386786298827</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C225">
+        <v>579.49032100094314</v>
+      </c>
+      <c r="D225">
+        <v>579.52733536286462</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C226">
+        <v>588.49186008550521</v>
+      </c>
+      <c r="D226">
+        <v>586.9174976130937</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C227">
+        <v>245.65202899689831</v>
+      </c>
+      <c r="D227">
+        <v>245.62011398775337</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C228">
+        <v>229.58782400000001</v>
+      </c>
+      <c r="D228">
+        <v>229.58782400000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C229">
+        <v>411.63889798396985</v>
+      </c>
+      <c r="D229">
+        <v>411.26560537598749</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C230">
+        <v>1073.1160499979342</v>
+      </c>
+      <c r="D230">
+        <v>1073.1106729716673</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C231">
+        <v>367.73556097077602</v>
+      </c>
+      <c r="D231">
+        <v>368.09571309883438</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C232">
+        <v>363.00797901717993</v>
+      </c>
+      <c r="D232">
+        <v>362.2027943560156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C233">
+        <v>92.087485800452484</v>
+      </c>
+      <c r="D233">
+        <v>92.102433581938882</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C234">
+        <v>183.49513400000001</v>
+      </c>
+      <c r="D234">
+        <v>183.49513400000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C235">
+        <v>1988.0219498987124</v>
+      </c>
+      <c r="D235">
+        <v>1988.8736107919547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C236">
+        <v>245.658333</v>
+      </c>
+      <c r="D236">
+        <v>245.658333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C237">
+        <v>513.7982659949314</v>
+      </c>
+      <c r="D237">
+        <v>514.08681030717764</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C238">
+        <v>174.6221350016273</v>
+      </c>
+      <c r="D238">
+        <v>174.63209628248799</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C239">
+        <v>146.38631700831317</v>
+      </c>
+      <c r="D239">
+        <v>146.42179694517688</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C240">
+        <v>221.31481699587209</v>
+      </c>
+      <c r="D240">
+        <v>221.26364251800513</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C241">
+        <v>1744.23136</v>
+      </c>
+      <c r="D241">
+        <v>1744.23136</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C242">
+        <v>89.322546201379296</v>
+      </c>
+      <c r="D242">
+        <v>89.277495969022794</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C243">
+        <v>93.148182500000004</v>
+      </c>
+      <c r="D243">
+        <v>93.148182500000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C244">
+        <v>0.37425751899999998</v>
+      </c>
+      <c r="D244">
+        <v>0.37911720746620853</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C245">
+        <v>104.17603200000001</v>
+      </c>
+      <c r="D245">
+        <v>104.17603200000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C246">
+        <v>868.46305499998425</v>
+      </c>
+      <c r="D246">
+        <v>868.46312847659306</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C247">
+        <v>7.9473837349713898</v>
+      </c>
+      <c r="D247">
+        <v>7.9177444003775967</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C248">
+        <v>124.292406</v>
+      </c>
+      <c r="D248">
+        <v>124.2484226239032</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C249">
+        <v>477.61634503927434</v>
+      </c>
+      <c r="D249">
+        <v>477.08715319364802</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C250">
+        <v>757.57783300000006</v>
+      </c>
+      <c r="D250">
+        <v>753.40652140995348</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C251">
+        <v>753.92490889148576</v>
+      </c>
+      <c r="D251">
+        <v>754.55049168252913</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C252">
+        <v>117.57767499993541</v>
+      </c>
+      <c r="D252">
+        <v>117.57586672632409</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C253">
+        <v>1119.6764499999999</v>
+      </c>
+      <c r="D253">
+        <v>1115.4545127840806</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C254">
+        <v>929.22821799866915</v>
+      </c>
+      <c r="D254">
+        <v>929.23078587776331</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C255">
+        <v>211.263869</v>
+      </c>
+      <c r="D255">
+        <v>211.263869</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C256">
+        <v>429.27753499306709</v>
+      </c>
+      <c r="D256">
+        <v>428.62972660493193</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C257">
+        <v>307.0467769927003</v>
+      </c>
+      <c r="D257">
+        <v>306.43109410914155</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C258">
+        <v>37.702227499362337</v>
+      </c>
+      <c r="D258">
+        <v>37.628497893802681</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C259">
+        <v>598.32100300000002</v>
+      </c>
+      <c r="D259">
+        <v>598.32100300000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C260">
+        <v>24.861991797365153</v>
+      </c>
+      <c r="D260">
+        <v>24.691647420800226</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C261">
+        <v>169.55249799718845</v>
+      </c>
+      <c r="D261">
+        <v>169.41569765334236</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C262">
+        <v>101.032245</v>
+      </c>
+      <c r="D262">
+        <v>101.03776289949172</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C263">
+        <v>141.95619299996017</v>
+      </c>
+      <c r="D263">
+        <v>141.95477360805836</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C264">
+        <v>7.216437</v>
+      </c>
+      <c r="D264">
+        <v>7.216437</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C265">
+        <v>1318.0018001340636</v>
+      </c>
+      <c r="D265">
+        <v>1315.1123414477233</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C266">
+        <v>208.47675100000001</v>
+      </c>
+      <c r="D266">
+        <v>206.6695866105143</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C267">
+        <v>433.13757699117514</v>
+      </c>
+      <c r="D267">
+        <v>432.74635965510043</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C268">
+        <v>234.45497499218231</v>
+      </c>
+      <c r="D268">
+        <v>234.21910376693904</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C269">
+        <v>111.08449099050227</v>
+      </c>
+      <c r="D269">
+        <v>110.64905871908579</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C270">
+        <v>177.8480500854015</v>
+      </c>
+      <c r="D270">
+        <v>178.3023617621451</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271">
+        <v>899.58204899999998</v>
+      </c>
+      <c r="D271">
+        <v>899.58204899999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C272">
+        <v>517.20472900000004</v>
+      </c>
+      <c r="D272">
+        <v>516.6699558193136</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C273">
+        <v>1092.93382</v>
+      </c>
+      <c r="D273">
+        <v>1092.93382</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274">
+        <v>930.25571061679295</v>
+      </c>
+      <c r="D274">
+        <v>931.48729522737801</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C275">
+        <v>195.091973</v>
+      </c>
+      <c r="D275">
+        <v>195.091973</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C276">
+        <v>1659.55143</v>
+      </c>
+      <c r="D276">
+        <v>1659.55143</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C277">
+        <v>396.05000893275627</v>
+      </c>
+      <c r="D277">
+        <v>397.15919263464065</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C278">
+        <v>117.88548944716989</v>
+      </c>
+      <c r="D278">
+        <v>116.33410294130172</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C279">
+        <v>380.89812899999998</v>
+      </c>
+      <c r="D279">
+        <v>380.89812899999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C280">
+        <v>279.16032799999999</v>
+      </c>
+      <c r="D280">
+        <v>279.10604025971952</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C281">
+        <v>2073.31916</v>
+      </c>
+      <c r="D281">
+        <v>2073.31916</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C282">
+        <v>1122.3854200000001</v>
+      </c>
+      <c r="D282">
+        <v>1122.6704486547824</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C283">
+        <v>46.377710828824561</v>
+      </c>
+      <c r="D283">
+        <v>44.717345088049854</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C284">
+        <v>342.99158499999999</v>
+      </c>
+      <c r="D284">
+        <v>342.95093160666676</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C285">
+        <v>70.900368400000005</v>
+      </c>
+      <c r="D285">
+        <v>70.898236893585505</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286">
+        <v>624.19086800000002</v>
+      </c>
+      <c r="D286">
+        <v>624.24561901494224</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C287">
+        <v>123.61450600000001</v>
+      </c>
+      <c r="D287">
+        <v>122.64790608737678</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C288">
+        <v>683.41905799999995</v>
+      </c>
+      <c r="D288">
+        <v>683.42268886369448</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C289">
+        <v>852.55204000000003</v>
+      </c>
+      <c r="D289">
+        <v>852.55165538201084</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C290">
+        <v>1259.29276</v>
+      </c>
+      <c r="D290">
+        <v>1259.29276</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C291">
+        <v>393.26398499999999</v>
+      </c>
+      <c r="D291">
+        <v>393.24480498755145</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C292">
+        <v>317.81141089878628</v>
+      </c>
+      <c r="D292">
+        <v>317.69888773610273</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C293">
+        <v>582.27744099999995</v>
+      </c>
+      <c r="D293">
+        <v>582.27744099999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C294">
+        <v>351.23072756324586</v>
+      </c>
+      <c r="D294">
+        <v>351.02589369339285</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C295">
+        <v>249.633814</v>
+      </c>
+      <c r="D295">
+        <v>249.64034419345774</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C296">
+        <v>211.27452700000001</v>
+      </c>
+      <c r="D296">
+        <v>211.27452700000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C297">
+        <v>231.92253258896801</v>
+      </c>
+      <c r="D297">
+        <v>232.4339924189681</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C298">
+        <v>1069.65353</v>
+      </c>
+      <c r="D298">
+        <v>1069.6622568939665</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C299">
+        <v>433.20593700000001</v>
+      </c>
+      <c r="D299">
+        <v>433.20593700000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C300">
+        <v>230.94166241060083</v>
+      </c>
+      <c r="D300">
+        <v>229.76217795404003</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C301">
+        <v>65.852488815700298</v>
+      </c>
+      <c r="D301">
+        <v>65.766853964159267</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C302">
+        <v>183.45723799999999</v>
+      </c>
+      <c r="D302">
+        <v>183.45723799999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C303">
+        <v>2036.04782</v>
+      </c>
+      <c r="D303">
+        <v>2035.4857845259858</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C304">
+        <v>242.74374900000001</v>
+      </c>
+      <c r="D304">
+        <v>242.74374900000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C305">
+        <v>584.31503199999997</v>
+      </c>
+      <c r="D305">
+        <v>584.31480281168456</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C306">
+        <v>169.26352499999999</v>
+      </c>
+      <c r="D306">
+        <v>169.25517012047567</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C307">
+        <v>145.13026500000001</v>
+      </c>
+      <c r="D307">
+        <v>145.11676859953977</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C308">
+        <v>71.526234002164301</v>
+      </c>
+      <c r="D308">
+        <v>72.117374581234643</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C309">
+        <v>1744.23136</v>
+      </c>
+      <c r="D309">
+        <v>1744.23136</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C310">
+        <v>71.10354019926595</v>
+      </c>
+      <c r="D310">
+        <v>71.159707870184903</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C311">
+        <v>92.140580700000001</v>
+      </c>
+      <c r="D311">
+        <v>92.140580700000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C312">
+        <v>0.55152028099999995</v>
+      </c>
+      <c r="D312">
+        <v>0.55152028099999995</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C313">
+        <v>104.17603200000001</v>
+      </c>
+      <c r="D313">
+        <v>104.17603200000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C314">
+        <v>843.62912600000004</v>
+      </c>
+      <c r="D314">
+        <v>843.62453087884478</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C315">
+        <v>10.818151</v>
+      </c>
+      <c r="D315">
+        <v>10.818151</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C316">
+        <v>126.289406</v>
+      </c>
+      <c r="D316">
+        <v>126.30432789396237</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C317">
+        <v>329.18089658478294</v>
+      </c>
+      <c r="D317">
+        <v>326.86982379306932</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C318">
+        <v>528.43621905560667</v>
+      </c>
+      <c r="D318">
+        <v>530.47479901838562</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C319">
+        <v>298.35150185988442</v>
+      </c>
+      <c r="D319">
+        <v>294.43049410792202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C320">
+        <v>115.754169</v>
+      </c>
+      <c r="D320">
+        <v>115.75679437009643</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C321">
+        <v>657.78166616377962</v>
+      </c>
+      <c r="D321">
+        <v>662.90468000077203</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C322">
+        <v>923.38661200000001</v>
+      </c>
+      <c r="D322">
+        <v>923.38458172734533</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C323">
+        <v>210.44815199999999</v>
+      </c>
+      <c r="D323">
+        <v>210.44815199999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C324">
+        <v>18.761469442108606</v>
+      </c>
+      <c r="D324">
+        <v>15.145671960046995</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C325">
+        <v>208.53799198269843</v>
+      </c>
+      <c r="D325">
+        <v>209.39716483577024</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C326">
+        <v>38.934866</v>
+      </c>
+      <c r="D326">
+        <v>38.934866</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C327">
+        <v>598.32100300000002</v>
+      </c>
+      <c r="D327">
+        <v>598.32100300000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C328">
+        <v>29.5450418</v>
+      </c>
+      <c r="D328">
+        <v>29.5450418</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C329">
+        <v>110.75567009196739</v>
+      </c>
+      <c r="D329">
+        <v>110.78599675394369</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C330">
+        <v>103.418245</v>
+      </c>
+      <c r="D330">
+        <v>103.418245</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C331">
+        <v>141.952358</v>
+      </c>
+      <c r="D331">
+        <v>141.952358</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C332">
+        <v>7.216437</v>
+      </c>
+      <c r="D332">
+        <v>7.216437</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C333">
+        <v>747.70143222991294</v>
+      </c>
+      <c r="D333">
+        <v>749.11201318691201</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C334">
+        <v>189.93112600000001</v>
+      </c>
+      <c r="D334">
+        <v>191.39066407186647</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C335">
+        <v>145.82380748788759</v>
+      </c>
+      <c r="D335">
+        <v>144.47004493723495</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C336">
+        <v>244.23903999999999</v>
+      </c>
+      <c r="D336">
+        <v>244.24003607320205</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C337">
+        <v>83.8020487</v>
+      </c>
+      <c r="D337">
+        <v>83.834179759573374</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C338">
+        <v>441.38467000000003</v>
+      </c>
+      <c r="D338">
+        <v>441.38467000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C339">
+        <v>2963.5074399999999</v>
+      </c>
+      <c r="D339">
+        <v>2963.5074399999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1.0274842107523956</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1.022785217837803</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>0.94563436922192257</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>0.90543867877864126</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>0.97436568515143507</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>0.9770958497969171</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>0.90558226579118284</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>0.92394951192617891</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>0.96193525923088474</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>0.9690620104466563</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>0.93784143193874492</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>0.980078177983152</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>0.95583418621790517</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1.000564222185397</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>0.95538234985015702</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>0.91272373447155553</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>0.93514898746065578</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>0.97748696184397976</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>0.9192686828561516</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>0.93936814819397374</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>0.91284759910449165</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>0.97900838867434381</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>0.96513380132578608</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>0.97861035939294316</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>0.96144190808113628</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>0.97556216013896513</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>0.94763906522695474</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>0.96795254710772682</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>0.89282253801217859</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>0.94498367174727249</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>0.97130593259954501</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>0.93206828324875468</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>0.93675232018142396</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>0.96616521981159331</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>0.97051373910497707</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>0.97425832443259863</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>0.9612242734702573</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>0.97361367225992801</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>0.94578077173551833</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>0.9505365195380765</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>0.92686303132469139</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>0.97120257584503233</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>0.95332269179106699</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>0.96118423205545078</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>0.77986139341862792</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>0.955519878838054</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>0.95176252949791673</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1.142429882283297</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>0.96675554336637781</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>0.94700924455110536</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>0.82092498772719702</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>0.95765728920887916</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>0.95400451241461748</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>0.92995882166879862</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>0.96772238301205948</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>0.96915909387148169</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>0.87606610546441044</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>0.95970014637895018</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>0.9420493548609824</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>0.9753970844955463</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>0.94749964678947862</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>0.94499167218279856</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>0.97501489360967253</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>0.96857117280774263</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>0.97525796725520797</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>0.94464432024234046</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>0.85437139250455951</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>0.93363775869523236</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>0.96096079071335216</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>0.93340010486180824</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>0.95786828732057827</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>0.96851403768879563</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>0.98199622321202118</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>0.97757204800830855</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>0.95537462883195234</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>0.96942079939260073</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>0.96306155500294821</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>0.95842557603957934</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>0.9676188068828192</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>0.980078177983152</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>0.97987017128779663</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>0.98212598177276644</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>0.97687732208665523</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>0.97110251522957136</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>0.95641900139714775</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>0.9790460648756486</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>0.97746561017196398</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>0.96287344354583448</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>0.96390790905483126</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>0.96273767511517694</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>0.97802160380601499</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>0.96458077860861813</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>0.97927883974444285</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>0.97034296121019448</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>0.97807942136460213</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>0.96595707297710909</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>0.97130916790321287</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>0.97021248434920582</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>0.97018592813711579</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>0.97289506480963628</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>0.97590620738410261</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>0.9589902455932473</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>0.97627359005894343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>0.97071421409881264</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>0.97667404181635609</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>0.97276553415939671</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>0.97581762357404866</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>0.97695408060376288</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>0.97459102945910048</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>0.96162600692184841</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>0.97120257584503233</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>0.96262109264516449</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>0.97169524636633298</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>0.9812940898579765</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>0.95551987883805389</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>0.97432865333193575</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>0.96153926078178542</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>0.9668695225621019</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>0.96954022266863948</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>0.95076004094133337</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>0.97812317529277715</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>0.98341694429052029</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>0.96838548737762442</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>0.95039190011125307</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>0.9743707466462308</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>0.9729156464525448</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>0.95896045404312791</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>0.96219126600725646</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>0.9529905718776307</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>0.9753970844955463</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>0.97774743951549592</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>0.95750014618209034</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>0.96244699422379676</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>0.97498826936796634</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>0.96973619801753141</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>0.97525796725520797</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>0.96176982319138937</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>0.95238391811917256</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>0.97032748860259532</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>0.96283447975678493</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>0.9625961367011826</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>0.99159958223312628</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>0.98420975499842334</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>0.95763115157537326</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>0.9755412500895011</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>0.97385956154689468</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C489">
+        <v>13138.757308452714</v>
+      </c>
+      <c r="D489">
+        <v>12453.896315446877</v>
       </c>
     </row>
   </sheetData>

--- a/test/MPSGEresults.xlsx
+++ b/test/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\.julia\dev\MPSGE\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D4C928-0F0A-49F4-AF6E-0665547CA3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3411B6E7-3C9F-4929-9AA9-11CC8C2F3DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="-11790" windowWidth="17280" windowHeight="9075" firstSheet="19" activeTab="21" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9132" firstSheet="19" activeTab="21" xr2:uid="{5168B6C6-3075-49BB-9B41-7C670E6513CA}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoxTwoScalar" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="359">
   <si>
     <t>X.L</t>
   </si>
@@ -1117,6 +1117,12 @@
   </si>
   <si>
     <t>Countermge</t>
+  </si>
+  <si>
+    <t>delas=0</t>
+  </si>
+  <si>
+    <t>delas=0.5</t>
   </si>
 </sst>
 </file>
@@ -9724,21 +9730,27 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365A110-3AE1-496C-B34F-8DB60510C5E7}">
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:F489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -9751,8 +9763,14 @@
       <c r="D2">
         <v>1.0187953979911399</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1.0057858907936701</v>
+      </c>
+      <c r="F2">
+        <v>1.0124367667220879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -9765,8 +9783,14 @@
       <c r="D3">
         <v>1.0391645094000266</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1.000158385228171</v>
+      </c>
+      <c r="F3">
+        <v>1.0198859760175596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -9779,8 +9803,14 @@
       <c r="D4">
         <v>0.99921350704747747</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.99752049611975324</v>
+      </c>
+      <c r="F4">
+        <v>0.99835745983986146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -9793,8 +9823,14 @@
       <c r="D5">
         <v>0.96924160562385353</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1.0000586548906423</v>
+      </c>
+      <c r="F5">
+        <v>0.98509716403413106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -9807,8 +9843,14 @@
       <c r="D6">
         <v>1.0440198759031358</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1.0023229758102019</v>
+      </c>
+      <c r="F6">
+        <v>1.0231880532851527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -9821,8 +9863,14 @@
       <c r="D7">
         <v>1.0255766609928192</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.99994812697086966</v>
+      </c>
+      <c r="F7">
+        <v>1.0131033665187599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -9835,8 +9883,14 @@
       <c r="D8">
         <v>0.99872785190736213</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1.0000847748554147</v>
+      </c>
+      <c r="F8">
+        <v>0.99939588763425391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -9849,8 +9903,14 @@
       <c r="D9">
         <v>1.0265093759737423</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1.0063198702639475</v>
+      </c>
+      <c r="F9">
+        <v>1.016447984917171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -9863,8 +9923,14 @@
       <c r="D10">
         <v>0.99342306828625959</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0.98617605304812306</v>
+      </c>
+      <c r="F10">
+        <v>0.98997597050490405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -9877,8 +9943,14 @@
       <c r="D11">
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F11">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -9891,8 +9963,14 @@
       <c r="D12">
         <v>0.99505822466491678</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>0.99760818614866142</v>
+      </c>
+      <c r="F12">
+        <v>0.99642105659461666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -9905,8 +9983,14 @@
       <c r="D13">
         <v>0.94669727709815188</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1.0000614619815302</v>
+      </c>
+      <c r="F13">
+        <v>0.97239492264923033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -9919,8 +10003,14 @@
       <c r="D14">
         <v>1.0233319401153151</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1.0018237154335567</v>
+      </c>
+      <c r="F14">
+        <v>1.0125900296741515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -9933,8 +10023,14 @@
       <c r="D15">
         <v>0.99526434878665049</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1.0002826599843022</v>
+      </c>
+      <c r="F15">
+        <v>0.99796616882241751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -9947,8 +10043,14 @@
       <c r="D16">
         <v>0.98775501305163738</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0.96112765107622822</v>
+      </c>
+      <c r="F16">
+        <v>0.97461049944854827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -9961,8 +10063,14 @@
       <c r="D17">
         <v>1.0052842773710482</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0.99916503764824327</v>
+      </c>
+      <c r="F17">
+        <v>1.0023606439024264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -9975,8 +10083,14 @@
       <c r="D18">
         <v>1.0042071199238547</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1.0007189323026482</v>
+      </c>
+      <c r="F18">
+        <v>1.0026387784783293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -9989,8 +10103,14 @@
       <c r="D19">
         <v>1.028145696320546</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1.0008155197477322</v>
+      </c>
+      <c r="F19">
+        <v>1.0142116500599292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -10003,8 +10123,14 @@
       <c r="D20">
         <v>0.99766877051988589</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0.99209128155032311</v>
+      </c>
+      <c r="F20">
+        <v>0.99496199584108758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -10017,8 +10143,14 @@
       <c r="D21">
         <v>1.0231476262926913</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>1.0004390688595795</v>
+      </c>
+      <c r="F21">
+        <v>1.0116398847868628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -10031,8 +10163,14 @@
       <c r="D22">
         <v>0.98197655655657656</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0.9989285614254686</v>
+      </c>
+      <c r="F22">
+        <v>0.99034934708389122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -10045,8 +10183,14 @@
       <c r="D23">
         <v>1.0043384422831221</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1.0004301749410671</v>
+      </c>
+      <c r="F23">
+        <v>1.0025130769488837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -10059,8 +10203,14 @@
       <c r="D24">
         <v>0.96132564275551791</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1.0000198568202996</v>
+      </c>
+      <c r="F24">
+        <v>0.98123437658592016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -10073,8 +10223,14 @@
       <c r="D25">
         <v>1.0027934945264336</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>1.0003595028468542</v>
+      </c>
+      <c r="F25">
+        <v>1.0015930889443994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -10087,8 +10243,14 @@
       <c r="D26">
         <v>1.015755777520104</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1.0003463021905064</v>
+      </c>
+      <c r="F26">
+        <v>1.0081337333003448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -10101,8 +10263,14 @@
       <c r="D27">
         <v>1.0058344176942187</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>1.0012455692154438</v>
+      </c>
+      <c r="F27">
+        <v>1.0035619942503813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -10115,8 +10283,14 @@
       <c r="D28">
         <v>0.99702770482450853</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>1.000036764070027</v>
+      </c>
+      <c r="F28">
+        <v>0.99854816843306116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -10129,8 +10303,14 @@
       <c r="D29">
         <v>1.0573171670379458</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0.99997550813465719</v>
+      </c>
+      <c r="F29">
+        <v>1.0284881448319727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -10143,8 +10323,14 @@
       <c r="D30">
         <v>1.0760189989743263</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1.0068809409065651</v>
+      </c>
+      <c r="F30">
+        <v>1.0405478505770154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -10157,8 +10343,14 @@
       <c r="D31">
         <v>0.96974167350447449</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>1.0000777409884676</v>
+      </c>
+      <c r="F31">
+        <v>0.98555355715918458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -10171,8 +10363,14 @@
       <c r="D32">
         <v>1.0200621013273283</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>0.99692911479186186</v>
+      </c>
+      <c r="F32">
+        <v>1.0084086866916435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -10185,8 +10383,14 @@
       <c r="D33">
         <v>1.0080341178397869</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>0.99691770422325543</v>
+      </c>
+      <c r="F33">
+        <v>1.0026335086192275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -10199,8 +10403,14 @@
       <c r="D34">
         <v>1.0120016226700093</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>0.99908210236901074</v>
+      </c>
+      <c r="F34">
+        <v>1.0056678507344377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -10213,8 +10423,14 @@
       <c r="D35">
         <v>0.97302437880837256</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>1.0000869506026147</v>
+      </c>
+      <c r="F35">
+        <v>0.98684171144761546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -10227,8 +10443,14 @@
       <c r="D36">
         <v>1.001527153985093</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0.99901946914910289</v>
+      </c>
+      <c r="F36">
+        <v>1.0003453599655061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -10241,8 +10463,14 @@
       <c r="D37">
         <v>0.98639150613368387</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>1.0000610303431974</v>
+      </c>
+      <c r="F37">
+        <v>0.99387698622582099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -10255,8 +10483,14 @@
       <c r="D38">
         <v>0.9817910613048173</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>0.999353621669405</v>
+      </c>
+      <c r="F38">
+        <v>0.99088720735713154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -10269,8 +10503,14 @@
       <c r="D39">
         <v>1.006471620649575</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>0.99981756223349072</v>
+      </c>
+      <c r="F39">
+        <v>1.0032278420332643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -10283,8 +10523,14 @@
       <c r="D40">
         <v>1.0070157882318385</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>0.99806397700432747</v>
+      </c>
+      <c r="F40">
+        <v>1.0025366880378168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
@@ -10297,8 +10543,14 @@
       <c r="D41">
         <v>1.0193346461426687</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>1.0076540663361986</v>
+      </c>
+      <c r="F41">
+        <v>1.0136654652758594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
@@ -10311,8 +10563,14 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -10325,8 +10583,14 @@
       <c r="D43">
         <v>1.0037685850748588</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>1.0014807173290483</v>
+      </c>
+      <c r="F43">
+        <v>1.0027754820272206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -10339,8 +10603,14 @@
       <c r="D44">
         <v>0.99154134479847611</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>0.99993129094367517</v>
+      </c>
+      <c r="F44">
+        <v>0.99570863984200053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -10353,8 +10623,14 @@
       <c r="D45">
         <v>1.0279433586049462</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>1.0032645037687378</v>
+      </c>
+      <c r="F45">
+        <v>1.0154801861323626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -10367,8 +10643,14 @@
       <c r="D46">
         <v>0.99645864243665416</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>1.0000957645292676</v>
+      </c>
+      <c r="F46">
+        <v>0.99913402321820255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -10381,8 +10663,14 @@
       <c r="D47">
         <v>0.99268578225738491</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>0.99976951325888952</v>
+      </c>
+      <c r="F47">
+        <v>0.99673566257407809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
@@ -10395,8 +10683,14 @@
       <c r="D48">
         <v>1.0218713885759587</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>1.0035285379610812</v>
+      </c>
+      <c r="F48">
+        <v>1.0124867474559838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
@@ -10409,8 +10703,14 @@
       <c r="D49">
         <v>0.97047217429279509</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>0.99762623078634416</v>
+      </c>
+      <c r="F49">
+        <v>0.98438518462350155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -10423,8 +10723,14 @@
       <c r="D50">
         <v>1.0018351928233884</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>0.99376702391843363</v>
+      </c>
+      <c r="F50">
+        <v>0.99788211242225322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
@@ -10437,8 +10743,14 @@
       <c r="D51">
         <v>1.0846338209237512</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>1.0093226044763439</v>
+      </c>
+      <c r="F51">
+        <v>1.0457892705334502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -10451,8 +10763,14 @@
       <c r="D52">
         <v>1.0230990082438574</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>1.0017924807462717</v>
+      </c>
+      <c r="F52">
+        <v>1.0124734069485555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -10465,8 +10783,14 @@
       <c r="D53">
         <v>0.98526698040996408</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>0.98250356176540965</v>
+      </c>
+      <c r="F53">
+        <v>0.98403068936951299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
@@ -10479,8 +10803,14 @@
       <c r="D54">
         <v>1.0029195546707181</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>1.0003794073413801</v>
+      </c>
+      <c r="F54">
+        <v>1.0018675847692606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
@@ -10493,8 +10823,14 @@
       <c r="D55">
         <v>1.0240404824936278</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>1.0128604467303759</v>
+      </c>
+      <c r="F55">
+        <v>1.0186369457843596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -10507,8 +10843,14 @@
       <c r="D56">
         <v>1.002404414330027</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>1.0001806917749549</v>
+      </c>
+      <c r="F56">
+        <v>1.0014285953933764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
@@ -10521,8 +10863,14 @@
       <c r="D57">
         <v>0.97751793940646314</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>1.0000636363037516</v>
+      </c>
+      <c r="F57">
+        <v>0.98941113845574524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -10535,8 +10883,14 @@
       <c r="D58">
         <v>0.84929079157941056</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>0.77945944177081872</v>
+      </c>
+      <c r="F58">
+        <v>0.81400853565143771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -10549,8 +10903,14 @@
       <c r="D59">
         <v>1.0185867291009589</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>1.00653119885377</v>
+      </c>
+      <c r="F59">
+        <v>1.0126612383106979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>35</v>
       </c>
@@ -10563,8 +10923,14 @@
       <c r="D60">
         <v>1.0264747063808075</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>1.0033220381938883</v>
+      </c>
+      <c r="F60">
+        <v>1.0147997720356292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>35</v>
       </c>
@@ -10577,8 +10943,14 @@
       <c r="D61">
         <v>0.99999999999999978</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="F61">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -10591,8 +10963,14 @@
       <c r="D62">
         <v>1.0231104205583923</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>1.0017954836602148</v>
+      </c>
+      <c r="F62">
+        <v>1.0124837347365638</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>35</v>
       </c>
@@ -10605,8 +10983,14 @@
       <c r="D63">
         <v>1.0154952746429153</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>1.0050370314753885</v>
+      </c>
+      <c r="F63">
+        <v>1.0103661388468381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>35</v>
       </c>
@@ -10619,8 +11003,14 @@
       <c r="D64">
         <v>1.0065181502971217</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>1.0014717630338494</v>
+      </c>
+      <c r="F64">
+        <v>1.0040533294514926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
@@ -10633,8 +11023,14 @@
       <c r="D65">
         <v>1.0230309838821325</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>1.0018588701707294</v>
+      </c>
+      <c r="F65">
+        <v>1.0124794308176699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>35</v>
       </c>
@@ -10647,8 +11043,14 @@
       <c r="D66">
         <v>1.0194303233500202</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>1.0003341719639001</v>
+      </c>
+      <c r="F66">
+        <v>1.0099064554621164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
@@ -10661,8 +11063,14 @@
       <c r="D67">
         <v>1.0234945487307707</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>1.0018269547206007</v>
+      </c>
+      <c r="F67">
+        <v>1.0126863313674397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>35</v>
       </c>
@@ -10675,8 +11083,14 @@
       <c r="D68">
         <v>1.0054452547018236</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>1.0015711204251487</v>
+      </c>
+      <c r="F68">
+        <v>1.0037819789212712</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>35</v>
       </c>
@@ -10689,8 +11103,14 @@
       <c r="D69">
         <v>1.0853479121150811</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>1.0142471175420904</v>
+      </c>
+      <c r="F69">
+        <v>1.0490403547747746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
@@ -10703,8 +11123,14 @@
       <c r="D70">
         <v>0.99696958508848665</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>0.98886123208876131</v>
+      </c>
+      <c r="F70">
+        <v>0.99323562148651212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>35</v>
       </c>
@@ -10717,8 +11143,14 @@
       <c r="D71">
         <v>1.0224548485923945</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>1.0039094806493212</v>
+      </c>
+      <c r="F71">
+        <v>1.0131306789254166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
@@ -10731,8 +11163,14 @@
       <c r="D72">
         <v>1.016804201305844</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>1.0043941627344695</v>
+      </c>
+      <c r="F72">
+        <v>1.0106579482632274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>231</v>
       </c>
@@ -10745,8 +11183,14 @@
       <c r="D73">
         <v>1.0159868630865658</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>1.0036237820492837</v>
+      </c>
+      <c r="F73">
+        <v>1.0099510214358289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>231</v>
       </c>
@@ -10759,8 +11203,14 @@
       <c r="D74">
         <v>1.0367103086944183</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>1.000219571827017</v>
+      </c>
+      <c r="F74">
+        <v>1.0186642125745018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -10773,8 +11223,14 @@
       <c r="D75">
         <v>1.0009498873687064</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>0.99913552292170671</v>
+      </c>
+      <c r="F75">
+        <v>1.0000690340157772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>231</v>
       </c>
@@ -10787,8 +11243,14 @@
       <c r="D76">
         <v>0.97034602427936656</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>1.0000606151002045</v>
+      </c>
+      <c r="F76">
+        <v>0.98563687665606425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>231</v>
       </c>
@@ -10801,8 +11263,14 @@
       <c r="D77">
         <v>1.0418646080485681</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>1.0014980432637979</v>
+      </c>
+      <c r="F77">
+        <v>1.0216991552004662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
@@ -10815,8 +11283,14 @@
       <c r="D78">
         <v>1.0253805603457939</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>1.0000629367455647</v>
+      </c>
+      <c r="F78">
+        <v>1.013051920010636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>231</v>
       </c>
@@ -10829,8 +11303,14 @@
       <c r="D79">
         <v>0.99850450959911097</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>1.0001071099003527</v>
+      </c>
+      <c r="F79">
+        <v>0.99928630245119465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>231</v>
       </c>
@@ -10843,8 +11323,14 @@
       <c r="D80">
         <v>1.0235957708084791</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>1.0042093807982424</v>
+      </c>
+      <c r="F80">
+        <v>1.0139232403889145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>231</v>
       </c>
@@ -10857,8 +11343,14 @@
       <c r="D81">
         <v>1.0072110973929076</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>1.0017712991709855</v>
+      </c>
+      <c r="F81">
+        <v>1.004672546072318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -10871,8 +11363,14 @@
       <c r="D82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>231</v>
       </c>
@@ -10885,8 +11383,14 @@
       <c r="D83">
         <v>0.99539064909876529</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>0.99800391452345072</v>
+      </c>
+      <c r="F83">
+        <v>0.99677996893817622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>231</v>
       </c>
@@ -10899,8 +11403,14 @@
       <c r="D84">
         <v>0.94734024041686415</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>1.0000619068896031</v>
+      </c>
+      <c r="F84">
+        <v>0.9727404175864286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>231</v>
       </c>
@@ -10913,8 +11423,14 @@
       <c r="D85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>231</v>
       </c>
@@ -10927,8 +11443,14 @@
       <c r="D86">
         <v>0.99501230507002425</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>1.0002611235151337</v>
+      </c>
+      <c r="F86">
+        <v>0.99782738458659337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>231</v>
       </c>
@@ -10941,8 +11463,14 @@
       <c r="D87">
         <v>1.024555680090212</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>0.99880202056182421</v>
+      </c>
+      <c r="F87">
+        <v>1.0118787153713682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>231</v>
       </c>
@@ -10955,8 +11483,14 @@
       <c r="D88">
         <v>1.0053916028043972</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>0.9993422678332633</v>
+      </c>
+      <c r="F88">
+        <v>1.0025027087996263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>231</v>
       </c>
@@ -10969,8 +11503,14 @@
       <c r="D89">
         <v>1.004195695666068</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>1.0007402572102742</v>
+      </c>
+      <c r="F89">
+        <v>1.0026430477713715</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>231</v>
       </c>
@@ -10983,8 +11523,14 @@
       <c r="D90">
         <v>1.0204804211895944</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>1.000594235026925</v>
+      </c>
+      <c r="F90">
+        <v>1.0105267506265727</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>231</v>
       </c>
@@ -10997,8 +11543,14 @@
       <c r="D91">
         <v>1.0057216161251967</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>1.0009885464123036</v>
+      </c>
+      <c r="F91">
+        <v>1.0034263906062302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>231</v>
       </c>
@@ -11011,8 +11563,14 @@
       <c r="D92">
         <v>1.0231397237400985</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>1.0004347626771937</v>
+      </c>
+      <c r="F92">
+        <v>1.0116338523623827</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>231</v>
       </c>
@@ -11025,8 +11583,14 @@
       <c r="D93">
         <v>0.98224769216326313</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>0.99895972561247581</v>
+      </c>
+      <c r="F93">
+        <v>0.99051236828901668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>231</v>
       </c>
@@ -11039,8 +11603,14 @@
       <c r="D94">
         <v>1.0042505469528067</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>1.0004145073342894</v>
+      </c>
+      <c r="F94">
+        <v>1.0024756058000122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>231</v>
       </c>
@@ -11053,8 +11623,14 @@
       <c r="D95">
         <v>0.97190425151924997</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>1.0000146457026553</v>
+      </c>
+      <c r="F95">
+        <v>0.9863713967288229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>231</v>
       </c>
@@ -11067,8 +11643,14 @@
       <c r="D96">
         <v>1.0032554171624886</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>1.0014587071375389</v>
+      </c>
+      <c r="F96">
+        <v>1.0023710107194064</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>231</v>
       </c>
@@ -11081,8 +11663,14 @@
       <c r="D97">
         <v>1.015755777520104</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>1.0003463021905064</v>
+      </c>
+      <c r="F97">
+        <v>1.0081337333003448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>231</v>
       </c>
@@ -11095,8 +11683,14 @@
       <c r="D98">
         <v>1.0064743701781294</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>1.0029132255123792</v>
+      </c>
+      <c r="F98">
+        <v>1.0047273119503199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>231</v>
       </c>
@@ -11109,8 +11703,14 @@
       <c r="D99">
         <v>0.99709513705168773</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>0.99978497513157116</v>
+      </c>
+      <c r="F99">
+        <v>0.99845807327186298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
@@ -11123,8 +11723,14 @@
       <c r="D100">
         <v>1.0422794269826494</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>0.99998244944889558</v>
+      </c>
+      <c r="F100">
+        <v>1.0210732062075871</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>231</v>
       </c>
@@ -11137,8 +11743,14 @@
       <c r="D101">
         <v>1.0735762474280539</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>1.0080927586599253</v>
+      </c>
+      <c r="F101">
+        <v>1.039895643384501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>231</v>
       </c>
@@ -11151,8 +11763,14 @@
       <c r="D102">
         <v>0.97584341167359268</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>1.0000620240901938</v>
+      </c>
+      <c r="F102">
+        <v>0.98846704611649761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>231</v>
       </c>
@@ -11165,8 +11783,14 @@
       <c r="D103">
         <v>1.0129865045475264</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>0.99764538360286326</v>
+      </c>
+      <c r="F103">
+        <v>1.0052369664056751</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>231</v>
       </c>
@@ -11179,8 +11803,14 @@
       <c r="D104">
         <v>1.0131575706441214</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>1.002962551854796</v>
+      </c>
+      <c r="F104">
+        <v>1.0082196607960854</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>231</v>
       </c>
@@ -11193,8 +11823,14 @@
       <c r="D105">
         <v>1.0150793421308018</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>1.0018824125411068</v>
+      </c>
+      <c r="F105">
+        <v>1.0085995264572178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>231</v>
       </c>
@@ -11207,8 +11843,14 @@
       <c r="D106">
         <v>0.9772321206232969</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>1.0000733894160323</v>
+      </c>
+      <c r="F106">
+        <v>0.98889418331309387</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>231</v>
       </c>
@@ -11221,8 +11863,14 @@
       <c r="D107">
         <v>1.0019767086954172</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>0.99934005652801472</v>
+      </c>
+      <c r="F107">
+        <v>1.000731777590081</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>231</v>
       </c>
@@ -11235,8 +11883,14 @@
       <c r="D108">
         <v>0.98630195295120227</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>1.0000610593627584</v>
+      </c>
+      <c r="F108">
+        <v>0.99383191766535928</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
@@ -11249,8 +11903,14 @@
       <c r="D109">
         <v>0.98184694913572512</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>0.99932931233358768</v>
+      </c>
+      <c r="F109">
+        <v>0.99087704376355912</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>231</v>
       </c>
@@ -11263,8 +11923,14 @@
       <c r="D110">
         <v>1.0064484365116071</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>0.99992074844857626</v>
+      </c>
+      <c r="F110">
+        <v>1.0032691761051782</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>231</v>
       </c>
@@ -11277,8 +11943,14 @@
       <c r="D111">
         <v>1.0073073472896346</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>0.99862398570823074</v>
+      </c>
+      <c r="F111">
+        <v>1.0029549163768736</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>231</v>
       </c>
@@ -11291,8 +11963,14 @@
       <c r="D112">
         <v>1.010830245258336</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>1.0004065513213931</v>
+      </c>
+      <c r="F112">
+        <v>1.0058140488090925</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>231</v>
       </c>
@@ -11305,8 +11983,14 @@
       <c r="D113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -11319,8 +12003,14 @@
       <c r="D114">
         <v>1.0026422254600165</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>1.0004960211222729</v>
+      </c>
+      <c r="F114">
+        <v>1.0017149807051073</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>231</v>
       </c>
@@ -11333,8 +12023,14 @@
       <c r="D115">
         <v>0.99257781177270865</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>0.99997708396235152</v>
+      </c>
+      <c r="F115">
+        <v>0.99641001046149436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>231</v>
       </c>
@@ -11347,8 +12043,14 @@
       <c r="D116">
         <v>1.0622261216905831</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>0.98598985439428488</v>
+      </c>
+      <c r="F116">
+        <v>1.0232854839675454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
@@ -11361,8 +12063,14 @@
       <c r="D117">
         <v>0.99699645684112748</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>1.0001079732020981</v>
+      </c>
+      <c r="F117">
+        <v>0.99938992700724572</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>231</v>
       </c>
@@ -11375,8 +12083,14 @@
       <c r="D118">
         <v>0.99904311812028135</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>1.0001830996395016</v>
+      </c>
+      <c r="F118">
+        <v>1.0000210940404965</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>231</v>
       </c>
@@ -11389,8 +12103,14 @@
       <c r="D119">
         <v>0.98696555138233655</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>1.0047986187378637</v>
+      </c>
+      <c r="F119">
+        <v>0.99511661578149491</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>231</v>
       </c>
@@ -11403,8 +12123,14 @@
       <c r="D120">
         <v>1.0073196293540587</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>1.000932025817052</v>
+      </c>
+      <c r="F120">
+        <v>1.0040440064459455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>231</v>
       </c>
@@ -11417,8 +12143,14 @@
       <c r="D121">
         <v>1.0089421424140788</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>1.001534714191725</v>
+      </c>
+      <c r="F121">
+        <v>1.0053285623997228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>231</v>
       </c>
@@ -11431,8 +12163,14 @@
       <c r="D122">
         <v>1.0787753546942462</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>1.0058675052694748</v>
+      </c>
+      <c r="F122">
+        <v>1.0411674191821418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>231</v>
       </c>
@@ -11445,8 +12183,14 @@
       <c r="D123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>231</v>
       </c>
@@ -11459,8 +12203,14 @@
       <c r="D124">
         <v>0.99866030357201674</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>0.99837811285396338</v>
+      </c>
+      <c r="F124">
+        <v>0.99865313408892631</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>231</v>
       </c>
@@ -11473,8 +12223,14 @@
       <c r="D125">
         <v>1.0029811729149916</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>1.0003737410684261</v>
+      </c>
+      <c r="F125">
+        <v>1.0018635055965603</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>231</v>
       </c>
@@ -11487,8 +12243,14 @@
       <c r="D126">
         <v>1.0159592676619764</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>1.0063149282811685</v>
+      </c>
+      <c r="F126">
+        <v>1.0113172183341916</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>231</v>
       </c>
@@ -11501,8 +12263,14 @@
       <c r="D127">
         <v>1.0024119448233197</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>1.0001732360170925</v>
+      </c>
+      <c r="F127">
+        <v>1.0014262185235263</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>231</v>
       </c>
@@ -11515,8 +12283,14 @@
       <c r="D128">
         <v>0.97811811625810108</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>1.0000616861488643</v>
+      </c>
+      <c r="F128">
+        <v>0.98969842964610621</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>231</v>
       </c>
@@ -11529,8 +12303,14 @@
       <c r="D129">
         <v>1.0776072535463099</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>1.0006968648803345</v>
+      </c>
+      <c r="F129">
+        <v>1.0389235679110473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>231</v>
       </c>
@@ -11543,8 +12323,14 @@
       <c r="D130">
         <v>1.0140389207035418</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>1.0034821137503929</v>
+      </c>
+      <c r="F130">
+        <v>1.0088550525706752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>231</v>
       </c>
@@ -11557,8 +12343,14 @@
       <c r="D131">
         <v>1.0181067982424326</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>1.0031453327718167</v>
+      </c>
+      <c r="F131">
+        <v>1.0107064992320287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>231</v>
       </c>
@@ -11571,8 +12363,14 @@
       <c r="D132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>231</v>
       </c>
@@ -11585,8 +12383,14 @@
       <c r="D133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>231</v>
       </c>
@@ -11599,8 +12403,14 @@
       <c r="D134">
         <v>1.0069376794156404</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>1.0061511410937962</v>
+      </c>
+      <c r="F134">
+        <v>1.0068065642611224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>231</v>
       </c>
@@ -11613,8 +12423,14 @@
       <c r="D135">
         <v>1.0063465045476498</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>1.0018479526591582</v>
+      </c>
+      <c r="F135">
+        <v>1.0041602140588937</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>231</v>
       </c>
@@ -11627,8 +12443,14 @@
       <c r="D136">
         <v>1.0198012676113621</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>1.0006279827038367</v>
+      </c>
+      <c r="F136">
+        <v>1.0102581382244196</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>231</v>
       </c>
@@ -11641,8 +12463,14 @@
       <c r="D137">
         <v>1.0196995846188524</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>1.0004709075207519</v>
+      </c>
+      <c r="F137">
+        <v>1.0101047221728496</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>231</v>
       </c>
@@ -11655,8 +12483,14 @@
       <c r="D138">
         <v>0.98433973173757039</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>1.00048317729974</v>
+      </c>
+      <c r="F138">
+        <v>0.99261321009954184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>231</v>
       </c>
@@ -11669,8 +12503,14 @@
       <c r="D139">
         <v>1.0069058156554569</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>1.0016106145051054</v>
+      </c>
+      <c r="F139">
+        <v>1.0044318861308426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>231</v>
       </c>
@@ -11683,8 +12523,14 @@
       <c r="D140">
         <v>1.0779792107528965</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>1.0076609325063841</v>
+      </c>
+      <c r="F140">
+        <v>1.0420646441290324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>231</v>
       </c>
@@ -11697,8 +12543,14 @@
       <c r="D141">
         <v>1.0071156124511513</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>1.0004025770560738</v>
+      </c>
+      <c r="F141">
+        <v>1.0040731964785803</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>231</v>
       </c>
@@ -11711,8 +12563,14 @@
       <c r="D142">
         <v>1.0210803024236823</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <v>1.0036722889313612</v>
+      </c>
+      <c r="F142">
+        <v>1.0123769871880641</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>231</v>
       </c>
@@ -11725,8 +12583,14 @@
       <c r="D143">
         <v>1.0163015566206877</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>1.0040139992860331</v>
+      </c>
+      <c r="F143">
+        <v>1.0102108506948391</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>345</v>
       </c>
@@ -11739,8 +12603,14 @@
       <c r="D144">
         <v>45.098345025811753</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <v>44.994536599380773</v>
+      </c>
+      <c r="F144">
+        <v>45.060124026854446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>345</v>
       </c>
@@ -11753,8 +12623,14 @@
       <c r="D145">
         <v>774.30644850203009</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>739.68676687237098</v>
+      </c>
+      <c r="F145">
+        <v>757.15985202243462</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>345</v>
       </c>
@@ -11767,8 +12643,14 @@
       <c r="D146">
         <v>1020.0491765708387</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>1051.5603648015979</v>
+      </c>
+      <c r="F146">
+        <v>1036.2614706198483</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>345</v>
       </c>
@@ -11781,8 +12663,14 @@
       <c r="D147">
         <v>1080.8633601544798</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>1032.7010873546642</v>
+      </c>
+      <c r="F147">
+        <v>1056.7629508082732</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>345</v>
       </c>
@@ -11795,8 +12683,14 @@
       <c r="D148">
         <v>204.12596182013189</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>198.98595083873207</v>
+      </c>
+      <c r="F148">
+        <v>201.62283657454628</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>345</v>
       </c>
@@ -11809,8 +12703,14 @@
       <c r="D149">
         <v>144.62798584003582</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>147.86991960011738</v>
+      </c>
+      <c r="F149">
+        <v>146.24362118728689</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>345</v>
       </c>
@@ -11823,8 +12723,14 @@
       <c r="D150">
         <v>87.216977149171214</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>86.299121679480933</v>
+      </c>
+      <c r="F150">
+        <v>86.797819897891017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>345</v>
       </c>
@@ -11837,8 +12743,14 @@
       <c r="D151">
         <v>129.47108538379464</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>130.56635445653146</v>
+      </c>
+      <c r="F151">
+        <v>130.04006945956903</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>345</v>
       </c>
@@ -11851,8 +12763,14 @@
       <c r="D152">
         <v>1927.9438323977242</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>2035.2383474762005</v>
+      </c>
+      <c r="F152">
+        <v>1979.6360468099163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>345</v>
       </c>
@@ -11865,8 +12783,14 @@
       <c r="D153">
         <v>383.94378959599209</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>387.00875602522979</v>
+      </c>
+      <c r="F153">
+        <v>385.56612984551492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>345</v>
       </c>
@@ -11879,8 +12803,14 @@
       <c r="D154">
         <v>75.543779640822734</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>72.746815050266065</v>
+      </c>
+      <c r="F154">
+        <v>74.165909132204575</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>345</v>
       </c>
@@ -11893,8 +12823,14 @@
       <c r="D155">
         <v>106.26613899431139</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>104.84594528456672</v>
+      </c>
+      <c r="F155">
+        <v>105.57704667067907</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>345</v>
       </c>
@@ -11907,8 +12843,14 @@
       <c r="D156">
         <v>5.970720042307768</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>6.157630316142769</v>
+      </c>
+      <c r="F156">
+        <v>6.0686737692902355</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>345</v>
       </c>
@@ -11921,8 +12863,14 @@
       <c r="D157">
         <v>272.9921654426908</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>264.76988006507747</v>
+      </c>
+      <c r="F157">
+        <v>268.8452038371841</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>345</v>
       </c>
@@ -11935,8 +12883,14 @@
       <c r="D158">
         <v>21.069086609512066</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>20.881296916121112</v>
+      </c>
+      <c r="F158">
+        <v>20.980862891374745</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>345</v>
       </c>
@@ -11949,8 +12903,14 @@
       <c r="D159">
         <v>343.60847997151768</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>330.93147967037402</v>
+      </c>
+      <c r="F159">
+        <v>337.15792632652375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>345</v>
       </c>
@@ -11963,8 +12923,14 @@
       <c r="D160">
         <v>270.46373815642323</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>279.36461052351439</v>
+      </c>
+      <c r="F160">
+        <v>274.8911548728899</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>345</v>
       </c>
@@ -11977,8 +12943,14 @@
       <c r="D161">
         <v>5.530008379429785</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E161">
+        <v>5.6310482091003822</v>
+      </c>
+      <c r="F161">
+        <v>5.5803628866489019</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>345</v>
       </c>
@@ -11991,8 +12963,14 @@
       <c r="D162">
         <v>340.64769678053227</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>351.71524724913093</v>
+      </c>
+      <c r="F162">
+        <v>346.338341665916</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>345</v>
       </c>
@@ -12005,8 +12983,14 @@
       <c r="D163">
         <v>32.155916106725968</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>32.618190565722131</v>
+      </c>
+      <c r="F163">
+        <v>32.388124879228663</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>345</v>
       </c>
@@ -12019,8 +13003,14 @@
       <c r="D164">
         <v>24.103893844554545</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>24.099392326065921</v>
+      </c>
+      <c r="F164">
+        <v>24.111659152841302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>345</v>
       </c>
@@ -12033,8 +13023,14 @@
       <c r="D165">
         <v>54.463311416979636</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>55.620391372278462</v>
+      </c>
+      <c r="F165">
+        <v>55.024813543568101</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -12047,8 +13043,14 @@
       <c r="D166">
         <v>167.15347566218165</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>157.45501094657698</v>
+      </c>
+      <c r="F166">
+        <v>162.28322832379146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>345</v>
       </c>
@@ -12061,8 +13063,14 @@
       <c r="D167">
         <v>1040.724704958496</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>1066.5171306711338</v>
+      </c>
+      <c r="F167">
+        <v>1054.1688813270266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>345</v>
       </c>
@@ -12075,8 +13083,14 @@
       <c r="D168">
         <v>107.15232315497242</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>105.37200684938595</v>
+      </c>
+      <c r="F168">
+        <v>106.20856661876634</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>345</v>
       </c>
@@ -12089,8 +13103,14 @@
       <c r="D169">
         <v>68.170472940880586</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>67.374726401554213</v>
+      </c>
+      <c r="F169">
+        <v>67.795410021067525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>345</v>
       </c>
@@ -12103,8 +13123,14 @@
       <c r="D170">
         <v>11.565124272297838</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170">
+        <v>11.789018076262396</v>
+      </c>
+      <c r="F170">
+        <v>11.682551206537527</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>345</v>
       </c>
@@ -12117,8 +13143,14 @@
       <c r="D171">
         <v>158.55105630940992</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E171">
+        <v>162.34793083327747</v>
+      </c>
+      <c r="F171">
+        <v>160.48849818350359</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>345</v>
       </c>
@@ -12131,8 +13163,14 @@
       <c r="D172">
         <v>70.831654751916787</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>72.807722020593744</v>
+      </c>
+      <c r="F172">
+        <v>71.843019788448998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>345</v>
       </c>
@@ -12145,8 +13183,14 @@
       <c r="D173">
         <v>238.93256874662833</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>242.31260789126955</v>
+      </c>
+      <c r="F173">
+        <v>240.78236729923083</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
@@ -12159,8 +13203,14 @@
       <c r="D174">
         <v>218.5218524308462</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>224.46956635244538</v>
+      </c>
+      <c r="F174">
+        <v>221.59969382979705</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>345</v>
       </c>
@@ -12173,8 +13223,14 @@
       <c r="D175">
         <v>78.405524739373789</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>78.237159819393341</v>
+      </c>
+      <c r="F175">
+        <v>78.332736118234976</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>345</v>
       </c>
@@ -12187,8 +13243,14 @@
       <c r="D176">
         <v>32.443065402388392</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>32.5361842892829</v>
+      </c>
+      <c r="F176">
+        <v>32.489208351381549</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>345</v>
       </c>
@@ -12201,8 +13263,14 @@
       <c r="D177">
         <v>122.36341197331805</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E177">
+        <v>119.65836621870972</v>
+      </c>
+      <c r="F177">
+        <v>121.06223209282133</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>345</v>
       </c>
@@ -12215,8 +13283,14 @@
       <c r="D178">
         <v>8.3727494598589143</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E178">
+        <v>8.421393420000074</v>
+      </c>
+      <c r="F178">
+        <v>8.4001522886790632</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>345</v>
       </c>
@@ -12229,8 +13303,14 @@
       <c r="D179">
         <v>45.255872143887402</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E179">
+        <v>45.894168589351466</v>
+      </c>
+      <c r="F179">
+        <v>45.582831779372498</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>345</v>
       </c>
@@ -12243,8 +13323,14 @@
       <c r="D180">
         <v>70.283657579611955</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E180">
+        <v>70.854919836168079</v>
+      </c>
+      <c r="F180">
+        <v>70.652409059433637</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>345</v>
       </c>
@@ -12257,8 +13343,14 @@
       <c r="D181">
         <v>612.78702450005449</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E181">
+        <v>615.33850733492602</v>
+      </c>
+      <c r="F181">
+        <v>614.38464458719557</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>345</v>
       </c>
@@ -12271,8 +13363,14 @@
       <c r="D182">
         <v>1.2512047812748921</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E182">
+        <v>1.5081129868047536</v>
+      </c>
+      <c r="F182">
+        <v>1.3738153626847815</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>345</v>
       </c>
@@ -12285,8 +13383,14 @@
       <c r="D183">
         <v>40.725595118737083</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>40.690927392813137</v>
+      </c>
+      <c r="F183">
+        <v>40.725782115626451</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>345</v>
       </c>
@@ -12299,8 +13403,14 @@
       <c r="D184">
         <v>358.72952964435234</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E184">
+        <v>310.70377751376679</v>
+      </c>
+      <c r="F184">
+        <v>333.86774541944214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>345</v>
       </c>
@@ -12313,8 +13423,14 @@
       <c r="D185">
         <v>162.83882540989578</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185">
+        <v>164.52958788451909</v>
+      </c>
+      <c r="F185">
+        <v>163.75955553364375</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>345</v>
       </c>
@@ -12327,8 +13443,14 @@
       <c r="D186">
         <v>26.856246147365461</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E186">
+        <v>27.031594738360088</v>
+      </c>
+      <c r="F186">
+        <v>26.953142634391821</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>345</v>
       </c>
@@ -12341,8 +13463,14 @@
       <c r="D187">
         <v>344.57383094877162</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E187">
+        <v>338.08191530420135</v>
+      </c>
+      <c r="F187">
+        <v>341.46458057928936</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>345</v>
       </c>
@@ -12355,8 +13483,14 @@
       <c r="D188">
         <v>62.601562121783751</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>63.916338316758171</v>
+      </c>
+      <c r="F188">
+        <v>63.28807448863629</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>345</v>
       </c>
@@ -12369,8 +13503,14 @@
       <c r="D189">
         <v>205.87362970767813</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>210.509513182473</v>
+      </c>
+      <c r="F189">
+        <v>208.32013149518306</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>345</v>
       </c>
@@ -12383,8 +13523,14 @@
       <c r="D190">
         <v>432.45998415353347</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E190">
+        <v>399.72263005290318</v>
+      </c>
+      <c r="F190">
+        <v>415.9914083721261</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>345</v>
       </c>
@@ -12397,8 +13543,14 @@
       <c r="D191">
         <v>1.7184884534766836</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>1.7400355035176129</v>
+      </c>
+      <c r="F191">
+        <v>1.7298687899748952</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>345</v>
       </c>
@@ -12411,8 +13563,14 @@
       <c r="D192">
         <v>12.365375939871454</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>12.290142297383809</v>
+      </c>
+      <c r="F192">
+        <v>12.331549670735351</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>345</v>
       </c>
@@ -12425,8 +13583,14 @@
       <c r="D193">
         <v>21.415759193021461</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E193">
+        <v>21.408609558385862</v>
+      </c>
+      <c r="F193">
+        <v>21.418579744220771</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>345</v>
       </c>
@@ -12439,8 +13603,14 @@
       <c r="D194">
         <v>7.9182384442887264</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <v>7.8946428425288548</v>
+      </c>
+      <c r="F194">
+        <v>7.9097416801395593</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>345</v>
       </c>
@@ -12453,8 +13623,14 @@
       <c r="D195">
         <v>8.5460563059011785E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <v>8.7331962415480274E-2</v>
+      </c>
+      <c r="F195">
+        <v>8.6436097426591599E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>345</v>
       </c>
@@ -12467,8 +13643,14 @@
       <c r="D196">
         <v>5.3147376811125673</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E196">
+        <v>5.4686140139270787</v>
+      </c>
+      <c r="F196">
+        <v>5.3930823525714455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>345</v>
       </c>
@@ -12481,8 +13663,14 @@
       <c r="D197">
         <v>632.50858223046907</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E197">
+        <v>630.39196719011511</v>
+      </c>
+      <c r="F197">
+        <v>631.55244405336998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>345</v>
       </c>
@@ -12495,8 +13683,14 @@
       <c r="D198">
         <v>143.42273283792542</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>129.28276199823387</v>
+      </c>
+      <c r="F198">
+        <v>136.19064093622896</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>345</v>
       </c>
@@ -12509,8 +13703,14 @@
       <c r="D199">
         <v>268.6590107811603</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>264.64015903494908</v>
+      </c>
+      <c r="F199">
+        <v>266.75238154851212</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>345</v>
       </c>
@@ -12523,8 +13723,14 @@
       <c r="D200">
         <v>23.029115873936696</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E200">
+        <v>23.348493443129282</v>
+      </c>
+      <c r="F200">
+        <v>23.199266525956432</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>345</v>
       </c>
@@ -12537,8 +13743,14 @@
       <c r="D201">
         <v>0.65393235800165772</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>0.64398626271857129</v>
+      </c>
+      <c r="F201">
+        <v>0.648907418888096</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>346</v>
       </c>
@@ -12551,8 +13763,14 @@
       <c r="D202">
         <v>236.98893839335526</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>237.09566840255809</v>
+      </c>
+      <c r="F202">
+        <v>237.0422588097714</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>346</v>
       </c>
@@ -12565,8 +13783,14 @@
       <c r="D203">
         <v>959.30454451645585</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>959.3133915693561</v>
+      </c>
+      <c r="F203">
+        <v>959.30920358166986</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>346</v>
       </c>
@@ -12579,8 +13803,14 @@
       <c r="D204">
         <v>525.36404787825381</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E204">
+        <v>525.38825352765105</v>
+      </c>
+      <c r="F204">
+        <v>525.38154137109382</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>346</v>
       </c>
@@ -12593,8 +13823,14 @@
       <c r="D205">
         <v>1093.380418608471</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E205">
+        <v>1093.3806174782069</v>
+      </c>
+      <c r="F205">
+        <v>1093.3805278957066</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>346</v>
       </c>
@@ -12607,8 +13843,14 @@
       <c r="D206">
         <v>1515.6565341994256</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>1516.0675363973978</v>
+      </c>
+      <c r="F206">
+        <v>1515.8596033208319</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>346</v>
       </c>
@@ -12621,8 +13863,14 @@
       <c r="D207">
         <v>204.69323700000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>204.69323700000001</v>
+      </c>
+      <c r="F207">
+        <v>204.69323700000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>346</v>
       </c>
@@ -12635,8 +13883,14 @@
       <c r="D208">
         <v>1661.3920523793759</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208">
+        <v>1661.3924476418649</v>
+      </c>
+      <c r="F208">
+        <v>1661.3922528826668</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>346</v>
       </c>
@@ -12649,8 +13903,14 @@
       <c r="D209">
         <v>516.05645743995058</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209">
+        <v>516.4491825717256</v>
+      </c>
+      <c r="F209">
+        <v>516.24630188778974</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>346</v>
       </c>
@@ -12663,8 +13923,14 @@
       <c r="D210">
         <v>298.23241753236528</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>298.34564515230835</v>
+      </c>
+      <c r="F210">
+        <v>298.28950099066986</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>346</v>
       </c>
@@ -12677,8 +13943,14 @@
       <c r="D211">
         <v>380.89812899999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>380.89812899999998</v>
+      </c>
+      <c r="F211">
+        <v>380.89812899999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>346</v>
       </c>
@@ -12691,8 +13963,14 @@
       <c r="D212">
         <v>348.82437875027074</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>349.05440644176076</v>
+      </c>
+      <c r="F212">
+        <v>348.93828932099274</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>346</v>
       </c>
@@ -12705,8 +13983,14 @@
       <c r="D213">
         <v>2035.1123600000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E213">
+        <v>2035.1123600000001</v>
+      </c>
+      <c r="F213">
+        <v>2035.1123600000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>346</v>
       </c>
@@ -12719,8 +14003,14 @@
       <c r="D214">
         <v>1174.5237332466215</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>1174.624898380865</v>
+      </c>
+      <c r="F214">
+        <v>1174.5735628332429</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>346</v>
       </c>
@@ -12733,8 +14023,14 @@
       <c r="D215">
         <v>145.34723676754547</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E215">
+        <v>145.38470010219774</v>
+      </c>
+      <c r="F215">
+        <v>145.36627167634839</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>346</v>
       </c>
@@ -12747,8 +14043,14 @@
       <c r="D216">
         <v>348.46915937195479</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>348.54320887628808</v>
+      </c>
+      <c r="F216">
+        <v>348.50578191061692</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>346</v>
       </c>
@@ -12761,8 +14063,14 @@
       <c r="D217">
         <v>70.484566529757757</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>70.484283660632613</v>
+      </c>
+      <c r="F217">
+        <v>70.484605514581048</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>346</v>
       </c>
@@ -12775,8 +14083,14 @@
       <c r="D218">
         <v>652.03285818802021</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>652.06481941362529</v>
+      </c>
+      <c r="F218">
+        <v>652.04819946854934</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>346</v>
       </c>
@@ -12789,8 +14103,14 @@
       <c r="D219">
         <v>214.11632887632879</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <v>214.17073081509864</v>
+      </c>
+      <c r="F219">
+        <v>214.14319182735642</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>346</v>
       </c>
@@ -12803,8 +14123,14 @@
       <c r="D220">
         <v>706.8021236283289</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E220">
+        <v>706.92158293153022</v>
+      </c>
+      <c r="F220">
+        <v>706.85905798813667</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>346</v>
       </c>
@@ -12817,8 +14143,14 @@
       <c r="D221">
         <v>792.55497564074847</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>792.92880942347063</v>
+      </c>
+      <c r="F221">
+        <v>792.73675430241201</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>346</v>
       </c>
@@ -12831,8 +14163,14 @@
       <c r="D222">
         <v>1255.2026914972255</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E222">
+        <v>1255.2267067284863</v>
+      </c>
+      <c r="F222">
+        <v>1255.2142585676984</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>346</v>
       </c>
@@ -12845,8 +14183,14 @@
       <c r="D223">
         <v>392.7159028178117</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E223">
+        <v>392.72117723805945</v>
+      </c>
+      <c r="F223">
+        <v>392.71886236753926</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>346</v>
       </c>
@@ -12859,8 +14203,14 @@
       <c r="D224">
         <v>276.94386786298827</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>277.51212211102859</v>
+      </c>
+      <c r="F224">
+        <v>277.22539563263047</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>346</v>
       </c>
@@ -12873,8 +14223,14 @@
       <c r="D225">
         <v>579.52733536286462</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225">
+        <v>579.53406148501142</v>
+      </c>
+      <c r="F225">
+        <v>579.53136039011576</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>346</v>
       </c>
@@ -12887,8 +14243,14 @@
       <c r="D226">
         <v>586.9174976130937</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E226">
+        <v>587.30245912839212</v>
+      </c>
+      <c r="F226">
+        <v>587.11266086087414</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>346</v>
       </c>
@@ -12901,8 +14263,14 @@
       <c r="D227">
         <v>245.62011398775337</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <v>245.67694426498667</v>
+      </c>
+      <c r="F227">
+        <v>245.64707084169626</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>346</v>
       </c>
@@ -12915,8 +14283,14 @@
       <c r="D228">
         <v>229.58782400000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E228">
+        <v>229.58782400000001</v>
+      </c>
+      <c r="F228">
+        <v>229.58782400000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>346</v>
       </c>
@@ -12929,8 +14303,14 @@
       <c r="D229">
         <v>411.26560537598749</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E229">
+        <v>411.49704860379194</v>
+      </c>
+      <c r="F229">
+        <v>411.37614789607744</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>346</v>
       </c>
@@ -12943,8 +14323,14 @@
       <c r="D230">
         <v>1073.1106729716673</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E230">
+        <v>1073.1160351148214</v>
+      </c>
+      <c r="F230">
+        <v>1073.1137130045634</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>346</v>
       </c>
@@ -12957,8 +14343,14 @@
       <c r="D231">
         <v>368.09571309883438</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>368.87880447823306</v>
+      </c>
+      <c r="F231">
+        <v>368.46757512605836</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>346</v>
       </c>
@@ -12971,8 +14363,14 @@
       <c r="D232">
         <v>362.2027943560156</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>362.32332078129116</v>
+      </c>
+      <c r="F232">
+        <v>362.26306847954811</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>346</v>
       </c>
@@ -12985,8 +14383,14 @@
       <c r="D233">
         <v>92.102433581938882</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>92.122898915735362</v>
+      </c>
+      <c r="F233">
+        <v>92.113134375747535</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>346</v>
       </c>
@@ -12999,8 +14403,14 @@
       <c r="D234">
         <v>183.49513400000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>183.49513400000001</v>
+      </c>
+      <c r="F234">
+        <v>183.49513400000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>346</v>
       </c>
@@ -13013,8 +14423,14 @@
       <c r="D235">
         <v>1988.8736107919547</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E235">
+        <v>1989.3769181721575</v>
+      </c>
+      <c r="F235">
+        <v>1989.1338688899889</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>346</v>
       </c>
@@ -13027,8 +14443,14 @@
       <c r="D236">
         <v>245.658333</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>245.658333</v>
+      </c>
+      <c r="F236">
+        <v>245.658333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>346</v>
       </c>
@@ -13041,8 +14463,14 @@
       <c r="D237">
         <v>514.08681030717764</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>514.22471742673633</v>
+      </c>
+      <c r="F237">
+        <v>514.16590624990204</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>346</v>
       </c>
@@ -13055,8 +14483,14 @@
       <c r="D238">
         <v>174.63209628248799</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E238">
+        <v>174.64139074240873</v>
+      </c>
+      <c r="F238">
+        <v>174.63663303231752</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>346</v>
       </c>
@@ -13069,8 +14503,14 @@
       <c r="D239">
         <v>146.42179694517688</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E239">
+        <v>146.56945655593248</v>
+      </c>
+      <c r="F239">
+        <v>146.49334377665426</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>346</v>
       </c>
@@ -13083,8 +14523,14 @@
       <c r="D240">
         <v>221.26364251800513</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E240">
+        <v>221.27885778840056</v>
+      </c>
+      <c r="F240">
+        <v>221.27140312809306</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>346</v>
       </c>
@@ -13097,8 +14543,14 @@
       <c r="D241">
         <v>1744.23136</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E241">
+        <v>1744.23136</v>
+      </c>
+      <c r="F241">
+        <v>1744.23136</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>346</v>
       </c>
@@ -13111,8 +14563,14 @@
       <c r="D242">
         <v>89.277495969022794</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E242">
+        <v>89.286785200309808</v>
+      </c>
+      <c r="F242">
+        <v>89.28219437166041</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>346</v>
       </c>
@@ -13125,8 +14583,14 @@
       <c r="D243">
         <v>93.148182500000004</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <v>93.148182500000004</v>
+      </c>
+      <c r="F243">
+        <v>93.148182500000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>346</v>
       </c>
@@ -13139,8 +14603,14 @@
       <c r="D244">
         <v>0.37911720746620853</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>0.38218726206221793</v>
+      </c>
+      <c r="F244">
+        <v>0.38057107652065086</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>346</v>
       </c>
@@ -13153,8 +14623,14 @@
       <c r="D245">
         <v>104.17603200000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245">
+        <v>104.17603200000001</v>
+      </c>
+      <c r="F245">
+        <v>104.17603200000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>346</v>
       </c>
@@ -13167,8 +14643,14 @@
       <c r="D246">
         <v>868.46312847659306</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E246">
+        <v>868.46332689278415</v>
+      </c>
+      <c r="F246">
+        <v>868.46323511989124</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>346</v>
       </c>
@@ -13181,8 +14663,14 @@
       <c r="D247">
         <v>7.9177444003775967</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E247">
+        <v>7.9241507455147699</v>
+      </c>
+      <c r="F247">
+        <v>7.9209009217089603</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>346</v>
       </c>
@@ -13195,8 +14683,14 @@
       <c r="D248">
         <v>124.2484226239032</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E248">
+        <v>124.25876886599877</v>
+      </c>
+      <c r="F248">
+        <v>124.25378884311932</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>346</v>
       </c>
@@ -13209,8 +14703,14 @@
       <c r="D249">
         <v>477.08715319364802</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E249">
+        <v>477.22342317918248</v>
+      </c>
+      <c r="F249">
+        <v>477.15657486581819</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>346</v>
       </c>
@@ -13223,8 +14723,14 @@
       <c r="D250">
         <v>753.40652140995348</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <v>754.14020775840345</v>
+      </c>
+      <c r="F250">
+        <v>753.75904815070999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>346</v>
       </c>
@@ -13237,8 +14743,14 @@
       <c r="D251">
         <v>754.55049168252913</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <v>754.88935773997775</v>
+      </c>
+      <c r="F251">
+        <v>754.71974496026678</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>346</v>
       </c>
@@ -13251,8 +14763,14 @@
       <c r="D252">
         <v>117.57586672632409</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E252">
+        <v>117.57654264716619</v>
+      </c>
+      <c r="F252">
+        <v>117.57620727457102</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>346</v>
       </c>
@@ -13265,8 +14783,14 @@
       <c r="D253">
         <v>1115.4545127840806</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253">
+        <v>1115.8563228228113</v>
+      </c>
+      <c r="F253">
+        <v>1115.6546382795327</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>346</v>
       </c>
@@ -13279,8 +14803,14 @@
       <c r="D254">
         <v>929.23078587776331</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254">
+        <v>929.23734590218248</v>
+      </c>
+      <c r="F254">
+        <v>929.23430111396988</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>346</v>
       </c>
@@ -13293,8 +14823,14 @@
       <c r="D255">
         <v>211.263869</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E255">
+        <v>211.263869</v>
+      </c>
+      <c r="F255">
+        <v>211.263869</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>346</v>
       </c>
@@ -13307,8 +14843,14 @@
       <c r="D256">
         <v>428.62972660493193</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>428.64971568017432</v>
+      </c>
+      <c r="F256">
+        <v>428.63988823012954</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>346</v>
       </c>
@@ -13321,8 +14863,14 @@
       <c r="D257">
         <v>306.43109410914155</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E257">
+        <v>306.55746971984252</v>
+      </c>
+      <c r="F257">
+        <v>306.49361309651459</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>346</v>
       </c>
@@ -13335,8 +14883,14 @@
       <c r="D258">
         <v>37.628497893802681</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <v>37.635985494279048</v>
+      </c>
+      <c r="F258">
+        <v>37.632270427984771</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>346</v>
       </c>
@@ -13349,8 +14903,14 @@
       <c r="D259">
         <v>598.32100300000002</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E259">
+        <v>598.32100300000002</v>
+      </c>
+      <c r="F259">
+        <v>598.32100300000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>346</v>
       </c>
@@ -13363,8 +14923,14 @@
       <c r="D260">
         <v>24.691647420800226</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E260">
+        <v>24.710731842600417</v>
+      </c>
+      <c r="F260">
+        <v>24.701471914218626</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>346</v>
       </c>
@@ -13377,8 +14943,14 @@
       <c r="D261">
         <v>169.41569765334236</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <v>169.44122215770184</v>
+      </c>
+      <c r="F261">
+        <v>169.42858714196009</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>346</v>
       </c>
@@ -13391,8 +14963,14 @@
       <c r="D262">
         <v>101.03776289949172</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E262">
+        <v>101.04866309255603</v>
+      </c>
+      <c r="F262">
+        <v>101.04321078776427</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>346</v>
       </c>
@@ -13405,8 +14983,14 @@
       <c r="D263">
         <v>141.95477360805836</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E263">
+        <v>141.95521814151769</v>
+      </c>
+      <c r="F263">
+        <v>141.95501191264498</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>346</v>
       </c>
@@ -13419,8 +15003,14 @@
       <c r="D264">
         <v>7.216437</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264">
+        <v>7.216437</v>
+      </c>
+      <c r="F264">
+        <v>7.216437</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>346</v>
       </c>
@@ -13433,8 +15023,14 @@
       <c r="D265">
         <v>1315.1123414477233</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E265">
+        <v>1316.0891624790841</v>
+      </c>
+      <c r="F265">
+        <v>1315.5877275106884</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>346</v>
       </c>
@@ -13447,8 +15043,14 @@
       <c r="D266">
         <v>206.6695866105143</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E266">
+        <v>206.90640018904122</v>
+      </c>
+      <c r="F266">
+        <v>206.78575815042345</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>346</v>
       </c>
@@ -13461,8 +15063,14 @@
       <c r="D267">
         <v>432.74635965510043</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E267">
+        <v>432.90320998437892</v>
+      </c>
+      <c r="F267">
+        <v>432.82545149503346</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>346</v>
       </c>
@@ -13475,8 +15083,14 @@
       <c r="D268">
         <v>234.21910376693904</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E268">
+        <v>234.24944978117537</v>
+      </c>
+      <c r="F268">
+        <v>234.23520726415066</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>346</v>
       </c>
@@ -13489,8 +15103,14 @@
       <c r="D269">
         <v>110.64905871908579</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E269">
+        <v>110.77011294220043</v>
+      </c>
+      <c r="F269">
+        <v>110.70770282632124</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>347</v>
       </c>
@@ -13503,8 +15123,14 @@
       <c r="D270">
         <v>178.3023617621451</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E270">
+        <v>178.21075049051004</v>
+      </c>
+      <c r="F270">
+        <v>178.25681390246297</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>347</v>
       </c>
@@ -13517,8 +15143,14 @@
       <c r="D271">
         <v>899.58204899999998</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E271">
+        <v>899.58204899999998</v>
+      </c>
+      <c r="F271">
+        <v>899.58204899999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>347</v>
       </c>
@@ -13531,8 +15163,14 @@
       <c r="D272">
         <v>516.6699558193136</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E272">
+        <v>516.64219650185771</v>
+      </c>
+      <c r="F272">
+        <v>516.649898560368</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>347</v>
       </c>
@@ -13545,8 +15183,14 @@
       <c r="D273">
         <v>1092.93382</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E273">
+        <v>1092.93382</v>
+      </c>
+      <c r="F273">
+        <v>1092.93382</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>347</v>
       </c>
@@ -13559,8 +15203,14 @@
       <c r="D274">
         <v>931.48729522737801</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E274">
+        <v>931.00345778859014</v>
+      </c>
+      <c r="F274">
+        <v>931.25107058789899</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>347</v>
       </c>
@@ -13573,8 +15223,14 @@
       <c r="D275">
         <v>195.091973</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E275">
+        <v>195.091973</v>
+      </c>
+      <c r="F275">
+        <v>195.091973</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>347</v>
       </c>
@@ -13587,8 +15243,14 @@
       <c r="D276">
         <v>1659.55143</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E276">
+        <v>1659.55143</v>
+      </c>
+      <c r="F276">
+        <v>1659.55143</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>347</v>
       </c>
@@ -13601,8 +15263,14 @@
       <c r="D277">
         <v>397.15919263464065</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E277">
+        <v>396.87716561511053</v>
+      </c>
+      <c r="F277">
+        <v>397.02444552001418</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>347</v>
       </c>
@@ -13615,8 +15283,14 @@
       <c r="D278">
         <v>116.33410294130172</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E278">
+        <v>116.11597535505493</v>
+      </c>
+      <c r="F278">
+        <v>116.22460222551236</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>347</v>
       </c>
@@ -13629,8 +15303,14 @@
       <c r="D279">
         <v>380.89812899999998</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279">
+        <v>380.89812899999998</v>
+      </c>
+      <c r="F279">
+        <v>380.89812899999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>347</v>
       </c>
@@ -13643,8 +15323,14 @@
       <c r="D280">
         <v>279.10604025971952</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E280">
+        <v>279.08193212949345</v>
+      </c>
+      <c r="F280">
+        <v>279.09420813400266</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>347</v>
       </c>
@@ -13657,8 +15343,14 @@
       <c r="D281">
         <v>2073.31916</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E281">
+        <v>2073.31916</v>
+      </c>
+      <c r="F281">
+        <v>2073.31916</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>347</v>
       </c>
@@ -13671,8 +15363,14 @@
       <c r="D282">
         <v>1122.6704486547824</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E282">
+        <v>1122.4038138215049</v>
+      </c>
+      <c r="F282">
+        <v>1122.5394509781243</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>347</v>
       </c>
@@ -13685,8 +15383,14 @@
       <c r="D283">
         <v>44.717345088049854</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E283">
+        <v>44.651249793560318</v>
+      </c>
+      <c r="F283">
+        <v>44.683544594607284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>347</v>
       </c>
@@ -13699,8 +15403,14 @@
       <c r="D284">
         <v>342.95093160666676</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E284">
+        <v>342.93120880895111</v>
+      </c>
+      <c r="F284">
+        <v>342.94120255465168</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>347</v>
       </c>
@@ -13713,8 +15423,14 @@
       <c r="D285">
         <v>70.898236893585505</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E285">
+        <v>70.898353696550572</v>
+      </c>
+      <c r="F285">
+        <v>70.898220788494186</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>347</v>
       </c>
@@ -13727,8 +15443,14 @@
       <c r="D286">
         <v>624.24561901494224</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E286">
+        <v>624.22777466832599</v>
+      </c>
+      <c r="F286">
+        <v>624.23708674057093</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>347</v>
       </c>
@@ -13741,8 +15463,14 @@
       <c r="D287">
         <v>122.64790608737678</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E287">
+        <v>122.5259229806653</v>
+      </c>
+      <c r="F287">
+        <v>122.58827244277282</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>347</v>
       </c>
@@ -13755,8 +15483,14 @@
       <c r="D288">
         <v>683.42268886369448</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E288">
+        <v>683.42134929781605</v>
+      </c>
+      <c r="F288">
+        <v>683.42205328095736</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>347</v>
       </c>
@@ -13769,8 +15503,14 @@
       <c r="D289">
         <v>852.55165538201084</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E289">
+        <v>852.55136806850373</v>
+      </c>
+      <c r="F289">
+        <v>852.55151613828457</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>347</v>
       </c>
@@ -13783,8 +15523,14 @@
       <c r="D290">
         <v>1259.29276</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E290">
+        <v>1259.29276</v>
+      </c>
+      <c r="F290">
+        <v>1259.29276</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>347</v>
       </c>
@@ -13797,8 +15543,14 @@
       <c r="D291">
         <v>393.24480498755145</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E291">
+        <v>393.24118208105699</v>
+      </c>
+      <c r="F291">
+        <v>393.24277398223921</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>347</v>
       </c>
@@ -13811,8 +15563,14 @@
       <c r="D292">
         <v>317.69888773610273</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E292">
+        <v>317.47245089245115</v>
+      </c>
+      <c r="F292">
+        <v>317.5871553161096</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>347</v>
       </c>
@@ -13825,8 +15583,14 @@
       <c r="D293">
         <v>582.27744099999995</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E293">
+        <v>582.27744099999995</v>
+      </c>
+      <c r="F293">
+        <v>582.27744099999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>347</v>
       </c>
@@ -13839,8 +15603,14 @@
       <c r="D294">
         <v>351.02589369339285</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E294">
+        <v>350.62115393321335</v>
+      </c>
+      <c r="F294">
+        <v>350.82064888915198</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>347</v>
       </c>
@@ -13853,8 +15623,14 @@
       <c r="D295">
         <v>249.64034419345774</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E295">
+        <v>249.62866804669562</v>
+      </c>
+      <c r="F295">
+        <v>249.63483299756962</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>347</v>
       </c>
@@ -13867,8 +15643,14 @@
       <c r="D296">
         <v>211.27452700000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E296">
+        <v>211.27452700000001</v>
+      </c>
+      <c r="F296">
+        <v>211.27452700000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>347</v>
       </c>
@@ -13881,8 +15663,14 @@
       <c r="D297">
         <v>232.4339924189681</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E297">
+        <v>231.64200200552258</v>
+      </c>
+      <c r="F297">
+        <v>232.05898830644841</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>347</v>
       </c>
@@ -13895,8 +15683,14 @@
       <c r="D298">
         <v>1069.6622568939665</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E298">
+        <v>1069.6535541978424</v>
+      </c>
+      <c r="F298">
+        <v>1069.6573271600596</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>347</v>
       </c>
@@ -13909,8 +15703,14 @@
       <c r="D299">
         <v>433.20593700000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E299">
+        <v>433.20593700000001</v>
+      </c>
+      <c r="F299">
+        <v>433.20593700000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>347</v>
       </c>
@@ -13923,8 +15723,14 @@
       <c r="D300">
         <v>229.76217795404003</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E300">
+        <v>229.56629584027417</v>
+      </c>
+      <c r="F300">
+        <v>229.66487257659026</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>347</v>
       </c>
@@ -13937,8 +15743,14 @@
       <c r="D301">
         <v>65.766853964159267</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E301">
+        <v>65.727327502314225</v>
+      </c>
+      <c r="F301">
+        <v>65.745918634564958</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>347</v>
       </c>
@@ -13951,8 +15763,14 @@
       <c r="D302">
         <v>183.45723799999999</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E302">
+        <v>183.45723799999999</v>
+      </c>
+      <c r="F302">
+        <v>183.45723799999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>347</v>
       </c>
@@ -13965,8 +15783,14 @@
       <c r="D303">
         <v>2035.4857845259858</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E303">
+        <v>2035.1506928344247</v>
+      </c>
+      <c r="F303">
+        <v>2035.3127855071748</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>347</v>
       </c>
@@ -13979,8 +15803,14 @@
       <c r="D304">
         <v>242.74374900000001</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E304">
+        <v>242.74374900000001</v>
+      </c>
+      <c r="F304">
+        <v>242.74374900000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>347</v>
       </c>
@@ -13993,8 +15823,14 @@
       <c r="D305">
         <v>584.31480281168456</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E305">
+        <v>584.31469259707887</v>
+      </c>
+      <c r="F305">
+        <v>584.31473965245698</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>347</v>
       </c>
@@ -14007,8 +15843,14 @@
       <c r="D306">
         <v>169.25517012047567</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E306">
+        <v>169.24727860640138</v>
+      </c>
+      <c r="F306">
+        <v>169.25132985919012</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>347</v>
       </c>
@@ -14021,8 +15863,14 @@
       <c r="D307">
         <v>145.11676859953977</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E307">
+        <v>145.05450846672639</v>
+      </c>
+      <c r="F307">
+        <v>145.08676488124777</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>347</v>
       </c>
@@ -14035,8 +15883,14 @@
       <c r="D308">
         <v>72.117374581234643</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E308">
+        <v>72.034037637327813</v>
+      </c>
+      <c r="F308">
+        <v>72.074062140400699</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>347</v>
       </c>
@@ -14049,8 +15903,14 @@
       <c r="D309">
         <v>1744.23136</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E309">
+        <v>1744.23136</v>
+      </c>
+      <c r="F309">
+        <v>1744.23136</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>347</v>
       </c>
@@ -14063,8 +15923,14 @@
       <c r="D310">
         <v>71.159707870184903</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E310">
+        <v>71.149891123247656</v>
+      </c>
+      <c r="F310">
+        <v>71.154747957562208</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>347</v>
       </c>
@@ -14077,8 +15943,14 @@
       <c r="D311">
         <v>92.140580700000001</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E311">
+        <v>92.140580700000001</v>
+      </c>
+      <c r="F311">
+        <v>92.140580700000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>347</v>
       </c>
@@ -14091,8 +15963,14 @@
       <c r="D312">
         <v>0.55152028099999995</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E312">
+        <v>0.55152028099999995</v>
+      </c>
+      <c r="F312">
+        <v>0.55152028099999995</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>347</v>
       </c>
@@ -14105,8 +15983,14 @@
       <c r="D313">
         <v>104.17603200000001</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E313">
+        <v>104.17603200000001</v>
+      </c>
+      <c r="F313">
+        <v>104.17603200000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>347</v>
       </c>
@@ -14119,8 +16003,14 @@
       <c r="D314">
         <v>843.62453087884478</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E314">
+        <v>843.61207814092245</v>
+      </c>
+      <c r="F314">
+        <v>843.61784588831654</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>347</v>
       </c>
@@ -14133,8 +16023,14 @@
       <c r="D315">
         <v>10.818151</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E315">
+        <v>10.818151</v>
+      </c>
+      <c r="F315">
+        <v>10.818151</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>347</v>
       </c>
@@ -14147,8 +16043,14 @@
       <c r="D316">
         <v>126.30432789396237</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E316">
+        <v>126.30085615082096</v>
+      </c>
+      <c r="F316">
+        <v>126.30253012870978</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>347</v>
       </c>
@@ -14161,8 +16063,14 @@
       <c r="D317">
         <v>326.86982379306932</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E317">
+        <v>326.67492124783377</v>
+      </c>
+      <c r="F317">
+        <v>326.77035175569102</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>347</v>
       </c>
@@ -14175,8 +16083,14 @@
       <c r="D318">
         <v>530.47479901838562</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E318">
+        <v>530.13576860011744</v>
+      </c>
+      <c r="F318">
+        <v>530.31402393143264</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>347</v>
       </c>
@@ -14189,8 +16103,14 @@
       <c r="D319">
         <v>294.43049410792202</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E319">
+        <v>293.67238130729817</v>
+      </c>
+      <c r="F319">
+        <v>294.05553820979969</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>347</v>
       </c>
@@ -14203,8 +16123,14 @@
       <c r="D320">
         <v>115.75679437009643</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E320">
+        <v>115.75581992461298</v>
+      </c>
+      <c r="F320">
+        <v>115.75630443551137</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>347</v>
       </c>
@@ -14217,8 +16143,14 @@
       <c r="D321">
         <v>662.90468000077203</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E321">
+        <v>661.97668170543272</v>
+      </c>
+      <c r="F321">
+        <v>662.44554758963136</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>347</v>
       </c>
@@ -14231,8 +16163,14 @@
       <c r="D322">
         <v>923.38458172734533</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E322">
+        <v>923.37937571617044</v>
+      </c>
+      <c r="F322">
+        <v>923.3817955237871</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>347</v>
       </c>
@@ -14245,8 +16183,14 @@
       <c r="D323">
         <v>210.44815199999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E323">
+        <v>210.44815199999999</v>
+      </c>
+      <c r="F323">
+        <v>210.44815199999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>347</v>
       </c>
@@ -14259,8 +16203,14 @@
       <c r="D324">
         <v>15.145671960046995</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E324">
+        <v>15.126624812209139</v>
+      </c>
+      <c r="F324">
+        <v>15.134093695898747</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>347</v>
       </c>
@@ -14273,8 +16223,14 @@
       <c r="D325">
         <v>209.39716483577024</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E325">
+        <v>209.112552452253</v>
+      </c>
+      <c r="F325">
+        <v>209.25711791528204</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>347</v>
       </c>
@@ -14287,8 +16243,14 @@
       <c r="D326">
         <v>38.934866</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E326">
+        <v>38.934866</v>
+      </c>
+      <c r="F326">
+        <v>38.934866</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>347</v>
       </c>
@@ -14301,8 +16263,14 @@
       <c r="D327">
         <v>598.32100300000002</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E327">
+        <v>598.32100300000002</v>
+      </c>
+      <c r="F327">
+        <v>598.32100300000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>347</v>
       </c>
@@ -14315,8 +16283,14 @@
       <c r="D328">
         <v>29.5450418</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E328">
+        <v>29.5450418</v>
+      </c>
+      <c r="F328">
+        <v>29.5450418</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>347</v>
       </c>
@@ -14329,8 +16303,14 @@
       <c r="D329">
         <v>110.78599675394369</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E329">
+        <v>110.71724963473665</v>
+      </c>
+      <c r="F329">
+        <v>110.75131102209447</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>347</v>
       </c>
@@ -14343,8 +16323,14 @@
       <c r="D330">
         <v>103.418245</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E330">
+        <v>103.418245</v>
+      </c>
+      <c r="F330">
+        <v>103.418245</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>347</v>
       </c>
@@ -14357,8 +16343,14 @@
       <c r="D331">
         <v>141.952358</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E331">
+        <v>141.952358</v>
+      </c>
+      <c r="F331">
+        <v>141.952358</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>347</v>
       </c>
@@ -14371,8 +16363,14 @@
       <c r="D332">
         <v>7.216437</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E332">
+        <v>7.216437</v>
+      </c>
+      <c r="F332">
+        <v>7.216437</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>347</v>
       </c>
@@ -14385,8 +16383,14 @@
       <c r="D333">
         <v>749.11201318691201</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E333">
+        <v>747.76653767041807</v>
+      </c>
+      <c r="F333">
+        <v>748.46842407877728</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>347</v>
       </c>
@@ -14399,8 +16403,14 @@
       <c r="D334">
         <v>191.39066407186647</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E334">
+        <v>191.20548994041928</v>
+      </c>
+      <c r="F334">
+        <v>191.30004517042855</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>347</v>
       </c>
@@ -14413,8 +16423,14 @@
       <c r="D335">
         <v>144.47004493723495</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E335">
+        <v>144.2257236854671</v>
+      </c>
+      <c r="F335">
+        <v>144.34762437318216</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>347</v>
       </c>
@@ -14427,8 +16443,14 @@
       <c r="D336">
         <v>244.24003607320205</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E336">
+        <v>244.2399104681667</v>
+      </c>
+      <c r="F336">
+        <v>244.23996951057634</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>347</v>
       </c>
@@ -14441,8 +16463,14 @@
       <c r="D337">
         <v>83.834179759573374</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E337">
+        <v>83.823866377931694</v>
+      </c>
+      <c r="F337">
+        <v>83.829243990687573</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>348</v>
       </c>
@@ -14455,8 +16483,14 @@
       <c r="D338">
         <v>441.38467000000003</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E338">
+        <v>441.38467000000003</v>
+      </c>
+      <c r="F338">
+        <v>441.38467000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>348</v>
       </c>
@@ -14469,8 +16503,14 @@
       <c r="D339">
         <v>2963.5074399999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E339">
+        <v>2963.5074399999999</v>
+      </c>
+      <c r="F339">
+        <v>2963.5074399999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>350</v>
       </c>
@@ -14483,8 +16523,14 @@
       <c r="D340">
         <v>1.0274842107523956</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E340">
+        <v>1.0033138476483687</v>
+      </c>
+      <c r="F340">
+        <v>1.0152781502485255</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>350</v>
       </c>
@@ -14497,8 +16543,14 @@
       <c r="D341">
         <v>1.022785217837803</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E341">
+        <v>1.001764994914266</v>
+      </c>
+      <c r="F341">
+        <v>1.0123085290768714</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>230</v>
       </c>
@@ -14511,8 +16563,14 @@
       <c r="D342">
         <v>0.94563436922192257</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E342">
+        <v>0.94455910169577795</v>
+      </c>
+      <c r="F342">
+        <v>0.94514019770948787</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>230</v>
       </c>
@@ -14525,8 +16583,14 @@
       <c r="D343">
         <v>0.90543867877864126</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E343">
+        <v>0.90370855052294852</v>
+      </c>
+      <c r="F343">
+        <v>0.90465289290558948</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>230</v>
       </c>
@@ -14539,8 +16603,14 @@
       <c r="D344">
         <v>0.97436568515143507</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E344">
+        <v>0.97145063206390436</v>
+      </c>
+      <c r="F344">
+        <v>0.97304686430021092</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>230</v>
       </c>
@@ -14553,8 +16623,14 @@
       <c r="D345">
         <v>0.9770958497969171</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E345">
+        <v>0.9748850569498021</v>
+      </c>
+      <c r="F345">
+        <v>0.97609288786618131</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>230</v>
       </c>
@@ -14567,8 +16643,14 @@
       <c r="D346">
         <v>0.90558226579118284</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E346">
+        <v>0.90480708276948651</v>
+      </c>
+      <c r="F346">
+        <v>0.905222925282818</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>230</v>
       </c>
@@ -14581,8 +16663,14 @@
       <c r="D347">
         <v>0.92394951192617891</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E347">
+        <v>0.92244916978250524</v>
+      </c>
+      <c r="F347">
+        <v>0.92326595581287652</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>230</v>
       </c>
@@ -14595,8 +16683,14 @@
       <c r="D348">
         <v>0.96193525923088474</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E348">
+        <v>0.9605042923904018</v>
+      </c>
+      <c r="F348">
+        <v>0.96127852048622708</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>230</v>
       </c>
@@ -14609,8 +16703,14 @@
       <c r="D349">
         <v>0.9690620104466563</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E349">
+        <v>0.96915817779850744</v>
+      </c>
+      <c r="F349">
+        <v>0.96909698486412965</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>230</v>
       </c>
@@ -14623,8 +16723,14 @@
       <c r="D350">
         <v>0.93784143193874492</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E350">
+        <v>0.93613022050445849</v>
+      </c>
+      <c r="F350">
+        <v>0.93703659119748317</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>230</v>
       </c>
@@ -14637,8 +16743,14 @@
       <c r="D351">
         <v>0.980078177983152</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E351">
+        <v>0.97873520931350799</v>
+      </c>
+      <c r="F351">
+        <v>0.97946337400147765</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>230</v>
       </c>
@@ -14651,8 +16763,14 @@
       <c r="D352">
         <v>0.95583418621790517</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E352">
+        <v>0.95527464133573325</v>
+      </c>
+      <c r="F352">
+        <v>0.95558561721778668</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>230</v>
       </c>
@@ -14665,8 +16783,14 @@
       <c r="D353">
         <v>1.000564222185397</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E353">
+        <v>1.0035680060781436</v>
+      </c>
+      <c r="F353">
+        <v>1.001892858112079</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>230</v>
       </c>
@@ -14679,8 +16803,14 @@
       <c r="D354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>230</v>
       </c>
@@ -14693,8 +16823,14 @@
       <c r="D355">
         <v>0.95538234985015702</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E355">
+        <v>0.95457429969906404</v>
+      </c>
+      <c r="F355">
+        <v>0.95500415902187652</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>230</v>
       </c>
@@ -14707,8 +16843,14 @@
       <c r="D356">
         <v>0.91272373447155553</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E356">
+        <v>0.91110620155066624</v>
+      </c>
+      <c r="F356">
+        <v>0.91197042003866546</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>230</v>
       </c>
@@ -14721,8 +16863,14 @@
       <c r="D357">
         <v>0.93514898746065578</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E357">
+        <v>0.93442155549973249</v>
+      </c>
+      <c r="F357">
+        <v>0.93481504670934601</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>230</v>
       </c>
@@ -14735,8 +16883,14 @@
       <c r="D358">
         <v>0.97748696184397976</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E358">
+        <v>0.97394888181164863</v>
+      </c>
+      <c r="F358">
+        <v>0.97589046090585507</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>230</v>
       </c>
@@ -14749,8 +16903,14 @@
       <c r="D359">
         <v>0.9192686828561516</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E359">
+        <v>0.91954360685285286</v>
+      </c>
+      <c r="F359">
+        <v>0.91937778259041958</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>230</v>
       </c>
@@ -14763,8 +16923,14 @@
       <c r="D360">
         <v>0.93936814819397374</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E360">
+        <v>0.93841712674262401</v>
+      </c>
+      <c r="F360">
+        <v>0.93892235519089284</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>230</v>
       </c>
@@ -14777,8 +16943,14 @@
       <c r="D361">
         <v>0.91284759910449165</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E361">
+        <v>0.91368213705621115</v>
+      </c>
+      <c r="F361">
+        <v>0.91321039734631959</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>230</v>
       </c>
@@ -14791,8 +16963,14 @@
       <c r="D362">
         <v>0.97900838867434381</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E362">
+        <v>0.97899543342913098</v>
+      </c>
+      <c r="F362">
+        <v>0.97899997491122293</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>230</v>
       </c>
@@ -14805,8 +16983,14 @@
       <c r="D363">
         <v>0.96513380132578608</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E363">
+        <v>0.96529856459306851</v>
+      </c>
+      <c r="F363">
+        <v>0.96519494993157873</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>230</v>
       </c>
@@ -14819,8 +17003,14 @@
       <c r="D364">
         <v>0.97861035939294316</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E364">
+        <v>0.97628808636804776</v>
+      </c>
+      <c r="F364">
+        <v>0.97755832559901013</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>230</v>
       </c>
@@ -14833,8 +17023,14 @@
       <c r="D365">
         <v>0.96144190808113628</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E365">
+        <v>0.961321229467476</v>
+      </c>
+      <c r="F365">
+        <v>0.96141203527927921</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>230</v>
       </c>
@@ -14847,8 +17043,14 @@
       <c r="D366">
         <v>0.97556216013896513</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E366">
+        <v>0.97300448318978161</v>
+      </c>
+      <c r="F366">
+        <v>0.97440623147215955</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>230</v>
       </c>
@@ -14861,8 +17063,14 @@
       <c r="D367">
         <v>0.94763906522695474</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E367">
+        <v>0.94611372298097063</v>
+      </c>
+      <c r="F367">
+        <v>0.94693337904720776</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>230</v>
       </c>
@@ -14875,8 +17083,14 @@
       <c r="D368">
         <v>0.96795254710772682</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E368">
+        <v>0.96926353280756428</v>
+      </c>
+      <c r="F368">
+        <v>0.96852838904721872</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>230</v>
       </c>
@@ -14889,8 +17103,14 @@
       <c r="D369">
         <v>0.89282253801217859</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E369">
+        <v>0.89175491473373536</v>
+      </c>
+      <c r="F369">
+        <v>0.89233335918141399</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>230</v>
       </c>
@@ -14903,8 +17123,14 @@
       <c r="D370">
         <v>0.94498367174727249</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E370">
+        <v>0.94452505847140833</v>
+      </c>
+      <c r="F370">
+        <v>0.94473572185354859</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>230</v>
       </c>
@@ -14917,8 +17143,14 @@
       <c r="D371">
         <v>0.97130593259954501</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E371">
+        <v>0.96894251276863597</v>
+      </c>
+      <c r="F371">
+        <v>0.97023451659395277</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>230</v>
       </c>
@@ -14931,8 +17163,14 @@
       <c r="D372">
         <v>0.93206828324875468</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E372">
+        <v>0.93417182931444098</v>
+      </c>
+      <c r="F372">
+        <v>0.93302405518155118</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>230</v>
       </c>
@@ -14945,8 +17183,14 @@
       <c r="D373">
         <v>0.93675232018142396</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E373">
+        <v>0.93549982463590919</v>
+      </c>
+      <c r="F373">
+        <v>0.93617034356366691</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>230</v>
       </c>
@@ -14959,8 +17203,14 @@
       <c r="D374">
         <v>0.96616521981159331</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E374">
+        <v>0.96418885135601717</v>
+      </c>
+      <c r="F374">
+        <v>0.96525334208637659</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>230</v>
       </c>
@@ -14973,8 +17223,14 @@
       <c r="D375">
         <v>0.97051373910497707</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E375">
+        <v>0.96934452113082192</v>
+      </c>
+      <c r="F375">
+        <v>0.96998970047685895</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>230</v>
       </c>
@@ -14987,8 +17243,14 @@
       <c r="D376">
         <v>0.97425832443259863</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E376">
+        <v>0.97264105800338785</v>
+      </c>
+      <c r="F376">
+        <v>0.97352512006627856</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>230</v>
       </c>
@@ -15001,8 +17263,14 @@
       <c r="D377">
         <v>0.9612242734702573</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E377">
+        <v>0.95848326442122123</v>
+      </c>
+      <c r="F377">
+        <v>0.95998422563551644</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>230</v>
       </c>
@@ -15015,8 +17283,14 @@
       <c r="D378">
         <v>0.97361367225992801</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E378">
+        <v>0.97135336381821447</v>
+      </c>
+      <c r="F378">
+        <v>0.97260849040480135</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>230</v>
       </c>
@@ -15029,8 +17303,14 @@
       <c r="D379">
         <v>0.94578077173551833</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E379">
+        <v>0.94537240175790604</v>
+      </c>
+      <c r="F379">
+        <v>0.94558591133306569</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>230</v>
       </c>
@@ -15043,8 +17323,14 @@
       <c r="D380">
         <v>0.9505365195380765</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E380">
+        <v>0.95076740155310635</v>
+      </c>
+      <c r="F380">
+        <v>0.9506407209813279</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>230</v>
       </c>
@@ -15057,8 +17343,14 @@
       <c r="D381">
         <v>0.92686303132469139</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E381">
+        <v>0.92510275803272513</v>
+      </c>
+      <c r="F381">
+        <v>0.92604100368857478</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>230</v>
       </c>
@@ -15071,8 +17363,14 @@
       <c r="D382">
         <v>0.97120257584503233</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E382">
+        <v>0.9683584813313928</v>
+      </c>
+      <c r="F382">
+        <v>0.96991620067040663</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>230</v>
       </c>
@@ -15085,8 +17383,14 @@
       <c r="D383">
         <v>0.95332269179106699</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E383">
+        <v>0.95196066570112703</v>
+      </c>
+      <c r="F383">
+        <v>0.95269750419691313</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>230</v>
       </c>
@@ -15099,8 +17403,14 @@
       <c r="D384">
         <v>0.96118423205545078</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E384">
+        <v>0.96055265642299037</v>
+      </c>
+      <c r="F384">
+        <v>0.96089037513872799</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>230</v>
       </c>
@@ -15113,8 +17423,14 @@
       <c r="D385">
         <v>0.77986139341862792</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E385">
+        <v>0.78418691897772785</v>
+      </c>
+      <c r="F385">
+        <v>0.78186834552655737</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>230</v>
       </c>
@@ -15127,8 +17443,14 @@
       <c r="D386">
         <v>0.955519878838054</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E386">
+        <v>0.95069216969793735</v>
+      </c>
+      <c r="F386">
+        <v>0.95333932063353377</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>230</v>
       </c>
@@ -15141,8 +17463,14 @@
       <c r="D387">
         <v>0.95176252949791673</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E387">
+        <v>0.94974110485643937</v>
+      </c>
+      <c r="F387">
+        <v>0.95084322243962383</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>230</v>
       </c>
@@ -15155,8 +17483,14 @@
       <c r="D388">
         <v>1.142429882283297</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E388">
+        <v>1.1420764826864431</v>
+      </c>
+      <c r="F388">
+        <v>1.1422796921486276</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>230</v>
       </c>
@@ -15169,8 +17503,14 @@
       <c r="D389">
         <v>0.96675554336637781</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E389">
+        <v>0.96509958992566625</v>
+      </c>
+      <c r="F389">
+        <v>0.96600407868119431</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>230</v>
       </c>
@@ -15183,8 +17523,14 @@
       <c r="D390">
         <v>0.94700924455110536</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E390">
+        <v>0.94542150979724338</v>
+      </c>
+      <c r="F390">
+        <v>0.9462758194415587</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>230</v>
       </c>
@@ -15197,8 +17543,14 @@
       <c r="D391">
         <v>0.82092498772719702</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E391">
+        <v>0.8209700051255987</v>
+      </c>
+      <c r="F391">
+        <v>0.82092895016350753</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>230</v>
       </c>
@@ -15211,8 +17563,14 @@
       <c r="D392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>230</v>
       </c>
@@ -15225,8 +17583,14 @@
       <c r="D393">
         <v>0.95765728920887916</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E393">
+        <v>0.9559193097532408</v>
+      </c>
+      <c r="F393">
+        <v>0.95683301340135141</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>230</v>
       </c>
@@ -15239,8 +17603,14 @@
       <c r="D394">
         <v>0.95400451241461748</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E394">
+        <v>0.95273824018713849</v>
+      </c>
+      <c r="F394">
+        <v>0.95342371428532247</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>230</v>
       </c>
@@ -15253,8 +17623,14 @@
       <c r="D395">
         <v>0.92995882166879862</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E395">
+        <v>0.92837968698423889</v>
+      </c>
+      <c r="F395">
+        <v>0.92921024562962851</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>230</v>
       </c>
@@ -15267,8 +17643,14 @@
       <c r="D396">
         <v>0.96772238301205948</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E396">
+        <v>0.96571383784244669</v>
+      </c>
+      <c r="F396">
+        <v>0.96681068554003269</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>230</v>
       </c>
@@ -15281,8 +17663,14 @@
       <c r="D397">
         <v>0.96915909387148169</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E397">
+        <v>0.96643612094497156</v>
+      </c>
+      <c r="F397">
+        <v>0.96792655560132557</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>230</v>
       </c>
@@ -15295,8 +17683,14 @@
       <c r="D398">
         <v>0.87606610546441044</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E398">
+        <v>0.87424266890981506</v>
+      </c>
+      <c r="F398">
+        <v>0.87520579330517012</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>230</v>
       </c>
@@ -15309,8 +17703,14 @@
       <c r="D399">
         <v>0.95970014637895018</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E399">
+        <v>0.95837453346630352</v>
+      </c>
+      <c r="F399">
+        <v>0.95907225209691893</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>230</v>
       </c>
@@ -15323,8 +17723,14 @@
       <c r="D400">
         <v>0.9420493548609824</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E400">
+        <v>0.94093137614447275</v>
+      </c>
+      <c r="F400">
+        <v>0.94154253125669074</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>230</v>
       </c>
@@ -15337,8 +17743,14 @@
       <c r="D401">
         <v>0.9753970844955463</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E401">
+        <v>0.97414950799596411</v>
+      </c>
+      <c r="F401">
+        <v>0.97482634249388056</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>230</v>
       </c>
@@ -15351,8 +17763,14 @@
       <c r="D402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>230</v>
       </c>
@@ -15365,8 +17783,14 @@
       <c r="D403">
         <v>0.94749964678947862</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E403">
+        <v>0.94637887837848189</v>
+      </c>
+      <c r="F403">
+        <v>0.94701534826037193</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>230</v>
       </c>
@@ -15379,8 +17803,14 @@
       <c r="D404">
         <v>0.94499167218279856</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E404">
+        <v>0.94346645296473175</v>
+      </c>
+      <c r="F404">
+        <v>0.94428220796166917</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>230</v>
       </c>
@@ -15393,8 +17823,14 @@
       <c r="D405">
         <v>0.97501489360967253</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E405">
+        <v>0.97397351494011819</v>
+      </c>
+      <c r="F405">
+        <v>0.9745391493890978</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>230</v>
       </c>
@@ -15407,8 +17843,14 @@
       <c r="D406">
         <v>0.96857117280774263</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E406">
+        <v>0.96654110135989202</v>
+      </c>
+      <c r="F406">
+        <v>0.96764837372861556</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>230</v>
       </c>
@@ -15421,8 +17863,14 @@
       <c r="D407">
         <v>0.97525796725520797</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E407">
+        <v>0.97389365279165119</v>
+      </c>
+      <c r="F407">
+        <v>0.97463470415228504</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>230</v>
       </c>
@@ -15435,8 +17883,14 @@
       <c r="D408">
         <v>0.94464432024234046</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E408">
+        <v>0.94417679665524423</v>
+      </c>
+      <c r="F408">
+        <v>0.94441730010669733</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>230</v>
       </c>
@@ -15449,8 +17903,14 @@
       <c r="D409">
         <v>0.85437139250455951</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E409">
+        <v>0.85395145733901445</v>
+      </c>
+      <c r="F409">
+        <v>0.85417754330700801</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>230</v>
       </c>
@@ -15463,8 +17923,14 @@
       <c r="D410">
         <v>0.93363775869523236</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E410">
+        <v>0.93215054360811134</v>
+      </c>
+      <c r="F410">
+        <v>0.93294559856818349</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>230</v>
       </c>
@@ -15477,8 +17943,14 @@
       <c r="D411">
         <v>0.96096079071335216</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E411">
+        <v>0.95912196515860926</v>
+      </c>
+      <c r="F411">
+        <v>0.96013135074464317</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>230</v>
       </c>
@@ -15491,8 +17963,14 @@
       <c r="D412">
         <v>0.93340010486180824</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E412">
+        <v>0.93377766647430027</v>
+      </c>
+      <c r="F412">
+        <v>0.93357488750085327</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>47</v>
       </c>
@@ -15505,8 +17983,14 @@
       <c r="D413">
         <v>0.95786828732057827</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E413">
+        <v>0.95679271583814296</v>
+      </c>
+      <c r="F413">
+        <v>0.95737123758136589</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>47</v>
       </c>
@@ -15519,8 +18003,14 @@
       <c r="D414">
         <v>0.96851403768879563</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E414">
+        <v>0.96665892649216667</v>
+      </c>
+      <c r="F414">
+        <v>0.96767116195462699</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>47</v>
       </c>
@@ -15533,8 +18023,14 @@
       <c r="D415">
         <v>0.98199622321202118</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E415">
+        <v>0.97906208926125382</v>
+      </c>
+      <c r="F415">
+        <v>0.98066978275490868</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>47</v>
       </c>
@@ -15547,8 +18043,14 @@
       <c r="D416">
         <v>0.97757204800830855</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E416">
+        <v>0.97536008900564364</v>
+      </c>
+      <c r="F416">
+        <v>0.9765685484675054</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>47</v>
       </c>
@@ -15561,8 +18063,14 @@
       <c r="D417">
         <v>0.95537462883195234</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E417">
+        <v>0.95485677586167783</v>
+      </c>
+      <c r="F417">
+        <v>0.95513056223722081</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>47</v>
       </c>
@@ -15575,8 +18083,14 @@
       <c r="D418">
         <v>0.96942079939260073</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E418">
+        <v>0.96784661935190741</v>
+      </c>
+      <c r="F418">
+        <v>0.96870360272196687</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>47</v>
       </c>
@@ -15589,8 +18103,14 @@
       <c r="D419">
         <v>0.96306155500294821</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E419">
+        <v>0.96162879830355052</v>
+      </c>
+      <c r="F419">
+        <v>0.96240398923291792</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>47</v>
       </c>
@@ -15603,8 +18123,14 @@
       <c r="D420">
         <v>0.95842557603957934</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E420">
+        <v>0.95879300949962476</v>
+      </c>
+      <c r="F420">
+        <v>0.95857617766682512</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>47</v>
       </c>
@@ -15617,8 +18143,14 @@
       <c r="D421">
         <v>0.9676188068828192</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E421">
+        <v>0.96626113934888536</v>
+      </c>
+      <c r="F421">
+        <v>0.96699057930750665</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>47</v>
       </c>
@@ -15631,8 +18163,14 @@
       <c r="D422">
         <v>0.980078177983152</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E422">
+        <v>0.97873520931350799</v>
+      </c>
+      <c r="F422">
+        <v>0.97946337400147765</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>47</v>
       </c>
@@ -15645,8 +18183,14 @@
       <c r="D423">
         <v>0.97987017128779663</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E423">
+        <v>0.97918267373400336</v>
+      </c>
+      <c r="F423">
+        <v>0.97955043084012516</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>47</v>
       </c>
@@ -15659,8 +18203,14 @@
       <c r="D424">
         <v>0.98212598177276644</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E424">
+        <v>0.98507441240748728</v>
+      </c>
+      <c r="F424">
+        <v>0.98343013380516786</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>47</v>
       </c>
@@ -15673,8 +18223,14 @@
       <c r="D425">
         <v>0.97687732208665523</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E425">
+        <v>0.97488740451381217</v>
+      </c>
+      <c r="F425">
+        <v>0.97597364399449527</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>47</v>
       </c>
@@ -15687,8 +18243,14 @@
       <c r="D426">
         <v>0.97110251522957136</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E426">
+        <v>0.97035462201218514</v>
+      </c>
+      <c r="F426">
+        <v>0.97075414803820204</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>47</v>
       </c>
@@ -15701,8 +18263,14 @@
       <c r="D427">
         <v>0.95641900139714775</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E427">
+        <v>0.95483419628278776</v>
+      </c>
+      <c r="F427">
+        <v>0.95569195804167573</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>47</v>
       </c>
@@ -15715,8 +18283,14 @@
       <c r="D428">
         <v>0.9790460648756486</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E428">
+        <v>0.97820868879588552</v>
+      </c>
+      <c r="F428">
+        <v>0.97865890598750493</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>47</v>
       </c>
@@ -15729,8 +18303,14 @@
       <c r="D429">
         <v>0.97746561017196398</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E429">
+        <v>0.97392875945509672</v>
+      </c>
+      <c r="F429">
+        <v>0.97586898506932052</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>47</v>
       </c>
@@ -15743,8 +18323,14 @@
       <c r="D430">
         <v>0.96287344354583448</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E430">
+        <v>0.96315156933498158</v>
+      </c>
+      <c r="F430">
+        <v>0.96298297087624374</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>47</v>
       </c>
@@ -15757,8 +18343,14 @@
       <c r="D431">
         <v>0.96390790905483126</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E431">
+        <v>0.9633278007693078</v>
+      </c>
+      <c r="F431">
+        <v>0.96363497010868338</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>47</v>
       </c>
@@ -15771,8 +18363,14 @@
       <c r="D432">
         <v>0.96273767511517694</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E432">
+        <v>0.96353734554716119</v>
+      </c>
+      <c r="F432">
+        <v>0.96308196097107235</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>47</v>
       </c>
@@ -15785,8 +18383,14 @@
       <c r="D433">
         <v>0.97802160380601499</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E433">
+        <v>0.9777782534827254</v>
+      </c>
+      <c r="F433">
+        <v>0.97790114018726593</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>47</v>
       </c>
@@ -15799,8 +18403,14 @@
       <c r="D434">
         <v>0.96458077860861813</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E434">
+        <v>0.96473621857738767</v>
+      </c>
+      <c r="F434">
+        <v>0.96463744747389457</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>47</v>
       </c>
@@ -15813,8 +18423,14 @@
       <c r="D435">
         <v>0.97927883974444285</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E435">
+        <v>0.97695292017463131</v>
+      </c>
+      <c r="F435">
+        <v>0.97822492746596246</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>47</v>
       </c>
@@ -15827,8 +18443,14 @@
       <c r="D436">
         <v>0.97034296121019448</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E436">
+        <v>0.96958857391545339</v>
+      </c>
+      <c r="F436">
+        <v>0.96999663828391447</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>47</v>
       </c>
@@ -15841,8 +18463,14 @@
       <c r="D437">
         <v>0.97807942136460213</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E437">
+        <v>0.9755094838211642</v>
+      </c>
+      <c r="F437">
+        <v>0.97691711751733024</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>47</v>
       </c>
@@ -15855,8 +18483,14 @@
       <c r="D438">
         <v>0.96595707297710909</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E438">
+        <v>0.96443480962288308</v>
+      </c>
+      <c r="F438">
+        <v>0.96525536463483164</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>47</v>
       </c>
@@ -15869,8 +18503,14 @@
       <c r="D439">
         <v>0.97130916790321287</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E439">
+        <v>0.97253494283897035</v>
+      </c>
+      <c r="F439">
+        <v>0.97184440625527557</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>47</v>
       </c>
@@ -15883,8 +18523,14 @@
       <c r="D440">
         <v>0.97021248434920582</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E440">
+        <v>0.96905231937887071</v>
+      </c>
+      <c r="F440">
+        <v>0.96968090344876867</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>47</v>
       </c>
@@ -15897,8 +18543,14 @@
       <c r="D441">
         <v>0.97018592813711579</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E441">
+        <v>0.97113383924503649</v>
+      </c>
+      <c r="F441">
+        <v>0.97059351602488908</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>47</v>
       </c>
@@ -15911,8 +18563,14 @@
       <c r="D442">
         <v>0.97289506480963628</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E442">
+        <v>0.97052930155817807</v>
+      </c>
+      <c r="F442">
+        <v>0.97182275875527135</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>47</v>
       </c>
@@ -15925,8 +18583,14 @@
       <c r="D443">
         <v>0.97590620738410261</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E443">
+        <v>0.9770699262780258</v>
+      </c>
+      <c r="F443">
+        <v>0.97641385434988293</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>47</v>
       </c>
@@ -15939,8 +18603,14 @@
       <c r="D444">
         <v>0.9589902455932473</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E444">
+        <v>0.95791499680329928</v>
+      </c>
+      <c r="F444">
+        <v>0.95849231009109992</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>47</v>
       </c>
@@ -15953,8 +18623,14 @@
       <c r="D445">
         <v>0.97627359005894343</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E445">
+        <v>0.97429956333771828</v>
+      </c>
+      <c r="F445">
+        <v>0.9753741518990614</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>47</v>
       </c>
@@ -15967,8 +18643,14 @@
       <c r="D446">
         <v>0.97071421409881264</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E446">
+        <v>0.96954475460415479</v>
+      </c>
+      <c r="F446">
+        <v>0.97019006722221079</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>47</v>
       </c>
@@ -15981,8 +18663,14 @@
       <c r="D447">
         <v>0.97667404181635609</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E447">
+        <v>0.97500967329521804</v>
+      </c>
+      <c r="F447">
+        <v>0.97591664465037775</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>47</v>
       </c>
@@ -15995,8 +18683,14 @@
       <c r="D448">
         <v>0.97276553415939671</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E448">
+        <v>0.96999161426857339</v>
+      </c>
+      <c r="F448">
+        <v>0.97151059727563494</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>47</v>
       </c>
@@ -16009,8 +18703,14 @@
       <c r="D449">
         <v>0.97581762357404866</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E449">
+        <v>0.97342173573989033</v>
+      </c>
+      <c r="F449">
+        <v>0.97473523686294672</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>47</v>
       </c>
@@ -16023,8 +18723,14 @@
       <c r="D450">
         <v>0.97695408060376288</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E450">
+        <v>0.97652903016951598</v>
+      </c>
+      <c r="F450">
+        <v>0.97675119119422826</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>47</v>
       </c>
@@ -16037,8 +18743,14 @@
       <c r="D451">
         <v>0.97459102945910048</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E451">
+        <v>0.97462505118118636</v>
+      </c>
+      <c r="F451">
+        <v>0.97459576101587431</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>47</v>
       </c>
@@ -16051,8 +18763,14 @@
       <c r="D452">
         <v>0.96162600692184841</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E452">
+        <v>0.95981282147170865</v>
+      </c>
+      <c r="F452">
+        <v>0.96079487680088738</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>47</v>
       </c>
@@ -16065,8 +18783,14 @@
       <c r="D453">
         <v>0.97120257584503233</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E453">
+        <v>0.9683584813313928</v>
+      </c>
+      <c r="F453">
+        <v>0.96991620067040663</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>47</v>
       </c>
@@ -16079,8 +18803,14 @@
       <c r="D454">
         <v>0.96262109264516449</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E454">
+        <v>0.96122340903076309</v>
+      </c>
+      <c r="F454">
+        <v>0.96197924688018688</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>47</v>
       </c>
@@ -16093,8 +18823,14 @@
       <c r="D455">
         <v>0.97169524636633298</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E455">
+        <v>0.97105676414896414</v>
+      </c>
+      <c r="F455">
+        <v>0.97139817598214573</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>47</v>
       </c>
@@ -16107,8 +18843,14 @@
       <c r="D456">
         <v>0.9812940898579765</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E456">
+        <v>0.98276572040902355</v>
+      </c>
+      <c r="F456">
+        <v>0.98193841702913121</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>47</v>
       </c>
@@ -16121,8 +18863,14 @@
       <c r="D457">
         <v>0.95551987883805389</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E457">
+        <v>0.95069216969793746</v>
+      </c>
+      <c r="F457">
+        <v>0.95333932063353388</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>47</v>
       </c>
@@ -16135,8 +18883,14 @@
       <c r="D458">
         <v>0.97432865333193575</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E458">
+        <v>0.97226636583530091</v>
+      </c>
+      <c r="F458">
+        <v>0.97339134654670645</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>47</v>
       </c>
@@ -16149,8 +18903,14 @@
       <c r="D459">
         <v>0.96153926078178542</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E459">
+        <v>0.96085317743276266</v>
+      </c>
+      <c r="F459">
+        <v>0.96122126834490762</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>47</v>
       </c>
@@ -16163,8 +18923,14 @@
       <c r="D460">
         <v>0.9668695225621019</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E460">
+        <v>0.96518645463513186</v>
+      </c>
+      <c r="F460">
+        <v>0.96610398250201301</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>47</v>
       </c>
@@ -16177,8 +18943,14 @@
       <c r="D461">
         <v>0.96954022266863948</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E461">
+        <v>0.96793447602108451</v>
+      </c>
+      <c r="F461">
+        <v>0.96880214958915778</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>47</v>
       </c>
@@ -16191,8 +18963,14 @@
       <c r="D462">
         <v>0.95076004094133337</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E462">
+        <v>0.9509073415017103</v>
+      </c>
+      <c r="F462">
+        <v>0.9507934453883381</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>47</v>
       </c>
@@ -16205,8 +18983,14 @@
       <c r="D463">
         <v>0.97812317529277715</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E463">
+        <v>0.97613511958727284</v>
+      </c>
+      <c r="F463">
+        <v>0.97721968022920958</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>47</v>
       </c>
@@ -16219,8 +19003,14 @@
       <c r="D464">
         <v>0.98341694429052029</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E464">
+        <v>0.9824442496885325</v>
+      </c>
+      <c r="F464">
+        <v>0.98296501959510307</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>47</v>
       </c>
@@ -16233,8 +19023,14 @@
       <c r="D465">
         <v>0.96838548737762442</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E465">
+        <v>0.96710141768480751</v>
+      </c>
+      <c r="F465">
+        <v>0.96779658061892804</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>47</v>
       </c>
@@ -16247,8 +19043,14 @@
       <c r="D466">
         <v>0.95039190011125307</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E466">
+        <v>0.94916034740622401</v>
+      </c>
+      <c r="F466">
+        <v>0.94981163220889309</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>47</v>
       </c>
@@ -16261,8 +19063,14 @@
       <c r="D467">
         <v>0.9743707466462308</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E467">
+        <v>0.97234771138567011</v>
+      </c>
+      <c r="F467">
+        <v>0.97345241308981956</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>47</v>
       </c>
@@ -16275,8 +19083,14 @@
       <c r="D468">
         <v>0.9729156464525448</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E468">
+        <v>0.97018211902467377</v>
+      </c>
+      <c r="F468">
+        <v>0.97167833074713661</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>47</v>
       </c>
@@ -16289,8 +19103,14 @@
       <c r="D469">
         <v>0.95896045404312791</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E469">
+        <v>0.95635554036267767</v>
+      </c>
+      <c r="F469">
+        <v>0.95777628987731911</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>47</v>
       </c>
@@ -16303,8 +19123,14 @@
       <c r="D470">
         <v>0.96219126600725646</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E470">
+        <v>0.96126406517068907</v>
+      </c>
+      <c r="F470">
+        <v>0.96175578142504148</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>47</v>
       </c>
@@ -16317,8 +19143,14 @@
       <c r="D471">
         <v>0.9529905718776307</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E471">
+        <v>0.95176491870527968</v>
+      </c>
+      <c r="F471">
+        <v>0.95243011901046182</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>47</v>
       </c>
@@ -16331,8 +19163,14 @@
       <c r="D472">
         <v>0.9753970844955463</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E472">
+        <v>0.97414950799596411</v>
+      </c>
+      <c r="F472">
+        <v>0.97482634249388056</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>47</v>
       </c>
@@ -16345,8 +19183,14 @@
       <c r="D473">
         <v>0.97774743951549592</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E473">
+        <v>0.97505441452850616</v>
+      </c>
+      <c r="F473">
+        <v>0.97652916043704552</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>47</v>
       </c>
@@ -16359,8 +19203,14 @@
       <c r="D474">
         <v>0.95750014618209034</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E474">
+        <v>0.95599816956191408</v>
+      </c>
+      <c r="F474">
+        <v>0.95682040162784188</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>47</v>
       </c>
@@ -16373,8 +19223,14 @@
       <c r="D475">
         <v>0.96244699422379676</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E475">
+        <v>0.96100394371543507</v>
+      </c>
+      <c r="F475">
+        <v>0.96178069717367509</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>47</v>
       </c>
@@ -16387,8 +19243,14 @@
       <c r="D476">
         <v>0.97498826936796634</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E476">
+        <v>0.97389438753549507</v>
+      </c>
+      <c r="F476">
+        <v>0.97448626666803007</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>47</v>
       </c>
@@ -16401,8 +19263,14 @@
       <c r="D477">
         <v>0.96973619801753141</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E477">
+        <v>0.96770216955587407</v>
+      </c>
+      <c r="F477">
+        <v>0.96881147578009685</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>47</v>
       </c>
@@ -16415,8 +19283,14 @@
       <c r="D478">
         <v>0.97525796725520797</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E478">
+        <v>0.97389365279165119</v>
+      </c>
+      <c r="F478">
+        <v>0.97463470415228504</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>47</v>
       </c>
@@ -16429,8 +19303,14 @@
       <c r="D479">
         <v>0.96176982319138937</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E479">
+        <v>0.96204513129434988</v>
+      </c>
+      <c r="F479">
+        <v>0.9618775097061657</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>47</v>
       </c>
@@ -16443,8 +19323,14 @@
       <c r="D480">
         <v>0.95238391811917256</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E480">
+        <v>0.9518314665195714</v>
+      </c>
+      <c r="F480">
+        <v>0.95212576189473974</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>47</v>
       </c>
@@ -16457,8 +19343,14 @@
       <c r="D481">
         <v>0.97032748860259532</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E481">
+        <v>0.96906962708788447</v>
+      </c>
+      <c r="F481">
+        <v>0.96974770367153429</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>47</v>
       </c>
@@ -16471,8 +19363,14 @@
       <c r="D482">
         <v>0.96283447975678493</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E482">
+        <v>0.96093006771143186</v>
+      </c>
+      <c r="F482">
+        <v>0.96197048453881473</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>47</v>
       </c>
@@ -16485,8 +19383,14 @@
       <c r="D483">
         <v>0.9625961367011826</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E483">
+        <v>0.96290928955169375</v>
+      </c>
+      <c r="F483">
+        <v>0.96272393301553749</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>351</v>
       </c>
@@ -16499,8 +19403,14 @@
       <c r="D484">
         <v>0.99159958223312628</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E484">
+        <v>0.98705810719417364</v>
+      </c>
+      <c r="F484">
+        <v>0.98955309837525951</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>351</v>
       </c>
@@ -16513,8 +19423,14 @@
       <c r="D485">
         <v>0.98420975499842334</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E485">
+        <v>0.98773842631008668</v>
+      </c>
+      <c r="F485">
+        <v>0.98577274102350643</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>131</v>
       </c>
@@ -16527,8 +19443,14 @@
       <c r="D486">
         <v>0.95763115157537326</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E486">
+        <v>0.95676660249460543</v>
+      </c>
+      <c r="F486">
+        <v>0.95723241939677328</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>131</v>
       </c>
@@ -16541,8 +19463,14 @@
       <c r="D487">
         <v>0.9755412500895011</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E487">
+        <v>0.97416207350626105</v>
+      </c>
+      <c r="F487">
+        <v>0.97491134351067277</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>135</v>
       </c>
@@ -16555,8 +19483,14 @@
       <c r="D488">
         <v>0.97385956154689468</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E488">
+        <v>0.97053196678306908</v>
+      </c>
+      <c r="F488">
+        <v>0.97224172534508457</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>222</v>
       </c>
@@ -16568,6 +19502,12 @@
       </c>
       <c r="D489">
         <v>12453.896315446877</v>
+      </c>
+      <c r="E489">
+        <v>12453.876470901054</v>
+      </c>
+      <c r="F489">
+        <v>12453.876470901061</v>
       </c>
     </row>
   </sheetData>
